--- a/results_cnn_subnetwork_evaluation/pcc/summary.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40663C5-68D7-4502-86E5-CB52330FF71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7641760-29BC-4FE4-8342-69BFE26421FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcc" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="33">
   <si>
     <t>sr</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,14 @@
     <t>sigma=0.05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>exponential graph spectral filtering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>truncated graph spectral filtering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -214,7 +222,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -494,16 +502,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="A5:B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.44140625" customWidth="1"/>
+    <col min="1" max="2" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -559,7 +565,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -611,7 +617,7 @@
         <v>9.7565309936118432</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -663,7 +669,7 @@
         <v>5.9024255132996721</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -715,7 +721,7 @@
         <v>9.6316297451622628</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -771,7 +777,7 @@
         <v>10.553686888253409</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -823,7 +829,7 @@
         <v>8.9596963179764817</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -875,7 +881,7 @@
         <v>8.2430478321177478</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -927,7 +933,7 @@
         <v>8.3556750707367211</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -979,7 +985,7 @@
         <v>7.9643561276526569</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1031,7 +1037,7 @@
         <v>6.8342312410342938</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1083,12 +1089,12 @@
         <v>7.116788860116058</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>92.284209494315121</v>
@@ -1115,7 +1121,7 @@
         <v>7</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="M12">
         <v>3.5999390031185081</v>
@@ -1139,7 +1145,7 @@
         <v>11.828700898935336</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1191,7 +1197,7 @@
         <v>8.7161297009318943</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1243,12 +1249,12 @@
         <v>7.5120690159434105</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>91.400317765147904</v>
@@ -1275,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M15">
         <v>4.4705871326314179</v>
@@ -1299,7 +1305,7 @@
         <v>7.1943442199999996</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1351,7 +1357,7 @@
         <v>7.3197816968004066</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1403,7 +1409,7 @@
         <v>6.6847512599680599</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1455,7 +1461,7 @@
         <v>6.5615932488945345</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>1</v>
@@ -1563,7 +1569,7 @@
         <v>11.060437347759546</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>2</v>
@@ -1615,7 +1621,7 @@
         <v>6.3931839578006242</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>3</v>
@@ -1667,7 +1673,7 @@
         <v>11.016794446797121</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1723,7 +1729,7 @@
         <v>12.975199093257455</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>9.8361171493471335</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1827,7 +1833,7 @@
         <v>9.1124239201893804</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1879,7 +1885,7 @@
         <v>8.9944066091442814</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -1931,7 +1937,7 @@
         <v>8.5926586855477538</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,7 +1989,7 @@
         <v>7.669452785779991</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -2035,12 +2041,12 @@
         <v>7.9277731795846682</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <v>91.82253246441546</v>
@@ -2067,7 +2073,7 @@
         <v>7</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="M31">
         <v>3.9149482695639635</v>
@@ -2091,7 +2097,7 @@
         <v>12.854998500501491</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -2143,7 +2149,7 @@
         <v>9.9665946493410544</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -2195,12 +2201,12 @@
         <v>8.9120943278613147</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>90.939285085015939</v>
@@ -2227,7 +2233,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M34">
         <v>4.8263946570398071</v>
@@ -2251,7 +2257,7 @@
         <v>8.026194535179302</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
@@ -2303,7 +2309,7 @@
         <v>8.4687472346957708</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -2355,7 +2361,7 @@
         <v>7.7870210186206075</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -2715,12 +2721,12 @@
       <selection activeCell="A5" sqref="A5:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.44140625" customWidth="1"/>
+    <col min="1" max="2" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2776,7 +2782,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -2828,7 +2834,7 @@
         <v>9.7565309936118432</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -2880,7 +2886,7 @@
         <v>5.9024255132996721</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -2932,7 +2938,7 @@
         <v>9.6316297451622628</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -2988,7 +2994,7 @@
         <v>10.553686888253409</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -3040,7 +3046,7 @@
         <v>8.9596963179764817</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -3092,7 +3098,7 @@
         <v>8.2430478321177478</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -3144,7 +3150,7 @@
         <v>8.3556750707367211</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -3196,7 +3202,7 @@
         <v>7.9643561276526569</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -3248,7 +3254,7 @@
         <v>6.8342312410342938</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -3300,7 +3306,7 @@
         <v>7.116788860116058</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3356,7 +3362,7 @@
         <v>8.865893448852594</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3408,7 +3414,7 @@
         <v>8.7887226951922095</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -3460,7 +3466,7 @@
         <v>7.87071412390031</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -3512,7 +3518,7 @@
         <v>10.092527172831465</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -3564,7 +3570,7 @@
         <v>8.898203418996065</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -3616,7 +3622,7 @@
         <v>7.2328466977177284</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -3672,7 +3678,7 @@
         <v>11.828700898935336</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -3724,7 +3730,7 @@
         <v>8.7161297009318943</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -3776,7 +3782,7 @@
         <v>7.5120690159434105</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -3832,7 +3838,7 @@
         <v>7.1943442199999996</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -3884,7 +3890,7 @@
         <v>7.3197816968004066</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -3936,7 +3942,7 @@
         <v>6.6847512599680599</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -3988,7 +3994,7 @@
         <v>6.5615932488945345</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -4044,7 +4050,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>1</v>
@@ -4096,7 +4102,7 @@
         <v>11.060437347759546</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>2</v>
@@ -4148,7 +4154,7 @@
         <v>6.3931839578006242</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>3</v>
@@ -4200,7 +4206,7 @@
         <v>11.016794446797121</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -4256,7 +4262,7 @@
         <v>12.975199093257455</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -4308,7 +4314,7 @@
         <v>9.8361171493471335</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -4360,7 +4366,7 @@
         <v>9.1124239201893804</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
@@ -4412,7 +4418,7 @@
         <v>8.9944066091442814</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
@@ -4464,7 +4470,7 @@
         <v>8.5926586855477538</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
@@ -4516,7 +4522,7 @@
         <v>7.669452785779991</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
@@ -4568,7 +4574,7 @@
         <v>7.9277731795846682</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -4624,7 +4630,7 @@
         <v>11.554035658439989</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
@@ -4676,7 +4682,7 @@
         <v>11.138494109285945</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -4728,7 +4734,7 @@
         <v>9.1801992128164915</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -4780,7 +4786,7 @@
         <v>11.568027342195736</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -4832,7 +4838,7 @@
         <v>9.6866206307276492</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -4884,7 +4890,7 @@
         <v>8.0994642768284919</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
@@ -4940,7 +4946,7 @@
         <v>12.854998500501491</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -4992,7 +4998,7 @@
         <v>9.9665946493410544</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -5044,7 +5050,7 @@
         <v>8.9120943278613147</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
@@ -5100,7 +5106,7 @@
         <v>8.026194535179302</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -5152,7 +5158,7 @@
         <v>8.4687472346957708</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
@@ -5204,7 +5210,7 @@
         <v>7.7870210186206075</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
@@ -5258,12 +5264,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="L5:L11"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="L12:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="L18:L20"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="L43:L45"/>
     <mergeCell ref="B46:B49"/>
@@ -5274,6 +5274,12 @@
     <mergeCell ref="L30:L36"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="L37:L42"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="L5:L11"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="L12:L17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="L18:L20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I4 C6:I24">

--- a/results_cnn_subnetwork_evaluation/pcc/summary.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/summary.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7641760-29BC-4FE4-8342-69BFE26421FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A1D062-7189-41A0-A06F-5C45655002DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="pcc" sheetId="1" r:id="rId1"/>
-    <sheet name="pcc_copy" sheetId="2" r:id="rId2"/>
+    <sheet name="pcc_20250904" sheetId="3" r:id="rId1"/>
+    <sheet name="pcc" sheetId="1" r:id="rId2"/>
+    <sheet name="pcc_copy" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="38">
   <si>
     <t>sr</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +169,26 @@
     <t>truncated graph spectral filtering</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>generalized_surface_laplacian_filtering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigma=0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigma=0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigma=0.005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigma=0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -209,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,6 +240,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,10 +571,3185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA93761-7CAE-402E-BF36-B12634FF117D}">
+  <dimension ref="A1:S67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S1" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>93.101364775358491</v>
+      </c>
+      <c r="D2" s="1">
+        <v>91.326663725464783</v>
+      </c>
+      <c r="E2" s="1">
+        <v>89.722561037148537</v>
+      </c>
+      <c r="F2" s="1">
+        <v>83.857204647099024</v>
+      </c>
+      <c r="G2" s="1">
+        <v>76.242949045118635</v>
+      </c>
+      <c r="H2" s="1">
+        <v>60.40277741733636</v>
+      </c>
+      <c r="I2" s="1">
+        <v>47.740900296138662</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>3.4649270444699574</v>
+      </c>
+      <c r="N2">
+        <v>4.4611797621615326</v>
+      </c>
+      <c r="O2">
+        <v>4.7712065248821434</v>
+      </c>
+      <c r="P2">
+        <v>5.3965689103010375</v>
+      </c>
+      <c r="Q2">
+        <v>7.9323757260741923</v>
+      </c>
+      <c r="R2">
+        <v>9.9900413492801565</v>
+      </c>
+      <c r="S2">
+        <v>9.7565309936118432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>92.9174329651064</v>
+      </c>
+      <c r="D3" s="1">
+        <v>92.708959420064204</v>
+      </c>
+      <c r="E3" s="1">
+        <v>92.772878658119907</v>
+      </c>
+      <c r="F3" s="1">
+        <v>91.85156157636888</v>
+      </c>
+      <c r="G3" s="1">
+        <v>90.250030997961346</v>
+      </c>
+      <c r="H3" s="1">
+        <v>82.095390098530245</v>
+      </c>
+      <c r="I3" s="1">
+        <v>69.856172342898006</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>3.5837407947350735</v>
+      </c>
+      <c r="N3">
+        <v>3.5380215711796903</v>
+      </c>
+      <c r="O3">
+        <v>3.3884907833277103</v>
+      </c>
+      <c r="P3">
+        <v>3.9918184678327333</v>
+      </c>
+      <c r="Q3">
+        <v>4.0829675213353749</v>
+      </c>
+      <c r="R3">
+        <v>5.8309886371269632</v>
+      </c>
+      <c r="S3">
+        <v>5.9024255132996721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>89.053336678229613</v>
+      </c>
+      <c r="D4" s="1">
+        <v>87.986349362883772</v>
+      </c>
+      <c r="E4" s="1">
+        <v>86.416240624918913</v>
+      </c>
+      <c r="F4" s="1">
+        <v>74.093123642938082</v>
+      </c>
+      <c r="G4" s="1">
+        <v>69.399602649388555</v>
+      </c>
+      <c r="H4" s="1">
+        <v>61.120531607828212</v>
+      </c>
+      <c r="I4" s="1">
+        <v>50.508830814568753</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>5.4385382756811014</v>
+      </c>
+      <c r="N4">
+        <v>5.4024441408924888</v>
+      </c>
+      <c r="O4">
+        <v>5.6964067574908341</v>
+      </c>
+      <c r="P4">
+        <v>7.4383055835405463</v>
+      </c>
+      <c r="Q4">
+        <v>7.4880994431935202</v>
+      </c>
+      <c r="R4">
+        <v>9.6490657247660767</v>
+      </c>
+      <c r="S4">
+        <v>9.6316297451622628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="49">
+        <v>93.185007367422443</v>
+      </c>
+      <c r="D5" s="49">
+        <v>91.370121425502532</v>
+      </c>
+      <c r="E5" s="49">
+        <v>89.994420366958181</v>
+      </c>
+      <c r="F5" s="49">
+        <v>84.290409086583779</v>
+      </c>
+      <c r="G5" s="49">
+        <v>75.621106872320098</v>
+      </c>
+      <c r="H5" s="49">
+        <v>58.8706563205564</v>
+      </c>
+      <c r="I5" s="49">
+        <v>46.32961646150342</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="49">
+        <v>3.6619561111771368</v>
+      </c>
+      <c r="N5" s="49">
+        <v>4.6143874243375196</v>
+      </c>
+      <c r="O5" s="49">
+        <v>5.3315123402260154</v>
+      </c>
+      <c r="P5" s="49">
+        <v>5.7179965627221696</v>
+      </c>
+      <c r="Q5" s="49">
+        <v>8.4310692711108732</v>
+      </c>
+      <c r="R5" s="49">
+        <v>10.28075634006936</v>
+      </c>
+      <c r="S5" s="49">
+        <v>9.6374387848342185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="47">
+        <v>93.554612640824473</v>
+      </c>
+      <c r="D6" s="47">
+        <v>91.290391785396068</v>
+      </c>
+      <c r="E6" s="47">
+        <v>90.182726494173849</v>
+      </c>
+      <c r="F6" s="47">
+        <v>84.117968148513398</v>
+      </c>
+      <c r="G6" s="47">
+        <v>75.158948895174973</v>
+      </c>
+      <c r="H6" s="47">
+        <v>58.794747359406223</v>
+      </c>
+      <c r="I6" s="47">
+        <v>45.410842654348222</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="47">
+        <v>3.7174639907805358</v>
+      </c>
+      <c r="N6" s="47">
+        <v>4.9214624865565453</v>
+      </c>
+      <c r="O6" s="47">
+        <v>5.1531923392101957</v>
+      </c>
+      <c r="P6" s="47">
+        <v>5.5156666537437076</v>
+      </c>
+      <c r="Q6" s="47">
+        <v>7.8674326685582816</v>
+      </c>
+      <c r="R6" s="47">
+        <v>10.95810753677727</v>
+      </c>
+      <c r="S6" s="47">
+        <v>9.3118787326083883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="52"/>
+      <c r="B7" s="3"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4">
+        <v>90.743031225760305</v>
+      </c>
+      <c r="D8" s="6">
+        <v>90.558456388031033</v>
+      </c>
+      <c r="E8" s="7">
+        <v>87.262271588277869</v>
+      </c>
+      <c r="F8" s="8">
+        <v>78.577297381465243</v>
+      </c>
+      <c r="G8" s="9">
+        <v>70.24104014740611</v>
+      </c>
+      <c r="H8" s="10">
+        <v>59.736413521454907</v>
+      </c>
+      <c r="I8" s="11">
+        <v>51.197328696615031</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="5">
+        <v>4.8806090516383778</v>
+      </c>
+      <c r="N8" s="6">
+        <v>5.2851988903703244</v>
+      </c>
+      <c r="O8" s="7">
+        <v>4.8238966972331641</v>
+      </c>
+      <c r="P8" s="8">
+        <v>6.974536636683756</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>9.2304087271302979</v>
+      </c>
+      <c r="R8" s="10">
+        <v>10.665388762739139</v>
+      </c>
+      <c r="S8" s="11">
+        <v>10.51565574205978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="12">
+        <v>90.415439003220897</v>
+      </c>
+      <c r="D9" s="13">
+        <v>89.814940729014367</v>
+      </c>
+      <c r="E9" s="14">
+        <v>87.669388720202306</v>
+      </c>
+      <c r="F9" s="15">
+        <v>78.36073553116087</v>
+      </c>
+      <c r="G9" s="16">
+        <v>72.842913866036909</v>
+      </c>
+      <c r="H9" s="17">
+        <v>64.104300210209416</v>
+      </c>
+      <c r="I9" s="18">
+        <v>50.678999529984402</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="12">
+        <v>4.3771898545525394</v>
+      </c>
+      <c r="N9" s="13">
+        <v>4.8102021327673077</v>
+      </c>
+      <c r="O9" s="14">
+        <v>5.1244776953000404</v>
+      </c>
+      <c r="P9" s="15">
+        <v>6.7090896491676757</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>6.9474061250406676</v>
+      </c>
+      <c r="R9" s="17">
+        <v>8.7725898130229734</v>
+      </c>
+      <c r="S9" s="18">
+        <v>10.122503933663269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="19">
+        <v>89.744360533683974</v>
+      </c>
+      <c r="D10" s="20">
+        <v>88.562680761367588</v>
+      </c>
+      <c r="E10" s="21">
+        <v>85.831143291320302</v>
+      </c>
+      <c r="F10" s="22">
+        <v>78.199453859174113</v>
+      </c>
+      <c r="G10" s="23">
+        <v>72.477501247127293</v>
+      </c>
+      <c r="H10" s="24">
+        <v>61.501385536783772</v>
+      </c>
+      <c r="I10" s="25">
+        <v>48.009233067183388</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="19">
+        <v>4.8375787552315348</v>
+      </c>
+      <c r="N10" s="20">
+        <v>5.5506447101412197</v>
+      </c>
+      <c r="O10" s="21">
+        <v>5.51729581219048</v>
+      </c>
+      <c r="P10" s="22">
+        <v>6.8895579966906269</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>7.5599635997137069</v>
+      </c>
+      <c r="R10" s="24">
+        <v>9.5345121476910375</v>
+      </c>
+      <c r="S10" s="25">
+        <v>9.0165863957156382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="26">
+        <v>89.789277300553366</v>
+      </c>
+      <c r="D11" s="27">
+        <v>87.91866134943497</v>
+      </c>
+      <c r="E11" s="28">
+        <v>85.159136324708669</v>
+      </c>
+      <c r="F11" s="29">
+        <v>77.710323330363281</v>
+      </c>
+      <c r="G11" s="30">
+        <v>72.226025599990777</v>
+      </c>
+      <c r="H11" s="31">
+        <v>60.941507567827863</v>
+      </c>
+      <c r="I11" s="32">
+        <v>49.903116232262683</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="26">
+        <v>4.6940722024745023</v>
+      </c>
+      <c r="N11" s="27">
+        <v>5.6567708137680039</v>
+      </c>
+      <c r="O11" s="28">
+        <v>5.8044603265898038</v>
+      </c>
+      <c r="P11" s="29">
+        <v>6.435967497595227</v>
+      </c>
+      <c r="Q11" s="30">
+        <v>7.6968473293259549</v>
+      </c>
+      <c r="R11" s="31">
+        <v>8.8311039517075329</v>
+      </c>
+      <c r="S11" s="32">
+        <v>7.7737609598556778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="39">
+        <v>89.195736987344191</v>
+      </c>
+      <c r="D12" s="39">
+        <v>87.870783195933072</v>
+      </c>
+      <c r="E12" s="39">
+        <v>85.432613315570777</v>
+      </c>
+      <c r="F12" s="39">
+        <v>77.406350112601885</v>
+      </c>
+      <c r="G12" s="39">
+        <v>70.714345856509723</v>
+      </c>
+      <c r="H12" s="39">
+        <v>60.833876878981087</v>
+      </c>
+      <c r="I12" s="39">
+        <v>50.739550803495973</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="39">
+        <v>5.4617524982579706</v>
+      </c>
+      <c r="N12" s="39">
+        <v>5.5853780125931696</v>
+      </c>
+      <c r="O12" s="39">
+        <v>5.2683103465564178</v>
+      </c>
+      <c r="P12" s="39">
+        <v>7.3523758683201912</v>
+      </c>
+      <c r="Q12" s="39">
+        <v>8.2336944433872024</v>
+      </c>
+      <c r="R12" s="39">
+        <v>8.8747715419956741</v>
+      </c>
+      <c r="S12" s="39">
+        <v>8.8234552695700081</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>92.432864182792827</v>
+      </c>
+      <c r="D13">
+        <v>91.019403282035299</v>
+      </c>
+      <c r="E13">
+        <v>88.109796220843876</v>
+      </c>
+      <c r="F13">
+        <v>81.021009408962598</v>
+      </c>
+      <c r="G13">
+        <v>74.963768429369338</v>
+      </c>
+      <c r="H13">
+        <v>62.069994838478991</v>
+      </c>
+      <c r="I13">
+        <v>50.038301946095267</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>4.2108570413798603</v>
+      </c>
+      <c r="N13">
+        <v>4.5462104148028173</v>
+      </c>
+      <c r="O13">
+        <v>5.5275766558417514</v>
+      </c>
+      <c r="P13">
+        <v>5.7946099467318044</v>
+      </c>
+      <c r="Q13">
+        <v>7.3784840362541857</v>
+      </c>
+      <c r="R13">
+        <v>9.4123823396153199</v>
+      </c>
+      <c r="S13">
+        <v>10.553686888253409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14">
+        <v>91.096670386422005</v>
+      </c>
+      <c r="D14">
+        <v>91.461592805012742</v>
+      </c>
+      <c r="E14">
+        <v>90.880088351398641</v>
+      </c>
+      <c r="F14">
+        <v>90.735548462068579</v>
+      </c>
+      <c r="G14">
+        <v>89.142233064299873</v>
+      </c>
+      <c r="H14">
+        <v>78.28085306389616</v>
+      </c>
+      <c r="I14">
+        <v>59.137720337834523</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14">
+        <v>4.4913349382120487</v>
+      </c>
+      <c r="N14">
+        <v>4.3617133625626803</v>
+      </c>
+      <c r="O14">
+        <v>4.3741571728634234</v>
+      </c>
+      <c r="P14">
+        <v>4.4188066662484271</v>
+      </c>
+      <c r="Q14">
+        <v>4.681135124851953</v>
+      </c>
+      <c r="R14">
+        <v>6.1678631460711726</v>
+      </c>
+      <c r="S14">
+        <v>8.9596963179764817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15">
+        <v>91.140892222251068</v>
+      </c>
+      <c r="D15">
+        <v>90.778758178415643</v>
+      </c>
+      <c r="E15">
+        <v>89.714977349861726</v>
+      </c>
+      <c r="F15">
+        <v>87.390577196457869</v>
+      </c>
+      <c r="G15">
+        <v>83.092238398832748</v>
+      </c>
+      <c r="H15">
+        <v>70.535102668131501</v>
+      </c>
+      <c r="I15">
+        <v>59.655400709925409</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15">
+        <v>3.903249518826176</v>
+      </c>
+      <c r="N15">
+        <v>3.7664964814263491</v>
+      </c>
+      <c r="O15">
+        <v>4.9476912235420389</v>
+      </c>
+      <c r="P15">
+        <v>5.2615038980739257</v>
+      </c>
+      <c r="Q15">
+        <v>6.0060955195153962</v>
+      </c>
+      <c r="R15">
+        <v>6.2539940538212067</v>
+      </c>
+      <c r="S15">
+        <v>8.2430478321177478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16">
+        <v>91.081684674319575</v>
+      </c>
+      <c r="D16">
+        <v>89.615221584961816</v>
+      </c>
+      <c r="E16">
+        <v>87.015983413928026</v>
+      </c>
+      <c r="F16">
+        <v>83.854197123965903</v>
+      </c>
+      <c r="G16">
+        <v>79.498579860840763</v>
+      </c>
+      <c r="H16">
+        <v>67.591553560151908</v>
+      </c>
+      <c r="I16">
+        <v>60.079934370827893</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16">
+        <v>4.1769763320911357</v>
+      </c>
+      <c r="N16">
+        <v>4.4319965815185709</v>
+      </c>
+      <c r="O16">
+        <v>5.5037527208820505</v>
+      </c>
+      <c r="P16">
+        <v>5.3798392628543743</v>
+      </c>
+      <c r="Q16">
+        <v>5.5725273050107447</v>
+      </c>
+      <c r="R16">
+        <v>7.3081835420438876</v>
+      </c>
+      <c r="S16">
+        <v>8.3556750707367211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17">
+        <v>91.125234647358553</v>
+      </c>
+      <c r="D17">
+        <v>89.42088887735477</v>
+      </c>
+      <c r="E17">
+        <v>87.390014907856752</v>
+      </c>
+      <c r="F17">
+        <v>82.558392950342721</v>
+      </c>
+      <c r="G17">
+        <v>76.554503066635547</v>
+      </c>
+      <c r="H17">
+        <v>68.832948381906419</v>
+      </c>
+      <c r="I17">
+        <v>60.734689169744833</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17">
+        <v>4.6221295992371028</v>
+      </c>
+      <c r="N17">
+        <v>4.9163096493323497</v>
+      </c>
+      <c r="O17">
+        <v>5.5426219307227429</v>
+      </c>
+      <c r="P17">
+        <v>5.7050937363862548</v>
+      </c>
+      <c r="Q17">
+        <v>6.8546259477775573</v>
+      </c>
+      <c r="R17">
+        <v>8.1181762948449254</v>
+      </c>
+      <c r="S17">
+        <v>7.9643561276526569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18">
+        <v>91.43489995588196</v>
+      </c>
+      <c r="D18">
+        <v>89.699314007906636</v>
+      </c>
+      <c r="E18">
+        <v>87.343725580094414</v>
+      </c>
+      <c r="F18">
+        <v>82.98711638220631</v>
+      </c>
+      <c r="G18">
+        <v>76.157556149563007</v>
+      </c>
+      <c r="H18">
+        <v>66.514009636761557</v>
+      </c>
+      <c r="I18">
+        <v>57.303393627972561</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18">
+        <v>4.2207267229748435</v>
+      </c>
+      <c r="N18">
+        <v>4.8703018061461147</v>
+      </c>
+      <c r="O18">
+        <v>5.3738909709117086</v>
+      </c>
+      <c r="P18">
+        <v>6.1480652659196924</v>
+      </c>
+      <c r="Q18">
+        <v>7.164261588927368</v>
+      </c>
+      <c r="R18">
+        <v>7.8810268777506014</v>
+      </c>
+      <c r="S18">
+        <v>6.8342312410342938</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19">
+        <v>91.676793628549277</v>
+      </c>
+      <c r="D19">
+        <v>89.251879341516798</v>
+      </c>
+      <c r="E19">
+        <v>86.962046961190552</v>
+      </c>
+      <c r="F19">
+        <v>82.437622009417609</v>
+      </c>
+      <c r="G19">
+        <v>76.607245737419888</v>
+      </c>
+      <c r="H19">
+        <v>66.060767538358164</v>
+      </c>
+      <c r="I19">
+        <v>55.414374980175722</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19">
+        <v>4.7069173345915063</v>
+      </c>
+      <c r="N19">
+        <v>4.6424831130497992</v>
+      </c>
+      <c r="O19">
+        <v>5.4445274341465471</v>
+      </c>
+      <c r="P19">
+        <v>7.962565355311968</v>
+      </c>
+      <c r="Q19">
+        <v>8.218537114249818</v>
+      </c>
+      <c r="R19">
+        <v>8.5816848431873041</v>
+      </c>
+      <c r="S19">
+        <v>7.116788860116058</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>92.284209494315121</v>
+      </c>
+      <c r="D20">
+        <v>92.439602995412287</v>
+      </c>
+      <c r="E20">
+        <v>91.842291023278747</v>
+      </c>
+      <c r="F20">
+        <v>88.406972955360061</v>
+      </c>
+      <c r="G20">
+        <v>85.28260625091913</v>
+      </c>
+      <c r="H20">
+        <v>74.806203629212476</v>
+      </c>
+      <c r="I20">
+        <v>65.29531108977298</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20">
+        <v>3.5999390031185081</v>
+      </c>
+      <c r="N20">
+        <v>3.220758354161366</v>
+      </c>
+      <c r="O20">
+        <v>3.2022223500578324</v>
+      </c>
+      <c r="P20">
+        <v>5.6799810489317695</v>
+      </c>
+      <c r="Q20">
+        <v>6.648009735356526</v>
+      </c>
+      <c r="R20">
+        <v>9.5483528538586899</v>
+      </c>
+      <c r="S20">
+        <v>11.828700898935336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21">
+        <v>91.960766673298778</v>
+      </c>
+      <c r="D21">
+        <v>92.220411364573508</v>
+      </c>
+      <c r="E21">
+        <v>91.683584344731941</v>
+      </c>
+      <c r="F21">
+        <v>87.011952237187771</v>
+      </c>
+      <c r="G21">
+        <v>81.957329504003781</v>
+      </c>
+      <c r="H21">
+        <v>69.127008019100515</v>
+      </c>
+      <c r="I21">
+        <v>56.176270267620538</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21">
+        <v>3.853047307727675</v>
+      </c>
+      <c r="N21">
+        <v>3.2863366199965514</v>
+      </c>
+      <c r="O21">
+        <v>2.9970219859999974</v>
+      </c>
+      <c r="P21">
+        <v>5.3994059165889148</v>
+      </c>
+      <c r="Q21">
+        <v>6.2705801506082341</v>
+      </c>
+      <c r="R21">
+        <v>8.3867961556623865</v>
+      </c>
+      <c r="S21">
+        <v>8.7161297009318943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22">
+        <v>91.820203173614544</v>
+      </c>
+      <c r="D22">
+        <v>91.753518629053858</v>
+      </c>
+      <c r="E22">
+        <v>91.208923375923106</v>
+      </c>
+      <c r="F22">
+        <v>88.86443942710001</v>
+      </c>
+      <c r="G22">
+        <v>84.735274526596243</v>
+      </c>
+      <c r="H22">
+        <v>70.399570930544385</v>
+      </c>
+      <c r="I22">
+        <v>54.831786318797448</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22">
+        <v>3.7261369541242311</v>
+      </c>
+      <c r="N22">
+        <v>3.9516912887982287</v>
+      </c>
+      <c r="O22">
+        <v>3.651622745729187</v>
+      </c>
+      <c r="P22">
+        <v>5.3617656675424117</v>
+      </c>
+      <c r="Q22">
+        <v>5.2887601656881946</v>
+      </c>
+      <c r="R22">
+        <v>7.7897678257313983</v>
+      </c>
+      <c r="S22">
+        <v>7.5120690159434105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>91.400317765147904</v>
+      </c>
+      <c r="D23">
+        <v>89.262917499286303</v>
+      </c>
+      <c r="E23">
+        <v>87.516457754824899</v>
+      </c>
+      <c r="F23">
+        <v>83.407858199465394</v>
+      </c>
+      <c r="G23">
+        <v>75.234382073662701</v>
+      </c>
+      <c r="H23">
+        <v>65.65169537222063</v>
+      </c>
+      <c r="I23">
+        <v>55.684469588837267</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23">
+        <v>4.4705871326314179</v>
+      </c>
+      <c r="N23">
+        <v>5.060923633729546</v>
+      </c>
+      <c r="O23">
+        <v>5.305586982280901</v>
+      </c>
+      <c r="P23">
+        <v>6.0962529172659528</v>
+      </c>
+      <c r="Q23">
+        <v>8.1913371546081049</v>
+      </c>
+      <c r="R23">
+        <v>8.0946840176792261</v>
+      </c>
+      <c r="S23">
+        <v>7.1943442199999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24">
+        <v>91.311943298240763</v>
+      </c>
+      <c r="D24">
+        <v>89.370127192565121</v>
+      </c>
+      <c r="E24">
+        <v>87.091004247441589</v>
+      </c>
+      <c r="F24">
+        <v>83.178669365651956</v>
+      </c>
+      <c r="G24">
+        <v>75.695481794825213</v>
+      </c>
+      <c r="H24">
+        <v>65.348613165627143</v>
+      </c>
+      <c r="I24">
+        <v>54.669143620042853</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24">
+        <v>4.0467549685577549</v>
+      </c>
+      <c r="N24">
+        <v>5.3874637080888661</v>
+      </c>
+      <c r="O24">
+        <v>6.1870364160372322</v>
+      </c>
+      <c r="P24">
+        <v>6.3559389875083614</v>
+      </c>
+      <c r="Q24">
+        <v>7.9849257442389989</v>
+      </c>
+      <c r="R24">
+        <v>7.6304645570517318</v>
+      </c>
+      <c r="S24">
+        <v>7.3197816968004066</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25">
+        <v>91.56461849439296</v>
+      </c>
+      <c r="D25">
+        <v>89.518764579855088</v>
+      </c>
+      <c r="E25">
+        <v>87.394233514130747</v>
+      </c>
+      <c r="F25">
+        <v>82.944918785341287</v>
+      </c>
+      <c r="G25">
+        <v>75.404545022015753</v>
+      </c>
+      <c r="H25">
+        <v>65.65904549347313</v>
+      </c>
+      <c r="I25">
+        <v>54.944310360239562</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25">
+        <v>4.2430822168081885</v>
+      </c>
+      <c r="N25">
+        <v>5.4170543777535949</v>
+      </c>
+      <c r="O25">
+        <v>5.8153920851000507</v>
+      </c>
+      <c r="P25">
+        <v>6.9734376865550818</v>
+      </c>
+      <c r="Q25">
+        <v>7.4401211191496754</v>
+      </c>
+      <c r="R25">
+        <v>8.4293318255439598</v>
+      </c>
+      <c r="S25">
+        <v>6.6847512599680599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26">
+        <v>91.662871939491964</v>
+      </c>
+      <c r="D26">
+        <v>89.764199228943724</v>
+      </c>
+      <c r="E26">
+        <v>86.941692113830285</v>
+      </c>
+      <c r="F26">
+        <v>82.796866754902723</v>
+      </c>
+      <c r="G26">
+        <v>75.301268465413486</v>
+      </c>
+      <c r="H26">
+        <v>65.471021952323696</v>
+      </c>
+      <c r="I26">
+        <v>54.430251703446103</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26">
+        <v>4.4995201333318091</v>
+      </c>
+      <c r="N26">
+        <v>4.4513457826028322</v>
+      </c>
+      <c r="O26">
+        <v>6.2751627216563541</v>
+      </c>
+      <c r="P26">
+        <v>6.9737819527179798</v>
+      </c>
+      <c r="Q26">
+        <v>8.4546290614947477</v>
+      </c>
+      <c r="R26">
+        <v>8.2387450895919709</v>
+      </c>
+      <c r="S26">
+        <v>6.5615932488945345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>92.567111769713335</v>
+      </c>
+      <c r="D29">
+        <v>90.835858608343599</v>
+      </c>
+      <c r="E29">
+        <v>89.217505339533233</v>
+      </c>
+      <c r="F29">
+        <v>83.237245964288078</v>
+      </c>
+      <c r="G29">
+        <v>75.380430844191011</v>
+      </c>
+      <c r="H29">
+        <v>58.994367187597383</v>
+      </c>
+      <c r="I29">
+        <v>43.622535641382179</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>3.88093621561358</v>
+      </c>
+      <c r="N29">
+        <v>4.8164746829677396</v>
+      </c>
+      <c r="O29">
+        <v>5.2250608386616522</v>
+      </c>
+      <c r="P29">
+        <v>5.6675721086724113</v>
+      </c>
+      <c r="Q29">
+        <v>8.3263283482936075</v>
+      </c>
+      <c r="R29">
+        <v>10.49020927094638</v>
+      </c>
+      <c r="S29">
+        <v>11.060437347759546</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>92.338566773632834</v>
+      </c>
+      <c r="D30">
+        <v>92.22816257293259</v>
+      </c>
+      <c r="E30">
+        <v>92.19353000091759</v>
+      </c>
+      <c r="F30">
+        <v>91.289781910285583</v>
+      </c>
+      <c r="G30">
+        <v>89.68940373291737</v>
+      </c>
+      <c r="H30">
+        <v>81.453332231966129</v>
+      </c>
+      <c r="I30">
+        <v>68.108240193153023</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>4.0483086633488163</v>
+      </c>
+      <c r="N30">
+        <v>3.9020890437152844</v>
+      </c>
+      <c r="O30">
+        <v>3.7923842410048425</v>
+      </c>
+      <c r="P30">
+        <v>4.4242632373638857</v>
+      </c>
+      <c r="Q30">
+        <v>4.2715813123996149</v>
+      </c>
+      <c r="R30">
+        <v>6.1738858238669021</v>
+      </c>
+      <c r="S30">
+        <v>6.3931839578006242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>88.499186482198567</v>
+      </c>
+      <c r="D31">
+        <v>87.5173416768165</v>
+      </c>
+      <c r="E31">
+        <v>85.730415589590905</v>
+      </c>
+      <c r="F31">
+        <v>72.655656749380555</v>
+      </c>
+      <c r="G31">
+        <v>67.884915781227093</v>
+      </c>
+      <c r="H31">
+        <v>59.263790034123531</v>
+      </c>
+      <c r="I31">
+        <v>44.56238292926399</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>5.9037054685544437</v>
+      </c>
+      <c r="N31">
+        <v>5.6982495929152117</v>
+      </c>
+      <c r="O31">
+        <v>6.1857913087331307</v>
+      </c>
+      <c r="P31">
+        <v>8.0751376961596364</v>
+      </c>
+      <c r="Q31">
+        <v>7.9066987943669274</v>
+      </c>
+      <c r="R31">
+        <v>10.433474589731558</v>
+      </c>
+      <c r="S31">
+        <v>11.016794446797121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="50">
+        <v>92.743943918456353</v>
+      </c>
+      <c r="D32" s="50">
+        <v>90.906841077850004</v>
+      </c>
+      <c r="E32" s="50">
+        <v>89.596362118223851</v>
+      </c>
+      <c r="F32" s="50">
+        <v>83.734309403869105</v>
+      </c>
+      <c r="G32" s="50">
+        <v>74.652748888937523</v>
+      </c>
+      <c r="H32" s="50">
+        <v>57.323902151101194</v>
+      </c>
+      <c r="I32" s="50">
+        <v>40.919945092740519</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" s="51">
+        <v>4.1008295898478346</v>
+      </c>
+      <c r="N32" s="51">
+        <v>4.9079307339088283</v>
+      </c>
+      <c r="O32" s="51">
+        <v>5.7609570025011259</v>
+      </c>
+      <c r="P32" s="51">
+        <v>6.0075649499242569</v>
+      </c>
+      <c r="Q32" s="51">
+        <v>8.8943323914628341</v>
+      </c>
+      <c r="R32" s="51">
+        <v>10.73899567380901</v>
+      </c>
+      <c r="S32" s="51">
+        <v>11.129332155415069</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="50">
+        <v>93.165635392664839</v>
+      </c>
+      <c r="D33" s="50">
+        <v>90.85920523977012</v>
+      </c>
+      <c r="E33" s="50">
+        <v>89.707679288920389</v>
+      </c>
+      <c r="F33" s="50">
+        <v>83.363698776731141</v>
+      </c>
+      <c r="G33" s="50">
+        <v>74.097677262333818</v>
+      </c>
+      <c r="H33" s="50">
+        <v>57.134794456840176</v>
+      </c>
+      <c r="I33" s="50">
+        <v>40.018274509819719</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="51">
+        <v>4.1056470507712346</v>
+      </c>
+      <c r="N33" s="51">
+        <v>5.3225573150021113</v>
+      </c>
+      <c r="O33" s="51">
+        <v>5.5812275900125696</v>
+      </c>
+      <c r="P33" s="51">
+        <v>5.9140482887840431</v>
+      </c>
+      <c r="Q33" s="51">
+        <v>8.2733819720933166</v>
+      </c>
+      <c r="R33" s="51">
+        <v>11.561763394666389</v>
+      </c>
+      <c r="S33" s="51">
+        <v>11.160744960903831</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="52"/>
+      <c r="B34" s="3"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:19" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="50">
+        <v>90.338547546507485</v>
+      </c>
+      <c r="D35" s="50">
+        <v>90.057368073731652</v>
+      </c>
+      <c r="E35" s="50">
+        <v>86.619393041257766</v>
+      </c>
+      <c r="F35" s="50">
+        <v>77.702109966907102</v>
+      </c>
+      <c r="G35" s="50">
+        <v>69.034427466753172</v>
+      </c>
+      <c r="H35" s="50">
+        <v>57.944582114322898</v>
+      </c>
+      <c r="I35" s="50">
+        <v>47.829040395718707</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="51">
+        <v>5.228113175531707</v>
+      </c>
+      <c r="N35" s="51">
+        <v>5.7681195680144794</v>
+      </c>
+      <c r="O35" s="51">
+        <v>5.2375318654372807</v>
+      </c>
+      <c r="P35" s="51">
+        <v>7.3085428346949755</v>
+      </c>
+      <c r="Q35" s="51">
+        <v>9.7681083768015284</v>
+      </c>
+      <c r="R35" s="51">
+        <v>11.73315497386734</v>
+      </c>
+      <c r="S35" s="51">
+        <v>11.7507652737303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="50">
+        <v>89.877985191829026</v>
+      </c>
+      <c r="D36" s="50">
+        <v>89.41577807825368</v>
+      </c>
+      <c r="E36" s="50">
+        <v>87.082781307398633</v>
+      </c>
+      <c r="F36" s="50">
+        <v>77.238556230018673</v>
+      </c>
+      <c r="G36" s="50">
+        <v>71.66317504099608</v>
+      </c>
+      <c r="H36" s="50">
+        <v>62.552838189313285</v>
+      </c>
+      <c r="I36" s="50">
+        <v>47.466663324094391</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="51">
+        <v>4.707174804874187</v>
+      </c>
+      <c r="N36" s="51">
+        <v>5.1457136145609086</v>
+      </c>
+      <c r="O36" s="51">
+        <v>5.5561636756495467</v>
+      </c>
+      <c r="P36" s="51">
+        <v>7.260742045736972</v>
+      </c>
+      <c r="Q36" s="51">
+        <v>7.4401556588463977</v>
+      </c>
+      <c r="R36" s="51">
+        <v>9.5596808990429771</v>
+      </c>
+      <c r="S36" s="51">
+        <v>11.16947451289824</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="50">
+        <v>89.136914735423957</v>
+      </c>
+      <c r="D37" s="50">
+        <v>87.886584523876778</v>
+      </c>
+      <c r="E37" s="50">
+        <v>85.182077925908814</v>
+      </c>
+      <c r="F37" s="50">
+        <v>77.204665073899605</v>
+      </c>
+      <c r="G37" s="50">
+        <v>71.096350953893008</v>
+      </c>
+      <c r="H37" s="50">
+        <v>59.379547868813631</v>
+      </c>
+      <c r="I37" s="50">
+        <v>43.699385191741804</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="51">
+        <v>5.3032513228642397</v>
+      </c>
+      <c r="N37" s="51">
+        <v>5.9601094723787273</v>
+      </c>
+      <c r="O37" s="51">
+        <v>6.0286264536941063</v>
+      </c>
+      <c r="P37" s="51">
+        <v>7.5178854114207478</v>
+      </c>
+      <c r="Q37" s="51">
+        <v>8.2470656480477498</v>
+      </c>
+      <c r="R37" s="51">
+        <v>10.424997008411969</v>
+      </c>
+      <c r="S37" s="51">
+        <v>10.44944997276256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="50">
+        <v>89.274625194319114</v>
+      </c>
+      <c r="D38" s="50">
+        <v>87.29547993864854</v>
+      </c>
+      <c r="E38" s="50">
+        <v>84.488892338167688</v>
+      </c>
+      <c r="F38" s="50">
+        <v>76.654213237491902</v>
+      </c>
+      <c r="G38" s="50">
+        <v>71.069540038540808</v>
+      </c>
+      <c r="H38" s="50">
+        <v>58.933686733178469</v>
+      </c>
+      <c r="I38" s="50">
+        <v>45.838147760018337</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="M38" s="51">
+        <v>5.0478825435862662</v>
+      </c>
+      <c r="N38" s="51">
+        <v>6.0118817809267231</v>
+      </c>
+      <c r="O38" s="51">
+        <v>6.2353620101012437</v>
+      </c>
+      <c r="P38" s="51">
+        <v>6.938598968494877</v>
+      </c>
+      <c r="Q38" s="51">
+        <v>8.2164037287020903</v>
+      </c>
+      <c r="R38" s="51">
+        <v>9.7806490267216244</v>
+      </c>
+      <c r="S38" s="51">
+        <v>8.6759855008496167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="50">
+        <v>88.55740772559389</v>
+      </c>
+      <c r="D39" s="50">
+        <v>87.144761736654246</v>
+      </c>
+      <c r="E39" s="50">
+        <v>84.8682808945603</v>
+      </c>
+      <c r="F39" s="50">
+        <v>76.259175178098872</v>
+      </c>
+      <c r="G39" s="50">
+        <v>69.591167130025326</v>
+      </c>
+      <c r="H39" s="50">
+        <v>58.986956532618414</v>
+      </c>
+      <c r="I39" s="50">
+        <v>47.89452176779502</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="3"/>
+      <c r="M39" s="51">
+        <v>5.9396566392688044</v>
+      </c>
+      <c r="N39" s="51">
+        <v>6.0236638418986184</v>
+      </c>
+      <c r="O39" s="51">
+        <v>5.5018254058368621</v>
+      </c>
+      <c r="P39" s="51">
+        <v>8.2000632851191391</v>
+      </c>
+      <c r="Q39" s="51">
+        <v>8.823984448765092</v>
+      </c>
+      <c r="R39" s="51">
+        <v>9.5244872924031299</v>
+      </c>
+      <c r="S39" s="51">
+        <v>9.5389776174584302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>91.954943077771645</v>
+      </c>
+      <c r="D40">
+        <v>90.486053623351509</v>
+      </c>
+      <c r="E40">
+        <v>87.574188580435759</v>
+      </c>
+      <c r="F40">
+        <v>80.195562284133075</v>
+      </c>
+      <c r="G40">
+        <v>73.887556692554313</v>
+      </c>
+      <c r="H40">
+        <v>60.201740744469255</v>
+      </c>
+      <c r="I40">
+        <v>43.97379234137982</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>4.6677178192019442</v>
+      </c>
+      <c r="N40">
+        <v>4.9332992633954884</v>
+      </c>
+      <c r="O40">
+        <v>5.8893270280054093</v>
+      </c>
+      <c r="P40">
+        <v>6.2276780045249982</v>
+      </c>
+      <c r="Q40">
+        <v>7.8100433893753065</v>
+      </c>
+      <c r="R40">
+        <v>10.127273986997725</v>
+      </c>
+      <c r="S40">
+        <v>12.975199093257455</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41">
+        <v>90.642246446502455</v>
+      </c>
+      <c r="D41">
+        <v>91.112891818426803</v>
+      </c>
+      <c r="E41">
+        <v>90.510903269239805</v>
+      </c>
+      <c r="F41">
+        <v>90.384514875799795</v>
+      </c>
+      <c r="G41">
+        <v>88.747243892649067</v>
+      </c>
+      <c r="H41">
+        <v>77.721185641433252</v>
+      </c>
+      <c r="I41">
+        <v>57.390955449525258</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" s="2"/>
+      <c r="M41">
+        <v>4.8046743223783803</v>
+      </c>
+      <c r="N41">
+        <v>4.6267271925378539</v>
+      </c>
+      <c r="O41">
+        <v>4.7167994848022108</v>
+      </c>
+      <c r="P41">
+        <v>4.6380378521606005</v>
+      </c>
+      <c r="Q41">
+        <v>4.941832660679113</v>
+      </c>
+      <c r="R41">
+        <v>6.5489356622072048</v>
+      </c>
+      <c r="S41">
+        <v>9.8361171493471335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42">
+        <v>90.617152023346819</v>
+      </c>
+      <c r="D42">
+        <v>90.05855315992585</v>
+      </c>
+      <c r="E42">
+        <v>89.179945583344406</v>
+      </c>
+      <c r="F42">
+        <v>86.633871646318525</v>
+      </c>
+      <c r="G42">
+        <v>82.414435110979952</v>
+      </c>
+      <c r="H42">
+        <v>69.823014577124326</v>
+      </c>
+      <c r="I42">
+        <v>57.449010771275319</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42">
+        <v>4.2750077328577394</v>
+      </c>
+      <c r="N42">
+        <v>4.2266125705467239</v>
+      </c>
+      <c r="O42">
+        <v>5.2565974786040313</v>
+      </c>
+      <c r="P42">
+        <v>5.7069770284176009</v>
+      </c>
+      <c r="Q42">
+        <v>6.3983299535714817</v>
+      </c>
+      <c r="R42">
+        <v>6.6655406069698175</v>
+      </c>
+      <c r="S42">
+        <v>9.1124239201893804</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43">
+        <v>90.581355357949491</v>
+      </c>
+      <c r="D43">
+        <v>88.97341294355499</v>
+      </c>
+      <c r="E43">
+        <v>86.175206640299365</v>
+      </c>
+      <c r="F43">
+        <v>83.080132284515585</v>
+      </c>
+      <c r="G43">
+        <v>78.599726564969771</v>
+      </c>
+      <c r="H43">
+        <v>66.3934253274236</v>
+      </c>
+      <c r="I43">
+        <v>58.11224589934929</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43">
+        <v>4.4778305644230976</v>
+      </c>
+      <c r="N43">
+        <v>4.8960641145432993</v>
+      </c>
+      <c r="O43">
+        <v>6.1124849117603945</v>
+      </c>
+      <c r="P43">
+        <v>5.8618346048185197</v>
+      </c>
+      <c r="Q43">
+        <v>5.8104015835542553</v>
+      </c>
+      <c r="R43">
+        <v>7.7638343010849269</v>
+      </c>
+      <c r="S43">
+        <v>8.9944066091442814</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44">
+        <v>90.510302373601434</v>
+      </c>
+      <c r="D44">
+        <v>88.824953889297518</v>
+      </c>
+      <c r="E44">
+        <v>86.674942469044325</v>
+      </c>
+      <c r="F44">
+        <v>81.543605709946462</v>
+      </c>
+      <c r="G44">
+        <v>75.271718740593627</v>
+      </c>
+      <c r="H44">
+        <v>67.72658070045415</v>
+      </c>
+      <c r="I44">
+        <v>58.433623636929134</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="2"/>
+      <c r="M44">
+        <v>5.1076806654003626</v>
+      </c>
+      <c r="N44">
+        <v>5.3873200605855445</v>
+      </c>
+      <c r="O44">
+        <v>5.9833392560659284</v>
+      </c>
+      <c r="P44">
+        <v>6.1215105686801499</v>
+      </c>
+      <c r="Q44">
+        <v>7.3159920074958444</v>
+      </c>
+      <c r="R44">
+        <v>8.5044787981464225</v>
+      </c>
+      <c r="S44">
+        <v>8.5926586855477538</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45">
+        <v>90.77523149389998</v>
+      </c>
+      <c r="D45">
+        <v>89.185217369225327</v>
+      </c>
+      <c r="E45">
+        <v>86.832129001570053</v>
+      </c>
+      <c r="F45">
+        <v>82.015640393948175</v>
+      </c>
+      <c r="G45">
+        <v>74.972613257814999</v>
+      </c>
+      <c r="H45">
+        <v>65.417864082249295</v>
+      </c>
+      <c r="I45">
+        <v>55.042441020336085</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" s="2"/>
+      <c r="M45">
+        <v>4.8120651940731003</v>
+      </c>
+      <c r="N45">
+        <v>5.3504041978372019</v>
+      </c>
+      <c r="O45">
+        <v>5.6560471528137661</v>
+      </c>
+      <c r="P45">
+        <v>6.5079634189489424</v>
+      </c>
+      <c r="Q45">
+        <v>7.8749746185986238</v>
+      </c>
+      <c r="R45">
+        <v>8.2835712333162252</v>
+      </c>
+      <c r="S45">
+        <v>7.669452785779991</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46">
+        <v>91.156513297158639</v>
+      </c>
+      <c r="D46">
+        <v>88.573641976087487</v>
+      </c>
+      <c r="E46">
+        <v>86.451346459221952</v>
+      </c>
+      <c r="F46">
+        <v>81.632507264086627</v>
+      </c>
+      <c r="G46">
+        <v>75.528970260459374</v>
+      </c>
+      <c r="H46">
+        <v>64.923306527722815</v>
+      </c>
+      <c r="I46">
+        <v>52.921194726803435</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="M46">
+        <v>5.1638895836383742</v>
+      </c>
+      <c r="N46">
+        <v>5.0488519995067334</v>
+      </c>
+      <c r="O46">
+        <v>5.7263083946480009</v>
+      </c>
+      <c r="P46">
+        <v>8.4617789692496856</v>
+      </c>
+      <c r="Q46">
+        <v>8.7221549652121535</v>
+      </c>
+      <c r="R46">
+        <v>9.1465131387725336</v>
+      </c>
+      <c r="S46">
+        <v>7.9277731795846682</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47">
+        <v>91.82253246441546</v>
+      </c>
+      <c r="D47">
+        <v>91.896415777745617</v>
+      </c>
+      <c r="E47">
+        <v>91.394674914613631</v>
+      </c>
+      <c r="F47">
+        <v>87.656272060375002</v>
+      </c>
+      <c r="G47">
+        <v>84.682281040144346</v>
+      </c>
+      <c r="H47">
+        <v>74.117890215813503</v>
+      </c>
+      <c r="I47">
+        <v>63.870910013856196</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47">
+        <v>3.9149482695639635</v>
+      </c>
+      <c r="N47">
+        <v>3.589321840305093</v>
+      </c>
+      <c r="O47">
+        <v>3.4799273908121431</v>
+      </c>
+      <c r="P47">
+        <v>6.3691039235496678</v>
+      </c>
+      <c r="Q47">
+        <v>7.1884344432619613</v>
+      </c>
+      <c r="R47">
+        <v>9.9643193580169491</v>
+      </c>
+      <c r="S47">
+        <v>12.854998500501491</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48">
+        <v>91.471732407771285</v>
+      </c>
+      <c r="D48">
+        <v>91.769964488705597</v>
+      </c>
+      <c r="E48">
+        <v>91.180992017051111</v>
+      </c>
+      <c r="F48">
+        <v>86.38664903669796</v>
+      </c>
+      <c r="G48">
+        <v>81.249493096897226</v>
+      </c>
+      <c r="H48">
+        <v>68.355216227129773</v>
+      </c>
+      <c r="I48">
+        <v>53.029733747958254</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48">
+        <v>4.1522553462569753</v>
+      </c>
+      <c r="N48">
+        <v>3.5358894026107937</v>
+      </c>
+      <c r="O48">
+        <v>3.3047129205399908</v>
+      </c>
+      <c r="P48">
+        <v>5.7309862288580993</v>
+      </c>
+      <c r="Q48">
+        <v>6.6583739396102182</v>
+      </c>
+      <c r="R48">
+        <v>8.7510237120909835</v>
+      </c>
+      <c r="S48">
+        <v>9.9665946493410544</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49">
+        <v>91.332608054482193</v>
+      </c>
+      <c r="D49">
+        <v>91.231425754845645</v>
+      </c>
+      <c r="E49">
+        <v>90.597149830083694</v>
+      </c>
+      <c r="F49">
+        <v>88.135725315921604</v>
+      </c>
+      <c r="G49">
+        <v>84.001817512899265</v>
+      </c>
+      <c r="H49">
+        <v>69.568688660847371</v>
+      </c>
+      <c r="I49">
+        <v>51.97023149770046</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49">
+        <v>4.0408623904693703</v>
+      </c>
+      <c r="N49">
+        <v>4.3999216872495976</v>
+      </c>
+      <c r="O49">
+        <v>4.0121807110446124</v>
+      </c>
+      <c r="P49">
+        <v>5.7951413265953136</v>
+      </c>
+      <c r="Q49">
+        <v>5.7076633688806142</v>
+      </c>
+      <c r="R49">
+        <v>8.0642529418366511</v>
+      </c>
+      <c r="S49">
+        <v>8.9120943278613147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50">
+        <v>90.939285085015939</v>
+      </c>
+      <c r="D50">
+        <v>88.605955019400824</v>
+      </c>
+      <c r="E50">
+        <v>86.889076427363477</v>
+      </c>
+      <c r="F50">
+        <v>82.745202888013949</v>
+      </c>
+      <c r="G50">
+        <v>74.193922877809172</v>
+      </c>
+      <c r="H50">
+        <v>64.361901696887841</v>
+      </c>
+      <c r="I50">
+        <v>53.540574994800238</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50">
+        <v>4.8263946570398071</v>
+      </c>
+      <c r="N50">
+        <v>5.5502091704736038</v>
+      </c>
+      <c r="O50">
+        <v>5.7255682118789624</v>
+      </c>
+      <c r="P50">
+        <v>6.3545462777704742</v>
+      </c>
+      <c r="Q50">
+        <v>8.7753821655939284</v>
+      </c>
+      <c r="R50">
+        <v>8.7895060348429883</v>
+      </c>
+      <c r="S50">
+        <v>8.026194535179302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51">
+        <v>90.662747049686885</v>
+      </c>
+      <c r="D51">
+        <v>88.710917394992933</v>
+      </c>
+      <c r="E51">
+        <v>86.347967906087078</v>
+      </c>
+      <c r="F51">
+        <v>82.243914313610617</v>
+      </c>
+      <c r="G51">
+        <v>74.525103052451129</v>
+      </c>
+      <c r="H51">
+        <v>64.3418708145431</v>
+      </c>
+      <c r="I51">
+        <v>51.643740343005398</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="M51">
+        <v>4.4243047449169461</v>
+      </c>
+      <c r="N51">
+        <v>5.8569128877443175</v>
+      </c>
+      <c r="O51">
+        <v>6.6988047536453657</v>
+      </c>
+      <c r="P51">
+        <v>6.8865610977264513</v>
+      </c>
+      <c r="Q51">
+        <v>8.7323059467628319</v>
+      </c>
+      <c r="R51">
+        <v>8.207728125190366</v>
+      </c>
+      <c r="S51">
+        <v>8.4687472346957708</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52">
+        <v>90.899292841610901</v>
+      </c>
+      <c r="D52">
+        <v>88.948085897371527</v>
+      </c>
+      <c r="E52">
+        <v>86.880908721434196</v>
+      </c>
+      <c r="F52">
+        <v>82.155903486081598</v>
+      </c>
+      <c r="G52">
+        <v>74.161495083534362</v>
+      </c>
+      <c r="H52">
+        <v>64.451717018186173</v>
+      </c>
+      <c r="I52">
+        <v>52.351511098410676</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L52" s="3"/>
+      <c r="M52">
+        <v>4.7603465716753162</v>
+      </c>
+      <c r="N52">
+        <v>5.8351865971221724</v>
+      </c>
+      <c r="O52">
+        <v>6.2629537493420262</v>
+      </c>
+      <c r="P52">
+        <v>7.5417917734189963</v>
+      </c>
+      <c r="Q52">
+        <v>8.2224877607555094</v>
+      </c>
+      <c r="R52">
+        <v>9.2781225079967449</v>
+      </c>
+      <c r="S52">
+        <v>7.7870210186206075</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53">
+        <v>91.095220817792637</v>
+      </c>
+      <c r="D53">
+        <v>89.240078821684847</v>
+      </c>
+      <c r="E53">
+        <v>86.239435573723185</v>
+      </c>
+      <c r="F53">
+        <v>81.913343329134776</v>
+      </c>
+      <c r="G53">
+        <v>74.171369322340453</v>
+      </c>
+      <c r="H53">
+        <v>64.078210700624737</v>
+      </c>
+      <c r="I53">
+        <v>51.336322791430113</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="3"/>
+      <c r="M53">
+        <v>5.026832630398987</v>
+      </c>
+      <c r="N53">
+        <v>4.8666110866495114</v>
+      </c>
+      <c r="O53">
+        <v>6.7229364652867742</v>
+      </c>
+      <c r="P53">
+        <v>7.483679744977735</v>
+      </c>
+      <c r="Q53">
+        <v>9.039977206368361</v>
+      </c>
+      <c r="R53">
+        <v>9.0297898499159359</v>
+      </c>
+      <c r="S53">
+        <v>7.4084684667766769</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C57" s="40"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="46"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C58" s="48"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="49"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="49"/>
+      <c r="R58" s="49"/>
+      <c r="S58" s="49"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="49"/>
+      <c r="R59" s="49"/>
+      <c r="S59" s="49"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="49"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="49"/>
+      <c r="R60" s="49"/>
+      <c r="S60" s="49"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="49"/>
+      <c r="S61" s="49"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="49"/>
+      <c r="R62" s="49"/>
+      <c r="S62" s="49"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="49"/>
+      <c r="S63" s="49"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="49"/>
+      <c r="R64" s="49"/>
+      <c r="S64" s="49"/>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C66" s="33"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="39"/>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C67" s="33"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="L32:L39"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="L40:L46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="L50:L53"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="L13:L19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="L23:L26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C2:I4 M9:S11 C9 N8:S8 C14:I26 C8:I8">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4 M9:S11 C9 N8:S8 C16:I26 C8:I8">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4 M9:S11 C9 N8:S8 C20:I26 C8:I8">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4 C13:I26 M9:S11 C9 N8:S8 C8:I8">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:I26 C2:I4 M9:S11 C9 N8:S8 C8:I8">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:I31 M36:S38 C36 N35:S35 C41:I53 C35:I35">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:I31 M36:S38 C36 N35:S35 C43:I53 C35:I35">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:I31 M36:S38 C36 N35:S35 C47:I53 C35:I35">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:I31 C40:I53 M36:S38 C36 N35:S35 C35:I35">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47:I53 C29:I31 M36:S38 C36 N35:S35 C35:I35">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:S4 M8 M14:S26">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:S4 M8 M16:S26">
+    <cfRule type="colorScale" priority="147">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:S4 M8 M20:S26">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:S4 M13:S26 M8">
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20:S26 M2:S4 M8">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29:S31 M35 M41:S53">
+    <cfRule type="colorScale" priority="189">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29:S31 M35 M43:S53">
+    <cfRule type="colorScale" priority="193">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29:S31 M35 M47:S53">
+    <cfRule type="colorScale" priority="197">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29:S31 M40:S53 M35">
+    <cfRule type="colorScale" priority="201">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M47:S53 M29:S31 M35">
+    <cfRule type="colorScale" priority="204">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="205">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4 C8:I26">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I26">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:S26">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29:S53">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:I53">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2713,7 +5960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F53218-CEF1-46D7-8DF9-40D51C08895F}">
   <dimension ref="A1:S49"/>
   <sheetViews>
@@ -5264,6 +8511,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="L5:L11"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="L12:L17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="L18:L20"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="L43:L45"/>
     <mergeCell ref="B46:B49"/>
@@ -5274,12 +8527,6 @@
     <mergeCell ref="L30:L36"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="L37:L42"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="L5:L11"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="L12:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="L18:L20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I4 C6:I24">

--- a/results_cnn_subnetwork_evaluation/pcc/summary.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A1D062-7189-41A0-A06F-5C45655002DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CA922E-23F1-424C-BD4D-03836E72F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcc_20250904" sheetId="3" r:id="rId1"/>
@@ -230,65 +230,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -572,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA93761-7CAE-402E-BF36-B12634FF117D}">
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -793,169 +742,169 @@
         <v>9.6316297451622628</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5">
         <v>93.185007367422443</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5">
         <v>91.370121425502532</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5">
         <v>89.994420366958181</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5">
         <v>84.290409086583779</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5">
         <v>75.621106872320098</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5">
         <v>58.8706563205564</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5">
         <v>46.32961646150342</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5">
         <v>3.6619561111771368</v>
       </c>
-      <c r="N5" s="49">
+      <c r="N5">
         <v>4.6143874243375196</v>
       </c>
-      <c r="O5" s="49">
+      <c r="O5">
         <v>5.3315123402260154</v>
       </c>
-      <c r="P5" s="49">
+      <c r="P5">
         <v>5.7179965627221696</v>
       </c>
-      <c r="Q5" s="49">
+      <c r="Q5">
         <v>8.4310692711108732</v>
       </c>
-      <c r="R5" s="49">
+      <c r="R5">
         <v>10.28075634006936</v>
       </c>
-      <c r="S5" s="49">
+      <c r="S5">
         <v>9.6374387848342185</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="47">
+      <c r="B6" s="2"/>
+      <c r="C6">
         <v>93.554612640824473</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6">
         <v>91.290391785396068</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6">
         <v>90.182726494173849</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6">
         <v>84.117968148513398</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6">
         <v>75.158948895174973</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6">
         <v>58.794747359406223</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6">
         <v>45.410842654348222</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="47">
+      <c r="L6" s="2"/>
+      <c r="M6">
         <v>3.7174639907805358</v>
       </c>
-      <c r="N6" s="47">
+      <c r="N6">
         <v>4.9214624865565453</v>
       </c>
-      <c r="O6" s="47">
+      <c r="O6">
         <v>5.1531923392101957</v>
       </c>
-      <c r="P6" s="47">
+      <c r="P6">
         <v>5.5156666537437076</v>
       </c>
-      <c r="Q6" s="47">
+      <c r="Q6">
         <v>7.8674326685582816</v>
       </c>
-      <c r="R6" s="47">
+      <c r="R6">
         <v>10.95810753677727</v>
       </c>
-      <c r="S6" s="47">
+      <c r="S6">
         <v>9.3118787326083883</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
-      <c r="B7" s="3"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="3"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4">
+      <c r="B8" s="2"/>
+      <c r="C8">
         <v>90.743031225760305</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>90.558456388031033</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8">
         <v>87.262271588277869</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8">
         <v>78.577297381465243</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8">
         <v>70.24104014740611</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8">
         <v>59.736413521454907</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8">
         <v>51.197328696615031</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="5">
+      <c r="L8" s="2"/>
+      <c r="M8">
         <v>4.8806090516383778</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8">
         <v>5.2851988903703244</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8">
         <v>4.8238966972331641</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8">
         <v>6.974536636683756</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8">
         <v>9.2304087271302979</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8">
         <v>10.665388762739139</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8">
         <v>10.51565574205978</v>
       </c>
     </row>
@@ -963,51 +912,51 @@
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="12">
+      <c r="B9" s="2"/>
+      <c r="C9">
         <v>90.415439003220897</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9">
         <v>89.814940729014367</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9">
         <v>87.669388720202306</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9">
         <v>78.36073553116087</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9">
         <v>72.842913866036909</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9">
         <v>64.104300210209416</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9">
         <v>50.678999529984402</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="12">
+      <c r="L9" s="2"/>
+      <c r="M9">
         <v>4.3771898545525394</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9">
         <v>4.8102021327673077</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9">
         <v>5.1244776953000404</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9">
         <v>6.7090896491676757</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9">
         <v>6.9474061250406676</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9">
         <v>8.7725898130229734</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9">
         <v>10.122503933663269</v>
       </c>
     </row>
@@ -1015,51 +964,51 @@
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="19">
+      <c r="B10" s="2"/>
+      <c r="C10">
         <v>89.744360533683974</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10">
         <v>88.562680761367588</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10">
         <v>85.831143291320302</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10">
         <v>78.199453859174113</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10">
         <v>72.477501247127293</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10">
         <v>61.501385536783772</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10">
         <v>48.009233067183388</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="19">
+      <c r="L10" s="2"/>
+      <c r="M10">
         <v>4.8375787552315348</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10">
         <v>5.5506447101412197</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10">
         <v>5.51729581219048</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10">
         <v>6.8895579966906269</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10">
         <v>7.5599635997137069</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10">
         <v>9.5345121476910375</v>
       </c>
-      <c r="S10" s="25">
+      <c r="S10">
         <v>9.0165863957156382</v>
       </c>
     </row>
@@ -1067,51 +1016,51 @@
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="26">
+      <c r="B11" s="2"/>
+      <c r="C11">
         <v>89.789277300553366</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11">
         <v>87.91866134943497</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11">
         <v>85.159136324708669</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11">
         <v>77.710323330363281</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11">
         <v>72.226025599990777</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11">
         <v>60.941507567827863</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11">
         <v>49.903116232262683</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="26">
+      <c r="L11" s="2"/>
+      <c r="M11">
         <v>4.6940722024745023</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11">
         <v>5.6567708137680039</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11">
         <v>5.8044603265898038</v>
       </c>
-      <c r="P11" s="29">
+      <c r="P11">
         <v>6.435967497595227</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="Q11">
         <v>7.6968473293259549</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11">
         <v>8.8311039517075329</v>
       </c>
-      <c r="S11" s="32">
+      <c r="S11">
         <v>7.7737609598556778</v>
       </c>
     </row>
@@ -1119,51 +1068,51 @@
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="39">
+      <c r="B12" s="2"/>
+      <c r="C12">
         <v>89.195736987344191</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12">
         <v>87.870783195933072</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12">
         <v>85.432613315570777</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12">
         <v>77.406350112601885</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12">
         <v>70.714345856509723</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12">
         <v>60.833876878981087</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12">
         <v>50.739550803495973</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="39">
+      <c r="L12" s="2"/>
+      <c r="M12">
         <v>5.4617524982579706</v>
       </c>
-      <c r="N12" s="39">
+      <c r="N12">
         <v>5.5853780125931696</v>
       </c>
-      <c r="O12" s="39">
+      <c r="O12">
         <v>5.2683103465564178</v>
       </c>
-      <c r="P12" s="39">
+      <c r="P12">
         <v>7.3523758683201912</v>
       </c>
-      <c r="Q12" s="39">
+      <c r="Q12">
         <v>8.2336944433872024</v>
       </c>
-      <c r="R12" s="39">
+      <c r="R12">
         <v>8.8747715419956741</v>
       </c>
-      <c r="S12" s="39">
+      <c r="S12">
         <v>8.8234552695700081</v>
       </c>
     </row>
@@ -1171,7 +1120,7 @@
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C13">
@@ -1198,7 +1147,7 @@
       <c r="K13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M13">
@@ -1227,7 +1176,7 @@
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="3"/>
       <c r="C14">
         <v>91.096670386422005</v>
       </c>
@@ -1252,7 +1201,7 @@
       <c r="K14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" s="3"/>
       <c r="M14">
         <v>4.4913349382120487</v>
       </c>
@@ -1279,7 +1228,7 @@
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="3"/>
       <c r="C15">
         <v>91.140892222251068</v>
       </c>
@@ -1304,7 +1253,7 @@
       <c r="K15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="3"/>
       <c r="M15">
         <v>3.903249518826176</v>
       </c>
@@ -1331,7 +1280,7 @@
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="3"/>
       <c r="C16">
         <v>91.081684674319575</v>
       </c>
@@ -1356,7 +1305,7 @@
       <c r="K16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="3"/>
       <c r="M16">
         <v>4.1769763320911357</v>
       </c>
@@ -1383,7 +1332,7 @@
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="3"/>
       <c r="C17">
         <v>91.125234647358553</v>
       </c>
@@ -1408,7 +1357,7 @@
       <c r="K17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="3"/>
       <c r="M17">
         <v>4.6221295992371028</v>
       </c>
@@ -1435,7 +1384,7 @@
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="3"/>
       <c r="C18">
         <v>91.43489995588196</v>
       </c>
@@ -1460,7 +1409,7 @@
       <c r="K18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="3"/>
       <c r="M18">
         <v>4.2207267229748435</v>
       </c>
@@ -1487,7 +1436,7 @@
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="3"/>
       <c r="C19">
         <v>91.676793628549277</v>
       </c>
@@ -1512,7 +1461,7 @@
       <c r="K19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="2"/>
+      <c r="L19" s="3"/>
       <c r="M19">
         <v>4.7069173345915063</v>
       </c>
@@ -1539,7 +1488,7 @@
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C20">
@@ -1566,7 +1515,7 @@
       <c r="K20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="M20">
@@ -1595,7 +1544,7 @@
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="2"/>
       <c r="C21">
         <v>91.960766673298778</v>
       </c>
@@ -1620,7 +1569,7 @@
       <c r="K21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="L21" s="2"/>
       <c r="M21">
         <v>3.853047307727675</v>
       </c>
@@ -1647,7 +1596,7 @@
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="2"/>
       <c r="C22">
         <v>91.820203173614544</v>
       </c>
@@ -1672,7 +1621,7 @@
       <c r="K22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="2"/>
       <c r="M22">
         <v>3.7261369541242311</v>
       </c>
@@ -1699,7 +1648,7 @@
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C23">
@@ -1726,7 +1675,7 @@
       <c r="K23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M23">
@@ -1755,7 +1704,7 @@
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="2"/>
       <c r="C24">
         <v>91.311943298240763</v>
       </c>
@@ -1780,7 +1729,7 @@
       <c r="K24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="2"/>
       <c r="M24">
         <v>4.0467549685577549</v>
       </c>
@@ -1807,7 +1756,7 @@
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="2"/>
       <c r="C25">
         <v>91.56461849439296</v>
       </c>
@@ -1832,7 +1781,7 @@
       <c r="K25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="2"/>
       <c r="M25">
         <v>4.2430822168081885</v>
       </c>
@@ -1859,7 +1808,7 @@
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="2"/>
       <c r="C26">
         <v>91.662871939491964</v>
       </c>
@@ -1884,7 +1833,7 @@
       <c r="K26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="2"/>
       <c r="M26">
         <v>4.4995201333318091</v>
       </c>
@@ -2119,377 +2068,377 @@
         <v>11.016794446797121</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32">
         <v>92.743943918456353</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32">
         <v>90.906841077850004</v>
       </c>
-      <c r="E32" s="50">
+      <c r="E32">
         <v>89.596362118223851</v>
       </c>
-      <c r="F32" s="50">
+      <c r="F32">
         <v>83.734309403869105</v>
       </c>
-      <c r="G32" s="50">
+      <c r="G32">
         <v>74.652748888937523</v>
       </c>
-      <c r="H32" s="50">
+      <c r="H32">
         <v>57.323902151101194</v>
       </c>
-      <c r="I32" s="50">
+      <c r="I32">
         <v>40.919945092740519</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="51">
+      <c r="M32">
         <v>4.1008295898478346</v>
       </c>
-      <c r="N32" s="51">
+      <c r="N32">
         <v>4.9079307339088283</v>
       </c>
-      <c r="O32" s="51">
+      <c r="O32">
         <v>5.7609570025011259</v>
       </c>
-      <c r="P32" s="51">
+      <c r="P32">
         <v>6.0075649499242569</v>
       </c>
-      <c r="Q32" s="51">
+      <c r="Q32">
         <v>8.8943323914628341</v>
       </c>
-      <c r="R32" s="51">
+      <c r="R32">
         <v>10.73899567380901</v>
       </c>
-      <c r="S32" s="51">
+      <c r="S32">
         <v>11.129332155415069</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="50">
+      <c r="B33" s="2"/>
+      <c r="C33">
         <v>93.165635392664839</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33">
         <v>90.85920523977012</v>
       </c>
-      <c r="E33" s="50">
+      <c r="E33">
         <v>89.707679288920389</v>
       </c>
-      <c r="F33" s="50">
+      <c r="F33">
         <v>83.363698776731141</v>
       </c>
-      <c r="G33" s="50">
+      <c r="G33">
         <v>74.097677262333818</v>
       </c>
-      <c r="H33" s="50">
+      <c r="H33">
         <v>57.134794456840176</v>
       </c>
-      <c r="I33" s="50">
+      <c r="I33">
         <v>40.018274509819719</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="51">
+      <c r="L33" s="2"/>
+      <c r="M33">
         <v>4.1056470507712346</v>
       </c>
-      <c r="N33" s="51">
+      <c r="N33">
         <v>5.3225573150021113</v>
       </c>
-      <c r="O33" s="51">
+      <c r="O33">
         <v>5.5812275900125696</v>
       </c>
-      <c r="P33" s="51">
+      <c r="P33">
         <v>5.9140482887840431</v>
       </c>
-      <c r="Q33" s="51">
+      <c r="Q33">
         <v>8.2733819720933166</v>
       </c>
-      <c r="R33" s="51">
+      <c r="R33">
         <v>11.561763394666389</v>
       </c>
-      <c r="S33" s="51">
+      <c r="S33">
         <v>11.160744960903831</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="52"/>
-      <c r="B34" s="3"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:19" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="50">
+      <c r="B35" s="2"/>
+      <c r="C35">
         <v>90.338547546507485</v>
       </c>
-      <c r="D35" s="50">
+      <c r="D35">
         <v>90.057368073731652</v>
       </c>
-      <c r="E35" s="50">
+      <c r="E35">
         <v>86.619393041257766</v>
       </c>
-      <c r="F35" s="50">
+      <c r="F35">
         <v>77.702109966907102</v>
       </c>
-      <c r="G35" s="50">
+      <c r="G35">
         <v>69.034427466753172</v>
       </c>
-      <c r="H35" s="50">
+      <c r="H35">
         <v>57.944582114322898</v>
       </c>
-      <c r="I35" s="50">
+      <c r="I35">
         <v>47.829040395718707</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="51">
+      <c r="L35" s="2"/>
+      <c r="M35">
         <v>5.228113175531707</v>
       </c>
-      <c r="N35" s="51">
+      <c r="N35">
         <v>5.7681195680144794</v>
       </c>
-      <c r="O35" s="51">
+      <c r="O35">
         <v>5.2375318654372807</v>
       </c>
-      <c r="P35" s="51">
+      <c r="P35">
         <v>7.3085428346949755</v>
       </c>
-      <c r="Q35" s="51">
+      <c r="Q35">
         <v>9.7681083768015284</v>
       </c>
-      <c r="R35" s="51">
+      <c r="R35">
         <v>11.73315497386734</v>
       </c>
-      <c r="S35" s="51">
+      <c r="S35">
         <v>11.7507652737303</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="50">
+      <c r="B36" s="2"/>
+      <c r="C36">
         <v>89.877985191829026</v>
       </c>
-      <c r="D36" s="50">
+      <c r="D36">
         <v>89.41577807825368</v>
       </c>
-      <c r="E36" s="50">
+      <c r="E36">
         <v>87.082781307398633</v>
       </c>
-      <c r="F36" s="50">
+      <c r="F36">
         <v>77.238556230018673</v>
       </c>
-      <c r="G36" s="50">
+      <c r="G36">
         <v>71.66317504099608</v>
       </c>
-      <c r="H36" s="50">
+      <c r="H36">
         <v>62.552838189313285</v>
       </c>
-      <c r="I36" s="50">
+      <c r="I36">
         <v>47.466663324094391</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="51">
+      <c r="L36" s="2"/>
+      <c r="M36">
         <v>4.707174804874187</v>
       </c>
-      <c r="N36" s="51">
+      <c r="N36">
         <v>5.1457136145609086</v>
       </c>
-      <c r="O36" s="51">
+      <c r="O36">
         <v>5.5561636756495467</v>
       </c>
-      <c r="P36" s="51">
+      <c r="P36">
         <v>7.260742045736972</v>
       </c>
-      <c r="Q36" s="51">
+      <c r="Q36">
         <v>7.4401556588463977</v>
       </c>
-      <c r="R36" s="51">
+      <c r="R36">
         <v>9.5596808990429771</v>
       </c>
-      <c r="S36" s="51">
+      <c r="S36">
         <v>11.16947451289824</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="50">
+      <c r="B37" s="2"/>
+      <c r="C37">
         <v>89.136914735423957</v>
       </c>
-      <c r="D37" s="50">
+      <c r="D37">
         <v>87.886584523876778</v>
       </c>
-      <c r="E37" s="50">
+      <c r="E37">
         <v>85.182077925908814</v>
       </c>
-      <c r="F37" s="50">
+      <c r="F37">
         <v>77.204665073899605</v>
       </c>
-      <c r="G37" s="50">
+      <c r="G37">
         <v>71.096350953893008</v>
       </c>
-      <c r="H37" s="50">
+      <c r="H37">
         <v>59.379547868813631</v>
       </c>
-      <c r="I37" s="50">
+      <c r="I37">
         <v>43.699385191741804</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="51">
+      <c r="L37" s="2"/>
+      <c r="M37">
         <v>5.3032513228642397</v>
       </c>
-      <c r="N37" s="51">
+      <c r="N37">
         <v>5.9601094723787273</v>
       </c>
-      <c r="O37" s="51">
+      <c r="O37">
         <v>6.0286264536941063</v>
       </c>
-      <c r="P37" s="51">
+      <c r="P37">
         <v>7.5178854114207478</v>
       </c>
-      <c r="Q37" s="51">
+      <c r="Q37">
         <v>8.2470656480477498</v>
       </c>
-      <c r="R37" s="51">
+      <c r="R37">
         <v>10.424997008411969</v>
       </c>
-      <c r="S37" s="51">
+      <c r="S37">
         <v>10.44944997276256</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="50">
+      <c r="B38" s="2"/>
+      <c r="C38">
         <v>89.274625194319114</v>
       </c>
-      <c r="D38" s="50">
+      <c r="D38">
         <v>87.29547993864854</v>
       </c>
-      <c r="E38" s="50">
+      <c r="E38">
         <v>84.488892338167688</v>
       </c>
-      <c r="F38" s="50">
+      <c r="F38">
         <v>76.654213237491902</v>
       </c>
-      <c r="G38" s="50">
+      <c r="G38">
         <v>71.069540038540808</v>
       </c>
-      <c r="H38" s="50">
+      <c r="H38">
         <v>58.933686733178469</v>
       </c>
-      <c r="I38" s="50">
+      <c r="I38">
         <v>45.838147760018337</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="51">
+      <c r="L38" s="2"/>
+      <c r="M38">
         <v>5.0478825435862662</v>
       </c>
-      <c r="N38" s="51">
+      <c r="N38">
         <v>6.0118817809267231</v>
       </c>
-      <c r="O38" s="51">
+      <c r="O38">
         <v>6.2353620101012437</v>
       </c>
-      <c r="P38" s="51">
+      <c r="P38">
         <v>6.938598968494877</v>
       </c>
-      <c r="Q38" s="51">
+      <c r="Q38">
         <v>8.2164037287020903</v>
       </c>
-      <c r="R38" s="51">
+      <c r="R38">
         <v>9.7806490267216244</v>
       </c>
-      <c r="S38" s="51">
+      <c r="S38">
         <v>8.6759855008496167</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="50">
+      <c r="B39" s="2"/>
+      <c r="C39">
         <v>88.55740772559389</v>
       </c>
-      <c r="D39" s="50">
+      <c r="D39">
         <v>87.144761736654246</v>
       </c>
-      <c r="E39" s="50">
+      <c r="E39">
         <v>84.8682808945603</v>
       </c>
-      <c r="F39" s="50">
+      <c r="F39">
         <v>76.259175178098872</v>
       </c>
-      <c r="G39" s="50">
+      <c r="G39">
         <v>69.591167130025326</v>
       </c>
-      <c r="H39" s="50">
+      <c r="H39">
         <v>58.986956532618414</v>
       </c>
-      <c r="I39" s="50">
+      <c r="I39">
         <v>47.89452176779502</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="51">
+      <c r="L39" s="2"/>
+      <c r="M39">
         <v>5.9396566392688044</v>
       </c>
-      <c r="N39" s="51">
+      <c r="N39">
         <v>6.0236638418986184</v>
       </c>
-      <c r="O39" s="51">
+      <c r="O39">
         <v>5.5018254058368621</v>
       </c>
-      <c r="P39" s="51">
+      <c r="P39">
         <v>8.2000632851191391</v>
       </c>
-      <c r="Q39" s="51">
+      <c r="Q39">
         <v>8.823984448765092</v>
       </c>
-      <c r="R39" s="51">
+      <c r="R39">
         <v>9.5244872924031299</v>
       </c>
-      <c r="S39" s="51">
+      <c r="S39">
         <v>9.5389776174584302</v>
       </c>
     </row>
@@ -2497,7 +2446,7 @@
       <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C40">
@@ -2524,7 +2473,7 @@
       <c r="K40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M40">
@@ -2553,7 +2502,7 @@
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="3"/>
       <c r="C41">
         <v>90.642246446502455</v>
       </c>
@@ -2578,7 +2527,7 @@
       <c r="K41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L41" s="2"/>
+      <c r="L41" s="3"/>
       <c r="M41">
         <v>4.8046743223783803</v>
       </c>
@@ -2605,7 +2554,7 @@
       <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="3"/>
       <c r="C42">
         <v>90.617152023346819</v>
       </c>
@@ -2630,7 +2579,7 @@
       <c r="K42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L42" s="2"/>
+      <c r="L42" s="3"/>
       <c r="M42">
         <v>4.2750077328577394</v>
       </c>
@@ -2657,7 +2606,7 @@
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="3"/>
       <c r="C43">
         <v>90.581355357949491</v>
       </c>
@@ -2682,7 +2631,7 @@
       <c r="K43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L43" s="2"/>
+      <c r="L43" s="3"/>
       <c r="M43">
         <v>4.4778305644230976</v>
       </c>
@@ -2709,7 +2658,7 @@
       <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="3"/>
       <c r="C44">
         <v>90.510302373601434</v>
       </c>
@@ -2734,7 +2683,7 @@
       <c r="K44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L44" s="2"/>
+      <c r="L44" s="3"/>
       <c r="M44">
         <v>5.1076806654003626</v>
       </c>
@@ -2761,7 +2710,7 @@
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="3"/>
       <c r="C45">
         <v>90.77523149389998</v>
       </c>
@@ -2786,7 +2735,7 @@
       <c r="K45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L45" s="2"/>
+      <c r="L45" s="3"/>
       <c r="M45">
         <v>4.8120651940731003</v>
       </c>
@@ -2813,7 +2762,7 @@
       <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="3"/>
       <c r="C46">
         <v>91.156513297158639</v>
       </c>
@@ -2838,7 +2787,7 @@
       <c r="K46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L46" s="2"/>
+      <c r="L46" s="3"/>
       <c r="M46">
         <v>5.1638895836383742</v>
       </c>
@@ -2865,7 +2814,7 @@
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C47">
@@ -2892,7 +2841,7 @@
       <c r="K47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="2" t="s">
         <v>32</v>
       </c>
       <c r="M47">
@@ -2921,7 +2870,7 @@
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48" s="2"/>
       <c r="C48">
         <v>91.471732407771285</v>
       </c>
@@ -2946,7 +2895,7 @@
       <c r="K48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="3"/>
+      <c r="L48" s="2"/>
       <c r="M48">
         <v>4.1522553462569753</v>
       </c>
@@ -2973,7 +2922,7 @@
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49" s="2"/>
       <c r="C49">
         <v>91.332608054482193</v>
       </c>
@@ -2998,7 +2947,7 @@
       <c r="K49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L49" s="3"/>
+      <c r="L49" s="2"/>
       <c r="M49">
         <v>4.0408623904693703</v>
       </c>
@@ -3025,7 +2974,7 @@
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C50">
@@ -3052,7 +3001,7 @@
       <c r="K50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="L50" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M50">
@@ -3081,7 +3030,7 @@
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="3"/>
+      <c r="B51" s="2"/>
       <c r="C51">
         <v>90.662747049686885</v>
       </c>
@@ -3106,7 +3055,7 @@
       <c r="K51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L51" s="3"/>
+      <c r="L51" s="2"/>
       <c r="M51">
         <v>4.4243047449169461</v>
       </c>
@@ -3133,7 +3082,7 @@
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="2"/>
       <c r="C52">
         <v>90.899292841610901</v>
       </c>
@@ -3158,7 +3107,7 @@
       <c r="K52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L52" s="3"/>
+      <c r="L52" s="2"/>
       <c r="M52">
         <v>4.7603465716753162</v>
       </c>
@@ -3185,7 +3134,7 @@
       <c r="A53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="3"/>
+      <c r="B53" s="2"/>
       <c r="C53">
         <v>91.095220817792637</v>
       </c>
@@ -3210,7 +3159,7 @@
       <c r="K53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L53" s="3"/>
+      <c r="L53" s="2"/>
       <c r="M53">
         <v>5.026832630398987</v>
       </c>
@@ -3233,162 +3182,8 @@
         <v>7.4084684667766769</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C57" s="40"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="46"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C58" s="48"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="49"/>
-      <c r="O58" s="49"/>
-      <c r="P58" s="49"/>
-      <c r="Q58" s="49"/>
-      <c r="R58" s="49"/>
-      <c r="S58" s="49"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="49"/>
-      <c r="O59" s="49"/>
-      <c r="P59" s="49"/>
-      <c r="Q59" s="49"/>
-      <c r="R59" s="49"/>
-      <c r="S59" s="49"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="49"/>
-      <c r="O60" s="49"/>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="49"/>
-      <c r="R60" s="49"/>
-      <c r="S60" s="49"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="49"/>
-      <c r="O61" s="49"/>
-      <c r="P61" s="49"/>
-      <c r="Q61" s="49"/>
-      <c r="R61" s="49"/>
-      <c r="S61" s="49"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="49"/>
-      <c r="O62" s="49"/>
-      <c r="P62" s="49"/>
-      <c r="Q62" s="49"/>
-      <c r="R62" s="49"/>
-      <c r="S62" s="49"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="49"/>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="49"/>
-      <c r="R63" s="49"/>
-      <c r="S63" s="49"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
-      <c r="P64" s="49"/>
-      <c r="Q64" s="49"/>
-      <c r="R64" s="49"/>
-      <c r="S64" s="49"/>
-    </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-    </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C66" s="33"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="39"/>
-    </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C67" s="33"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="39"/>
-    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="L32:L39"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="L40:L46"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="L47:L49"/>
     <mergeCell ref="B50:B53"/>
@@ -3399,8 +3194,38 @@
     <mergeCell ref="L20:L22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="L23:L26"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="L32:L39"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="L40:L46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C2:I4 C8:I26">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4 C13:I26 M9:S11 C9 N8:S8 C8:I8">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C2:I4 M9:S11 C9 N8:S8 C14:I26 C8:I8">
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -3437,8 +3262,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4 C13:I26 M9:S11 C9 N8:S8 C8:I8">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="C2:I26">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3461,6 +3286,18 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:I31 C40:I53 M36:S38 C36 N35:S35 C35:I35">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3507,8 +3344,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:I31 C40:I53 M36:S38 C36 N35:S35 C35:I35">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="C29:I53">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3589,6 +3426,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M2:S26">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M20:S26 M2:S4 M8">
     <cfRule type="colorScale" priority="158">
       <colorScale>
@@ -3659,6 +3508,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M29:S53">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M47:S53 M29:S31 M35">
     <cfRule type="colorScale" priority="204">
       <colorScale>
@@ -3671,66 +3532,6 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="205">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4 C8:I26">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I26">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S26">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M29:S53">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29:I53">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3972,7 +3773,7 @@
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5">
@@ -3999,7 +3800,7 @@
       <c r="K5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M5">
@@ -4028,7 +3829,7 @@
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6">
         <v>91.096670386422005</v>
       </c>
@@ -4053,7 +3854,7 @@
       <c r="K6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="3"/>
       <c r="M6">
         <v>4.4913349382120487</v>
       </c>
@@ -4080,7 +3881,7 @@
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7">
         <v>91.140892222251068</v>
       </c>
@@ -4105,7 +3906,7 @@
       <c r="K7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="3"/>
       <c r="M7">
         <v>3.903249518826176</v>
       </c>
@@ -4132,7 +3933,7 @@
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8">
         <v>91.081684674319575</v>
       </c>
@@ -4157,7 +3958,7 @@
       <c r="K8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="3"/>
       <c r="M8">
         <v>4.1769763320911357</v>
       </c>
@@ -4184,7 +3985,7 @@
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9">
         <v>91.125234647358553</v>
       </c>
@@ -4209,7 +4010,7 @@
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="3"/>
       <c r="M9">
         <v>4.6221295992371028</v>
       </c>
@@ -4236,7 +4037,7 @@
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="3"/>
       <c r="C10">
         <v>91.43489995588196</v>
       </c>
@@ -4261,7 +4062,7 @@
       <c r="K10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="3"/>
       <c r="M10">
         <v>4.2207267229748435</v>
       </c>
@@ -4288,7 +4089,7 @@
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="3"/>
       <c r="C11">
         <v>91.676793628549277</v>
       </c>
@@ -4313,7 +4114,7 @@
       <c r="K11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="3"/>
       <c r="M11">
         <v>4.7069173345915063</v>
       </c>
@@ -4340,7 +4141,7 @@
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C12">
@@ -4367,7 +4168,7 @@
       <c r="K12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="M12">
@@ -4396,7 +4197,7 @@
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="2"/>
       <c r="C13">
         <v>91.960766673298778</v>
       </c>
@@ -4421,7 +4222,7 @@
       <c r="K13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="2"/>
       <c r="M13">
         <v>3.853047307727675</v>
       </c>
@@ -4448,7 +4249,7 @@
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
       <c r="C14">
         <v>91.820203173614544</v>
       </c>
@@ -4473,7 +4274,7 @@
       <c r="K14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="2"/>
       <c r="M14">
         <v>3.7261369541242311</v>
       </c>
@@ -4500,7 +4301,7 @@
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C15">
@@ -4527,7 +4328,7 @@
       <c r="K15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M15">
@@ -4556,7 +4357,7 @@
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="2"/>
       <c r="C16">
         <v>91.311943298240763</v>
       </c>
@@ -4581,7 +4382,7 @@
       <c r="K16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="2"/>
       <c r="M16">
         <v>4.0467549685577549</v>
       </c>
@@ -4608,7 +4409,7 @@
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="2"/>
       <c r="C17">
         <v>91.56461849439296</v>
       </c>
@@ -4633,7 +4434,7 @@
       <c r="K17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="2"/>
       <c r="M17">
         <v>4.2430822168081885</v>
       </c>
@@ -4660,7 +4461,7 @@
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="2"/>
       <c r="C18">
         <v>91.662871939491964</v>
       </c>
@@ -4685,7 +4486,7 @@
       <c r="K18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="2"/>
       <c r="M18">
         <v>4.4995201333318091</v>
       </c>
@@ -4924,7 +4725,7 @@
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C24">
@@ -4951,7 +4752,7 @@
       <c r="K24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M24">
@@ -4980,7 +4781,7 @@
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="3"/>
       <c r="C25">
         <v>90.642246446502455</v>
       </c>
@@ -5005,7 +4806,7 @@
       <c r="K25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L25" s="2"/>
+      <c r="L25" s="3"/>
       <c r="M25">
         <v>4.8046743223783803</v>
       </c>
@@ -5032,7 +4833,7 @@
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="3"/>
       <c r="C26">
         <v>90.617152023346819</v>
       </c>
@@ -5057,7 +4858,7 @@
       <c r="K26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="2"/>
+      <c r="L26" s="3"/>
       <c r="M26">
         <v>4.2750077328577394</v>
       </c>
@@ -5084,7 +4885,7 @@
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="3"/>
       <c r="C27">
         <v>90.581355357949491</v>
       </c>
@@ -5109,7 +4910,7 @@
       <c r="K27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L27" s="2"/>
+      <c r="L27" s="3"/>
       <c r="M27">
         <v>4.4778305644230976</v>
       </c>
@@ -5136,7 +4937,7 @@
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="3"/>
       <c r="C28">
         <v>90.510302373601434</v>
       </c>
@@ -5161,7 +4962,7 @@
       <c r="K28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L28" s="2"/>
+      <c r="L28" s="3"/>
       <c r="M28">
         <v>5.1076806654003626</v>
       </c>
@@ -5188,7 +4989,7 @@
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="3"/>
       <c r="C29">
         <v>90.77523149389998</v>
       </c>
@@ -5213,7 +5014,7 @@
       <c r="K29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L29" s="2"/>
+      <c r="L29" s="3"/>
       <c r="M29">
         <v>4.8120651940731003</v>
       </c>
@@ -5240,7 +5041,7 @@
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="3"/>
       <c r="C30">
         <v>91.156513297158639</v>
       </c>
@@ -5265,7 +5066,7 @@
       <c r="K30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L30" s="2"/>
+      <c r="L30" s="3"/>
       <c r="M30">
         <v>5.1638895836383742</v>
       </c>
@@ -5292,7 +5093,7 @@
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C31">
@@ -5319,7 +5120,7 @@
       <c r="K31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="M31">
@@ -5348,7 +5149,7 @@
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="2"/>
       <c r="C32">
         <v>91.471732407771285</v>
       </c>
@@ -5373,7 +5174,7 @@
       <c r="K32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="2"/>
       <c r="M32">
         <v>4.1522553462569753</v>
       </c>
@@ -5400,7 +5201,7 @@
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="2"/>
       <c r="C33">
         <v>91.332608054482193</v>
       </c>
@@ -5425,7 +5226,7 @@
       <c r="K33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="3"/>
+      <c r="L33" s="2"/>
       <c r="M33">
         <v>4.0408623904693703</v>
       </c>
@@ -5452,7 +5253,7 @@
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C34">
@@ -5479,7 +5280,7 @@
       <c r="K34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M34">
@@ -5508,7 +5309,7 @@
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="2"/>
       <c r="C35">
         <v>90.662747049686885</v>
       </c>
@@ -5533,7 +5334,7 @@
       <c r="K35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L35" s="3"/>
+      <c r="L35" s="2"/>
       <c r="M35">
         <v>4.4243047449169461</v>
       </c>
@@ -5560,7 +5361,7 @@
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="2"/>
       <c r="C36">
         <v>90.899292841610901</v>
       </c>
@@ -5585,7 +5386,7 @@
       <c r="K36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L36" s="3"/>
+      <c r="L36" s="2"/>
       <c r="M36">
         <v>4.7603465716753162</v>
       </c>
@@ -5612,7 +5413,7 @@
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="2"/>
       <c r="C37">
         <v>91.095220817792637</v>
       </c>
@@ -5637,7 +5438,7 @@
       <c r="K37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="3"/>
+      <c r="L37" s="2"/>
       <c r="M37">
         <v>5.026832630398987</v>
       </c>
@@ -6189,7 +5990,7 @@
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5">
@@ -6216,7 +6017,7 @@
       <c r="K5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M5">
@@ -6245,7 +6046,7 @@
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6">
         <v>91.096670386422005</v>
       </c>
@@ -6270,7 +6071,7 @@
       <c r="K6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="3"/>
       <c r="M6">
         <v>4.4913349382120487</v>
       </c>
@@ -6297,7 +6098,7 @@
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7">
         <v>91.140892222251068</v>
       </c>
@@ -6322,7 +6123,7 @@
       <c r="K7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="3"/>
       <c r="M7">
         <v>3.903249518826176</v>
       </c>
@@ -6349,7 +6150,7 @@
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8">
         <v>91.081684674319575</v>
       </c>
@@ -6374,7 +6175,7 @@
       <c r="K8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="3"/>
       <c r="M8">
         <v>4.1769763320911357</v>
       </c>
@@ -6401,7 +6202,7 @@
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9">
         <v>91.125234647358553</v>
       </c>
@@ -6426,7 +6227,7 @@
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="3"/>
       <c r="M9">
         <v>4.6221295992371028</v>
       </c>
@@ -6453,7 +6254,7 @@
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="3"/>
       <c r="C10">
         <v>91.43489995588196</v>
       </c>
@@ -6478,7 +6279,7 @@
       <c r="K10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="3"/>
       <c r="M10">
         <v>4.2207267229748435</v>
       </c>
@@ -6505,7 +6306,7 @@
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="3"/>
       <c r="C11">
         <v>91.676793628549277</v>
       </c>
@@ -6530,7 +6331,7 @@
       <c r="K11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="3"/>
       <c r="M11">
         <v>4.7069173345915063</v>
       </c>
@@ -6557,7 +6358,7 @@
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C12">
@@ -6584,7 +6385,7 @@
       <c r="K12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M12">
@@ -6613,7 +6414,7 @@
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="3"/>
       <c r="C13">
         <v>93.050159026750507</v>
       </c>
@@ -6638,7 +6439,7 @@
       <c r="K13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="3"/>
       <c r="M13">
         <v>3.9979879038619965</v>
       </c>
@@ -6665,7 +6466,7 @@
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="3"/>
       <c r="C14">
         <v>93.066978664752</v>
       </c>
@@ -6690,7 +6491,7 @@
       <c r="K14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" s="3"/>
       <c r="M14">
         <v>3.5358037606815413</v>
       </c>
@@ -6717,7 +6518,7 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="3"/>
       <c r="C15">
         <v>92.542876668483288</v>
       </c>
@@ -6742,7 +6543,7 @@
       <c r="K15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="3"/>
       <c r="M15">
         <v>4.3036967593998581</v>
       </c>
@@ -6769,7 +6570,7 @@
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="3"/>
       <c r="C16">
         <v>92.337514453700578</v>
       </c>
@@ -6794,7 +6595,7 @@
       <c r="K16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="3"/>
       <c r="M16">
         <v>4.4728767672716652</v>
       </c>
@@ -6821,7 +6622,7 @@
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="3"/>
       <c r="C17">
         <v>90.462160860676391</v>
       </c>
@@ -6846,7 +6647,7 @@
       <c r="K17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="3"/>
       <c r="M17">
         <v>4.9511548269576844</v>
       </c>
@@ -6873,7 +6674,7 @@
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C18">
@@ -6900,7 +6701,7 @@
       <c r="K18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M18">
@@ -6929,7 +6730,7 @@
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="2"/>
       <c r="C19">
         <v>91.960766673298778</v>
       </c>
@@ -6954,7 +6755,7 @@
       <c r="K19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="2"/>
       <c r="M19">
         <v>3.853047307727675</v>
       </c>
@@ -6981,7 +6782,7 @@
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="2"/>
       <c r="C20">
         <v>91.820203173614544</v>
       </c>
@@ -7006,7 +6807,7 @@
       <c r="K20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="2"/>
       <c r="M20">
         <v>3.7261369541242311</v>
       </c>
@@ -7033,7 +6834,7 @@
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C21">
@@ -7060,7 +6861,7 @@
       <c r="K21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M21">
@@ -7089,7 +6890,7 @@
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="2"/>
       <c r="C22">
         <v>91.311943298240763</v>
       </c>
@@ -7114,7 +6915,7 @@
       <c r="K22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="2"/>
       <c r="M22">
         <v>4.0467549685577549</v>
       </c>
@@ -7141,7 +6942,7 @@
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="2"/>
       <c r="C23">
         <v>91.56461849439296</v>
       </c>
@@ -7166,7 +6967,7 @@
       <c r="K23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="2"/>
       <c r="M23">
         <v>4.2430822168081885</v>
       </c>
@@ -7193,7 +6994,7 @@
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="2"/>
       <c r="C24">
         <v>91.662871939491964</v>
       </c>
@@ -7218,7 +7019,7 @@
       <c r="K24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="2"/>
       <c r="M24">
         <v>4.4995201333318091</v>
       </c>
@@ -7457,7 +7258,7 @@
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C30">
@@ -7484,7 +7285,7 @@
       <c r="K30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M30">
@@ -7513,7 +7314,7 @@
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="3"/>
       <c r="C31">
         <v>90.642246446502455</v>
       </c>
@@ -7538,7 +7339,7 @@
       <c r="K31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="2"/>
+      <c r="L31" s="3"/>
       <c r="M31">
         <v>4.8046743223783803</v>
       </c>
@@ -7565,7 +7366,7 @@
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="3"/>
       <c r="C32">
         <v>90.617152023346819</v>
       </c>
@@ -7590,7 +7391,7 @@
       <c r="K32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L32" s="2"/>
+      <c r="L32" s="3"/>
       <c r="M32">
         <v>4.2750077328577394</v>
       </c>
@@ -7617,7 +7418,7 @@
       <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="3"/>
       <c r="C33">
         <v>90.581355357949491</v>
       </c>
@@ -7642,7 +7443,7 @@
       <c r="K33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L33" s="2"/>
+      <c r="L33" s="3"/>
       <c r="M33">
         <v>4.4778305644230976</v>
       </c>
@@ -7669,7 +7470,7 @@
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="3"/>
       <c r="C34">
         <v>90.510302373601434</v>
       </c>
@@ -7694,7 +7495,7 @@
       <c r="K34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="2"/>
+      <c r="L34" s="3"/>
       <c r="M34">
         <v>5.1076806654003626</v>
       </c>
@@ -7721,7 +7522,7 @@
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="3"/>
       <c r="C35">
         <v>90.77523149389998</v>
       </c>
@@ -7746,7 +7547,7 @@
       <c r="K35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L35" s="2"/>
+      <c r="L35" s="3"/>
       <c r="M35">
         <v>4.8120651940731003</v>
       </c>
@@ -7773,7 +7574,7 @@
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="3"/>
       <c r="C36">
         <v>91.156513297158639</v>
       </c>
@@ -7798,7 +7599,7 @@
       <c r="K36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L36" s="2"/>
+      <c r="L36" s="3"/>
       <c r="M36">
         <v>5.1638895836383742</v>
       </c>
@@ -7825,7 +7626,7 @@
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C37">
@@ -7852,7 +7653,7 @@
       <c r="K37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M37">
@@ -7881,7 +7682,7 @@
       <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="3"/>
       <c r="C38">
         <v>92.5896301742671</v>
       </c>
@@ -7906,7 +7707,7 @@
       <c r="K38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L38" s="2"/>
+      <c r="L38" s="3"/>
       <c r="M38">
         <v>4.3765306143488312</v>
       </c>
@@ -7933,7 +7734,7 @@
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="3"/>
       <c r="C39">
         <v>92.614173779421549</v>
       </c>
@@ -7958,7 +7759,7 @@
       <c r="K39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L39" s="2"/>
+      <c r="L39" s="3"/>
       <c r="M39">
         <v>3.8746323119795019</v>
       </c>
@@ -7985,7 +7786,7 @@
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="3"/>
       <c r="C40">
         <v>92.119712342991107</v>
       </c>
@@ -8010,7 +7811,7 @@
       <c r="K40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L40" s="2"/>
+      <c r="L40" s="3"/>
       <c r="M40">
         <v>4.6827700724731969</v>
       </c>
@@ -8037,7 +7838,7 @@
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="3"/>
       <c r="C41">
         <v>91.876620417310647</v>
       </c>
@@ -8062,7 +7863,7 @@
       <c r="K41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L41" s="2"/>
+      <c r="L41" s="3"/>
       <c r="M41">
         <v>4.9377169648445456</v>
       </c>
@@ -8089,7 +7890,7 @@
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="3"/>
       <c r="C42">
         <v>89.904916878030789</v>
       </c>
@@ -8114,7 +7915,7 @@
       <c r="K42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L42" s="2"/>
+      <c r="L42" s="3"/>
       <c r="M42">
         <v>5.4133221917381285</v>
       </c>
@@ -8141,7 +7942,7 @@
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C43">
@@ -8168,7 +7969,7 @@
       <c r="K43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="L43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M43">
@@ -8197,7 +7998,7 @@
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="2"/>
       <c r="C44">
         <v>91.471732407771285</v>
       </c>
@@ -8222,7 +8023,7 @@
       <c r="K44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="3"/>
+      <c r="L44" s="2"/>
       <c r="M44">
         <v>4.1522553462569753</v>
       </c>
@@ -8249,7 +8050,7 @@
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="2"/>
       <c r="C45">
         <v>91.332608054482193</v>
       </c>
@@ -8274,7 +8075,7 @@
       <c r="K45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L45" s="3"/>
+      <c r="L45" s="2"/>
       <c r="M45">
         <v>4.0408623904693703</v>
       </c>
@@ -8301,7 +8102,7 @@
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C46">
@@ -8328,7 +8129,7 @@
       <c r="K46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="L46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M46">
@@ -8357,7 +8158,7 @@
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="2"/>
       <c r="C47">
         <v>90.662747049686885</v>
       </c>
@@ -8382,7 +8183,7 @@
       <c r="K47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L47" s="3"/>
+      <c r="L47" s="2"/>
       <c r="M47">
         <v>4.4243047449169461</v>
       </c>
@@ -8409,7 +8210,7 @@
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48" s="2"/>
       <c r="C48">
         <v>90.899292841610901</v>
       </c>
@@ -8434,7 +8235,7 @@
       <c r="K48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L48" s="3"/>
+      <c r="L48" s="2"/>
       <c r="M48">
         <v>4.7603465716753162</v>
       </c>
@@ -8461,7 +8262,7 @@
       <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49" s="2"/>
       <c r="C49">
         <v>91.095220817792637</v>
       </c>
@@ -8486,7 +8287,7 @@
       <c r="K49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L49" s="3"/>
+      <c r="L49" s="2"/>
       <c r="M49">
         <v>5.026832630398987</v>
       </c>
@@ -8511,12 +8312,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="L5:L11"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="L12:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="L18:L20"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="L43:L45"/>
     <mergeCell ref="B46:B49"/>
@@ -8527,6 +8322,12 @@
     <mergeCell ref="L30:L36"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="L37:L42"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="L5:L11"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="L12:L17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="L18:L20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I4 C6:I24">

--- a/results_cnn_subnetwork_evaluation/pcc/summary.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/summary.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CA922E-23F1-424C-BD4D-03836E72F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F1E73B-79CB-4C23-86F9-869CBB123820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="pcc_20250904" sheetId="3" r:id="rId1"/>
-    <sheet name="pcc" sheetId="1" r:id="rId2"/>
-    <sheet name="pcc_copy" sheetId="2" r:id="rId3"/>
+    <sheet name="pcc_20250919" sheetId="4" r:id="rId1"/>
+    <sheet name="pcc_20250904" sheetId="3" r:id="rId2"/>
+    <sheet name="pcc" sheetId="1" r:id="rId3"/>
+    <sheet name="pcc_copy" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="44">
   <si>
     <t>sr</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,19 +175,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sigma=0.3</t>
+    <t>sigma=0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sigma=0.2</t>
+    <t>sigma=0.025</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sigma=0.005</t>
+    <t>sigma=0.075</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sigma=0.001</t>
+    <t>sigma=0.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut off rank=0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut off rank=0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut off rank=0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut off rank=0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>truncated graph spectral filtering highpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>truncated graph spectral filtering lowpass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +268,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -520,14 +545,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA93761-7CAE-402E-BF36-B12634FF117D}">
-  <dimension ref="A1:S53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407A0F26-EE3F-44D5-AD21-F0180FA13F65}">
+  <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.5" customWidth="1"/>
+    <col min="1" max="2" width="15" customWidth="1"/>
+    <col min="11" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -742,170 +768,216 @@
         <v>9.6316297451622628</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C5">
-        <v>93.185007367422443</v>
+        <v>93.113146884200262</v>
       </c>
       <c r="D5">
-        <v>91.370121425502532</v>
+        <v>91.749533588814217</v>
       </c>
       <c r="E5">
-        <v>89.994420366958181</v>
+        <v>89.670738212844995</v>
       </c>
       <c r="F5">
-        <v>84.290409086583779</v>
+        <v>84.982303768487057</v>
       </c>
       <c r="G5">
-        <v>75.621106872320098</v>
+        <v>75.762685375017682</v>
       </c>
       <c r="H5">
-        <v>58.8706563205564</v>
+        <v>59.272017924030493</v>
       </c>
       <c r="I5">
-        <v>46.32961646150342</v>
+        <v>46.333889854871863</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="M5">
-        <v>3.6619561111771368</v>
+        <v>3.7040095151106671</v>
       </c>
       <c r="N5">
-        <v>4.6143874243375196</v>
+        <v>4.6660308741510574</v>
       </c>
       <c r="O5">
-        <v>5.3315123402260154</v>
+        <v>5.1856842653375148</v>
       </c>
       <c r="P5">
-        <v>5.7179965627221696</v>
+        <v>5.2152535917282474</v>
       </c>
       <c r="Q5">
-        <v>8.4310692711108732</v>
+        <v>8.4738202288327695</v>
       </c>
       <c r="R5">
-        <v>10.28075634006936</v>
+        <v>10.941424406710301</v>
       </c>
       <c r="S5">
-        <v>9.6374387848342185</v>
+        <v>9.3189278272958713</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6">
-        <v>93.554612640824473</v>
+        <v>93.053143481633342</v>
       </c>
       <c r="D6">
-        <v>91.290391785396068</v>
+        <v>90.886348497824386</v>
       </c>
       <c r="E6">
-        <v>90.182726494173849</v>
+        <v>90.323197720856868</v>
       </c>
       <c r="F6">
-        <v>84.117968148513398</v>
+        <v>84.953837547614299</v>
       </c>
       <c r="G6">
-        <v>75.158948895174973</v>
+        <v>79.620631089657635</v>
       </c>
       <c r="H6">
-        <v>58.794747359406223</v>
+        <v>62.912758760888927</v>
       </c>
       <c r="I6">
-        <v>45.410842654348222</v>
+        <v>44.508037843464628</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6">
-        <v>3.7174639907805358</v>
+        <v>3.9872752197675312</v>
       </c>
       <c r="N6">
-        <v>4.9214624865565453</v>
+        <v>5.1957321462377806</v>
       </c>
       <c r="O6">
-        <v>5.1531923392101957</v>
+        <v>4.4991564068781216</v>
       </c>
       <c r="P6">
-        <v>5.5156666537437076</v>
+        <v>4.6223904455976488</v>
       </c>
       <c r="Q6">
-        <v>7.8674326685582816</v>
+        <v>6.4013560400427734</v>
       </c>
       <c r="R6">
-        <v>10.95810753677727</v>
+        <v>8.8397279842025007</v>
       </c>
       <c r="S6">
-        <v>9.3118787326083883</v>
+        <v>6.5281759752004547</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B7" s="2"/>
-      <c r="K7" s="1"/>
+      <c r="C7">
+        <v>91.579621507683157</v>
+      </c>
+      <c r="D7">
+        <v>88.21834387264019</v>
+      </c>
+      <c r="E7">
+        <v>87.647303754069384</v>
+      </c>
+      <c r="F7">
+        <v>83.887553813902656</v>
+      </c>
+      <c r="G7">
+        <v>79.48606245152061</v>
+      </c>
+      <c r="H7">
+        <v>64.136108443844662</v>
+      </c>
+      <c r="I7">
+        <v>54.648806073870297</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="L7" s="2"/>
+      <c r="M7">
+        <v>4.5335274096690847</v>
+      </c>
+      <c r="N7">
+        <v>6.1233749140175817</v>
+      </c>
+      <c r="O7">
+        <v>6.026762504697138</v>
+      </c>
+      <c r="P7">
+        <v>5.8968066838744084</v>
+      </c>
+      <c r="Q7">
+        <v>6.9627477602587504</v>
+      </c>
+      <c r="R7">
+        <v>9.7411206013203078</v>
+      </c>
+      <c r="S7">
+        <v>10.77245562517648</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8">
-        <v>90.743031225760305</v>
+        <v>90.212611412440125</v>
       </c>
       <c r="D8">
-        <v>90.558456388031033</v>
+        <v>89.419775834277686</v>
       </c>
       <c r="E8">
-        <v>87.262271588277869</v>
+        <v>88.372612796535151</v>
       </c>
       <c r="F8">
-        <v>78.577297381465243</v>
+        <v>80.476068132077273</v>
       </c>
       <c r="G8">
-        <v>70.24104014740611</v>
+        <v>76.559488692232051</v>
       </c>
       <c r="H8">
-        <v>59.736413521454907</v>
+        <v>63.95654229996223</v>
       </c>
       <c r="I8">
-        <v>51.197328696615031</v>
+        <v>55.218118957199742</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8">
-        <v>4.8806090516383778</v>
+        <v>5.1774780277668837</v>
       </c>
       <c r="N8">
-        <v>5.2851988903703244</v>
+        <v>5.8855849597253371</v>
       </c>
       <c r="O8">
-        <v>4.8238966972331641</v>
+        <v>5.2696422924576174</v>
       </c>
       <c r="P8">
-        <v>6.974536636683756</v>
+        <v>5.587508332190076</v>
       </c>
       <c r="Q8">
-        <v>9.2304087271302979</v>
+        <v>6.7799979714244687</v>
       </c>
       <c r="R8">
-        <v>10.665388762739139</v>
+        <v>9.2029739138063036</v>
       </c>
       <c r="S8">
-        <v>10.51565574205978</v>
+        <v>10.83407146633883</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -914,206 +986,3369 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9">
-        <v>90.415439003220897</v>
+        <v>90.084819072829347</v>
       </c>
       <c r="D9">
-        <v>89.814940729014367</v>
+        <v>89.303151411344388</v>
       </c>
       <c r="E9">
-        <v>87.669388720202306</v>
+        <v>87.066863323500485</v>
       </c>
       <c r="F9">
-        <v>78.36073553116087</v>
+        <v>79.445084588390316</v>
       </c>
       <c r="G9">
-        <v>72.842913866036909</v>
+        <v>75.107777748942439</v>
       </c>
       <c r="H9">
-        <v>64.104300210209416</v>
+        <v>66.874047353350818</v>
       </c>
       <c r="I9">
-        <v>50.678999529984402</v>
+        <v>56.21099086785641</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9">
-        <v>4.3771898545525394</v>
+        <v>5.1380550132743084</v>
       </c>
       <c r="N9">
-        <v>4.8102021327673077</v>
+        <v>5.1384270278292172</v>
       </c>
       <c r="O9">
-        <v>5.1244776953000404</v>
+        <v>5.7921632754264394</v>
       </c>
       <c r="P9">
-        <v>6.7090896491676757</v>
+        <v>6.0323058838530139</v>
       </c>
       <c r="Q9">
-        <v>6.9474061250406676</v>
+        <v>6.9748198258504468</v>
       </c>
       <c r="R9">
-        <v>8.7725898130229734</v>
+        <v>8.4516432861658437</v>
       </c>
       <c r="S9">
-        <v>10.122503933663269</v>
+        <v>10.429185716172441</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10">
-        <v>89.744360533683974</v>
+        <v>89.661415756191658</v>
       </c>
       <c r="D10">
-        <v>88.562680761367588</v>
+        <v>88.04566648500419</v>
       </c>
       <c r="E10">
-        <v>85.831143291320302</v>
+        <v>85.426324333832184</v>
       </c>
       <c r="F10">
-        <v>78.199453859174113</v>
+        <v>79.378521152143776</v>
       </c>
       <c r="G10">
-        <v>72.477501247127293</v>
+        <v>74.409023146105653</v>
       </c>
       <c r="H10">
-        <v>61.501385536783772</v>
+        <v>63.85187011421668</v>
       </c>
       <c r="I10">
-        <v>48.009233067183388</v>
+        <v>54.269229549275238</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10">
-        <v>4.8375787552315348</v>
+        <v>5.0704882397024411</v>
       </c>
       <c r="N10">
-        <v>5.5506447101412197</v>
+        <v>5.7251909141599304</v>
       </c>
       <c r="O10">
-        <v>5.51729581219048</v>
+        <v>5.5987654006730407</v>
       </c>
       <c r="P10">
-        <v>6.8895579966906269</v>
+        <v>6.3734778433530899</v>
       </c>
       <c r="Q10">
-        <v>7.5599635997137069</v>
+        <v>7.2863433217209206</v>
       </c>
       <c r="R10">
-        <v>9.5345121476910375</v>
+        <v>9.0724857709392399</v>
       </c>
       <c r="S10">
-        <v>9.0165863957156382</v>
+        <v>8.683376959047429</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11">
-        <v>89.789277300553366</v>
+        <v>89.817152397512075</v>
       </c>
       <c r="D11">
-        <v>87.91866134943497</v>
+        <v>87.963572349241787</v>
       </c>
       <c r="E11">
-        <v>85.159136324708669</v>
+        <v>86.141990847671707</v>
       </c>
       <c r="F11">
-        <v>77.710323330363281</v>
+        <v>79.671415842697584</v>
       </c>
       <c r="G11">
-        <v>72.226025599990777</v>
+        <v>72.8931046116316</v>
       </c>
       <c r="H11">
-        <v>60.941507567827863</v>
+        <v>62.949650660184503</v>
       </c>
       <c r="I11">
-        <v>49.903116232262683</v>
+        <v>53.296066574970368</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11">
-        <v>4.6940722024745023</v>
+        <v>4.5124657638145411</v>
       </c>
       <c r="N11">
-        <v>5.6567708137680039</v>
+        <v>5.5577830969957622</v>
       </c>
       <c r="O11">
-        <v>5.8044603265898038</v>
+        <v>5.8964754984458603</v>
       </c>
       <c r="P11">
-        <v>6.435967497595227</v>
+        <v>6.1197864859382767</v>
       </c>
       <c r="Q11">
-        <v>7.6968473293259549</v>
+        <v>8.0864460568245384</v>
       </c>
       <c r="R11">
-        <v>8.8311039517075329</v>
+        <v>9.0456060191729577</v>
       </c>
       <c r="S11">
-        <v>7.7737609598556778</v>
+        <v>7.5733819125010093</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12">
-        <v>89.195736987344191</v>
+        <v>88.193943430883195</v>
       </c>
       <c r="D12">
-        <v>87.870783195933072</v>
+        <v>87.287459234076422</v>
       </c>
       <c r="E12">
-        <v>85.432613315570777</v>
+        <v>85.93863845419655</v>
       </c>
       <c r="F12">
-        <v>77.406350112601885</v>
+        <v>78.286323122749053</v>
       </c>
       <c r="G12">
-        <v>70.714345856509723</v>
+        <v>71.682952851379923</v>
       </c>
       <c r="H12">
-        <v>60.833876878981087</v>
+        <v>61.892856627940851</v>
       </c>
       <c r="I12">
-        <v>50.739550803495973</v>
+        <v>53.60330683368079</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12">
-        <v>5.4617524982579706</v>
+        <v>4.738300568518703</v>
       </c>
       <c r="N12">
-        <v>5.5853780125931696</v>
+        <v>5.3990824812745153</v>
       </c>
       <c r="O12">
-        <v>5.2683103465564178</v>
+        <v>5.4993364506178786</v>
       </c>
       <c r="P12">
-        <v>7.3523758683201912</v>
+        <v>6.8508794301354952</v>
       </c>
       <c r="Q12">
-        <v>8.2336944433872024</v>
+        <v>7.4956271443809168</v>
       </c>
       <c r="R12">
-        <v>8.8747715419956741</v>
+        <v>9.147247941361508</v>
       </c>
       <c r="S12">
-        <v>8.8234552695700081</v>
+        <v>9.6741338439096989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>92.432864182792827</v>
+      </c>
+      <c r="D13">
+        <v>91.019403282035299</v>
+      </c>
+      <c r="E13">
+        <v>88.109796220843876</v>
+      </c>
+      <c r="F13">
+        <v>81.021009408962598</v>
+      </c>
+      <c r="G13">
+        <v>74.963768429369338</v>
+      </c>
+      <c r="H13">
+        <v>62.069994838478991</v>
+      </c>
+      <c r="I13">
+        <v>50.038301946095267</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>4.2108570413798603</v>
+      </c>
+      <c r="N13">
+        <v>4.5462104148028173</v>
+      </c>
+      <c r="O13">
+        <v>5.5275766558417514</v>
+      </c>
+      <c r="P13">
+        <v>5.7946099467318044</v>
+      </c>
+      <c r="Q13">
+        <v>7.3784840362541857</v>
+      </c>
+      <c r="R13">
+        <v>9.4123823396153199</v>
+      </c>
+      <c r="S13">
+        <v>10.553686888253409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14">
+        <v>91.096670386422005</v>
+      </c>
+      <c r="D14">
+        <v>91.461592805012742</v>
+      </c>
+      <c r="E14">
+        <v>90.880088351398641</v>
+      </c>
+      <c r="F14">
+        <v>90.735548462068579</v>
+      </c>
+      <c r="G14">
+        <v>89.142233064299873</v>
+      </c>
+      <c r="H14">
+        <v>78.28085306389616</v>
+      </c>
+      <c r="I14">
+        <v>59.137720337834523</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14">
+        <v>4.4913349382120487</v>
+      </c>
+      <c r="N14">
+        <v>4.3617133625626803</v>
+      </c>
+      <c r="O14">
+        <v>4.3741571728634234</v>
+      </c>
+      <c r="P14">
+        <v>4.4188066662484271</v>
+      </c>
+      <c r="Q14">
+        <v>4.681135124851953</v>
+      </c>
+      <c r="R14">
+        <v>6.1678631460711726</v>
+      </c>
+      <c r="S14">
+        <v>8.9596963179764817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15">
+        <v>91.140892222251068</v>
+      </c>
+      <c r="D15">
+        <v>90.778758178415643</v>
+      </c>
+      <c r="E15">
+        <v>89.714977349861726</v>
+      </c>
+      <c r="F15">
+        <v>87.390577196457869</v>
+      </c>
+      <c r="G15">
+        <v>83.092238398832748</v>
+      </c>
+      <c r="H15">
+        <v>70.535102668131501</v>
+      </c>
+      <c r="I15">
+        <v>59.655400709925409</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15">
+        <v>3.903249518826176</v>
+      </c>
+      <c r="N15">
+        <v>3.7664964814263491</v>
+      </c>
+      <c r="O15">
+        <v>4.9476912235420389</v>
+      </c>
+      <c r="P15">
+        <v>5.2615038980739257</v>
+      </c>
+      <c r="Q15">
+        <v>6.0060955195153962</v>
+      </c>
+      <c r="R15">
+        <v>6.2539940538212067</v>
+      </c>
+      <c r="S15">
+        <v>8.2430478321177478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16">
+        <v>91.081684674319575</v>
+      </c>
+      <c r="D16">
+        <v>89.615221584961816</v>
+      </c>
+      <c r="E16">
+        <v>87.015983413928026</v>
+      </c>
+      <c r="F16">
+        <v>83.854197123965903</v>
+      </c>
+      <c r="G16">
+        <v>79.498579860840763</v>
+      </c>
+      <c r="H16">
+        <v>67.591553560151908</v>
+      </c>
+      <c r="I16">
+        <v>60.079934370827893</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16">
+        <v>4.1769763320911357</v>
+      </c>
+      <c r="N16">
+        <v>4.4319965815185709</v>
+      </c>
+      <c r="O16">
+        <v>5.5037527208820505</v>
+      </c>
+      <c r="P16">
+        <v>5.3798392628543743</v>
+      </c>
+      <c r="Q16">
+        <v>5.5725273050107447</v>
+      </c>
+      <c r="R16">
+        <v>7.3081835420438876</v>
+      </c>
+      <c r="S16">
+        <v>8.3556750707367211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17">
+        <v>91.125234647358596</v>
+      </c>
+      <c r="D17">
+        <v>89.42088887735477</v>
+      </c>
+      <c r="E17">
+        <v>87.390014907856752</v>
+      </c>
+      <c r="F17">
+        <v>82.558392950342721</v>
+      </c>
+      <c r="G17">
+        <v>76.554503066635547</v>
+      </c>
+      <c r="H17">
+        <v>68.832948381906419</v>
+      </c>
+      <c r="I17">
+        <v>60.734689169744833</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17">
+        <v>4.6221295992371028</v>
+      </c>
+      <c r="N17">
+        <v>4.9163096493323497</v>
+      </c>
+      <c r="O17">
+        <v>5.5426219307227429</v>
+      </c>
+      <c r="P17">
+        <v>5.7050937363862548</v>
+      </c>
+      <c r="Q17">
+        <v>6.8546259477775573</v>
+      </c>
+      <c r="R17">
+        <v>8.1181762948449254</v>
+      </c>
+      <c r="S17">
+        <v>7.9643561276526569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18">
+        <v>91.43489995588196</v>
+      </c>
+      <c r="D18">
+        <v>89.699314007906636</v>
+      </c>
+      <c r="E18">
+        <v>87.343725580094414</v>
+      </c>
+      <c r="F18">
+        <v>82.98711638220631</v>
+      </c>
+      <c r="G18">
+        <v>76.157556149563007</v>
+      </c>
+      <c r="H18">
+        <v>66.514009636761557</v>
+      </c>
+      <c r="I18">
+        <v>57.303393627972561</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18">
+        <v>4.2207267229748435</v>
+      </c>
+      <c r="N18">
+        <v>4.8703018061461147</v>
+      </c>
+      <c r="O18">
+        <v>5.3738909709117086</v>
+      </c>
+      <c r="P18">
+        <v>6.1480652659196924</v>
+      </c>
+      <c r="Q18">
+        <v>7.164261588927368</v>
+      </c>
+      <c r="R18">
+        <v>7.8810268777506014</v>
+      </c>
+      <c r="S18">
+        <v>6.8342312410342938</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19">
+        <v>91.676793628549277</v>
+      </c>
+      <c r="D19">
+        <v>89.251879341516798</v>
+      </c>
+      <c r="E19">
+        <v>86.962046961190552</v>
+      </c>
+      <c r="F19">
+        <v>82.437622009417609</v>
+      </c>
+      <c r="G19">
+        <v>76.607245737419888</v>
+      </c>
+      <c r="H19">
+        <v>66.060767538358164</v>
+      </c>
+      <c r="I19">
+        <v>55.414374980175722</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19">
+        <v>4.7069173345915063</v>
+      </c>
+      <c r="N19">
+        <v>4.6424831130497992</v>
+      </c>
+      <c r="O19">
+        <v>5.4445274341465471</v>
+      </c>
+      <c r="P19">
+        <v>7.962565355311968</v>
+      </c>
+      <c r="Q19">
+        <v>8.218537114249818</v>
+      </c>
+      <c r="R19">
+        <v>8.5816848431873041</v>
+      </c>
+      <c r="S19">
+        <v>7.116788860116058</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20">
+        <v>3.5999390031185081</v>
+      </c>
+      <c r="N20">
+        <v>3.220758354161366</v>
+      </c>
+      <c r="O20">
+        <v>3.2022223500578324</v>
+      </c>
+      <c r="P20">
+        <v>5.6799810489317695</v>
+      </c>
+      <c r="Q20">
+        <v>6.648009735356526</v>
+      </c>
+      <c r="R20">
+        <v>9.5483528538586899</v>
+      </c>
+      <c r="S20">
+        <v>11.828700898935336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="K21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21">
+        <v>3.853047307727675</v>
+      </c>
+      <c r="N21">
+        <v>3.2863366199965514</v>
+      </c>
+      <c r="O21">
+        <v>2.9970219859999974</v>
+      </c>
+      <c r="P21">
+        <v>5.3994059165889148</v>
+      </c>
+      <c r="Q21">
+        <v>6.2705801506082341</v>
+      </c>
+      <c r="R21">
+        <v>8.3867961556623865</v>
+      </c>
+      <c r="S21">
+        <v>8.7161297009318943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="K22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="K23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23">
+        <v>3.7261369541242311</v>
+      </c>
+      <c r="N23">
+        <v>3.9516912887982287</v>
+      </c>
+      <c r="O23">
+        <v>3.651622745729187</v>
+      </c>
+      <c r="P23">
+        <v>5.3617656675424117</v>
+      </c>
+      <c r="Q23">
+        <v>5.2887601656881946</v>
+      </c>
+      <c r="R23">
+        <v>7.7897678257313983</v>
+      </c>
+      <c r="S23">
+        <v>7.5120690159434105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="K25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="K26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="K27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>91.400317765147904</v>
+      </c>
+      <c r="D28">
+        <v>89.262917499286303</v>
+      </c>
+      <c r="E28">
+        <v>87.516457754824899</v>
+      </c>
+      <c r="F28">
+        <v>83.407858199465394</v>
+      </c>
+      <c r="G28">
+        <v>75.234382073662701</v>
+      </c>
+      <c r="H28">
+        <v>65.65169537222063</v>
+      </c>
+      <c r="I28">
+        <v>55.684469588837267</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28">
+        <v>4.4705871326314179</v>
+      </c>
+      <c r="N28">
+        <v>5.060923633729546</v>
+      </c>
+      <c r="O28">
+        <v>5.305586982280901</v>
+      </c>
+      <c r="P28">
+        <v>6.0962529172659528</v>
+      </c>
+      <c r="Q28">
+        <v>8.1913371546081049</v>
+      </c>
+      <c r="R28">
+        <v>8.0946840176792261</v>
+      </c>
+      <c r="S28">
+        <v>7.1943442199999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29">
+        <v>91.311943298240763</v>
+      </c>
+      <c r="D29">
+        <v>89.370127192565121</v>
+      </c>
+      <c r="E29">
+        <v>87.091004247441589</v>
+      </c>
+      <c r="F29">
+        <v>83.178669365651956</v>
+      </c>
+      <c r="G29">
+        <v>75.695481794825213</v>
+      </c>
+      <c r="H29">
+        <v>65.348613165627143</v>
+      </c>
+      <c r="I29">
+        <v>54.669143620042853</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29">
+        <v>4.0467549685577549</v>
+      </c>
+      <c r="N29">
+        <v>5.3874637080888661</v>
+      </c>
+      <c r="O29">
+        <v>6.1870364160372322</v>
+      </c>
+      <c r="P29">
+        <v>6.3559389875083614</v>
+      </c>
+      <c r="Q29">
+        <v>7.9849257442389989</v>
+      </c>
+      <c r="R29">
+        <v>7.6304645570517318</v>
+      </c>
+      <c r="S29">
+        <v>7.3197816968004066</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30">
+        <v>91.56461849439296</v>
+      </c>
+      <c r="D30">
+        <v>89.518764579855088</v>
+      </c>
+      <c r="E30">
+        <v>87.394233514130747</v>
+      </c>
+      <c r="F30">
+        <v>82.944918785341287</v>
+      </c>
+      <c r="G30">
+        <v>75.404545022015753</v>
+      </c>
+      <c r="H30">
+        <v>65.65904549347313</v>
+      </c>
+      <c r="I30">
+        <v>54.944310360239562</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30">
+        <v>4.2430822168081885</v>
+      </c>
+      <c r="N30">
+        <v>5.4170543777535949</v>
+      </c>
+      <c r="O30">
+        <v>5.8153920851000507</v>
+      </c>
+      <c r="P30">
+        <v>6.9734376865550818</v>
+      </c>
+      <c r="Q30">
+        <v>7.4401211191496754</v>
+      </c>
+      <c r="R30">
+        <v>8.4293318255439598</v>
+      </c>
+      <c r="S30">
+        <v>6.6847512599680599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31">
+        <v>91.662871939491964</v>
+      </c>
+      <c r="D31">
+        <v>89.764199228943724</v>
+      </c>
+      <c r="E31">
+        <v>86.941692113830285</v>
+      </c>
+      <c r="F31">
+        <v>82.796866754902723</v>
+      </c>
+      <c r="G31">
+        <v>75.301268465413486</v>
+      </c>
+      <c r="H31">
+        <v>65.471021952323696</v>
+      </c>
+      <c r="I31">
+        <v>54.430251703446103</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31">
+        <v>4.4995201333318091</v>
+      </c>
+      <c r="N31">
+        <v>4.4513457826028322</v>
+      </c>
+      <c r="O31">
+        <v>6.2751627216563541</v>
+      </c>
+      <c r="P31">
+        <v>6.9737819527179798</v>
+      </c>
+      <c r="Q31">
+        <v>8.4546290614947477</v>
+      </c>
+      <c r="R31">
+        <v>8.2387450895919709</v>
+      </c>
+      <c r="S31">
+        <v>6.5615932488945345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>92.567111769713335</v>
+      </c>
+      <c r="D34">
+        <v>90.835858608343599</v>
+      </c>
+      <c r="E34">
+        <v>89.217505339533233</v>
+      </c>
+      <c r="F34">
+        <v>83.237245964288078</v>
+      </c>
+      <c r="G34">
+        <v>75.380430844191011</v>
+      </c>
+      <c r="H34">
+        <v>58.994367187597383</v>
+      </c>
+      <c r="I34">
+        <v>43.622535641382179</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>3.88093621561358</v>
+      </c>
+      <c r="N34">
+        <v>4.8164746829677396</v>
+      </c>
+      <c r="O34">
+        <v>5.2250608386616522</v>
+      </c>
+      <c r="P34">
+        <v>5.6675721086724113</v>
+      </c>
+      <c r="Q34">
+        <v>8.3263283482936075</v>
+      </c>
+      <c r="R34">
+        <v>10.49020927094638</v>
+      </c>
+      <c r="S34">
+        <v>11.060437347759546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>92.338566773632834</v>
+      </c>
+      <c r="D35">
+        <v>92.22816257293259</v>
+      </c>
+      <c r="E35">
+        <v>92.19353000091759</v>
+      </c>
+      <c r="F35">
+        <v>91.289781910285583</v>
+      </c>
+      <c r="G35">
+        <v>89.68940373291737</v>
+      </c>
+      <c r="H35">
+        <v>81.453332231966129</v>
+      </c>
+      <c r="I35">
+        <v>68.108240193153023</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>4.0483086633488163</v>
+      </c>
+      <c r="N35">
+        <v>3.9020890437152844</v>
+      </c>
+      <c r="O35">
+        <v>3.7923842410048425</v>
+      </c>
+      <c r="P35">
+        <v>4.4242632373638857</v>
+      </c>
+      <c r="Q35">
+        <v>4.2715813123996149</v>
+      </c>
+      <c r="R35">
+        <v>6.1738858238669021</v>
+      </c>
+      <c r="S35">
+        <v>6.3931839578006242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>88.499186482198567</v>
+      </c>
+      <c r="D36">
+        <v>87.5173416768165</v>
+      </c>
+      <c r="E36">
+        <v>85.730415589590905</v>
+      </c>
+      <c r="F36">
+        <v>72.655656749380555</v>
+      </c>
+      <c r="G36">
+        <v>67.884915781227093</v>
+      </c>
+      <c r="H36">
+        <v>59.263790034123531</v>
+      </c>
+      <c r="I36">
+        <v>44.56238292926399</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>5.9037054685544437</v>
+      </c>
+      <c r="N36">
+        <v>5.6982495929152117</v>
+      </c>
+      <c r="O36">
+        <v>6.1857913087331307</v>
+      </c>
+      <c r="P36">
+        <v>8.0751376961596364</v>
+      </c>
+      <c r="Q36">
+        <v>7.9066987943669274</v>
+      </c>
+      <c r="R36">
+        <v>10.433474589731558</v>
+      </c>
+      <c r="S36">
+        <v>11.016794446797121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37">
+        <v>92.585967481796871</v>
+      </c>
+      <c r="D37">
+        <v>91.313417902038879</v>
+      </c>
+      <c r="E37">
+        <v>89.071433240773374</v>
+      </c>
+      <c r="F37">
+        <v>84.430667065862025</v>
+      </c>
+      <c r="G37">
+        <v>74.620110321660178</v>
+      </c>
+      <c r="H37">
+        <v>57.729776408047563</v>
+      </c>
+      <c r="I37">
+        <v>40.926778409266866</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M37">
+        <v>4.1190461448812883</v>
+      </c>
+      <c r="N37">
+        <v>5.0479140386031087</v>
+      </c>
+      <c r="O37">
+        <v>5.7227029784618981</v>
+      </c>
+      <c r="P37">
+        <v>5.4985207967748737</v>
+      </c>
+      <c r="Q37">
+        <v>8.9665209094802485</v>
+      </c>
+      <c r="R37">
+        <v>11.349059301553211</v>
+      </c>
+      <c r="S37">
+        <v>11.05617423164966</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38">
+        <v>92.603782215910087</v>
+      </c>
+      <c r="D38">
+        <v>90.262334808427767</v>
+      </c>
+      <c r="E38">
+        <v>89.82540629282677</v>
+      </c>
+      <c r="F38">
+        <v>84.400771771755316</v>
+      </c>
+      <c r="G38">
+        <v>78.772449333136279</v>
+      </c>
+      <c r="H38">
+        <v>61.840203650833359</v>
+      </c>
+      <c r="I38">
+        <v>38.412876121977916</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38">
+        <v>4.4405799374618198</v>
+      </c>
+      <c r="N38">
+        <v>5.7451202216286257</v>
+      </c>
+      <c r="O38">
+        <v>4.8670511789444468</v>
+      </c>
+      <c r="P38">
+        <v>4.9325366781832338</v>
+      </c>
+      <c r="Q38">
+        <v>7.029848092265345</v>
+      </c>
+      <c r="R38">
+        <v>9.0186943841326457</v>
+      </c>
+      <c r="S38">
+        <v>7.771449833097023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39">
+        <v>91.081927840808433</v>
+      </c>
+      <c r="D39">
+        <v>87.684987506619976</v>
+      </c>
+      <c r="E39">
+        <v>87.27081687164015</v>
+      </c>
+      <c r="F39">
+        <v>83.161961006389646</v>
+      </c>
+      <c r="G39">
+        <v>78.602198625513438</v>
+      </c>
+      <c r="H39">
+        <v>62.429217703804063</v>
+      </c>
+      <c r="I39">
+        <v>50.327216453861126</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="M39">
+        <v>5.0278535681088243</v>
+      </c>
+      <c r="N39">
+        <v>6.4718041382743881</v>
+      </c>
+      <c r="O39">
+        <v>6.3307190280562127</v>
+      </c>
+      <c r="P39">
+        <v>6.3795918367927573</v>
+      </c>
+      <c r="Q39">
+        <v>7.6119651620777704</v>
+      </c>
+      <c r="R39">
+        <v>10.57249776824408</v>
+      </c>
+      <c r="S39">
+        <v>12.72817257493416</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40">
+        <v>89.644638837679821</v>
+      </c>
+      <c r="D40">
+        <v>88.832235357085267</v>
+      </c>
+      <c r="E40">
+        <v>87.784876095604616</v>
+      </c>
+      <c r="F40">
+        <v>79.565194861748779</v>
+      </c>
+      <c r="G40">
+        <v>75.734515312347014</v>
+      </c>
+      <c r="H40">
+        <v>62.439186953401219</v>
+      </c>
+      <c r="I40">
+        <v>50.474777835549446</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" s="2"/>
+      <c r="M40">
+        <v>5.6337263714853885</v>
+      </c>
+      <c r="N40">
+        <v>6.3295758340906003</v>
+      </c>
+      <c r="O40">
+        <v>5.712095802065237</v>
+      </c>
+      <c r="P40">
+        <v>6.0565246528809871</v>
+      </c>
+      <c r="Q40">
+        <v>7.1392332762901995</v>
+      </c>
+      <c r="R40">
+        <v>9.8513477784150112</v>
+      </c>
+      <c r="S40">
+        <v>12.535546063955879</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41">
+        <v>89.487105403835685</v>
+      </c>
+      <c r="D41">
+        <v>88.707572078492916</v>
+      </c>
+      <c r="E41">
+        <v>86.426030723556863</v>
+      </c>
+      <c r="F41">
+        <v>78.49543423448246</v>
+      </c>
+      <c r="G41">
+        <v>74.133652201259196</v>
+      </c>
+      <c r="H41">
+        <v>65.444157538801676</v>
+      </c>
+      <c r="I41">
+        <v>52.493719332914743</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" s="2"/>
+      <c r="M41">
+        <v>5.5869146897287463</v>
+      </c>
+      <c r="N41">
+        <v>5.7426745960735408</v>
+      </c>
+      <c r="O41">
+        <v>6.3807802799052684</v>
+      </c>
+      <c r="P41">
+        <v>6.6617360492423048</v>
+      </c>
+      <c r="Q41">
+        <v>7.4710432104834563</v>
+      </c>
+      <c r="R41">
+        <v>9.1192677577277852</v>
+      </c>
+      <c r="S41">
+        <v>11.62676144298649</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42">
+        <v>89.019136482146294</v>
+      </c>
+      <c r="D42">
+        <v>87.41881497347002</v>
+      </c>
+      <c r="E42">
+        <v>84.760203320527722</v>
+      </c>
+      <c r="F42">
+        <v>78.539871405940673</v>
+      </c>
+      <c r="G42">
+        <v>73.359996619176897</v>
+      </c>
+      <c r="H42">
+        <v>62.13074772235575</v>
+      </c>
+      <c r="I42">
+        <v>50.478879685998855</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42">
+        <v>5.5440228882484019</v>
+      </c>
+      <c r="N42">
+        <v>6.1890179838423203</v>
+      </c>
+      <c r="O42">
+        <v>5.9586184293843134</v>
+      </c>
+      <c r="P42">
+        <v>6.8545846160008956</v>
+      </c>
+      <c r="Q42">
+        <v>7.9156374588352119</v>
+      </c>
+      <c r="R42">
+        <v>9.791245427984272</v>
+      </c>
+      <c r="S42">
+        <v>10.04604976368349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43">
+        <v>89.238869796493674</v>
+      </c>
+      <c r="D43">
+        <v>87.306095031975872</v>
+      </c>
+      <c r="E43">
+        <v>85.566169092021809</v>
+      </c>
+      <c r="F43">
+        <v>78.895888119014472</v>
+      </c>
+      <c r="G43">
+        <v>71.73637384351656</v>
+      </c>
+      <c r="H43">
+        <v>61.412781836092677</v>
+      </c>
+      <c r="I43">
+        <v>49.91230553601401</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43">
+        <v>4.9520431158543712</v>
+      </c>
+      <c r="N43">
+        <v>6.089338440962786</v>
+      </c>
+      <c r="O43">
+        <v>6.2868088050108852</v>
+      </c>
+      <c r="P43">
+        <v>6.5544539385805303</v>
+      </c>
+      <c r="Q43">
+        <v>9.0032669871014477</v>
+      </c>
+      <c r="R43">
+        <v>9.5917571263641719</v>
+      </c>
+      <c r="S43">
+        <v>8.39411943554272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44">
+        <v>87.528624354026661</v>
+      </c>
+      <c r="D44">
+        <v>86.802859639484197</v>
+      </c>
+      <c r="E44">
+        <v>85.315702308010216</v>
+      </c>
+      <c r="F44">
+        <v>77.466410195573999</v>
+      </c>
+      <c r="G44">
+        <v>70.744609004505662</v>
+      </c>
+      <c r="H44">
+        <v>60.340914073578965</v>
+      </c>
+      <c r="I44">
+        <v>50.624658682159797</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L44" s="2"/>
+      <c r="M44">
+        <v>5.0598364128504718</v>
+      </c>
+      <c r="N44">
+        <v>5.6364339917960171</v>
+      </c>
+      <c r="O44">
+        <v>5.7486513894428279</v>
+      </c>
+      <c r="P44">
+        <v>7.4568896228696975</v>
+      </c>
+      <c r="Q44">
+        <v>8.0033483489556136</v>
+      </c>
+      <c r="R44">
+        <v>9.802914975481821</v>
+      </c>
+      <c r="S44">
+        <v>10.868957426503</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>91.954943077771645</v>
+      </c>
+      <c r="D45">
+        <v>90.486053623351509</v>
+      </c>
+      <c r="E45">
+        <v>87.574188580435759</v>
+      </c>
+      <c r="F45">
+        <v>80.195562284133075</v>
+      </c>
+      <c r="G45">
+        <v>73.887556692554313</v>
+      </c>
+      <c r="H45">
+        <v>60.201740744469255</v>
+      </c>
+      <c r="I45">
+        <v>43.97379234137982</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45">
+        <v>4.6677178192019442</v>
+      </c>
+      <c r="N45">
+        <v>4.9332992633954884</v>
+      </c>
+      <c r="O45">
+        <v>5.8893270280054093</v>
+      </c>
+      <c r="P45">
+        <v>6.2276780045249982</v>
+      </c>
+      <c r="Q45">
+        <v>7.8100433893753065</v>
+      </c>
+      <c r="R45">
+        <v>10.127273986997725</v>
+      </c>
+      <c r="S45">
+        <v>12.975199093257455</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46">
+        <v>90.642246446502455</v>
+      </c>
+      <c r="D46">
+        <v>91.112891818426803</v>
+      </c>
+      <c r="E46">
+        <v>90.510903269239805</v>
+      </c>
+      <c r="F46">
+        <v>90.384514875799795</v>
+      </c>
+      <c r="G46">
+        <v>88.747243892649067</v>
+      </c>
+      <c r="H46">
+        <v>77.721185641433252</v>
+      </c>
+      <c r="I46">
+        <v>57.390955449525258</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" s="3"/>
+      <c r="M46">
+        <v>4.8046743223783803</v>
+      </c>
+      <c r="N46">
+        <v>4.6267271925378539</v>
+      </c>
+      <c r="O46">
+        <v>4.7167994848022108</v>
+      </c>
+      <c r="P46">
+        <v>4.6380378521606005</v>
+      </c>
+      <c r="Q46">
+        <v>4.941832660679113</v>
+      </c>
+      <c r="R46">
+        <v>6.5489356622072048</v>
+      </c>
+      <c r="S46">
+        <v>9.8361171493471335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47">
+        <v>90.617152023346819</v>
+      </c>
+      <c r="D47">
+        <v>90.05855315992585</v>
+      </c>
+      <c r="E47">
+        <v>89.179945583344406</v>
+      </c>
+      <c r="F47">
+        <v>86.633871646318525</v>
+      </c>
+      <c r="G47">
+        <v>82.414435110979952</v>
+      </c>
+      <c r="H47">
+        <v>69.823014577124326</v>
+      </c>
+      <c r="I47">
+        <v>57.449010771275319</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47">
+        <v>4.2750077328577394</v>
+      </c>
+      <c r="N47">
+        <v>4.2266125705467239</v>
+      </c>
+      <c r="O47">
+        <v>5.2565974786040313</v>
+      </c>
+      <c r="P47">
+        <v>5.7069770284176009</v>
+      </c>
+      <c r="Q47">
+        <v>6.3983299535714817</v>
+      </c>
+      <c r="R47">
+        <v>6.6655406069698175</v>
+      </c>
+      <c r="S47">
+        <v>9.1124239201893804</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48">
+        <v>90.581355357949491</v>
+      </c>
+      <c r="D48">
+        <v>88.97341294355499</v>
+      </c>
+      <c r="E48">
+        <v>86.175206640299365</v>
+      </c>
+      <c r="F48">
+        <v>83.080132284515585</v>
+      </c>
+      <c r="G48">
+        <v>78.599726564969771</v>
+      </c>
+      <c r="H48">
+        <v>66.3934253274236</v>
+      </c>
+      <c r="I48">
+        <v>58.11224589934929</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48">
+        <v>4.4778305644230976</v>
+      </c>
+      <c r="N48">
+        <v>4.8960641145432993</v>
+      </c>
+      <c r="O48">
+        <v>6.1124849117603945</v>
+      </c>
+      <c r="P48">
+        <v>5.8618346048185197</v>
+      </c>
+      <c r="Q48">
+        <v>5.8104015835542553</v>
+      </c>
+      <c r="R48">
+        <v>7.7638343010849269</v>
+      </c>
+      <c r="S48">
+        <v>8.9944066091442814</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49">
+        <v>90.510302373601434</v>
+      </c>
+      <c r="D49">
+        <v>88.824953889297518</v>
+      </c>
+      <c r="E49">
+        <v>86.674942469044325</v>
+      </c>
+      <c r="F49">
+        <v>81.543605709946462</v>
+      </c>
+      <c r="G49">
+        <v>75.271718740593627</v>
+      </c>
+      <c r="H49">
+        <v>67.72658070045415</v>
+      </c>
+      <c r="I49">
+        <v>58.433623636929134</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49">
+        <v>5.1076806654003626</v>
+      </c>
+      <c r="N49">
+        <v>5.3873200605855445</v>
+      </c>
+      <c r="O49">
+        <v>5.9833392560659284</v>
+      </c>
+      <c r="P49">
+        <v>6.1215105686801499</v>
+      </c>
+      <c r="Q49">
+        <v>7.3159920074958444</v>
+      </c>
+      <c r="R49">
+        <v>8.5044787981464225</v>
+      </c>
+      <c r="S49">
+        <v>8.5926586855477538</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50">
+        <v>90.77523149389998</v>
+      </c>
+      <c r="D50">
+        <v>89.185217369225327</v>
+      </c>
+      <c r="E50">
+        <v>86.832129001570053</v>
+      </c>
+      <c r="F50">
+        <v>82.015640393948175</v>
+      </c>
+      <c r="G50">
+        <v>74.972613257814999</v>
+      </c>
+      <c r="H50">
+        <v>65.417864082249295</v>
+      </c>
+      <c r="I50">
+        <v>55.042441020336085</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="M50">
+        <v>4.8120651940731003</v>
+      </c>
+      <c r="N50">
+        <v>5.3504041978372019</v>
+      </c>
+      <c r="O50">
+        <v>5.6560471528137661</v>
+      </c>
+      <c r="P50">
+        <v>6.5079634189489424</v>
+      </c>
+      <c r="Q50">
+        <v>7.8749746185986238</v>
+      </c>
+      <c r="R50">
+        <v>8.2835712333162252</v>
+      </c>
+      <c r="S50">
+        <v>7.669452785779991</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51">
+        <v>91.156513297158639</v>
+      </c>
+      <c r="D51">
+        <v>88.573641976087487</v>
+      </c>
+      <c r="E51">
+        <v>86.451346459221952</v>
+      </c>
+      <c r="F51">
+        <v>81.632507264086627</v>
+      </c>
+      <c r="G51">
+        <v>75.528970260459374</v>
+      </c>
+      <c r="H51">
+        <v>64.923306527722815</v>
+      </c>
+      <c r="I51">
+        <v>52.921194726803435</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="M51">
+        <v>5.1638895836383742</v>
+      </c>
+      <c r="N51">
+        <v>5.0488519995067334</v>
+      </c>
+      <c r="O51">
+        <v>5.7263083946480009</v>
+      </c>
+      <c r="P51">
+        <v>8.4617789692496856</v>
+      </c>
+      <c r="Q51">
+        <v>8.7221549652121535</v>
+      </c>
+      <c r="R51">
+        <v>9.1465131387725336</v>
+      </c>
+      <c r="S51">
+        <v>7.9277731795846682</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52">
+        <v>91.82253246441546</v>
+      </c>
+      <c r="D52">
+        <v>91.896415777745617</v>
+      </c>
+      <c r="E52">
+        <v>91.394674914613631</v>
+      </c>
+      <c r="F52">
+        <v>87.656272060375002</v>
+      </c>
+      <c r="G52">
+        <v>84.682281040144346</v>
+      </c>
+      <c r="H52">
+        <v>74.117890215813503</v>
+      </c>
+      <c r="I52">
+        <v>63.870910013856196</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52">
+        <v>3.9149482695639635</v>
+      </c>
+      <c r="N52">
+        <v>3.589321840305093</v>
+      </c>
+      <c r="O52">
+        <v>3.4799273908121431</v>
+      </c>
+      <c r="P52">
+        <v>6.3691039235496678</v>
+      </c>
+      <c r="Q52">
+        <v>7.1884344432619613</v>
+      </c>
+      <c r="R52">
+        <v>9.9643193580169491</v>
+      </c>
+      <c r="S52">
+        <v>12.854998500501491</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53">
+        <v>91.471732407771285</v>
+      </c>
+      <c r="D53">
+        <v>91.769964488705597</v>
+      </c>
+      <c r="E53">
+        <v>91.180992017051111</v>
+      </c>
+      <c r="F53">
+        <v>86.38664903669796</v>
+      </c>
+      <c r="G53">
+        <v>81.249493096897226</v>
+      </c>
+      <c r="H53">
+        <v>68.355216227129773</v>
+      </c>
+      <c r="I53">
+        <v>53.029733747958254</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L53" s="2"/>
+      <c r="M53">
+        <v>4.1522553462569753</v>
+      </c>
+      <c r="N53">
+        <v>3.5358894026107937</v>
+      </c>
+      <c r="O53">
+        <v>3.3047129205399908</v>
+      </c>
+      <c r="P53">
+        <v>5.7309862288580993</v>
+      </c>
+      <c r="Q53">
+        <v>6.6583739396102182</v>
+      </c>
+      <c r="R53">
+        <v>8.7510237120909835</v>
+      </c>
+      <c r="S53">
+        <v>9.9665946493410544</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54">
+        <v>91.332608054482193</v>
+      </c>
+      <c r="D54">
+        <v>91.231425754845645</v>
+      </c>
+      <c r="E54">
+        <v>90.597149830083694</v>
+      </c>
+      <c r="F54">
+        <v>88.135725315921604</v>
+      </c>
+      <c r="G54">
+        <v>84.001817512899265</v>
+      </c>
+      <c r="H54">
+        <v>69.568688660847371</v>
+      </c>
+      <c r="I54">
+        <v>51.97023149770046</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L54" s="2"/>
+      <c r="M54">
+        <v>4.0408623904693703</v>
+      </c>
+      <c r="N54">
+        <v>4.3999216872495976</v>
+      </c>
+      <c r="O54">
+        <v>4.0121807110446124</v>
+      </c>
+      <c r="P54">
+        <v>5.7951413265953136</v>
+      </c>
+      <c r="Q54">
+        <v>5.7076633688806142</v>
+      </c>
+      <c r="R54">
+        <v>8.0642529418366511</v>
+      </c>
+      <c r="S54">
+        <v>8.9120943278613147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55">
+        <v>90.939285085015939</v>
+      </c>
+      <c r="D55">
+        <v>88.605955019400824</v>
+      </c>
+      <c r="E55">
+        <v>86.889076427363477</v>
+      </c>
+      <c r="F55">
+        <v>82.745202888013949</v>
+      </c>
+      <c r="G55">
+        <v>74.193922877809172</v>
+      </c>
+      <c r="H55">
+        <v>64.361901696887841</v>
+      </c>
+      <c r="I55">
+        <v>53.540574994800238</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55">
+        <v>4.8263946570398071</v>
+      </c>
+      <c r="N55">
+        <v>5.5502091704736038</v>
+      </c>
+      <c r="O55">
+        <v>5.7255682118789624</v>
+      </c>
+      <c r="P55">
+        <v>6.3545462777704742</v>
+      </c>
+      <c r="Q55">
+        <v>8.7753821655939284</v>
+      </c>
+      <c r="R55">
+        <v>8.7895060348429883</v>
+      </c>
+      <c r="S55">
+        <v>8.026194535179302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56">
+        <v>90.662747049686885</v>
+      </c>
+      <c r="D56">
+        <v>88.710917394992933</v>
+      </c>
+      <c r="E56">
+        <v>86.347967906087078</v>
+      </c>
+      <c r="F56">
+        <v>82.243914313610617</v>
+      </c>
+      <c r="G56">
+        <v>74.525103052451129</v>
+      </c>
+      <c r="H56">
+        <v>64.3418708145431</v>
+      </c>
+      <c r="I56">
+        <v>51.643740343005398</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56" s="2"/>
+      <c r="M56">
+        <v>4.4243047449169461</v>
+      </c>
+      <c r="N56">
+        <v>5.8569128877443175</v>
+      </c>
+      <c r="O56">
+        <v>6.6988047536453657</v>
+      </c>
+      <c r="P56">
+        <v>6.8865610977264513</v>
+      </c>
+      <c r="Q56">
+        <v>8.7323059467628319</v>
+      </c>
+      <c r="R56">
+        <v>8.207728125190366</v>
+      </c>
+      <c r="S56">
+        <v>8.4687472346957708</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57">
+        <v>90.899292841610901</v>
+      </c>
+      <c r="D57">
+        <v>88.948085897371527</v>
+      </c>
+      <c r="E57">
+        <v>86.880908721434196</v>
+      </c>
+      <c r="F57">
+        <v>82.155903486081598</v>
+      </c>
+      <c r="G57">
+        <v>74.161495083534362</v>
+      </c>
+      <c r="H57">
+        <v>64.451717018186173</v>
+      </c>
+      <c r="I57">
+        <v>52.351511098410676</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L57" s="2"/>
+      <c r="M57">
+        <v>4.7603465716753162</v>
+      </c>
+      <c r="N57">
+        <v>5.8351865971221724</v>
+      </c>
+      <c r="O57">
+        <v>6.2629537493420262</v>
+      </c>
+      <c r="P57">
+        <v>7.5417917734189963</v>
+      </c>
+      <c r="Q57">
+        <v>8.2224877607555094</v>
+      </c>
+      <c r="R57">
+        <v>9.2781225079967449</v>
+      </c>
+      <c r="S57">
+        <v>7.7870210186206075</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58">
+        <v>91.095220817792637</v>
+      </c>
+      <c r="D58">
+        <v>89.240078821684847</v>
+      </c>
+      <c r="E58">
+        <v>86.239435573723185</v>
+      </c>
+      <c r="F58">
+        <v>81.913343329134776</v>
+      </c>
+      <c r="G58">
+        <v>74.171369322340453</v>
+      </c>
+      <c r="H58">
+        <v>64.078210700624737</v>
+      </c>
+      <c r="I58">
+        <v>51.336322791430113</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" s="2"/>
+      <c r="M58">
+        <v>5.026832630398987</v>
+      </c>
+      <c r="N58">
+        <v>4.8666110866495114</v>
+      </c>
+      <c r="O58">
+        <v>6.7229364652867742</v>
+      </c>
+      <c r="P58">
+        <v>7.483679744977735</v>
+      </c>
+      <c r="Q58">
+        <v>9.039977206368361</v>
+      </c>
+      <c r="R58">
+        <v>9.0297898499159359</v>
+      </c>
+      <c r="S58">
+        <v>7.4084684667766769</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="L52:L54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="L55:L58"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="L37:L44"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="L45:L51"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="L13:L19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="L20:L23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C2:I4 C13:I31">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4 C14:I31">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4 C16:I31">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4 C20:I31">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:I31 C2:I4">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:I36 C45:I58">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:I36 C46:I58">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:I36 C48:I58">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:I36 C52:I58">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:I36">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:I58 C34:I36">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:S4 M14:S31">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:S4 M16:S31">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:S4 M20:S31">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:S4 M13:S31">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:S4">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20:S31 M2:S4">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:S36 M46:S58">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:S36 M48:S58">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:S36 M52:S58">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:S36 M45:S58">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:S36">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M52:S58 M34:S36">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:I12">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:I44">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:S12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M37:S44">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA93761-7CAE-402E-BF36-B12634FF117D}">
+  <dimension ref="A1:S53"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S13" sqref="A13:S19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="15" customWidth="1"/>
+    <col min="11" max="12" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S1" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>93.101364775358491</v>
+      </c>
+      <c r="D2" s="1">
+        <v>91.326663725464783</v>
+      </c>
+      <c r="E2" s="1">
+        <v>89.722561037148537</v>
+      </c>
+      <c r="F2" s="1">
+        <v>83.857204647099024</v>
+      </c>
+      <c r="G2" s="1">
+        <v>76.242949045118635</v>
+      </c>
+      <c r="H2" s="1">
+        <v>60.40277741733636</v>
+      </c>
+      <c r="I2" s="1">
+        <v>47.740900296138662</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>3.4649270444699574</v>
+      </c>
+      <c r="N2">
+        <v>4.4611797621615326</v>
+      </c>
+      <c r="O2">
+        <v>4.7712065248821434</v>
+      </c>
+      <c r="P2">
+        <v>5.3965689103010375</v>
+      </c>
+      <c r="Q2">
+        <v>7.9323757260741923</v>
+      </c>
+      <c r="R2">
+        <v>9.9900413492801565</v>
+      </c>
+      <c r="S2">
+        <v>9.7565309936118432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>92.9174329651064</v>
+      </c>
+      <c r="D3" s="1">
+        <v>92.708959420064204</v>
+      </c>
+      <c r="E3" s="1">
+        <v>92.772878658119907</v>
+      </c>
+      <c r="F3" s="1">
+        <v>91.85156157636888</v>
+      </c>
+      <c r="G3" s="1">
+        <v>90.250030997961346</v>
+      </c>
+      <c r="H3" s="1">
+        <v>82.095390098530245</v>
+      </c>
+      <c r="I3" s="1">
+        <v>69.856172342898006</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>3.5837407947350735</v>
+      </c>
+      <c r="N3">
+        <v>3.5380215711796903</v>
+      </c>
+      <c r="O3">
+        <v>3.3884907833277103</v>
+      </c>
+      <c r="P3">
+        <v>3.9918184678327333</v>
+      </c>
+      <c r="Q3">
+        <v>4.0829675213353749</v>
+      </c>
+      <c r="R3">
+        <v>5.8309886371269632</v>
+      </c>
+      <c r="S3">
+        <v>5.9024255132996721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>89.053336678229613</v>
+      </c>
+      <c r="D4" s="1">
+        <v>87.986349362883772</v>
+      </c>
+      <c r="E4" s="1">
+        <v>86.416240624918913</v>
+      </c>
+      <c r="F4" s="1">
+        <v>74.093123642938082</v>
+      </c>
+      <c r="G4" s="1">
+        <v>69.399602649388555</v>
+      </c>
+      <c r="H4" s="1">
+        <v>61.120531607828212</v>
+      </c>
+      <c r="I4" s="1">
+        <v>50.508830814568753</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>5.4385382756811014</v>
+      </c>
+      <c r="N4">
+        <v>5.4024441408924888</v>
+      </c>
+      <c r="O4">
+        <v>5.6964067574908341</v>
+      </c>
+      <c r="P4">
+        <v>7.4383055835405463</v>
+      </c>
+      <c r="Q4">
+        <v>7.4880994431935202</v>
+      </c>
+      <c r="R4">
+        <v>9.6490657247660767</v>
+      </c>
+      <c r="S4">
+        <v>9.6316297451622628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>93.113146884200262</v>
+      </c>
+      <c r="D5">
+        <v>91.749533588814217</v>
+      </c>
+      <c r="E5">
+        <v>89.670738212844995</v>
+      </c>
+      <c r="F5">
+        <v>84.982303768487057</v>
+      </c>
+      <c r="G5">
+        <v>75.762685375017682</v>
+      </c>
+      <c r="H5">
+        <v>59.272017924030493</v>
+      </c>
+      <c r="I5">
+        <v>46.333889854871863</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5">
+        <v>3.7040095151106671</v>
+      </c>
+      <c r="N5">
+        <v>4.6660308741510574</v>
+      </c>
+      <c r="O5">
+        <v>5.1856842653375148</v>
+      </c>
+      <c r="P5">
+        <v>5.2152535917282474</v>
+      </c>
+      <c r="Q5">
+        <v>8.4738202288327695</v>
+      </c>
+      <c r="R5">
+        <v>10.941424406710301</v>
+      </c>
+      <c r="S5">
+        <v>9.3189278272958713</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6">
+        <v>93.053143481633342</v>
+      </c>
+      <c r="D6">
+        <v>90.886348497824386</v>
+      </c>
+      <c r="E6">
+        <v>90.323197720856868</v>
+      </c>
+      <c r="F6">
+        <v>84.953837547614299</v>
+      </c>
+      <c r="G6">
+        <v>79.620631089657635</v>
+      </c>
+      <c r="H6">
+        <v>62.912758760888927</v>
+      </c>
+      <c r="I6">
+        <v>44.508037843464628</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6">
+        <v>3.9872752197675312</v>
+      </c>
+      <c r="N6">
+        <v>5.1957321462377806</v>
+      </c>
+      <c r="O6">
+        <v>4.4991564068781216</v>
+      </c>
+      <c r="P6">
+        <v>4.6223904455976488</v>
+      </c>
+      <c r="Q6">
+        <v>6.4013560400427734</v>
+      </c>
+      <c r="R6">
+        <v>8.8397279842025007</v>
+      </c>
+      <c r="S6">
+        <v>6.5281759752004547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7">
+        <v>91.579621507683157</v>
+      </c>
+      <c r="D7">
+        <v>88.21834387264019</v>
+      </c>
+      <c r="E7">
+        <v>87.647303754069384</v>
+      </c>
+      <c r="F7">
+        <v>83.887553813902656</v>
+      </c>
+      <c r="G7">
+        <v>79.48606245152061</v>
+      </c>
+      <c r="H7">
+        <v>64.136108443844662</v>
+      </c>
+      <c r="I7">
+        <v>54.648806073870297</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7">
+        <v>4.5335274096690847</v>
+      </c>
+      <c r="N7">
+        <v>6.1233749140175817</v>
+      </c>
+      <c r="O7">
+        <v>6.026762504697138</v>
+      </c>
+      <c r="P7">
+        <v>5.8968066838744084</v>
+      </c>
+      <c r="Q7">
+        <v>6.9627477602587504</v>
+      </c>
+      <c r="R7">
+        <v>9.7411206013203078</v>
+      </c>
+      <c r="S7">
+        <v>10.77245562517648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8">
+        <v>90.212611412440125</v>
+      </c>
+      <c r="D8">
+        <v>89.419775834277686</v>
+      </c>
+      <c r="E8">
+        <v>88.372612796535151</v>
+      </c>
+      <c r="F8">
+        <v>80.476068132077273</v>
+      </c>
+      <c r="G8">
+        <v>76.559488692232051</v>
+      </c>
+      <c r="H8">
+        <v>63.95654229996223</v>
+      </c>
+      <c r="I8">
+        <v>55.218118957199742</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8">
+        <v>5.1774780277668837</v>
+      </c>
+      <c r="N8">
+        <v>5.8855849597253371</v>
+      </c>
+      <c r="O8">
+        <v>5.2696422924576174</v>
+      </c>
+      <c r="P8">
+        <v>5.587508332190076</v>
+      </c>
+      <c r="Q8">
+        <v>6.7799979714244687</v>
+      </c>
+      <c r="R8">
+        <v>9.2029739138063036</v>
+      </c>
+      <c r="S8">
+        <v>10.83407146633883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9">
+        <v>90.084819072829347</v>
+      </c>
+      <c r="D9">
+        <v>89.303151411344388</v>
+      </c>
+      <c r="E9">
+        <v>87.066863323500485</v>
+      </c>
+      <c r="F9">
+        <v>79.445084588390316</v>
+      </c>
+      <c r="G9">
+        <v>75.107777748942439</v>
+      </c>
+      <c r="H9">
+        <v>66.874047353350818</v>
+      </c>
+      <c r="I9">
+        <v>56.21099086785641</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9">
+        <v>5.1380550132743084</v>
+      </c>
+      <c r="N9">
+        <v>5.1384270278292172</v>
+      </c>
+      <c r="O9">
+        <v>5.7921632754264394</v>
+      </c>
+      <c r="P9">
+        <v>6.0323058838530139</v>
+      </c>
+      <c r="Q9">
+        <v>6.9748198258504468</v>
+      </c>
+      <c r="R9">
+        <v>8.4516432861658437</v>
+      </c>
+      <c r="S9">
+        <v>10.429185716172441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10">
+        <v>89.661415756191658</v>
+      </c>
+      <c r="D10">
+        <v>88.04566648500419</v>
+      </c>
+      <c r="E10">
+        <v>85.426324333832184</v>
+      </c>
+      <c r="F10">
+        <v>79.378521152143776</v>
+      </c>
+      <c r="G10">
+        <v>74.409023146105653</v>
+      </c>
+      <c r="H10">
+        <v>63.85187011421668</v>
+      </c>
+      <c r="I10">
+        <v>54.269229549275238</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10">
+        <v>5.0704882397024411</v>
+      </c>
+      <c r="N10">
+        <v>5.7251909141599304</v>
+      </c>
+      <c r="O10">
+        <v>5.5987654006730407</v>
+      </c>
+      <c r="P10">
+        <v>6.3734778433530899</v>
+      </c>
+      <c r="Q10">
+        <v>7.2863433217209206</v>
+      </c>
+      <c r="R10">
+        <v>9.0724857709392399</v>
+      </c>
+      <c r="S10">
+        <v>8.683376959047429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11">
+        <v>89.817152397512075</v>
+      </c>
+      <c r="D11">
+        <v>87.963572349241787</v>
+      </c>
+      <c r="E11">
+        <v>86.141990847671707</v>
+      </c>
+      <c r="F11">
+        <v>79.671415842697584</v>
+      </c>
+      <c r="G11">
+        <v>72.8931046116316</v>
+      </c>
+      <c r="H11">
+        <v>62.949650660184503</v>
+      </c>
+      <c r="I11">
+        <v>53.296066574970368</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11">
+        <v>4.5124657638145411</v>
+      </c>
+      <c r="N11">
+        <v>5.5577830969957622</v>
+      </c>
+      <c r="O11">
+        <v>5.8964754984458603</v>
+      </c>
+      <c r="P11">
+        <v>6.1197864859382767</v>
+      </c>
+      <c r="Q11">
+        <v>8.0864460568245384</v>
+      </c>
+      <c r="R11">
+        <v>9.0456060191729577</v>
+      </c>
+      <c r="S11">
+        <v>7.5733819125010093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12">
+        <v>88.193943430883195</v>
+      </c>
+      <c r="D12">
+        <v>87.287459234076422</v>
+      </c>
+      <c r="E12">
+        <v>85.93863845419655</v>
+      </c>
+      <c r="F12">
+        <v>78.286323122749053</v>
+      </c>
+      <c r="G12">
+        <v>71.682952851379923</v>
+      </c>
+      <c r="H12">
+        <v>61.892856627940851</v>
+      </c>
+      <c r="I12">
+        <v>53.60330683368079</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12">
+        <v>4.738300568518703</v>
+      </c>
+      <c r="N12">
+        <v>5.3990824812745153</v>
+      </c>
+      <c r="O12">
+        <v>5.4993364506178786</v>
+      </c>
+      <c r="P12">
+        <v>6.8508794301354952</v>
+      </c>
+      <c r="Q12">
+        <v>7.4956271443809168</v>
+      </c>
+      <c r="R12">
+        <v>9.147247941361508</v>
+      </c>
+      <c r="S12">
+        <v>9.6741338439096989</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -2068,170 +5303,216 @@
         <v>11.016794446797121</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C32">
-        <v>92.743943918456353</v>
+        <v>92.585967481796871</v>
       </c>
       <c r="D32">
-        <v>90.906841077850004</v>
+        <v>91.313417902038879</v>
       </c>
       <c r="E32">
-        <v>89.596362118223851</v>
+        <v>89.071433240773374</v>
       </c>
       <c r="F32">
-        <v>83.734309403869105</v>
+        <v>84.430667065862025</v>
       </c>
       <c r="G32">
-        <v>74.652748888937523</v>
+        <v>74.620110321660178</v>
       </c>
       <c r="H32">
-        <v>57.323902151101194</v>
+        <v>57.729776408047563</v>
       </c>
       <c r="I32">
-        <v>40.919945092740519</v>
+        <v>40.926778409266866</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>33</v>
       </c>
       <c r="M32">
-        <v>4.1008295898478346</v>
+        <v>4.1190461448812883</v>
       </c>
       <c r="N32">
-        <v>4.9079307339088283</v>
+        <v>5.0479140386031087</v>
       </c>
       <c r="O32">
-        <v>5.7609570025011259</v>
+        <v>5.7227029784618981</v>
       </c>
       <c r="P32">
-        <v>6.0075649499242569</v>
+        <v>5.4985207967748737</v>
       </c>
       <c r="Q32">
-        <v>8.8943323914628341</v>
+        <v>8.9665209094802485</v>
       </c>
       <c r="R32">
-        <v>10.73899567380901</v>
+        <v>11.349059301553211</v>
       </c>
       <c r="S32">
-        <v>11.129332155415069</v>
+        <v>11.05617423164966</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33">
-        <v>93.165635392664839</v>
+        <v>92.603782215910087</v>
       </c>
       <c r="D33">
-        <v>90.85920523977012</v>
+        <v>90.262334808427767</v>
       </c>
       <c r="E33">
-        <v>89.707679288920389</v>
+        <v>89.82540629282677</v>
       </c>
       <c r="F33">
-        <v>83.363698776731141</v>
+        <v>84.400771771755316</v>
       </c>
       <c r="G33">
-        <v>74.097677262333818</v>
+        <v>78.772449333136279</v>
       </c>
       <c r="H33">
-        <v>57.134794456840176</v>
+        <v>61.840203650833359</v>
       </c>
       <c r="I33">
-        <v>40.018274509819719</v>
+        <v>38.412876121977916</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33">
-        <v>4.1056470507712346</v>
+        <v>4.4405799374618198</v>
       </c>
       <c r="N33">
-        <v>5.3225573150021113</v>
+        <v>5.7451202216286257</v>
       </c>
       <c r="O33">
-        <v>5.5812275900125696</v>
+        <v>4.8670511789444468</v>
       </c>
       <c r="P33">
-        <v>5.9140482887840431</v>
+        <v>4.9325366781832338</v>
       </c>
       <c r="Q33">
-        <v>8.2733819720933166</v>
+        <v>7.029848092265345</v>
       </c>
       <c r="R33">
-        <v>11.561763394666389</v>
+        <v>9.0186943841326457</v>
       </c>
       <c r="S33">
-        <v>11.160744960903831</v>
+        <v>7.771449833097023</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B34" s="2"/>
-      <c r="K34" s="1"/>
+      <c r="C34">
+        <v>91.081927840808433</v>
+      </c>
+      <c r="D34">
+        <v>87.684987506619976</v>
+      </c>
+      <c r="E34">
+        <v>87.27081687164015</v>
+      </c>
+      <c r="F34">
+        <v>83.161961006389646</v>
+      </c>
+      <c r="G34">
+        <v>78.602198625513438</v>
+      </c>
+      <c r="H34">
+        <v>62.429217703804063</v>
+      </c>
+      <c r="I34">
+        <v>50.327216453861126</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="L34" s="2"/>
+      <c r="M34">
+        <v>5.0278535681088243</v>
+      </c>
+      <c r="N34">
+        <v>6.4718041382743881</v>
+      </c>
+      <c r="O34">
+        <v>6.3307190280562127</v>
+      </c>
+      <c r="P34">
+        <v>6.3795918367927573</v>
+      </c>
+      <c r="Q34">
+        <v>7.6119651620777704</v>
+      </c>
+      <c r="R34">
+        <v>10.57249776824408</v>
+      </c>
+      <c r="S34">
+        <v>12.72817257493416</v>
+      </c>
     </row>
     <row r="35" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35">
-        <v>90.338547546507485</v>
+        <v>89.644638837679821</v>
       </c>
       <c r="D35">
-        <v>90.057368073731652</v>
+        <v>88.832235357085267</v>
       </c>
       <c r="E35">
-        <v>86.619393041257766</v>
+        <v>87.784876095604616</v>
       </c>
       <c r="F35">
-        <v>77.702109966907102</v>
+        <v>79.565194861748779</v>
       </c>
       <c r="G35">
-        <v>69.034427466753172</v>
+        <v>75.734515312347014</v>
       </c>
       <c r="H35">
-        <v>57.944582114322898</v>
+        <v>62.439186953401219</v>
       </c>
       <c r="I35">
-        <v>47.829040395718707</v>
+        <v>50.474777835549446</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35">
-        <v>5.228113175531707</v>
+        <v>5.6337263714853885</v>
       </c>
       <c r="N35">
-        <v>5.7681195680144794</v>
+        <v>6.3295758340906003</v>
       </c>
       <c r="O35">
-        <v>5.2375318654372807</v>
+        <v>5.712095802065237</v>
       </c>
       <c r="P35">
-        <v>7.3085428346949755</v>
+        <v>6.0565246528809871</v>
       </c>
       <c r="Q35">
-        <v>9.7681083768015284</v>
+        <v>7.1392332762901995</v>
       </c>
       <c r="R35">
-        <v>11.73315497386734</v>
+        <v>9.8513477784150112</v>
       </c>
       <c r="S35">
-        <v>11.7507652737303</v>
+        <v>12.535546063955879</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -2240,206 +5521,206 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36">
-        <v>89.877985191829026</v>
+        <v>89.487105403835685</v>
       </c>
       <c r="D36">
-        <v>89.41577807825368</v>
+        <v>88.707572078492916</v>
       </c>
       <c r="E36">
-        <v>87.082781307398633</v>
+        <v>86.426030723556863</v>
       </c>
       <c r="F36">
-        <v>77.238556230018673</v>
+        <v>78.49543423448246</v>
       </c>
       <c r="G36">
-        <v>71.66317504099608</v>
+        <v>74.133652201259196</v>
       </c>
       <c r="H36">
-        <v>62.552838189313285</v>
+        <v>65.444157538801676</v>
       </c>
       <c r="I36">
-        <v>47.466663324094391</v>
+        <v>52.493719332914743</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36">
-        <v>4.707174804874187</v>
+        <v>5.5869146897287463</v>
       </c>
       <c r="N36">
-        <v>5.1457136145609086</v>
+        <v>5.7426745960735408</v>
       </c>
       <c r="O36">
-        <v>5.5561636756495467</v>
+        <v>6.3807802799052684</v>
       </c>
       <c r="P36">
-        <v>7.260742045736972</v>
+        <v>6.6617360492423048</v>
       </c>
       <c r="Q36">
-        <v>7.4401556588463977</v>
+        <v>7.4710432104834563</v>
       </c>
       <c r="R36">
-        <v>9.5596808990429771</v>
+        <v>9.1192677577277852</v>
       </c>
       <c r="S36">
-        <v>11.16947451289824</v>
+        <v>11.62676144298649</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37">
-        <v>89.136914735423957</v>
+        <v>89.019136482146294</v>
       </c>
       <c r="D37">
-        <v>87.886584523876778</v>
+        <v>87.41881497347002</v>
       </c>
       <c r="E37">
-        <v>85.182077925908814</v>
+        <v>84.760203320527722</v>
       </c>
       <c r="F37">
-        <v>77.204665073899605</v>
+        <v>78.539871405940673</v>
       </c>
       <c r="G37">
-        <v>71.096350953893008</v>
+        <v>73.359996619176897</v>
       </c>
       <c r="H37">
-        <v>59.379547868813631</v>
+        <v>62.13074772235575</v>
       </c>
       <c r="I37">
-        <v>43.699385191741804</v>
+        <v>50.478879685998855</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37">
-        <v>5.3032513228642397</v>
+        <v>5.5440228882484019</v>
       </c>
       <c r="N37">
-        <v>5.9601094723787273</v>
+        <v>6.1890179838423203</v>
       </c>
       <c r="O37">
-        <v>6.0286264536941063</v>
+        <v>5.9586184293843134</v>
       </c>
       <c r="P37">
-        <v>7.5178854114207478</v>
+        <v>6.8545846160008956</v>
       </c>
       <c r="Q37">
-        <v>8.2470656480477498</v>
+        <v>7.9156374588352119</v>
       </c>
       <c r="R37">
-        <v>10.424997008411969</v>
+        <v>9.791245427984272</v>
       </c>
       <c r="S37">
-        <v>10.44944997276256</v>
+        <v>10.04604976368349</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38">
-        <v>89.274625194319114</v>
+        <v>89.238869796493674</v>
       </c>
       <c r="D38">
-        <v>87.29547993864854</v>
+        <v>87.306095031975872</v>
       </c>
       <c r="E38">
-        <v>84.488892338167688</v>
+        <v>85.566169092021809</v>
       </c>
       <c r="F38">
-        <v>76.654213237491902</v>
+        <v>78.895888119014472</v>
       </c>
       <c r="G38">
-        <v>71.069540038540808</v>
+        <v>71.73637384351656</v>
       </c>
       <c r="H38">
-        <v>58.933686733178469</v>
+        <v>61.412781836092677</v>
       </c>
       <c r="I38">
-        <v>45.838147760018337</v>
+        <v>49.91230553601401</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38">
-        <v>5.0478825435862662</v>
+        <v>4.9520431158543712</v>
       </c>
       <c r="N38">
-        <v>6.0118817809267231</v>
+        <v>6.089338440962786</v>
       </c>
       <c r="O38">
-        <v>6.2353620101012437</v>
+        <v>6.2868088050108852</v>
       </c>
       <c r="P38">
-        <v>6.938598968494877</v>
+        <v>6.5544539385805303</v>
       </c>
       <c r="Q38">
-        <v>8.2164037287020903</v>
+        <v>9.0032669871014477</v>
       </c>
       <c r="R38">
-        <v>9.7806490267216244</v>
+        <v>9.5917571263641719</v>
       </c>
       <c r="S38">
-        <v>8.6759855008496167</v>
+        <v>8.39411943554272</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39">
-        <v>88.55740772559389</v>
+        <v>87.528624354026661</v>
       </c>
       <c r="D39">
-        <v>87.144761736654246</v>
+        <v>86.802859639484197</v>
       </c>
       <c r="E39">
-        <v>84.8682808945603</v>
+        <v>85.315702308010216</v>
       </c>
       <c r="F39">
-        <v>76.259175178098872</v>
+        <v>77.466410195573999</v>
       </c>
       <c r="G39">
-        <v>69.591167130025326</v>
+        <v>70.744609004505662</v>
       </c>
       <c r="H39">
-        <v>58.986956532618414</v>
+        <v>60.340914073578965</v>
       </c>
       <c r="I39">
-        <v>47.89452176779502</v>
+        <v>50.624658682159797</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39">
-        <v>5.9396566392688044</v>
+        <v>5.0598364128504718</v>
       </c>
       <c r="N39">
-        <v>6.0236638418986184</v>
+        <v>5.6364339917960171</v>
       </c>
       <c r="O39">
-        <v>5.5018254058368621</v>
+        <v>5.7486513894428279</v>
       </c>
       <c r="P39">
-        <v>8.2000632851191391</v>
+        <v>7.4568896228696975</v>
       </c>
       <c r="Q39">
-        <v>8.823984448765092</v>
+        <v>8.0033483489556136</v>
       </c>
       <c r="R39">
-        <v>9.5244872924031299</v>
+        <v>9.802914975481821</v>
       </c>
       <c r="S39">
-        <v>9.5389776174584302</v>
+        <v>10.868957426503</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -3184,6 +6465,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="L32:L39"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="L40:L46"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="L47:L49"/>
     <mergeCell ref="B50:B53"/>
@@ -3194,15 +6481,151 @@
     <mergeCell ref="L20:L22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="L23:L26"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="L32:L39"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="L40:L46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C2:I4 C8:I26">
+  <conditionalFormatting sqref="C2:I4 C13:I26">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4 C13:I26">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4 C14:I26">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4 C16:I26">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4 C20:I26">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4 C13:I26">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:I26 C2:I4">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:I31 C40:I53">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:I31 C41:I53">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:I31 C43:I53">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:I31 C47:I53">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:I31 C40:I53">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3214,7 +6637,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4 C13:I26 M9:S11 C9 N8:S8 C8:I8">
+  <conditionalFormatting sqref="C47:I53 C29:I31">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3226,8 +6659,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4 M9:S11 C9 N8:S8 C14:I26 C8:I8">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="M2:S4 M14:S26">
+    <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3238,8 +6671,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4 M9:S11 C9 N8:S8 C16:I26 C8:I8">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="M2:S4 M16:S26">
+    <cfRule type="colorScale" priority="151">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3250,8 +6683,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4 M9:S11 C9 N8:S8 C20:I26 C8:I8">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="M2:S4 M20:S26">
+    <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3262,7 +6695,135 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I26">
+  <conditionalFormatting sqref="M2:S4 M13:S26">
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:S4 M13:S26">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20:S26 M2:S4">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="163">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29:S31 M41:S53">
+    <cfRule type="colorScale" priority="193">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29:S31 M43:S53">
+    <cfRule type="colorScale" priority="197">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29:S31 M47:S53">
+    <cfRule type="colorScale" priority="201">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29:S31 M40:S53">
+    <cfRule type="colorScale" priority="205">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29:S31 M40:S53">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M47:S53 M29:S31">
+    <cfRule type="colorScale" priority="208">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="209">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:I12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3274,18 +6835,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:I26 C2:I4 M9:S11 C9 N8:S8 C8:I8">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="C32:I39">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3296,8 +6847,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:I31 C40:I53 M36:S38 C36 N35:S35 C35:I35">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="M5:S12">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3308,230 +6859,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:I31 M36:S38 C36 N35:S35 C41:I53 C35:I35">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29:I31 M36:S38 C36 N35:S35 C43:I53 C35:I35">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29:I31 M36:S38 C36 N35:S35 C47:I53 C35:I35">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29:I53">
+  <conditionalFormatting sqref="M32:S39">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47:I53 C29:I31 M36:S38 C36 N35:S35 C35:I35">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4 M8 M14:S26">
-    <cfRule type="colorScale" priority="143">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4 M8 M16:S26">
-    <cfRule type="colorScale" priority="147">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4 M8 M20:S26">
-    <cfRule type="colorScale" priority="151">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4 M13:S26 M8">
-    <cfRule type="colorScale" priority="155">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S26">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M20:S26 M2:S4 M8">
-    <cfRule type="colorScale" priority="158">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="159">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M29:S31 M35 M41:S53">
-    <cfRule type="colorScale" priority="189">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M29:S31 M35 M43:S53">
-    <cfRule type="colorScale" priority="193">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M29:S31 M35 M47:S53">
-    <cfRule type="colorScale" priority="197">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M29:S31 M40:S53 M35">
-    <cfRule type="colorScale" priority="201">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M29:S53">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M47:S53 M29:S31 M35">
-    <cfRule type="colorScale" priority="204">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3546,7 +6875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S37"/>
   <sheetViews>
@@ -5761,7 +9090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F53218-CEF1-46D7-8DF9-40D51C08895F}">
   <dimension ref="A1:S49"/>
   <sheetViews>
@@ -8312,6 +11641,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="L5:L11"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="L12:L17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="L18:L20"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="L43:L45"/>
     <mergeCell ref="B46:B49"/>
@@ -8322,12 +11657,6 @@
     <mergeCell ref="L30:L36"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="L37:L42"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="L5:L11"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="L12:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="L18:L20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I4 C6:I24">

--- a/results_cnn_subnetwork_evaluation/pcc/summary.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F1E73B-79CB-4C23-86F9-869CBB123820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950A0C09-8FA6-4713-B2F4-E63EE28F6823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="46">
   <si>
     <t>sr</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,14 @@
     <t>truncated graph spectral filtering lowpass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>exponential graph spectral filtering highpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exponential graph spectral filtering lowpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -255,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -266,6 +274,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407A0F26-EE3F-44D5-AD21-F0180FA13F65}">
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1563,32 +1652,53 @@
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="C20" s="4">
+        <v>92.016315020026113</v>
+      </c>
+      <c r="D20" s="4">
+        <v>92.223816815024335</v>
+      </c>
+      <c r="E20" s="4">
+        <v>91.530157411973008</v>
+      </c>
+      <c r="F20" s="4">
+        <v>89.148752728541453</v>
+      </c>
+      <c r="G20" s="4">
+        <v>85.016891726283703</v>
+      </c>
+      <c r="H20" s="4">
+        <v>72.681361142109068</v>
+      </c>
+      <c r="I20" s="4">
+        <v>59.345441281210633</v>
+      </c>
       <c r="K20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M20">
-        <v>3.5999390031185081</v>
-      </c>
-      <c r="N20">
-        <v>3.220758354161366</v>
-      </c>
-      <c r="O20">
-        <v>3.2022223500578324</v>
-      </c>
-      <c r="P20">
-        <v>5.6799810489317695</v>
-      </c>
-      <c r="Q20">
-        <v>6.648009735356526</v>
-      </c>
-      <c r="R20">
-        <v>9.5483528538586899</v>
-      </c>
-      <c r="S20">
-        <v>11.828700898935336</v>
+      <c r="M20" s="4">
+        <v>3.5594969186984389</v>
+      </c>
+      <c r="N20" s="4">
+        <v>3.363598203329865</v>
+      </c>
+      <c r="O20" s="4">
+        <v>3.4509333868304899</v>
+      </c>
+      <c r="P20" s="4">
+        <v>4.355078823808582</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>4.8669987321287964</v>
+      </c>
+      <c r="R20" s="4">
+        <v>8.0724208693832669</v>
+      </c>
+      <c r="S20" s="4">
+        <v>8.3603364821670869</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
@@ -1596,30 +1706,51 @@
         <v>39</v>
       </c>
       <c r="B21" s="2"/>
+      <c r="C21" s="5">
+        <v>91.138051943932624</v>
+      </c>
+      <c r="D21" s="5">
+        <v>91.247037892484656</v>
+      </c>
+      <c r="E21" s="5">
+        <v>91.177319873009282</v>
+      </c>
+      <c r="F21" s="5">
+        <v>88.650014273479869</v>
+      </c>
+      <c r="G21" s="5">
+        <v>86.686808132711633</v>
+      </c>
+      <c r="H21" s="5">
+        <v>74.981879889387741</v>
+      </c>
+      <c r="I21" s="5">
+        <v>62.512550569929971</v>
+      </c>
       <c r="K21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="L21" s="2"/>
-      <c r="M21">
-        <v>3.853047307727675</v>
-      </c>
-      <c r="N21">
-        <v>3.2863366199965514</v>
-      </c>
-      <c r="O21">
-        <v>2.9970219859999974</v>
-      </c>
-      <c r="P21">
-        <v>5.3994059165889148</v>
-      </c>
-      <c r="Q21">
-        <v>6.2705801506082341</v>
-      </c>
-      <c r="R21">
-        <v>8.3867961556623865</v>
-      </c>
-      <c r="S21">
-        <v>8.7161297009318943</v>
+      <c r="M21" s="5">
+        <v>4.8341548736925946</v>
+      </c>
+      <c r="N21" s="5">
+        <v>4.470449193244229</v>
+      </c>
+      <c r="O21" s="5">
+        <v>4.3335506946986211</v>
+      </c>
+      <c r="P21" s="5">
+        <v>5.7293126583400822</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>6.0242184745358411</v>
+      </c>
+      <c r="R21" s="5">
+        <v>7.766673095695432</v>
+      </c>
+      <c r="S21" s="5">
+        <v>8.1915354093968666</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -1627,54 +1758,159 @@
         <v>40</v>
       </c>
       <c r="B22" s="2"/>
+      <c r="C22" s="6">
+        <v>89.464493637488204</v>
+      </c>
+      <c r="D22" s="6">
+        <v>90.074167308252385</v>
+      </c>
+      <c r="E22" s="6">
+        <v>89.351462094539457</v>
+      </c>
+      <c r="F22" s="6">
+        <v>85.954252776119745</v>
+      </c>
+      <c r="G22" s="6">
+        <v>82.658961871065785</v>
+      </c>
+      <c r="H22" s="6">
+        <v>68.966153109744312</v>
+      </c>
+      <c r="I22" s="6">
+        <v>58.870163236706198</v>
+      </c>
       <c r="K22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L22" s="2"/>
+      <c r="M22" s="6">
+        <v>4.9049220966264562</v>
+      </c>
+      <c r="N22" s="6">
+        <v>4.2978279543221127</v>
+      </c>
+      <c r="O22" s="6">
+        <v>5.1209942747043522</v>
+      </c>
+      <c r="P22" s="6">
+        <v>5.9883374858763876</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>6.7438956967621673</v>
+      </c>
+      <c r="R22" s="6">
+        <v>6.7882030039350703</v>
+      </c>
+      <c r="S22" s="6">
+        <v>7.4095726633065748</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="2"/>
+      <c r="C23" s="7">
+        <v>88.032999132057071</v>
+      </c>
+      <c r="D23" s="7">
+        <v>89.123397837928238</v>
+      </c>
+      <c r="E23" s="7">
+        <v>89.095335311435775</v>
+      </c>
+      <c r="F23" s="7">
+        <v>85.939817818493253</v>
+      </c>
+      <c r="G23" s="7">
+        <v>82.718385683843863</v>
+      </c>
+      <c r="H23" s="7">
+        <v>69.924488966167516</v>
+      </c>
+      <c r="I23" s="7">
+        <v>56.324766361877408</v>
+      </c>
       <c r="K23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L23" s="2"/>
-      <c r="M23">
-        <v>3.7261369541242311</v>
-      </c>
-      <c r="N23">
-        <v>3.9516912887982287</v>
-      </c>
-      <c r="O23">
-        <v>3.651622745729187</v>
-      </c>
-      <c r="P23">
-        <v>5.3617656675424117</v>
-      </c>
-      <c r="Q23">
-        <v>5.2887601656881946</v>
-      </c>
-      <c r="R23">
-        <v>7.7897678257313983</v>
-      </c>
-      <c r="S23">
-        <v>7.5120690159434105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M23" s="7">
+        <v>4.7933326181048139</v>
+      </c>
+      <c r="N23" s="7">
+        <v>4.4311374886372574</v>
+      </c>
+      <c r="O23" s="7">
+        <v>4.1637112841542496</v>
+      </c>
+      <c r="P23" s="7">
+        <v>6.0379791420555646</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>6.0751863504780212</v>
+      </c>
+      <c r="R23" s="7">
+        <v>7.8896144140749769</v>
+      </c>
+      <c r="S23" s="7">
+        <v>6.4975593873317488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="C24" s="8">
+        <v>77.52366658304426</v>
+      </c>
+      <c r="D24" s="8">
+        <v>77.353319088688764</v>
+      </c>
+      <c r="E24" s="8">
+        <v>78.32834770773681</v>
+      </c>
+      <c r="F24" s="8">
+        <v>77.023004812613706</v>
+      </c>
+      <c r="G24" s="8">
+        <v>73.447662465361574</v>
+      </c>
+      <c r="H24" s="8">
+        <v>66.717070793576639</v>
+      </c>
+      <c r="I24" s="8">
+        <v>52.908231616767146</v>
+      </c>
       <c r="K24" s="1" t="s">
         <v>38</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="M24" s="8">
+        <v>8.9988382676507133</v>
+      </c>
+      <c r="N24" s="8">
+        <v>8.8100458098208172</v>
+      </c>
+      <c r="O24" s="8">
+        <v>9.03061517520233</v>
+      </c>
+      <c r="P24" s="8">
+        <v>8.8310077089100449</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>8.9701829534725679</v>
+      </c>
+      <c r="R24" s="8">
+        <v>10.234723428061301</v>
+      </c>
+      <c r="S24" s="8">
+        <v>8.7073581685551389</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -1682,85 +1918,211 @@
         <v>39</v>
       </c>
       <c r="B25" s="2"/>
+      <c r="C25" s="29">
+        <v>84.83746110837177</v>
+      </c>
+      <c r="D25" s="29">
+        <v>81.13842968653131</v>
+      </c>
+      <c r="E25" s="29">
+        <v>80.108838888456361</v>
+      </c>
+      <c r="F25" s="29">
+        <v>72.338091159958097</v>
+      </c>
+      <c r="G25" s="29">
+        <v>69.754845053446246</v>
+      </c>
+      <c r="H25" s="29">
+        <v>64.832827273592329</v>
+      </c>
+      <c r="I25" s="29">
+        <v>58.344939546766547</v>
+      </c>
       <c r="K25" s="1" t="s">
         <v>39</v>
       </c>
       <c r="L25" s="2"/>
+      <c r="M25" s="29">
+        <v>6.4398657108190296</v>
+      </c>
+      <c r="N25" s="29">
+        <v>7.4620003827243027</v>
+      </c>
+      <c r="O25" s="29">
+        <v>7.94876174820127</v>
+      </c>
+      <c r="P25" s="29">
+        <v>8.5268722275563782</v>
+      </c>
+      <c r="Q25" s="29">
+        <v>8.2407582443930565</v>
+      </c>
+      <c r="R25" s="29">
+        <v>8.3126250259409886</v>
+      </c>
+      <c r="S25" s="29">
+        <v>8.250377236470575</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="2"/>
+      <c r="C26" s="29">
+        <v>89.603309717212085</v>
+      </c>
+      <c r="D26" s="29">
+        <v>88.219854843034966</v>
+      </c>
+      <c r="E26" s="29">
+        <v>88.420537086537649</v>
+      </c>
+      <c r="F26" s="29">
+        <v>84.929290045761647</v>
+      </c>
+      <c r="G26" s="29">
+        <v>77.516518308981915</v>
+      </c>
+      <c r="H26" s="29">
+        <v>60.695937392768677</v>
+      </c>
+      <c r="I26" s="29">
+        <v>50.760837031462202</v>
+      </c>
       <c r="K26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L26" s="2"/>
+      <c r="M26" s="29">
+        <v>4.6421688324031569</v>
+      </c>
+      <c r="N26" s="29">
+        <v>5.0693750824170776</v>
+      </c>
+      <c r="O26" s="29">
+        <v>5.1952156259714464</v>
+      </c>
+      <c r="P26" s="29">
+        <v>5.7718316990322469</v>
+      </c>
+      <c r="Q26" s="29">
+        <v>7.8339493425673616</v>
+      </c>
+      <c r="R26" s="29">
+        <v>8.4754509477943429</v>
+      </c>
+      <c r="S26" s="29">
+        <v>8.8986073710080156</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="2"/>
+      <c r="C27" s="29">
+        <v>89.968586810151194</v>
+      </c>
+      <c r="D27" s="29">
+        <v>89.864805635573546</v>
+      </c>
+      <c r="E27" s="29">
+        <v>89.518407021975406</v>
+      </c>
+      <c r="F27" s="29">
+        <v>86.282545696762085</v>
+      </c>
+      <c r="G27" s="29">
+        <v>81.061644131869656</v>
+      </c>
+      <c r="H27" s="29">
+        <v>66.801970605282051</v>
+      </c>
+      <c r="I27" s="29">
+        <v>53.084931530549582</v>
+      </c>
       <c r="K27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M27" s="29">
+        <v>4.7831146921405292</v>
+      </c>
+      <c r="N27" s="29">
+        <v>4.2412387414057404</v>
+      </c>
+      <c r="O27" s="29">
+        <v>5.1745094378224756</v>
+      </c>
+      <c r="P27" s="29">
+        <v>5.7669258165199109</v>
+      </c>
+      <c r="Q27" s="29">
+        <v>7.2014665684096384</v>
+      </c>
+      <c r="R27" s="29">
+        <v>9.2405858967595975</v>
+      </c>
+      <c r="S27" s="29">
+        <v>8.7167217320170494</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28">
-        <v>91.400317765147904</v>
-      </c>
-      <c r="D28">
-        <v>89.262917499286303</v>
-      </c>
-      <c r="E28">
-        <v>87.516457754824899</v>
-      </c>
-      <c r="F28">
-        <v>83.407858199465394</v>
-      </c>
-      <c r="G28">
-        <v>75.234382073662701</v>
-      </c>
-      <c r="H28">
-        <v>65.65169537222063</v>
-      </c>
-      <c r="I28">
-        <v>55.684469588837267</v>
+        <v>44</v>
+      </c>
+      <c r="C28" s="84">
+        <v>91.706130675870909</v>
+      </c>
+      <c r="D28" s="84">
+        <v>89.970723506835398</v>
+      </c>
+      <c r="E28" s="84">
+        <v>87.103896515829149</v>
+      </c>
+      <c r="F28" s="84">
+        <v>82.972130670103823</v>
+      </c>
+      <c r="G28" s="84">
+        <v>75.327367307098967</v>
+      </c>
+      <c r="H28" s="84">
+        <v>65.182697658860945</v>
+      </c>
+      <c r="I28" s="84">
+        <v>55.708662416341546</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M28">
-        <v>4.4705871326314179</v>
-      </c>
-      <c r="N28">
-        <v>5.060923633729546</v>
-      </c>
-      <c r="O28">
-        <v>5.305586982280901</v>
-      </c>
-      <c r="P28">
-        <v>6.0962529172659528</v>
-      </c>
-      <c r="Q28">
-        <v>8.1913371546081049</v>
-      </c>
-      <c r="R28">
-        <v>8.0946840176792261</v>
-      </c>
-      <c r="S28">
-        <v>7.1943442199999996</v>
+        <v>44</v>
+      </c>
+      <c r="M28" s="43">
+        <v>4.1096444624414348</v>
+      </c>
+      <c r="N28" s="43">
+        <v>4.8115075233158553</v>
+      </c>
+      <c r="O28" s="43">
+        <v>6.0313859112185284</v>
+      </c>
+      <c r="P28" s="43">
+        <v>7.4994289824872569</v>
+      </c>
+      <c r="Q28" s="43">
+        <v>8.0664709476377325</v>
+      </c>
+      <c r="R28" s="43">
+        <v>8.1731046242614553</v>
+      </c>
+      <c r="S28" s="43">
+        <v>6.5902059290929076</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
@@ -1768,51 +2130,51 @@
         <v>12</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29">
-        <v>91.311943298240763</v>
-      </c>
-      <c r="D29">
-        <v>89.370127192565121</v>
-      </c>
-      <c r="E29">
-        <v>87.091004247441589</v>
-      </c>
-      <c r="F29">
-        <v>83.178669365651956</v>
-      </c>
-      <c r="G29">
-        <v>75.695481794825213</v>
-      </c>
-      <c r="H29">
-        <v>65.348613165627143</v>
-      </c>
-      <c r="I29">
-        <v>54.669143620042853</v>
+      <c r="C29" s="84">
+        <v>91.41464891564803</v>
+      </c>
+      <c r="D29" s="84">
+        <v>89.196143565255767</v>
+      </c>
+      <c r="E29" s="84">
+        <v>87.628650190168898</v>
+      </c>
+      <c r="F29" s="84">
+        <v>83.011923401874881</v>
+      </c>
+      <c r="G29" s="84">
+        <v>76.001089974826769</v>
+      </c>
+      <c r="H29" s="84">
+        <v>65.228070023673794</v>
+      </c>
+      <c r="I29" s="84">
+        <v>55.410508164718841</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="2"/>
-      <c r="M29">
-        <v>4.0467549685577549</v>
-      </c>
-      <c r="N29">
-        <v>5.3874637080888661</v>
-      </c>
-      <c r="O29">
-        <v>6.1870364160372322</v>
-      </c>
-      <c r="P29">
-        <v>6.3559389875083614</v>
-      </c>
-      <c r="Q29">
-        <v>7.9849257442389989</v>
-      </c>
-      <c r="R29">
-        <v>7.6304645570517318</v>
-      </c>
-      <c r="S29">
-        <v>7.3197816968004066</v>
+      <c r="M29" s="44">
+        <v>4.7612716077570836</v>
+      </c>
+      <c r="N29" s="45">
+        <v>5.5893016513236677</v>
+      </c>
+      <c r="O29" s="47">
+        <v>5.5973062664960658</v>
+      </c>
+      <c r="P29" s="49">
+        <v>6.7920774714213881</v>
+      </c>
+      <c r="Q29" s="51">
+        <v>8.0959178134408774</v>
+      </c>
+      <c r="R29" s="53">
+        <v>8.6177189861834194</v>
+      </c>
+      <c r="S29" s="55">
+        <v>6.1829827240669077</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
@@ -1820,51 +2182,51 @@
         <v>13</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30">
-        <v>91.56461849439296</v>
-      </c>
-      <c r="D30">
-        <v>89.518764579855088</v>
-      </c>
-      <c r="E30">
-        <v>87.394233514130747</v>
-      </c>
-      <c r="F30">
-        <v>82.944918785341287</v>
-      </c>
-      <c r="G30">
-        <v>75.404545022015753</v>
-      </c>
-      <c r="H30">
-        <v>65.65904549347313</v>
-      </c>
-      <c r="I30">
-        <v>54.944310360239562</v>
+      <c r="C30" s="84">
+        <v>91.233234428210153</v>
+      </c>
+      <c r="D30" s="84">
+        <v>89.521143493167472</v>
+      </c>
+      <c r="E30" s="84">
+        <v>87.103083360006011</v>
+      </c>
+      <c r="F30" s="84">
+        <v>83.442645120920858</v>
+      </c>
+      <c r="G30" s="84">
+        <v>75.869846048264534</v>
+      </c>
+      <c r="H30" s="84">
+        <v>65.723022402154569</v>
+      </c>
+      <c r="I30" s="84">
+        <v>55.251394908260451</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L30" s="2"/>
-      <c r="M30">
-        <v>4.2430822168081885</v>
-      </c>
-      <c r="N30">
-        <v>5.4170543777535949</v>
-      </c>
-      <c r="O30">
-        <v>5.8153920851000507</v>
-      </c>
-      <c r="P30">
-        <v>6.9734376865550818</v>
-      </c>
-      <c r="Q30">
-        <v>7.4401211191496754</v>
-      </c>
-      <c r="R30">
-        <v>8.4293318255439598</v>
-      </c>
-      <c r="S30">
-        <v>6.6847512599680599</v>
+      <c r="M30" s="57">
+        <v>4.4196618747458274</v>
+      </c>
+      <c r="N30" s="59">
+        <v>4.7273229469807623</v>
+      </c>
+      <c r="O30" s="61">
+        <v>6.1537557387603137</v>
+      </c>
+      <c r="P30" s="63">
+        <v>6.09221208528467</v>
+      </c>
+      <c r="Q30" s="65">
+        <v>8.4076975305859918</v>
+      </c>
+      <c r="R30" s="67">
+        <v>8.3850919802045123</v>
+      </c>
+      <c r="S30" s="69">
+        <v>7.8576967518700123</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -1872,1449 +2234,1880 @@
         <v>14</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31">
-        <v>91.662871939491964</v>
-      </c>
-      <c r="D31">
-        <v>89.764199228943724</v>
-      </c>
-      <c r="E31">
-        <v>86.941692113830285</v>
-      </c>
-      <c r="F31">
-        <v>82.796866754902723</v>
-      </c>
-      <c r="G31">
-        <v>75.301268465413486</v>
-      </c>
-      <c r="H31">
-        <v>65.471021952323696</v>
-      </c>
-      <c r="I31">
-        <v>54.430251703446103</v>
+      <c r="C31" s="84">
+        <v>91.546953981724201</v>
+      </c>
+      <c r="D31" s="84">
+        <v>89.817117795136639</v>
+      </c>
+      <c r="E31" s="84">
+        <v>86.651499292093064</v>
+      </c>
+      <c r="F31" s="84">
+        <v>82.975288136863938</v>
+      </c>
+      <c r="G31" s="84">
+        <v>75.873963730943458</v>
+      </c>
+      <c r="H31" s="84">
+        <v>65.703944959154782</v>
+      </c>
+      <c r="I31" s="84">
+        <v>55.148432656568538</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L31" s="2"/>
-      <c r="M31">
-        <v>4.4995201333318091</v>
-      </c>
-      <c r="N31">
-        <v>4.4513457826028322</v>
-      </c>
-      <c r="O31">
-        <v>6.2751627216563541</v>
-      </c>
-      <c r="P31">
-        <v>6.9737819527179798</v>
-      </c>
-      <c r="Q31">
-        <v>8.4546290614947477</v>
-      </c>
-      <c r="R31">
-        <v>8.2387450895919709</v>
-      </c>
-      <c r="S31">
-        <v>6.5615932488945345</v>
+      <c r="M31" s="71">
+        <v>4.7471219152691706</v>
+      </c>
+      <c r="N31" s="73">
+        <v>4.6476712549783876</v>
+      </c>
+      <c r="O31" s="75">
+        <v>6.3036785226113494</v>
+      </c>
+      <c r="P31" s="77">
+        <v>7.2163409113856396</v>
+      </c>
+      <c r="Q31" s="79">
+        <v>8.157168147690756</v>
+      </c>
+      <c r="R31" s="81">
+        <v>7.9938212473896</v>
+      </c>
+      <c r="S31" s="83">
+        <v>7.1459161260184638</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="K33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="K34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="K35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C37" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D37" s="1">
         <v>0.75</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E37" s="1">
         <v>0.5</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F37" s="1">
         <v>0.3</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G37" s="1">
         <v>0.2</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H37" s="1">
         <v>0.1</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I37" s="1">
         <v>0.05</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M37" s="1">
         <v>1</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N37" s="1">
         <v>0.75</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O37" s="1">
         <v>0.5</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P37" s="1">
         <v>0.3</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q37" s="1">
         <v>0.2</v>
       </c>
-      <c r="R33" s="1">
+      <c r="R37" s="1">
         <v>0.1</v>
       </c>
-      <c r="S33" s="1">
+      <c r="S37" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C34">
+      <c r="C38">
         <v>92.567111769713335</v>
       </c>
-      <c r="D34">
+      <c r="D38">
         <v>90.835858608343599</v>
       </c>
-      <c r="E34">
+      <c r="E38">
         <v>89.217505339533233</v>
       </c>
-      <c r="F34">
+      <c r="F38">
         <v>83.237245964288078</v>
       </c>
-      <c r="G34">
+      <c r="G38">
         <v>75.380430844191011</v>
       </c>
-      <c r="H34">
+      <c r="H38">
         <v>58.994367187597383</v>
       </c>
-      <c r="I34">
+      <c r="I38">
         <v>43.622535641382179</v>
       </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1" t="s">
+      <c r="K38" s="1"/>
+      <c r="L38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M34">
+      <c r="M38">
         <v>3.88093621561358</v>
       </c>
-      <c r="N34">
+      <c r="N38">
         <v>4.8164746829677396</v>
       </c>
-      <c r="O34">
+      <c r="O38">
         <v>5.2250608386616522</v>
       </c>
-      <c r="P34">
+      <c r="P38">
         <v>5.6675721086724113</v>
       </c>
-      <c r="Q34">
+      <c r="Q38">
         <v>8.3263283482936075</v>
       </c>
-      <c r="R34">
+      <c r="R38">
         <v>10.49020927094638</v>
       </c>
-      <c r="S34">
+      <c r="S38">
         <v>11.060437347759546</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C35">
+      <c r="C39">
         <v>92.338566773632834</v>
       </c>
-      <c r="D35">
+      <c r="D39">
         <v>92.22816257293259</v>
       </c>
-      <c r="E35">
+      <c r="E39">
         <v>92.19353000091759</v>
       </c>
-      <c r="F35">
+      <c r="F39">
         <v>91.289781910285583</v>
       </c>
-      <c r="G35">
+      <c r="G39">
         <v>89.68940373291737</v>
       </c>
-      <c r="H35">
+      <c r="H39">
         <v>81.453332231966129</v>
       </c>
-      <c r="I35">
+      <c r="I39">
         <v>68.108240193153023</v>
       </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1" t="s">
+      <c r="K39" s="1"/>
+      <c r="L39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M35">
+      <c r="M39">
         <v>4.0483086633488163</v>
       </c>
-      <c r="N35">
+      <c r="N39">
         <v>3.9020890437152844</v>
       </c>
-      <c r="O35">
+      <c r="O39">
         <v>3.7923842410048425</v>
       </c>
-      <c r="P35">
+      <c r="P39">
         <v>4.4242632373638857</v>
       </c>
-      <c r="Q35">
+      <c r="Q39">
         <v>4.2715813123996149</v>
       </c>
-      <c r="R35">
+      <c r="R39">
         <v>6.1738858238669021</v>
       </c>
-      <c r="S35">
+      <c r="S39">
         <v>6.3931839578006242</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C36">
+      <c r="C40">
         <v>88.499186482198567</v>
       </c>
-      <c r="D36">
+      <c r="D40">
         <v>87.5173416768165</v>
       </c>
-      <c r="E36">
+      <c r="E40">
         <v>85.730415589590905</v>
       </c>
-      <c r="F36">
+      <c r="F40">
         <v>72.655656749380555</v>
       </c>
-      <c r="G36">
+      <c r="G40">
         <v>67.884915781227093</v>
       </c>
-      <c r="H36">
+      <c r="H40">
         <v>59.263790034123531</v>
       </c>
-      <c r="I36">
+      <c r="I40">
         <v>44.56238292926399</v>
       </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1" t="s">
+      <c r="K40" s="1"/>
+      <c r="L40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M36">
+      <c r="M40">
         <v>5.9037054685544437</v>
       </c>
-      <c r="N36">
+      <c r="N40">
         <v>5.6982495929152117</v>
       </c>
-      <c r="O36">
+      <c r="O40">
         <v>6.1857913087331307</v>
       </c>
-      <c r="P36">
+      <c r="P40">
         <v>8.0751376961596364</v>
       </c>
-      <c r="Q36">
+      <c r="Q40">
         <v>7.9066987943669274</v>
       </c>
-      <c r="R36">
+      <c r="R40">
         <v>10.433474589731558</v>
       </c>
-      <c r="S36">
+      <c r="S40">
         <v>11.016794446797121</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C37">
+      <c r="C41">
         <v>92.585967481796871</v>
       </c>
-      <c r="D37">
+      <c r="D41">
         <v>91.313417902038879</v>
       </c>
-      <c r="E37">
+      <c r="E41">
         <v>89.071433240773374</v>
       </c>
-      <c r="F37">
+      <c r="F41">
         <v>84.430667065862025</v>
       </c>
-      <c r="G37">
+      <c r="G41">
         <v>74.620110321660178</v>
       </c>
-      <c r="H37">
+      <c r="H41">
         <v>57.729776408047563</v>
       </c>
-      <c r="I37">
+      <c r="I41">
         <v>40.926778409266866</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M37">
+      <c r="M41">
         <v>4.1190461448812883</v>
       </c>
-      <c r="N37">
+      <c r="N41">
         <v>5.0479140386031087</v>
       </c>
-      <c r="O37">
+      <c r="O41">
         <v>5.7227029784618981</v>
       </c>
-      <c r="P37">
+      <c r="P41">
         <v>5.4985207967748737</v>
       </c>
-      <c r="Q37">
+      <c r="Q41">
         <v>8.9665209094802485</v>
       </c>
-      <c r="R37">
+      <c r="R41">
         <v>11.349059301553211</v>
       </c>
-      <c r="S37">
+      <c r="S41">
         <v>11.05617423164966</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38">
-        <v>92.603782215910087</v>
-      </c>
-      <c r="D38">
-        <v>90.262334808427767</v>
-      </c>
-      <c r="E38">
-        <v>89.82540629282677</v>
-      </c>
-      <c r="F38">
-        <v>84.400771771755316</v>
-      </c>
-      <c r="G38">
-        <v>78.772449333136279</v>
-      </c>
-      <c r="H38">
-        <v>61.840203650833359</v>
-      </c>
-      <c r="I38">
-        <v>38.412876121977916</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L38" s="2"/>
-      <c r="M38">
-        <v>4.4405799374618198</v>
-      </c>
-      <c r="N38">
-        <v>5.7451202216286257</v>
-      </c>
-      <c r="O38">
-        <v>4.8670511789444468</v>
-      </c>
-      <c r="P38">
-        <v>4.9325366781832338</v>
-      </c>
-      <c r="Q38">
-        <v>7.029848092265345</v>
-      </c>
-      <c r="R38">
-        <v>9.0186943841326457</v>
-      </c>
-      <c r="S38">
-        <v>7.771449833097023</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39">
-        <v>91.081927840808433</v>
-      </c>
-      <c r="D39">
-        <v>87.684987506619976</v>
-      </c>
-      <c r="E39">
-        <v>87.27081687164015</v>
-      </c>
-      <c r="F39">
-        <v>83.161961006389646</v>
-      </c>
-      <c r="G39">
-        <v>78.602198625513438</v>
-      </c>
-      <c r="H39">
-        <v>62.429217703804063</v>
-      </c>
-      <c r="I39">
-        <v>50.327216453861126</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L39" s="2"/>
-      <c r="M39">
-        <v>5.0278535681088243</v>
-      </c>
-      <c r="N39">
-        <v>6.4718041382743881</v>
-      </c>
-      <c r="O39">
-        <v>6.3307190280562127</v>
-      </c>
-      <c r="P39">
-        <v>6.3795918367927573</v>
-      </c>
-      <c r="Q39">
-        <v>7.6119651620777704</v>
-      </c>
-      <c r="R39">
-        <v>10.57249776824408</v>
-      </c>
-      <c r="S39">
-        <v>12.72817257493416</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40">
-        <v>89.644638837679821</v>
-      </c>
-      <c r="D40">
-        <v>88.832235357085267</v>
-      </c>
-      <c r="E40">
-        <v>87.784876095604616</v>
-      </c>
-      <c r="F40">
-        <v>79.565194861748779</v>
-      </c>
-      <c r="G40">
-        <v>75.734515312347014</v>
-      </c>
-      <c r="H40">
-        <v>62.439186953401219</v>
-      </c>
-      <c r="I40">
-        <v>50.474777835549446</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L40" s="2"/>
-      <c r="M40">
-        <v>5.6337263714853885</v>
-      </c>
-      <c r="N40">
-        <v>6.3295758340906003</v>
-      </c>
-      <c r="O40">
-        <v>5.712095802065237</v>
-      </c>
-      <c r="P40">
-        <v>6.0565246528809871</v>
-      </c>
-      <c r="Q40">
-        <v>7.1392332762901995</v>
-      </c>
-      <c r="R40">
-        <v>9.8513477784150112</v>
-      </c>
-      <c r="S40">
-        <v>12.535546063955879</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41">
-        <v>89.487105403835685</v>
-      </c>
-      <c r="D41">
-        <v>88.707572078492916</v>
-      </c>
-      <c r="E41">
-        <v>86.426030723556863</v>
-      </c>
-      <c r="F41">
-        <v>78.49543423448246</v>
-      </c>
-      <c r="G41">
-        <v>74.133652201259196</v>
-      </c>
-      <c r="H41">
-        <v>65.444157538801676</v>
-      </c>
-      <c r="I41">
-        <v>52.493719332914743</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L41" s="2"/>
-      <c r="M41">
-        <v>5.5869146897287463</v>
-      </c>
-      <c r="N41">
-        <v>5.7426745960735408</v>
-      </c>
-      <c r="O41">
-        <v>6.3807802799052684</v>
-      </c>
-      <c r="P41">
-        <v>6.6617360492423048</v>
-      </c>
-      <c r="Q41">
-        <v>7.4710432104834563</v>
-      </c>
-      <c r="R41">
-        <v>9.1192677577277852</v>
-      </c>
-      <c r="S41">
-        <v>11.62676144298649</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42">
-        <v>89.019136482146294</v>
+        <v>92.603782215910087</v>
       </c>
       <c r="D42">
-        <v>87.41881497347002</v>
+        <v>90.262334808427767</v>
       </c>
       <c r="E42">
-        <v>84.760203320527722</v>
+        <v>89.82540629282677</v>
       </c>
       <c r="F42">
-        <v>78.539871405940673</v>
+        <v>84.400771771755316</v>
       </c>
       <c r="G42">
-        <v>73.359996619176897</v>
+        <v>78.772449333136279</v>
       </c>
       <c r="H42">
-        <v>62.13074772235575</v>
+        <v>61.840203650833359</v>
       </c>
       <c r="I42">
-        <v>50.478879685998855</v>
+        <v>38.412876121977916</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42">
-        <v>5.5440228882484019</v>
+        <v>4.4405799374618198</v>
       </c>
       <c r="N42">
-        <v>6.1890179838423203</v>
+        <v>5.7451202216286257</v>
       </c>
       <c r="O42">
-        <v>5.9586184293843134</v>
+        <v>4.8670511789444468</v>
       </c>
       <c r="P42">
-        <v>6.8545846160008956</v>
+        <v>4.9325366781832338</v>
       </c>
       <c r="Q42">
-        <v>7.9156374588352119</v>
+        <v>7.029848092265345</v>
       </c>
       <c r="R42">
-        <v>9.791245427984272</v>
+        <v>9.0186943841326457</v>
       </c>
       <c r="S42">
-        <v>10.04604976368349</v>
+        <v>7.771449833097023</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43">
-        <v>89.238869796493674</v>
+        <v>91.081927840808433</v>
       </c>
       <c r="D43">
-        <v>87.306095031975872</v>
+        <v>87.684987506619976</v>
       </c>
       <c r="E43">
-        <v>85.566169092021809</v>
+        <v>87.27081687164015</v>
       </c>
       <c r="F43">
-        <v>78.895888119014472</v>
+        <v>83.161961006389646</v>
       </c>
       <c r="G43">
-        <v>71.73637384351656</v>
+        <v>78.602198625513438</v>
       </c>
       <c r="H43">
-        <v>61.412781836092677</v>
+        <v>62.429217703804063</v>
       </c>
       <c r="I43">
-        <v>49.91230553601401</v>
+        <v>50.327216453861126</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43">
-        <v>4.9520431158543712</v>
+        <v>5.0278535681088243</v>
       </c>
       <c r="N43">
-        <v>6.089338440962786</v>
+        <v>6.4718041382743881</v>
       </c>
       <c r="O43">
-        <v>6.2868088050108852</v>
+        <v>6.3307190280562127</v>
       </c>
       <c r="P43">
-        <v>6.5544539385805303</v>
+        <v>6.3795918367927573</v>
       </c>
       <c r="Q43">
-        <v>9.0032669871014477</v>
+        <v>7.6119651620777704</v>
       </c>
       <c r="R43">
-        <v>9.5917571263641719</v>
+        <v>10.57249776824408</v>
       </c>
       <c r="S43">
-        <v>8.39411943554272</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+        <v>12.72817257493416</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44">
-        <v>87.528624354026661</v>
+        <v>89.644638837679821</v>
       </c>
       <c r="D44">
-        <v>86.802859639484197</v>
+        <v>88.832235357085267</v>
       </c>
       <c r="E44">
-        <v>85.315702308010216</v>
+        <v>87.784876095604616</v>
       </c>
       <c r="F44">
-        <v>77.466410195573999</v>
+        <v>79.565194861748779</v>
       </c>
       <c r="G44">
-        <v>70.744609004505662</v>
+        <v>75.734515312347014</v>
       </c>
       <c r="H44">
-        <v>60.340914073578965</v>
+        <v>62.439186953401219</v>
       </c>
       <c r="I44">
-        <v>50.624658682159797</v>
+        <v>50.474777835549446</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44">
-        <v>5.0598364128504718</v>
+        <v>5.6337263714853885</v>
       </c>
       <c r="N44">
-        <v>5.6364339917960171</v>
+        <v>6.3295758340906003</v>
       </c>
       <c r="O44">
-        <v>5.7486513894428279</v>
+        <v>5.712095802065237</v>
       </c>
       <c r="P44">
-        <v>7.4568896228696975</v>
+        <v>6.0565246528809871</v>
       </c>
       <c r="Q44">
-        <v>8.0033483489556136</v>
+        <v>7.1392332762901995</v>
       </c>
       <c r="R44">
-        <v>9.802914975481821</v>
+        <v>9.8513477784150112</v>
       </c>
       <c r="S44">
-        <v>10.868957426503</v>
+        <v>12.535546063955879</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45">
-        <v>91.954943077771645</v>
+        <v>89.487105403835685</v>
       </c>
       <c r="D45">
-        <v>90.486053623351509</v>
+        <v>88.707572078492916</v>
       </c>
       <c r="E45">
-        <v>87.574188580435759</v>
+        <v>86.426030723556863</v>
       </c>
       <c r="F45">
-        <v>80.195562284133075</v>
+        <v>78.49543423448246</v>
       </c>
       <c r="G45">
-        <v>73.887556692554313</v>
+        <v>74.133652201259196</v>
       </c>
       <c r="H45">
-        <v>60.201740744469255</v>
+        <v>65.444157538801676</v>
       </c>
       <c r="I45">
-        <v>43.97379234137982</v>
+        <v>52.493719332914743</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L45" s="2"/>
       <c r="M45">
-        <v>4.6677178192019442</v>
+        <v>5.5869146897287463</v>
       </c>
       <c r="N45">
-        <v>4.9332992633954884</v>
+        <v>5.7426745960735408</v>
       </c>
       <c r="O45">
-        <v>5.8893270280054093</v>
+        <v>6.3807802799052684</v>
       </c>
       <c r="P45">
-        <v>6.2276780045249982</v>
+        <v>6.6617360492423048</v>
       </c>
       <c r="Q45">
-        <v>7.8100433893753065</v>
+        <v>7.4710432104834563</v>
       </c>
       <c r="R45">
-        <v>10.127273986997725</v>
+        <v>9.1192677577277852</v>
       </c>
       <c r="S45">
-        <v>12.975199093257455</v>
+        <v>11.62676144298649</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46">
-        <v>90.642246446502455</v>
+        <v>89.019136482146294</v>
       </c>
       <c r="D46">
-        <v>91.112891818426803</v>
+        <v>87.41881497347002</v>
       </c>
       <c r="E46">
-        <v>90.510903269239805</v>
+        <v>84.760203320527722</v>
       </c>
       <c r="F46">
-        <v>90.384514875799795</v>
+        <v>78.539871405940673</v>
       </c>
       <c r="G46">
-        <v>88.747243892649067</v>
+        <v>73.359996619176897</v>
       </c>
       <c r="H46">
-        <v>77.721185641433252</v>
+        <v>62.13074772235575</v>
       </c>
       <c r="I46">
-        <v>57.390955449525258</v>
+        <v>50.478879685998855</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L46" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="L46" s="2"/>
       <c r="M46">
-        <v>4.8046743223783803</v>
+        <v>5.5440228882484019</v>
       </c>
       <c r="N46">
-        <v>4.6267271925378539</v>
+        <v>6.1890179838423203</v>
       </c>
       <c r="O46">
-        <v>4.7167994848022108</v>
+        <v>5.9586184293843134</v>
       </c>
       <c r="P46">
-        <v>4.6380378521606005</v>
+        <v>6.8545846160008956</v>
       </c>
       <c r="Q46">
-        <v>4.941832660679113</v>
+        <v>7.9156374588352119</v>
       </c>
       <c r="R46">
-        <v>6.5489356622072048</v>
+        <v>9.791245427984272</v>
       </c>
       <c r="S46">
-        <v>9.8361171493471335</v>
+        <v>10.04604976368349</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47">
-        <v>90.617152023346819</v>
+        <v>89.238869796493674</v>
       </c>
       <c r="D47">
-        <v>90.05855315992585</v>
+        <v>87.306095031975872</v>
       </c>
       <c r="E47">
-        <v>89.179945583344406</v>
+        <v>85.566169092021809</v>
       </c>
       <c r="F47">
-        <v>86.633871646318525</v>
+        <v>78.895888119014472</v>
       </c>
       <c r="G47">
-        <v>82.414435110979952</v>
+        <v>71.73637384351656</v>
       </c>
       <c r="H47">
-        <v>69.823014577124326</v>
+        <v>61.412781836092677</v>
       </c>
       <c r="I47">
-        <v>57.449010771275319</v>
+        <v>49.91230553601401</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="L47" s="2"/>
       <c r="M47">
-        <v>4.2750077328577394</v>
+        <v>4.9520431158543712</v>
       </c>
       <c r="N47">
-        <v>4.2266125705467239</v>
+        <v>6.089338440962786</v>
       </c>
       <c r="O47">
-        <v>5.2565974786040313</v>
+        <v>6.2868088050108852</v>
       </c>
       <c r="P47">
-        <v>5.7069770284176009</v>
+        <v>6.5544539385805303</v>
       </c>
       <c r="Q47">
-        <v>6.3983299535714817</v>
+        <v>9.0032669871014477</v>
       </c>
       <c r="R47">
-        <v>6.6655406069698175</v>
+        <v>9.5917571263641719</v>
       </c>
       <c r="S47">
-        <v>9.1124239201893804</v>
+        <v>8.39411943554272</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48">
-        <v>90.581355357949491</v>
+        <v>87.528624354026661</v>
       </c>
       <c r="D48">
-        <v>88.97341294355499</v>
+        <v>86.802859639484197</v>
       </c>
       <c r="E48">
-        <v>86.175206640299365</v>
+        <v>85.315702308010216</v>
       </c>
       <c r="F48">
-        <v>83.080132284515585</v>
+        <v>77.466410195573999</v>
       </c>
       <c r="G48">
-        <v>78.599726564969771</v>
+        <v>70.744609004505662</v>
       </c>
       <c r="H48">
-        <v>66.3934253274236</v>
+        <v>60.340914073578965</v>
       </c>
       <c r="I48">
-        <v>58.11224589934929</v>
+        <v>50.624658682159797</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="L48" s="2"/>
       <c r="M48">
-        <v>4.4778305644230976</v>
+        <v>5.0598364128504718</v>
       </c>
       <c r="N48">
-        <v>4.8960641145432993</v>
+        <v>5.6364339917960171</v>
       </c>
       <c r="O48">
-        <v>6.1124849117603945</v>
+        <v>5.7486513894428279</v>
       </c>
       <c r="P48">
-        <v>5.8618346048185197</v>
+        <v>7.4568896228696975</v>
       </c>
       <c r="Q48">
-        <v>5.8104015835542553</v>
+        <v>8.0033483489556136</v>
       </c>
       <c r="R48">
-        <v>7.7638343010849269</v>
+        <v>9.802914975481821</v>
       </c>
       <c r="S48">
-        <v>8.9944066091442814</v>
+        <v>10.868957426503</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C49">
-        <v>90.510302373601434</v>
+        <v>91.954943077771645</v>
       </c>
       <c r="D49">
-        <v>88.824953889297518</v>
+        <v>90.486053623351509</v>
       </c>
       <c r="E49">
-        <v>86.674942469044325</v>
+        <v>87.574188580435759</v>
       </c>
       <c r="F49">
-        <v>81.543605709946462</v>
+        <v>80.195562284133075</v>
       </c>
       <c r="G49">
-        <v>75.271718740593627</v>
+        <v>73.887556692554313</v>
       </c>
       <c r="H49">
-        <v>67.72658070045415</v>
+        <v>60.201740744469255</v>
       </c>
       <c r="I49">
-        <v>58.433623636929134</v>
+        <v>43.97379234137982</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L49" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="M49">
-        <v>5.1076806654003626</v>
+        <v>4.6677178192019442</v>
       </c>
       <c r="N49">
-        <v>5.3873200605855445</v>
+        <v>4.9332992633954884</v>
       </c>
       <c r="O49">
-        <v>5.9833392560659284</v>
+        <v>5.8893270280054093</v>
       </c>
       <c r="P49">
-        <v>6.1215105686801499</v>
+        <v>6.2276780045249982</v>
       </c>
       <c r="Q49">
-        <v>7.3159920074958444</v>
+        <v>7.8100433893753065</v>
       </c>
       <c r="R49">
-        <v>8.5044787981464225</v>
+        <v>10.127273986997725</v>
       </c>
       <c r="S49">
-        <v>8.5926586855477538</v>
+        <v>12.975199093257455</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50">
-        <v>90.77523149389998</v>
+        <v>90.642246446502455</v>
       </c>
       <c r="D50">
-        <v>89.185217369225327</v>
+        <v>91.112891818426803</v>
       </c>
       <c r="E50">
-        <v>86.832129001570053</v>
+        <v>90.510903269239805</v>
       </c>
       <c r="F50">
-        <v>82.015640393948175</v>
+        <v>90.384514875799795</v>
       </c>
       <c r="G50">
-        <v>74.972613257814999</v>
+        <v>88.747243892649067</v>
       </c>
       <c r="H50">
-        <v>65.417864082249295</v>
+        <v>77.721185641433252</v>
       </c>
       <c r="I50">
-        <v>55.042441020336085</v>
+        <v>57.390955449525258</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50">
-        <v>4.8120651940731003</v>
+        <v>4.8046743223783803</v>
       </c>
       <c r="N50">
-        <v>5.3504041978372019</v>
+        <v>4.6267271925378539</v>
       </c>
       <c r="O50">
-        <v>5.6560471528137661</v>
+        <v>4.7167994848022108</v>
       </c>
       <c r="P50">
-        <v>6.5079634189489424</v>
+        <v>4.6380378521606005</v>
       </c>
       <c r="Q50">
-        <v>7.8749746185986238</v>
+        <v>4.941832660679113</v>
       </c>
       <c r="R50">
-        <v>8.2835712333162252</v>
+        <v>6.5489356622072048</v>
       </c>
       <c r="S50">
-        <v>7.669452785779991</v>
+        <v>9.8361171493471335</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51">
-        <v>91.156513297158639</v>
+        <v>90.617152023346819</v>
       </c>
       <c r="D51">
-        <v>88.573641976087487</v>
+        <v>90.05855315992585</v>
       </c>
       <c r="E51">
-        <v>86.451346459221952</v>
+        <v>89.179945583344406</v>
       </c>
       <c r="F51">
-        <v>81.632507264086627</v>
+        <v>86.633871646318525</v>
       </c>
       <c r="G51">
-        <v>75.528970260459374</v>
+        <v>82.414435110979952</v>
       </c>
       <c r="H51">
-        <v>64.923306527722815</v>
+        <v>69.823014577124326</v>
       </c>
       <c r="I51">
-        <v>52.921194726803435</v>
+        <v>57.449010771275319</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51">
-        <v>5.1638895836383742</v>
+        <v>4.2750077328577394</v>
       </c>
       <c r="N51">
-        <v>5.0488519995067334</v>
+        <v>4.2266125705467239</v>
       </c>
       <c r="O51">
-        <v>5.7263083946480009</v>
+        <v>5.2565974786040313</v>
       </c>
       <c r="P51">
-        <v>8.4617789692496856</v>
+        <v>5.7069770284176009</v>
       </c>
       <c r="Q51">
-        <v>8.7221549652121535</v>
+        <v>6.3983299535714817</v>
       </c>
       <c r="R51">
-        <v>9.1465131387725336</v>
+        <v>6.6655406069698175</v>
       </c>
       <c r="S51">
-        <v>7.9277731795846682</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9.1124239201893804</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B52" s="3"/>
       <c r="C52">
-        <v>91.82253246441546</v>
+        <v>90.581355357949491</v>
       </c>
       <c r="D52">
-        <v>91.896415777745617</v>
+        <v>88.97341294355499</v>
       </c>
       <c r="E52">
-        <v>91.394674914613631</v>
+        <v>86.175206640299365</v>
       </c>
       <c r="F52">
-        <v>87.656272060375002</v>
+        <v>83.080132284515585</v>
       </c>
       <c r="G52">
-        <v>84.682281040144346</v>
+        <v>78.599726564969771</v>
       </c>
       <c r="H52">
-        <v>74.117890215813503</v>
+        <v>66.3934253274236</v>
       </c>
       <c r="I52">
-        <v>63.870910013856196</v>
+        <v>58.11224589934929</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L52" s="3"/>
       <c r="M52">
-        <v>3.9149482695639635</v>
+        <v>4.4778305644230976</v>
       </c>
       <c r="N52">
-        <v>3.589321840305093</v>
+        <v>4.8960641145432993</v>
       </c>
       <c r="O52">
-        <v>3.4799273908121431</v>
+        <v>6.1124849117603945</v>
       </c>
       <c r="P52">
-        <v>6.3691039235496678</v>
+        <v>5.8618346048185197</v>
       </c>
       <c r="Q52">
-        <v>7.1884344432619613</v>
+        <v>5.8104015835542553</v>
       </c>
       <c r="R52">
-        <v>9.9643193580169491</v>
+        <v>7.7638343010849269</v>
       </c>
       <c r="S52">
-        <v>12.854998500501491</v>
+        <v>8.9944066091442814</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B53" s="3"/>
       <c r="C53">
-        <v>91.471732407771285</v>
+        <v>90.510302373601434</v>
       </c>
       <c r="D53">
-        <v>91.769964488705597</v>
+        <v>88.824953889297518</v>
       </c>
       <c r="E53">
-        <v>91.180992017051111</v>
+        <v>86.674942469044325</v>
       </c>
       <c r="F53">
-        <v>86.38664903669796</v>
+        <v>81.543605709946462</v>
       </c>
       <c r="G53">
-        <v>81.249493096897226</v>
+        <v>75.271718740593627</v>
       </c>
       <c r="H53">
-        <v>68.355216227129773</v>
+        <v>67.72658070045415</v>
       </c>
       <c r="I53">
-        <v>53.029733747958254</v>
+        <v>58.433623636929134</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L53" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="L53" s="3"/>
       <c r="M53">
-        <v>4.1522553462569753</v>
+        <v>5.1076806654003626</v>
       </c>
       <c r="N53">
-        <v>3.5358894026107937</v>
+        <v>5.3873200605855445</v>
       </c>
       <c r="O53">
-        <v>3.3047129205399908</v>
+        <v>5.9833392560659284</v>
       </c>
       <c r="P53">
-        <v>5.7309862288580993</v>
+        <v>6.1215105686801499</v>
       </c>
       <c r="Q53">
-        <v>6.6583739396102182</v>
+        <v>7.3159920074958444</v>
       </c>
       <c r="R53">
-        <v>8.7510237120909835</v>
+        <v>8.5044787981464225</v>
       </c>
       <c r="S53">
-        <v>9.9665946493410544</v>
+        <v>8.5926586855477538</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B54" s="3"/>
       <c r="C54">
-        <v>91.332608054482193</v>
+        <v>90.77523149389998</v>
       </c>
       <c r="D54">
-        <v>91.231425754845645</v>
+        <v>89.185217369225327</v>
       </c>
       <c r="E54">
-        <v>90.597149830083694</v>
+        <v>86.832129001570053</v>
       </c>
       <c r="F54">
-        <v>88.135725315921604</v>
+        <v>82.015640393948175</v>
       </c>
       <c r="G54">
-        <v>84.001817512899265</v>
+        <v>74.972613257814999</v>
       </c>
       <c r="H54">
-        <v>69.568688660847371</v>
+        <v>65.417864082249295</v>
       </c>
       <c r="I54">
-        <v>51.97023149770046</v>
+        <v>55.042441020336085</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L54" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="L54" s="3"/>
       <c r="M54">
-        <v>4.0408623904693703</v>
+        <v>4.8120651940731003</v>
       </c>
       <c r="N54">
-        <v>4.3999216872495976</v>
+        <v>5.3504041978372019</v>
       </c>
       <c r="O54">
-        <v>4.0121807110446124</v>
+        <v>5.6560471528137661</v>
       </c>
       <c r="P54">
-        <v>5.7951413265953136</v>
+        <v>6.5079634189489424</v>
       </c>
       <c r="Q54">
-        <v>5.7076633688806142</v>
+        <v>7.8749746185986238</v>
       </c>
       <c r="R54">
-        <v>8.0642529418366511</v>
+        <v>8.2835712333162252</v>
       </c>
       <c r="S54">
-        <v>8.9120943278613147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7.669452785779991</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B55" s="3"/>
       <c r="C55">
-        <v>90.939285085015939</v>
+        <v>91.156513297158639</v>
       </c>
       <c r="D55">
-        <v>88.605955019400824</v>
+        <v>88.573641976087487</v>
       </c>
       <c r="E55">
-        <v>86.889076427363477</v>
+        <v>86.451346459221952</v>
       </c>
       <c r="F55">
-        <v>82.745202888013949</v>
+        <v>81.632507264086627</v>
       </c>
       <c r="G55">
-        <v>74.193922877809172</v>
+        <v>75.528970260459374</v>
       </c>
       <c r="H55">
-        <v>64.361901696887841</v>
+        <v>64.923306527722815</v>
       </c>
       <c r="I55">
-        <v>53.540574994800238</v>
+        <v>52.921194726803435</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="L55" s="3"/>
       <c r="M55">
-        <v>4.8263946570398071</v>
+        <v>5.1638895836383742</v>
       </c>
       <c r="N55">
-        <v>5.5502091704736038</v>
+        <v>5.0488519995067334</v>
       </c>
       <c r="O55">
-        <v>5.7255682118789624</v>
+        <v>5.7263083946480009</v>
       </c>
       <c r="P55">
-        <v>6.3545462777704742</v>
+        <v>8.4617789692496856</v>
       </c>
       <c r="Q55">
-        <v>8.7753821655939284</v>
+        <v>8.7221549652121535</v>
       </c>
       <c r="R55">
-        <v>8.7895060348429883</v>
+        <v>9.1465131387725336</v>
       </c>
       <c r="S55">
-        <v>8.026194535179302</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+        <v>7.9277731795846682</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56">
-        <v>90.662747049686885</v>
-      </c>
-      <c r="D56">
-        <v>88.710917394992933</v>
-      </c>
-      <c r="E56">
-        <v>86.347967906087078</v>
-      </c>
-      <c r="F56">
-        <v>82.243914313610617</v>
-      </c>
-      <c r="G56">
-        <v>74.525103052451129</v>
-      </c>
-      <c r="H56">
-        <v>64.3418708145431</v>
-      </c>
-      <c r="I56">
-        <v>51.643740343005398</v>
+        <v>38</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.91573665001683324</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.91675367725818291</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0.91019541465383291</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0.88696775927887961</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0.84341403591632225</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0.71960591517889638</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0.57233144295438854</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L56" s="2"/>
-      <c r="M56">
-        <v>4.4243047449169461</v>
-      </c>
-      <c r="N56">
-        <v>5.8569128877443175</v>
-      </c>
-      <c r="O56">
-        <v>6.6988047536453657</v>
-      </c>
-      <c r="P56">
-        <v>6.8865610977264513</v>
-      </c>
-      <c r="Q56">
-        <v>8.7323059467628319</v>
-      </c>
-      <c r="R56">
-        <v>8.207728125190366</v>
-      </c>
-      <c r="S56">
-        <v>8.4687472346957708</v>
+        <v>38</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M56" s="4">
+        <v>3.8946290870482722E-2</v>
+      </c>
+      <c r="N56" s="4">
+        <v>3.8021996147475048E-2</v>
+      </c>
+      <c r="O56" s="4">
+        <v>3.8648961121767363E-2</v>
+      </c>
+      <c r="P56" s="4">
+        <v>4.5894214178159538E-2</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>5.2402420839639183E-2</v>
+      </c>
+      <c r="R56" s="4">
+        <v>8.6152928296938561E-2</v>
+      </c>
+      <c r="S56" s="4">
+        <v>9.323574915815859E-2</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="C57">
-        <v>90.899292841610901</v>
-      </c>
-      <c r="D57">
-        <v>88.948085897371527</v>
-      </c>
-      <c r="E57">
-        <v>86.880908721434196</v>
-      </c>
-      <c r="F57">
-        <v>82.155903486081598</v>
-      </c>
-      <c r="G57">
-        <v>74.161495083534362</v>
-      </c>
-      <c r="H57">
-        <v>64.451717018186173</v>
-      </c>
-      <c r="I57">
-        <v>52.351511098410676</v>
+      <c r="C57" s="5">
+        <v>0.90753018873298219</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0.90722994477316099</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0.90729945696919212</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0.87965417369873589</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0.86123105689431723</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0.74269392794856659</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0.60778502292458447</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="L57" s="2"/>
-      <c r="M57">
-        <v>4.7603465716753162</v>
-      </c>
-      <c r="N57">
-        <v>5.8351865971221724</v>
-      </c>
-      <c r="O57">
-        <v>6.2629537493420262</v>
-      </c>
-      <c r="P57">
-        <v>7.5417917734189963</v>
-      </c>
-      <c r="Q57">
-        <v>8.2224877607555094</v>
-      </c>
-      <c r="R57">
-        <v>9.2781225079967449</v>
-      </c>
-      <c r="S57">
-        <v>7.7870210186206075</v>
+      <c r="M57" s="5">
+        <v>5.1087302616689312E-2</v>
+      </c>
+      <c r="N57" s="5">
+        <v>4.8395299050874488E-2</v>
+      </c>
+      <c r="O57" s="5">
+        <v>4.7036373869729031E-2</v>
+      </c>
+      <c r="P57" s="5">
+        <v>6.214367796171763E-2</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>6.4310858246990482E-2</v>
+      </c>
+      <c r="R57" s="5">
+        <v>8.0610934962749792E-2</v>
+      </c>
+      <c r="S57" s="5">
+        <v>9.0466187066171197E-2</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="6">
+        <v>0.88959040489692842</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.89681940604984089</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0.88769823643499868</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0.85291083244182031</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.81839893396513175</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0.68213325562767113</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0.56573336524236384</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L58" s="2"/>
+      <c r="M58" s="6">
+        <v>5.22491352805768E-2</v>
+      </c>
+      <c r="N58" s="6">
+        <v>4.547465049785665E-2</v>
+      </c>
+      <c r="O58" s="6">
+        <v>5.4892393172518338E-2</v>
+      </c>
+      <c r="P58" s="6">
+        <v>6.5133459721418513E-2</v>
+      </c>
+      <c r="Q58" s="6">
+        <v>7.3328441711758757E-2</v>
+      </c>
+      <c r="R58" s="6">
+        <v>7.2918394258639385E-2</v>
+      </c>
+      <c r="S58" s="6">
+        <v>8.2458219907984784E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="7">
+        <v>0.87426198957053913</v>
+      </c>
+      <c r="D59" s="7">
+        <v>0.88493303751958963</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.88427192317732284</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0.85145318074597631</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0.81848590541838473</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0.69218047918610182</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0.53891453756950114</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L59" s="2"/>
+      <c r="M59" s="7">
+        <v>5.0521972348656567E-2</v>
+      </c>
+      <c r="N59" s="7">
+        <v>4.7630901415646083E-2</v>
+      </c>
+      <c r="O59" s="7">
+        <v>4.4564714432385417E-2</v>
+      </c>
+      <c r="P59" s="7">
+        <v>6.6549338799119825E-2</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>6.4753337629037455E-2</v>
+      </c>
+      <c r="R59" s="7">
+        <v>8.3230396014262742E-2</v>
+      </c>
+      <c r="S59" s="7">
+        <v>7.1124614672978898E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="8">
+        <v>0.76752797168134113</v>
+      </c>
+      <c r="D60" s="8">
+        <v>0.76347674862974246</v>
+      </c>
+      <c r="E60" s="8">
+        <v>0.77326576520875356</v>
+      </c>
+      <c r="F60" s="8">
+        <v>0.75705122331881525</v>
+      </c>
+      <c r="G60" s="8">
+        <v>0.72184300378352961</v>
+      </c>
+      <c r="H60" s="8">
+        <v>0.65641087121909569</v>
+      </c>
+      <c r="I60" s="8">
+        <v>0.47765358179002182</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M60" s="8">
+        <v>9.3985771167019602E-2</v>
+      </c>
+      <c r="N60" s="8">
+        <v>9.3616976157880005E-2</v>
+      </c>
+      <c r="O60" s="8">
+        <v>9.5755009710247779E-2</v>
+      </c>
+      <c r="P60" s="8">
+        <v>9.6924221636811567E-2</v>
+      </c>
+      <c r="Q60" s="8">
+        <v>9.5846592779061837E-2</v>
+      </c>
+      <c r="R60" s="8">
+        <v>0.1077863353170945</v>
+      </c>
+      <c r="S60" s="8">
+        <v>0.10551748097462831</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="9">
+        <v>0.84199090152702039</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0.80150991222942236</v>
+      </c>
+      <c r="E61" s="11">
+        <v>0.79089573346684305</v>
+      </c>
+      <c r="F61" s="12">
+        <v>0.70882245349583861</v>
+      </c>
+      <c r="G61" s="13">
+        <v>0.68438391123016218</v>
+      </c>
+      <c r="H61" s="14">
+        <v>0.63448999228930736</v>
+      </c>
+      <c r="I61" s="15">
+        <v>0.54928023981627705</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L61" s="2"/>
+      <c r="M61" s="9">
+        <v>6.8541808049040309E-2</v>
+      </c>
+      <c r="N61" s="10">
+        <v>8.0345663443423837E-2</v>
+      </c>
+      <c r="O61" s="11">
+        <v>8.5595110099521199E-2</v>
+      </c>
+      <c r="P61" s="12">
+        <v>9.341845691318873E-2</v>
+      </c>
+      <c r="Q61" s="13">
+        <v>8.723007474214807E-2</v>
+      </c>
+      <c r="R61" s="14">
+        <v>8.9303160416674882E-2</v>
+      </c>
+      <c r="S61" s="15">
+        <v>9.0909156720887299E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="16">
+        <v>0.89131692863681511</v>
+      </c>
+      <c r="D62" s="17">
+        <v>0.87544829448692052</v>
+      </c>
+      <c r="E62" s="18">
+        <v>0.87788787067770879</v>
+      </c>
+      <c r="F62" s="19">
+        <v>0.84320475835085373</v>
+      </c>
+      <c r="G62" s="20">
+        <v>0.76629640475813476</v>
+      </c>
+      <c r="H62" s="21">
+        <v>0.59319665796416166</v>
+      </c>
+      <c r="I62" s="22">
+        <v>0.45620863436697628</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L62" s="2"/>
+      <c r="M62" s="16">
+        <v>4.9480273201097887E-2</v>
+      </c>
+      <c r="N62" s="17">
+        <v>5.486473713327307E-2</v>
+      </c>
+      <c r="O62" s="18">
+        <v>5.5679062934616178E-2</v>
+      </c>
+      <c r="P62" s="19">
+        <v>6.1629089088025293E-2</v>
+      </c>
+      <c r="Q62" s="20">
+        <v>8.4053576913732261E-2</v>
+      </c>
+      <c r="R62" s="21">
+        <v>9.0610531757902513E-2</v>
+      </c>
+      <c r="S62" s="22">
+        <v>0.1095254048878474</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="23">
+        <v>0.89343160521159626</v>
+      </c>
+      <c r="D63" s="24">
+        <v>0.89355924395143083</v>
+      </c>
+      <c r="E63" s="25">
+        <v>0.88961637589369535</v>
+      </c>
+      <c r="F63" s="26">
+        <v>0.85571925012528027</v>
+      </c>
+      <c r="G63" s="27">
+        <v>0.8022539440339006</v>
+      </c>
+      <c r="H63" s="28">
+        <v>0.65538982643024934</v>
+      </c>
+      <c r="I63" s="29">
+        <v>0.48872031783551328</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L63" s="2"/>
+      <c r="M63" s="23">
+        <v>5.1733129187131341E-2</v>
+      </c>
+      <c r="N63" s="24">
+        <v>4.5399366724179553E-2</v>
+      </c>
+      <c r="O63" s="25">
+        <v>5.5435564580559649E-2</v>
+      </c>
+      <c r="P63" s="26">
+        <v>6.2430550204094513E-2</v>
+      </c>
+      <c r="Q63" s="27">
+        <v>7.5764013481950554E-2</v>
+      </c>
+      <c r="R63" s="28">
+        <v>9.815692838482698E-2</v>
+      </c>
+      <c r="S63" s="29">
+        <v>9.6282604746864148E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="31">
+        <v>0.91235856314298724</v>
+      </c>
+      <c r="D64" s="33">
+        <v>0.89450310145198164</v>
+      </c>
+      <c r="E64" s="35">
+        <v>0.86552102703347344</v>
+      </c>
+      <c r="F64" s="37">
+        <v>0.82196309777850829</v>
+      </c>
+      <c r="G64" s="39">
+        <v>0.74128130267679271</v>
+      </c>
+      <c r="H64" s="41">
+        <v>0.63698796419853532</v>
+      </c>
+      <c r="I64" s="43">
+        <v>0.53054547984279943</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M64" s="43">
+        <v>4.4594606754942263E-2</v>
+      </c>
+      <c r="N64" s="43">
+        <v>5.237259437503744E-2</v>
+      </c>
+      <c r="O64" s="43">
+        <v>6.3647369817254079E-2</v>
+      </c>
+      <c r="P64" s="43">
+        <v>7.9609321411611381E-2</v>
+      </c>
+      <c r="Q64" s="43">
+        <v>8.9008794059272436E-2</v>
+      </c>
+      <c r="R64" s="43">
+        <v>8.9038885589430766E-2</v>
+      </c>
+      <c r="S64" s="43">
+        <v>7.4549345191914126E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="44">
+        <v>0.90798486800636635</v>
+      </c>
+      <c r="D65" s="46">
+        <v>0.88599810414054547</v>
+      </c>
+      <c r="E65" s="48">
+        <v>0.8691706573459973</v>
+      </c>
+      <c r="F65" s="50">
+        <v>0.82212043577925764</v>
+      </c>
+      <c r="G65" s="52">
+        <v>0.74918675016884406</v>
+      </c>
+      <c r="H65" s="54">
+        <v>0.63965553606901482</v>
+      </c>
+      <c r="I65" s="56">
+        <v>0.52957962334304021</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L65" s="2"/>
+      <c r="M65" s="44">
+        <v>5.2932815526512467E-2</v>
+      </c>
+      <c r="N65" s="46">
+        <v>6.1139898314438529E-2</v>
+      </c>
+      <c r="O65" s="48">
+        <v>6.2008508101055022E-2</v>
+      </c>
+      <c r="P65" s="50">
+        <v>7.2571624968432169E-2</v>
+      </c>
+      <c r="Q65" s="52">
+        <v>8.6245053998604632E-2</v>
+      </c>
+      <c r="R65" s="54">
+        <v>9.4515030467925309E-2</v>
+      </c>
+      <c r="S65" s="56">
+        <v>7.131820650148607E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="58">
+        <v>0.90673356959843165</v>
+      </c>
+      <c r="D66" s="60">
+        <v>0.88951291158614365</v>
+      </c>
+      <c r="E66" s="62">
+        <v>0.86407752093335288</v>
+      </c>
+      <c r="F66" s="64">
+        <v>0.82799451065095753</v>
+      </c>
+      <c r="G66" s="66">
+        <v>0.74790416269434656</v>
+      </c>
+      <c r="H66" s="68">
+        <v>0.64509873569867715</v>
+      </c>
+      <c r="I66" s="70">
+        <v>0.527513655201992</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L66" s="2"/>
+      <c r="M66" s="58">
+        <v>4.8285295071773947E-2</v>
+      </c>
+      <c r="N66" s="60">
+        <v>5.1550843054535167E-2</v>
+      </c>
+      <c r="O66" s="62">
+        <v>6.6374070965829146E-2</v>
+      </c>
+      <c r="P66" s="64">
+        <v>6.3898946778250226E-2</v>
+      </c>
+      <c r="Q66" s="66">
+        <v>8.9499058240982185E-2</v>
+      </c>
+      <c r="R66" s="68">
+        <v>9.0643268135433372E-2</v>
+      </c>
+      <c r="S66" s="70">
+        <v>9.1163331227578609E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58">
-        <v>91.095220817792637</v>
-      </c>
-      <c r="D58">
-        <v>89.240078821684847</v>
-      </c>
-      <c r="E58">
-        <v>86.239435573723185</v>
-      </c>
-      <c r="F58">
-        <v>81.913343329134776</v>
-      </c>
-      <c r="G58">
-        <v>74.171369322340453</v>
-      </c>
-      <c r="H58">
-        <v>64.078210700624737</v>
-      </c>
-      <c r="I58">
-        <v>51.336322791430113</v>
-      </c>
-      <c r="K58" s="1" t="s">
+      <c r="B67" s="2"/>
+      <c r="C67" s="72">
+        <v>0.90958412939664446</v>
+      </c>
+      <c r="D67" s="74">
+        <v>0.89296880478266982</v>
+      </c>
+      <c r="E67" s="76">
+        <v>0.85996899588027598</v>
+      </c>
+      <c r="F67" s="78">
+        <v>0.8216044469763687</v>
+      </c>
+      <c r="G67" s="80">
+        <v>0.74701645924213667</v>
+      </c>
+      <c r="H67" s="82">
+        <v>0.64456709898694153</v>
+      </c>
+      <c r="I67" s="84">
+        <v>0.52734360151297732</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L58" s="2"/>
-      <c r="M58">
-        <v>5.026832630398987</v>
-      </c>
-      <c r="N58">
-        <v>4.8666110866495114</v>
-      </c>
-      <c r="O58">
-        <v>6.7229364652867742</v>
-      </c>
-      <c r="P58">
-        <v>7.483679744977735</v>
-      </c>
-      <c r="Q58">
-        <v>9.039977206368361</v>
-      </c>
-      <c r="R58">
-        <v>9.0297898499159359</v>
-      </c>
-      <c r="S58">
-        <v>7.4084684667766769</v>
-      </c>
-    </row>
+      <c r="L67" s="2"/>
+      <c r="M67" s="72">
+        <v>5.1541580479767327E-2</v>
+      </c>
+      <c r="N67" s="74">
+        <v>5.0680977446577638E-2</v>
+      </c>
+      <c r="O67" s="76">
+        <v>6.7235889026121196E-2</v>
+      </c>
+      <c r="P67" s="78">
+        <v>7.7736993865439905E-2</v>
+      </c>
+      <c r="Q67" s="80">
+        <v>9.0824853912100531E-2</v>
+      </c>
+      <c r="R67" s="82">
+        <v>8.5475740688907426E-2</v>
+      </c>
+      <c r="S67" s="84">
+        <v>7.8109613564796801E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="K69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="K70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="K71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L71" s="2"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C73" s="30"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="42"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C74" s="44"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="55"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C75" s="57"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="69"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C76" s="71"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="81"/>
+      <c r="I76" s="83"/>
+    </row>
+    <row r="78" spans="1:19" s="70" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="L52:L54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="L55:L58"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="L37:L44"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="L45:L51"/>
+  <mergeCells count="24">
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="L56:L59"/>
+    <mergeCell ref="L60:L63"/>
+    <mergeCell ref="L64:L67"/>
+    <mergeCell ref="L68:L71"/>
     <mergeCell ref="B5:B12"/>
     <mergeCell ref="L5:L12"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="L13:L19"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="L20:L23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="L41:L48"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="L49:L55"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B60:B63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C2:I4 C13:I31">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="C2:I4 C13:I19 C32:I35">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4 C14:I19 C32:I35">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4 C16:I19 C32:I35">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4 C32:I35">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3326,6 +4119,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:I4">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:I12">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:I35 C2:I4">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:I40 C49:I55">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:I40 C50:I55">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:I40 C52:I55">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:I40">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:I40">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:I48">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3337,8 +4246,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4 C14:I31">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="C38:I40">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3349,8 +4268,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4 C16:I31">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="M2:S4 M13:S19 M32:S35">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3361,8 +4280,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4 C20:I31">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="M2:S4 M14:S19 M32:S35">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3373,8 +4292,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="M2:S4 M16:S19 M32:S35">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3385,148 +4304,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:I31 C2:I4">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:I36 C45:I58">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:I36 C46:I58">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:I36 C48:I58">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:I36 C52:I58">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:I36">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52:I58 C34:I36">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4 M14:S31">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4 M16:S31">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4 M20:S31">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4 M13:S31">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="M2:S4 M32:S35">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3538,135 +4317,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:S4">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M20:S31 M2:S4">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M34:S36 M46:S58">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M34:S36 M48:S58">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M34:S36 M52:S58">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M34:S36 M45:S58">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M34:S36">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M52:S58 M34:S36">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I12">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:I44">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3678,6 +4329,168 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:S12">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32:S35 M2:S4">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38:S40 M49:S55">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38:S40 M50:S55">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38:S40 M52:S55">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38:S40">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38:S40">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M41:S48">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38:S40">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M68:S71">
+    <cfRule type="colorScale" priority="212">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M68:S71">
+    <cfRule type="colorScale" priority="216">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="217">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I27 C32:I35">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3689,7 +4502,41 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M37:S44">
+  <conditionalFormatting sqref="C68:I71">
+    <cfRule type="colorScale" priority="218">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:I71">
+    <cfRule type="colorScale" priority="219">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="220">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I35">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6465,12 +7312,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="L32:L39"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="L40:L46"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="L47:L49"/>
     <mergeCell ref="B50:B53"/>
@@ -6481,9 +7322,25 @@
     <mergeCell ref="L20:L22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="L23:L26"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="L32:L39"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="L40:L46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I4 C13:I26">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -6494,8 +7351,6 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4 C13:I26">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -6543,8 +7398,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4 C13:I26">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="C5:I12">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6578,6 +7433,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:I31 C40:I53">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -6625,8 +7490,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:I31 C40:I53">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="C32:I39">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6659,6 +7524,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M2:S4 M13:S26">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M2:S4 M14:S26">
     <cfRule type="colorScale" priority="147">
       <colorScale>
@@ -6695,20 +7582,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4 M13:S26">
-    <cfRule type="colorScale" priority="159">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4 M13:S26">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="M5:S12">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6741,6 +7616,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M29:S31 M40:S53">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="205">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M29:S31 M41:S53">
     <cfRule type="colorScale" priority="193">
       <colorScale>
@@ -6777,20 +7674,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M29:S31 M40:S53">
-    <cfRule type="colorScale" priority="205">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M29:S31 M40:S53">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="M32:S39">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6813,54 +7698,6 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="209">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I12">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32:I39">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:S12">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M32:S39">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11641,12 +12478,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="L5:L11"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="L12:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="L18:L20"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="L43:L45"/>
     <mergeCell ref="B46:B49"/>
@@ -11657,6 +12488,12 @@
     <mergeCell ref="L30:L36"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="L37:L42"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="L5:L11"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="L12:L17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="L18:L20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I4 C6:I24">

--- a/results_cnn_subnetwork_evaluation/pcc/summary.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950A0C09-8FA6-4713-B2F4-E63EE28F6823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EF479D-9DD1-4249-A185-1129B357A99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcc_20250919" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="48">
   <si>
     <t>sr</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,14 @@
     <t>exponential graph spectral filtering lowpass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>t=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t=0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -263,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,6 +282,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -635,9 +648,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407A0F26-EE3F-44D5-AD21-F0180FA13F65}">
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:I33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1652,25 +1667,25 @@
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20">
         <v>92.016315020026113</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20">
         <v>92.223816815024335</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20">
         <v>91.530157411973008</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20">
         <v>89.148752728541453</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20">
         <v>85.016891726283703</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20">
         <v>72.681361142109068</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20">
         <v>59.345441281210633</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -1679,25 +1694,25 @@
       <c r="L20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20">
         <v>3.5594969186984389</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20">
         <v>3.363598203329865</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20">
         <v>3.4509333868304899</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20">
         <v>4.355078823808582</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20">
         <v>4.8669987321287964</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20">
         <v>8.0724208693832669</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20">
         <v>8.3603364821670869</v>
       </c>
     </row>
@@ -1706,50 +1721,50 @@
         <v>39</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="5">
+      <c r="C21">
         <v>91.138051943932624</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21">
         <v>91.247037892484656</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21">
         <v>91.177319873009282</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21">
         <v>88.650014273479869</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21">
         <v>86.686808132711633</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21">
         <v>74.981879889387741</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21">
         <v>62.512550569929971</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="L21" s="2"/>
-      <c r="M21" s="5">
+      <c r="M21">
         <v>4.8341548736925946</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21">
         <v>4.470449193244229</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21">
         <v>4.3335506946986211</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21">
         <v>5.7293126583400822</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21">
         <v>6.0242184745358411</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21">
         <v>7.766673095695432</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21">
         <v>8.1915354093968666</v>
       </c>
     </row>
@@ -1758,50 +1773,50 @@
         <v>40</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="6">
+      <c r="C22">
         <v>89.464493637488204</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22">
         <v>90.074167308252385</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22">
         <v>89.351462094539457</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22">
         <v>85.954252776119745</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22">
         <v>82.658961871065785</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22">
         <v>68.966153109744312</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22">
         <v>58.870163236706198</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L22" s="2"/>
-      <c r="M22" s="6">
+      <c r="M22">
         <v>4.9049220966264562</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22">
         <v>4.2978279543221127</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22">
         <v>5.1209942747043522</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22">
         <v>5.9883374858763876</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22">
         <v>6.7438956967621673</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22">
         <v>6.7882030039350703</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22">
         <v>7.4095726633065748</v>
       </c>
     </row>
@@ -1810,50 +1825,50 @@
         <v>41</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="7">
+      <c r="C23">
         <v>88.032999132057071</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23">
         <v>89.123397837928238</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23">
         <v>89.095335311435775</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23">
         <v>85.939817818493253</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23">
         <v>82.718385683843863</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23">
         <v>69.924488966167516</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23">
         <v>56.324766361877408</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L23" s="2"/>
-      <c r="M23" s="7">
+      <c r="M23">
         <v>4.7933326181048139</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23">
         <v>4.4311374886372574</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23">
         <v>4.1637112841542496</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23">
         <v>6.0379791420555646</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23">
         <v>6.0751863504780212</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23">
         <v>7.8896144140749769</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S23">
         <v>6.4975593873317488</v>
       </c>
     </row>
@@ -1864,25 +1879,25 @@
       <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24">
         <v>77.52366658304426</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24">
         <v>77.353319088688764</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24">
         <v>78.32834770773681</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24">
         <v>77.023004812613706</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24">
         <v>73.447662465361574</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24">
         <v>66.717070793576639</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24">
         <v>52.908231616767146</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -1891,25 +1906,25 @@
       <c r="L24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24">
         <v>8.9988382676507133</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24">
         <v>8.8100458098208172</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24">
         <v>9.03061517520233</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24">
         <v>8.8310077089100449</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="Q24">
         <v>8.9701829534725679</v>
       </c>
-      <c r="R24" s="8">
+      <c r="R24">
         <v>10.234723428061301</v>
       </c>
-      <c r="S24" s="8">
+      <c r="S24">
         <v>8.7073581685551389</v>
       </c>
     </row>
@@ -1918,50 +1933,50 @@
         <v>39</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="29">
+      <c r="C25">
         <v>84.83746110837177</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25">
         <v>81.13842968653131</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25">
         <v>80.108838888456361</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25">
         <v>72.338091159958097</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25">
         <v>69.754845053446246</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25">
         <v>64.832827273592329</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25">
         <v>58.344939546766547</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>39</v>
       </c>
       <c r="L25" s="2"/>
-      <c r="M25" s="29">
+      <c r="M25">
         <v>6.4398657108190296</v>
       </c>
-      <c r="N25" s="29">
+      <c r="N25">
         <v>7.4620003827243027</v>
       </c>
-      <c r="O25" s="29">
+      <c r="O25">
         <v>7.94876174820127</v>
       </c>
-      <c r="P25" s="29">
+      <c r="P25">
         <v>8.5268722275563782</v>
       </c>
-      <c r="Q25" s="29">
+      <c r="Q25">
         <v>8.2407582443930565</v>
       </c>
-      <c r="R25" s="29">
+      <c r="R25">
         <v>8.3126250259409886</v>
       </c>
-      <c r="S25" s="29">
+      <c r="S25">
         <v>8.250377236470575</v>
       </c>
     </row>
@@ -1970,50 +1985,50 @@
         <v>40</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="29">
+      <c r="C26">
         <v>89.603309717212085</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26">
         <v>88.219854843034966</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26">
         <v>88.420537086537649</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26">
         <v>84.929290045761647</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26">
         <v>77.516518308981915</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H26">
         <v>60.695937392768677</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26">
         <v>50.760837031462202</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L26" s="2"/>
-      <c r="M26" s="29">
+      <c r="M26">
         <v>4.6421688324031569</v>
       </c>
-      <c r="N26" s="29">
+      <c r="N26">
         <v>5.0693750824170776</v>
       </c>
-      <c r="O26" s="29">
+      <c r="O26">
         <v>5.1952156259714464</v>
       </c>
-      <c r="P26" s="29">
+      <c r="P26">
         <v>5.7718316990322469</v>
       </c>
-      <c r="Q26" s="29">
+      <c r="Q26">
         <v>7.8339493425673616</v>
       </c>
-      <c r="R26" s="29">
+      <c r="R26">
         <v>8.4754509477943429</v>
       </c>
-      <c r="S26" s="29">
+      <c r="S26">
         <v>8.8986073710080156</v>
       </c>
     </row>
@@ -2022,1957 +2037,1995 @@
         <v>41</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="29">
+      <c r="C27">
         <v>89.968586810151194</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27">
         <v>89.864805635573546</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27">
         <v>89.518407021975406</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27">
         <v>86.282545696762085</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27">
         <v>81.061644131869656</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27">
         <v>66.801970605282051</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27">
         <v>53.084931530549582</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L27" s="2"/>
-      <c r="M27" s="29">
+      <c r="M27">
         <v>4.7831146921405292</v>
       </c>
-      <c r="N27" s="29">
+      <c r="N27">
         <v>4.2412387414057404</v>
       </c>
-      <c r="O27" s="29">
+      <c r="O27">
         <v>5.1745094378224756</v>
       </c>
-      <c r="P27" s="29">
+      <c r="P27">
         <v>5.7669258165199109</v>
       </c>
-      <c r="Q27" s="29">
+      <c r="Q27">
         <v>7.2014665684096384</v>
       </c>
-      <c r="R27" s="29">
+      <c r="R27">
         <v>9.2405858967595975</v>
       </c>
-      <c r="S27" s="29">
+      <c r="S27">
         <v>8.7167217320170494</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="84">
-        <v>91.706130675870909</v>
-      </c>
-      <c r="D28" s="84">
-        <v>89.970723506835398</v>
-      </c>
-      <c r="E28" s="84">
-        <v>87.103896515829149</v>
-      </c>
-      <c r="F28" s="84">
-        <v>82.972130670103823</v>
+      <c r="C28" s="76">
+        <v>92.477048532715116</v>
+      </c>
+      <c r="D28" s="78">
+        <v>90.180191870171896</v>
+      </c>
+      <c r="E28" s="80">
+        <v>89.039726410551424</v>
+      </c>
+      <c r="F28" s="82">
+        <v>84.649896048697073</v>
       </c>
       <c r="G28" s="84">
-        <v>75.327367307098967</v>
-      </c>
-      <c r="H28" s="84">
-        <v>65.182697658860945</v>
-      </c>
-      <c r="I28" s="84">
-        <v>55.708662416341546</v>
+        <v>79.471512152642617</v>
+      </c>
+      <c r="H28" s="86">
+        <v>69.562897026214188</v>
+      </c>
+      <c r="I28" s="88">
+        <v>60.42192983214963</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M28" s="43">
-        <v>4.1096444624414348</v>
-      </c>
-      <c r="N28" s="43">
-        <v>4.8115075233158553</v>
-      </c>
-      <c r="O28" s="43">
-        <v>6.0313859112185284</v>
-      </c>
-      <c r="P28" s="43">
-        <v>7.4994289824872569</v>
-      </c>
-      <c r="Q28" s="43">
-        <v>8.0664709476377325</v>
-      </c>
-      <c r="R28" s="43">
-        <v>8.1731046242614553</v>
-      </c>
-      <c r="S28" s="43">
-        <v>6.5902059290929076</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M28" s="76">
+        <v>3.864240917746085</v>
+      </c>
+      <c r="N28" s="78">
+        <v>4.7514168218519144</v>
+      </c>
+      <c r="O28" s="80">
+        <v>4.2783261573546856</v>
+      </c>
+      <c r="P28" s="82">
+        <v>5.5621120940422859</v>
+      </c>
+      <c r="Q28" s="84">
+        <v>5.5145113908522019</v>
+      </c>
+      <c r="R28" s="86">
+        <v>7.4330359621726254</v>
+      </c>
+      <c r="S28" s="88">
+        <v>8.1535499109597733</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="84">
-        <v>91.41464891564803</v>
-      </c>
-      <c r="D29" s="84">
-        <v>89.196143565255767</v>
-      </c>
-      <c r="E29" s="84">
-        <v>87.628650190168898</v>
-      </c>
-      <c r="F29" s="84">
-        <v>83.011923401874881</v>
-      </c>
-      <c r="G29" s="84">
-        <v>76.001089974826769</v>
-      </c>
-      <c r="H29" s="84">
-        <v>65.228070023673794</v>
-      </c>
-      <c r="I29" s="84">
-        <v>55.410508164718841</v>
+      <c r="C29" s="59">
+        <v>91.959526754845044</v>
+      </c>
+      <c r="D29" s="59">
+        <v>90.104917285905017</v>
+      </c>
+      <c r="E29" s="59">
+        <v>88.143334573251821</v>
+      </c>
+      <c r="F29" s="59">
+        <v>84.594517830315723</v>
+      </c>
+      <c r="G29" s="59">
+        <v>78.610916472749167</v>
+      </c>
+      <c r="H29" s="59">
+        <v>69.49469286066487</v>
+      </c>
+      <c r="I29" s="59">
+        <v>60.022938491394108</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L29" s="2"/>
-      <c r="M29" s="44">
-        <v>4.7612716077570836</v>
-      </c>
-      <c r="N29" s="45">
-        <v>5.5893016513236677</v>
-      </c>
-      <c r="O29" s="47">
-        <v>5.5973062664960658</v>
-      </c>
-      <c r="P29" s="49">
-        <v>6.7920774714213881</v>
-      </c>
-      <c r="Q29" s="51">
-        <v>8.0959178134408774</v>
-      </c>
-      <c r="R29" s="53">
-        <v>8.6177189861834194</v>
-      </c>
-      <c r="S29" s="55">
-        <v>6.1829827240669077</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M29" s="4">
+        <v>4.0458830778429444</v>
+      </c>
+      <c r="N29" s="6">
+        <v>4.979737721732695</v>
+      </c>
+      <c r="O29" s="8">
+        <v>5.1651103973007757</v>
+      </c>
+      <c r="P29" s="10">
+        <v>5.5381938824967403</v>
+      </c>
+      <c r="Q29" s="12">
+        <v>6.5597567574792892</v>
+      </c>
+      <c r="R29" s="14">
+        <v>9.2326291048623581</v>
+      </c>
+      <c r="S29" s="16">
+        <v>8.2727184911055147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="84">
-        <v>91.233234428210153</v>
-      </c>
-      <c r="D30" s="84">
-        <v>89.521143493167472</v>
-      </c>
-      <c r="E30" s="84">
-        <v>87.103083360006011</v>
-      </c>
-      <c r="F30" s="84">
-        <v>83.442645120920858</v>
-      </c>
-      <c r="G30" s="84">
-        <v>75.869846048264534</v>
-      </c>
-      <c r="H30" s="84">
-        <v>65.723022402154569</v>
-      </c>
-      <c r="I30" s="84">
-        <v>55.251394908260451</v>
+      <c r="C30" s="71">
+        <v>92.008160393544344</v>
+      </c>
+      <c r="D30" s="71">
+        <v>89.686401554800085</v>
+      </c>
+      <c r="E30" s="71">
+        <v>87.865134358140338</v>
+      </c>
+      <c r="F30" s="71">
+        <v>84.076413579125528</v>
+      </c>
+      <c r="G30" s="71">
+        <v>78.16073956810466</v>
+      </c>
+      <c r="H30" s="71">
+        <v>68.189819981141696</v>
+      </c>
+      <c r="I30" s="72">
+        <v>56.640582242637613</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="L30" s="2"/>
-      <c r="M30" s="57">
-        <v>4.4196618747458274</v>
-      </c>
-      <c r="N30" s="59">
-        <v>4.7273229469807623</v>
-      </c>
-      <c r="O30" s="61">
-        <v>6.1537557387603137</v>
-      </c>
-      <c r="P30" s="63">
-        <v>6.09221208528467</v>
-      </c>
-      <c r="Q30" s="65">
-        <v>8.4076975305859918</v>
-      </c>
-      <c r="R30" s="67">
-        <v>8.3850919802045123</v>
-      </c>
-      <c r="S30" s="69">
-        <v>7.8576967518700123</v>
+      <c r="M30" s="60">
+        <v>4.3981754244991569</v>
+      </c>
+      <c r="N30" s="62">
+        <v>5.0137923390061934</v>
+      </c>
+      <c r="O30" s="64">
+        <v>5.1653386610175014</v>
+      </c>
+      <c r="P30" s="66">
+        <v>6.5496469954260137</v>
+      </c>
+      <c r="Q30" s="68">
+        <v>6.4923985130678084</v>
+      </c>
+      <c r="R30" s="70">
+        <v>8.2412367306566292</v>
+      </c>
+      <c r="S30" s="73">
+        <v>6.2810841354062008</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="84">
-        <v>91.546953981724201</v>
-      </c>
-      <c r="D31" s="84">
-        <v>89.817117795136639</v>
-      </c>
-      <c r="E31" s="84">
-        <v>86.651499292093064</v>
-      </c>
-      <c r="F31" s="84">
-        <v>82.975288136863938</v>
-      </c>
-      <c r="G31" s="84">
-        <v>75.873963730943458</v>
-      </c>
-      <c r="H31" s="84">
-        <v>65.703944959154782</v>
-      </c>
-      <c r="I31" s="84">
-        <v>55.148432656568538</v>
+      <c r="C31" s="59">
+        <v>91.701733290657103</v>
+      </c>
+      <c r="D31" s="59">
+        <v>90.510918491221076</v>
+      </c>
+      <c r="E31" s="59">
+        <v>87.404793005706523</v>
+      </c>
+      <c r="F31" s="59">
+        <v>82.810664452114636</v>
+      </c>
+      <c r="G31" s="59">
+        <v>76.101200414075095</v>
+      </c>
+      <c r="H31" s="59">
+        <v>65.653961827812807</v>
+      </c>
+      <c r="I31" s="59">
+        <v>55.505419597055351</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L31" s="2"/>
-      <c r="M31" s="71">
-        <v>4.7471219152691706</v>
-      </c>
-      <c r="N31" s="73">
-        <v>4.6476712549783876</v>
-      </c>
-      <c r="O31" s="75">
-        <v>6.3036785226113494</v>
-      </c>
-      <c r="P31" s="77">
-        <v>7.2163409113856396</v>
-      </c>
-      <c r="Q31" s="79">
-        <v>8.157168147690756</v>
-      </c>
-      <c r="R31" s="81">
-        <v>7.9938212473896</v>
-      </c>
-      <c r="S31" s="83">
-        <v>7.1459161260184638</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M31" s="18">
+        <v>4.2709415285830774</v>
+      </c>
+      <c r="N31" s="20">
+        <v>4.422493359492071</v>
+      </c>
+      <c r="O31" s="22">
+        <v>6.1405065424020853</v>
+      </c>
+      <c r="P31" s="24">
+        <v>6.8678729046640523</v>
+      </c>
+      <c r="Q31" s="26">
+        <v>8.2514888647080404</v>
+      </c>
+      <c r="R31" s="28">
+        <v>8.1106219369242378</v>
+      </c>
+      <c r="S31" s="30">
+        <v>7.1927741540358117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="59">
+        <v>92.031540065225485</v>
+      </c>
+      <c r="D32" s="59">
+        <v>89.694126535119977</v>
+      </c>
+      <c r="E32" s="59">
+        <v>87.516304927666624</v>
+      </c>
+      <c r="F32" s="59">
+        <v>82.812273462573202</v>
+      </c>
+      <c r="G32" s="59">
+        <v>75.616943053140602</v>
+      </c>
+      <c r="H32" s="59">
+        <v>65.776855047765707</v>
+      </c>
+      <c r="I32" s="59">
+        <v>55.531264687987488</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="32">
+        <v>4.141992411755715</v>
+      </c>
+      <c r="N32" s="34">
+        <v>4.9885076975232296</v>
+      </c>
+      <c r="O32" s="36">
+        <v>5.2113749716143882</v>
+      </c>
+      <c r="P32" s="38">
+        <v>7.697727216746455</v>
+      </c>
+      <c r="Q32" s="40">
+        <v>8.8975345774792025</v>
+      </c>
+      <c r="R32" s="42">
+        <v>8.2801623888764304</v>
+      </c>
+      <c r="S32" s="44">
+        <v>6.3477289141313316</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B33" s="2"/>
+      <c r="C33" s="59">
+        <v>92.003837980143999</v>
+      </c>
+      <c r="D33" s="59">
+        <v>89.237020504790976</v>
+      </c>
+      <c r="E33" s="59">
+        <v>87.7060355193384</v>
+      </c>
+      <c r="F33" s="59">
+        <v>83.379559223407369</v>
+      </c>
+      <c r="G33" s="59">
+        <v>76.77448190151587</v>
+      </c>
+      <c r="H33" s="59">
+        <v>65.776621481731382</v>
+      </c>
+      <c r="I33" s="59">
+        <v>56.371072990827493</v>
+      </c>
       <c r="K33" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M33" s="46">
+        <v>4.2243659250592218</v>
+      </c>
+      <c r="N33" s="48">
+        <v>5.4696092563220553</v>
+      </c>
+      <c r="O33" s="50">
+        <v>6.4205553060370049</v>
+      </c>
+      <c r="P33" s="52">
+        <v>6.646721903412339</v>
+      </c>
+      <c r="Q33" s="54">
+        <v>7.9634496793602256</v>
+      </c>
+      <c r="R33" s="56">
+        <v>8.1144667890421527</v>
+      </c>
+      <c r="S33" s="58">
+        <v>6.7212889844772681</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="K34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L34" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B35" s="2"/>
       <c r="K35" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="K36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="K37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C39" s="1">
         <v>1</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D39" s="1">
         <v>0.75</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E39" s="1">
         <v>0.5</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F39" s="1">
         <v>0.3</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G39" s="1">
         <v>0.2</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H39" s="1">
         <v>0.1</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I39" s="1">
         <v>0.05</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M39" s="1">
         <v>1</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N39" s="1">
         <v>0.75</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O39" s="1">
         <v>0.5</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P39" s="1">
         <v>0.3</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q39" s="1">
         <v>0.2</v>
       </c>
-      <c r="R37" s="1">
+      <c r="R39" s="1">
         <v>0.1</v>
       </c>
-      <c r="S37" s="1">
+      <c r="S39" s="1">
         <v>0.05</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>92.567111769713335</v>
-      </c>
-      <c r="D38">
-        <v>90.835858608343599</v>
-      </c>
-      <c r="E38">
-        <v>89.217505339533233</v>
-      </c>
-      <c r="F38">
-        <v>83.237245964288078</v>
-      </c>
-      <c r="G38">
-        <v>75.380430844191011</v>
-      </c>
-      <c r="H38">
-        <v>58.994367187597383</v>
-      </c>
-      <c r="I38">
-        <v>43.622535641382179</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>3.88093621561358</v>
-      </c>
-      <c r="N38">
-        <v>4.8164746829677396</v>
-      </c>
-      <c r="O38">
-        <v>5.2250608386616522</v>
-      </c>
-      <c r="P38">
-        <v>5.6675721086724113</v>
-      </c>
-      <c r="Q38">
-        <v>8.3263283482936075</v>
-      </c>
-      <c r="R38">
-        <v>10.49020927094638</v>
-      </c>
-      <c r="S38">
-        <v>11.060437347759546</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <v>92.338566773632834</v>
-      </c>
-      <c r="D39">
-        <v>92.22816257293259</v>
-      </c>
-      <c r="E39">
-        <v>92.19353000091759</v>
-      </c>
-      <c r="F39">
-        <v>91.289781910285583</v>
-      </c>
-      <c r="G39">
-        <v>89.68940373291737</v>
-      </c>
-      <c r="H39">
-        <v>81.453332231966129</v>
-      </c>
-      <c r="I39">
-        <v>68.108240193153023</v>
-      </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M39">
-        <v>4.0483086633488163</v>
-      </c>
-      <c r="N39">
-        <v>3.9020890437152844</v>
-      </c>
-      <c r="O39">
-        <v>3.7923842410048425</v>
-      </c>
-      <c r="P39">
-        <v>4.4242632373638857</v>
-      </c>
-      <c r="Q39">
-        <v>4.2715813123996149</v>
-      </c>
-      <c r="R39">
-        <v>6.1738858238669021</v>
-      </c>
-      <c r="S39">
-        <v>6.3931839578006242</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>88.499186482198567</v>
+        <v>92.567111769713335</v>
       </c>
       <c r="D40">
-        <v>87.5173416768165</v>
+        <v>90.835858608343599</v>
       </c>
       <c r="E40">
-        <v>85.730415589590905</v>
+        <v>89.217505339533233</v>
       </c>
       <c r="F40">
-        <v>72.655656749380555</v>
+        <v>83.237245964288078</v>
       </c>
       <c r="G40">
-        <v>67.884915781227093</v>
+        <v>75.380430844191011</v>
       </c>
       <c r="H40">
-        <v>59.263790034123531</v>
+        <v>58.994367187597383</v>
       </c>
       <c r="I40">
-        <v>44.56238292926399</v>
+        <v>43.622535641382179</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>3.88093621561358</v>
+      </c>
+      <c r="N40">
+        <v>4.8164746829677396</v>
+      </c>
+      <c r="O40">
+        <v>5.2250608386616522</v>
+      </c>
+      <c r="P40">
+        <v>5.6675721086724113</v>
+      </c>
+      <c r="Q40">
+        <v>8.3263283482936075</v>
+      </c>
+      <c r="R40">
+        <v>10.49020927094638</v>
+      </c>
+      <c r="S40">
+        <v>11.060437347759546</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>92.338566773632834</v>
+      </c>
+      <c r="D41">
+        <v>92.22816257293259</v>
+      </c>
+      <c r="E41">
+        <v>92.19353000091759</v>
+      </c>
+      <c r="F41">
+        <v>91.289781910285583</v>
+      </c>
+      <c r="G41">
+        <v>89.68940373291737</v>
+      </c>
+      <c r="H41">
+        <v>81.453332231966129</v>
+      </c>
+      <c r="I41">
+        <v>68.108240193153023</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>4.0483086633488163</v>
+      </c>
+      <c r="N41">
+        <v>3.9020890437152844</v>
+      </c>
+      <c r="O41">
+        <v>3.7923842410048425</v>
+      </c>
+      <c r="P41">
+        <v>4.4242632373638857</v>
+      </c>
+      <c r="Q41">
+        <v>4.2715813123996149</v>
+      </c>
+      <c r="R41">
+        <v>6.1738858238669021</v>
+      </c>
+      <c r="S41">
+        <v>6.3931839578006242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M40">
+      <c r="C42">
+        <v>88.499186482198567</v>
+      </c>
+      <c r="D42">
+        <v>87.5173416768165</v>
+      </c>
+      <c r="E42">
+        <v>85.730415589590905</v>
+      </c>
+      <c r="F42">
+        <v>72.655656749380555</v>
+      </c>
+      <c r="G42">
+        <v>67.884915781227093</v>
+      </c>
+      <c r="H42">
+        <v>59.263790034123531</v>
+      </c>
+      <c r="I42">
+        <v>44.56238292926399</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42">
         <v>5.9037054685544437</v>
       </c>
-      <c r="N40">
+      <c r="N42">
         <v>5.6982495929152117</v>
       </c>
-      <c r="O40">
+      <c r="O42">
         <v>6.1857913087331307</v>
       </c>
-      <c r="P40">
+      <c r="P42">
         <v>8.0751376961596364</v>
       </c>
-      <c r="Q40">
+      <c r="Q42">
         <v>7.9066987943669274</v>
       </c>
-      <c r="R40">
+      <c r="R42">
         <v>10.433474589731558</v>
       </c>
-      <c r="S40">
+      <c r="S42">
         <v>11.016794446797121</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="43" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C41">
+      <c r="C43">
         <v>92.585967481796871</v>
       </c>
-      <c r="D41">
+      <c r="D43">
         <v>91.313417902038879</v>
       </c>
-      <c r="E41">
+      <c r="E43">
         <v>89.071433240773374</v>
       </c>
-      <c r="F41">
+      <c r="F43">
         <v>84.430667065862025</v>
       </c>
-      <c r="G41">
+      <c r="G43">
         <v>74.620110321660178</v>
       </c>
-      <c r="H41">
+      <c r="H43">
         <v>57.729776408047563</v>
       </c>
-      <c r="I41">
+      <c r="I43">
         <v>40.926778409266866</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M41">
+      <c r="M43">
         <v>4.1190461448812883</v>
       </c>
-      <c r="N41">
+      <c r="N43">
         <v>5.0479140386031087</v>
       </c>
-      <c r="O41">
+      <c r="O43">
         <v>5.7227029784618981</v>
       </c>
-      <c r="P41">
+      <c r="P43">
         <v>5.4985207967748737</v>
       </c>
-      <c r="Q41">
+      <c r="Q43">
         <v>8.9665209094802485</v>
       </c>
-      <c r="R41">
+      <c r="R43">
         <v>11.349059301553211</v>
       </c>
-      <c r="S41">
+      <c r="S43">
         <v>11.05617423164966</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42">
-        <v>92.603782215910087</v>
-      </c>
-      <c r="D42">
-        <v>90.262334808427767</v>
-      </c>
-      <c r="E42">
-        <v>89.82540629282677</v>
-      </c>
-      <c r="F42">
-        <v>84.400771771755316</v>
-      </c>
-      <c r="G42">
-        <v>78.772449333136279</v>
-      </c>
-      <c r="H42">
-        <v>61.840203650833359</v>
-      </c>
-      <c r="I42">
-        <v>38.412876121977916</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L42" s="2"/>
-      <c r="M42">
-        <v>4.4405799374618198</v>
-      </c>
-      <c r="N42">
-        <v>5.7451202216286257</v>
-      </c>
-      <c r="O42">
-        <v>4.8670511789444468</v>
-      </c>
-      <c r="P42">
-        <v>4.9325366781832338</v>
-      </c>
-      <c r="Q42">
-        <v>7.029848092265345</v>
-      </c>
-      <c r="R42">
-        <v>9.0186943841326457</v>
-      </c>
-      <c r="S42">
-        <v>7.771449833097023</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43">
-        <v>91.081927840808433</v>
-      </c>
-      <c r="D43">
-        <v>87.684987506619976</v>
-      </c>
-      <c r="E43">
-        <v>87.27081687164015</v>
-      </c>
-      <c r="F43">
-        <v>83.161961006389646</v>
-      </c>
-      <c r="G43">
-        <v>78.602198625513438</v>
-      </c>
-      <c r="H43">
-        <v>62.429217703804063</v>
-      </c>
-      <c r="I43">
-        <v>50.327216453861126</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L43" s="2"/>
-      <c r="M43">
-        <v>5.0278535681088243</v>
-      </c>
-      <c r="N43">
-        <v>6.4718041382743881</v>
-      </c>
-      <c r="O43">
-        <v>6.3307190280562127</v>
-      </c>
-      <c r="P43">
-        <v>6.3795918367927573</v>
-      </c>
-      <c r="Q43">
-        <v>7.6119651620777704</v>
-      </c>
-      <c r="R43">
-        <v>10.57249776824408</v>
-      </c>
-      <c r="S43">
-        <v>12.72817257493416</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44">
-        <v>89.644638837679821</v>
+        <v>92.603782215910087</v>
       </c>
       <c r="D44">
-        <v>88.832235357085267</v>
+        <v>90.262334808427767</v>
       </c>
       <c r="E44">
-        <v>87.784876095604616</v>
+        <v>89.82540629282677</v>
       </c>
       <c r="F44">
-        <v>79.565194861748779</v>
+        <v>84.400771771755316</v>
       </c>
       <c r="G44">
-        <v>75.734515312347014</v>
+        <v>78.772449333136279</v>
       </c>
       <c r="H44">
-        <v>62.439186953401219</v>
+        <v>61.840203650833359</v>
       </c>
       <c r="I44">
-        <v>50.474777835549446</v>
+        <v>38.412876121977916</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44">
-        <v>5.6337263714853885</v>
+        <v>4.4405799374618198</v>
       </c>
       <c r="N44">
-        <v>6.3295758340906003</v>
+        <v>5.7451202216286257</v>
       </c>
       <c r="O44">
-        <v>5.712095802065237</v>
+        <v>4.8670511789444468</v>
       </c>
       <c r="P44">
-        <v>6.0565246528809871</v>
+        <v>4.9325366781832338</v>
       </c>
       <c r="Q44">
-        <v>7.1392332762901995</v>
+        <v>7.029848092265345</v>
       </c>
       <c r="R44">
-        <v>9.8513477784150112</v>
+        <v>9.0186943841326457</v>
       </c>
       <c r="S44">
-        <v>12.535546063955879</v>
+        <v>7.771449833097023</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45">
-        <v>89.487105403835685</v>
+        <v>91.081927840808433</v>
       </c>
       <c r="D45">
-        <v>88.707572078492916</v>
+        <v>87.684987506619976</v>
       </c>
       <c r="E45">
-        <v>86.426030723556863</v>
+        <v>87.27081687164015</v>
       </c>
       <c r="F45">
-        <v>78.49543423448246</v>
+        <v>83.161961006389646</v>
       </c>
       <c r="G45">
-        <v>74.133652201259196</v>
+        <v>78.602198625513438</v>
       </c>
       <c r="H45">
-        <v>65.444157538801676</v>
+        <v>62.429217703804063</v>
       </c>
       <c r="I45">
-        <v>52.493719332914743</v>
+        <v>50.327216453861126</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45">
-        <v>5.5869146897287463</v>
+        <v>5.0278535681088243</v>
       </c>
       <c r="N45">
-        <v>5.7426745960735408</v>
+        <v>6.4718041382743881</v>
       </c>
       <c r="O45">
-        <v>6.3807802799052684</v>
+        <v>6.3307190280562127</v>
       </c>
       <c r="P45">
-        <v>6.6617360492423048</v>
+        <v>6.3795918367927573</v>
       </c>
       <c r="Q45">
-        <v>7.4710432104834563</v>
+        <v>7.6119651620777704</v>
       </c>
       <c r="R45">
-        <v>9.1192677577277852</v>
+        <v>10.57249776824408</v>
       </c>
       <c r="S45">
-        <v>11.62676144298649</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+        <v>12.72817257493416</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46">
-        <v>89.019136482146294</v>
+        <v>89.644638837679821</v>
       </c>
       <c r="D46">
-        <v>87.41881497347002</v>
+        <v>88.832235357085267</v>
       </c>
       <c r="E46">
-        <v>84.760203320527722</v>
+        <v>87.784876095604616</v>
       </c>
       <c r="F46">
-        <v>78.539871405940673</v>
+        <v>79.565194861748779</v>
       </c>
       <c r="G46">
-        <v>73.359996619176897</v>
+        <v>75.734515312347014</v>
       </c>
       <c r="H46">
-        <v>62.13074772235575</v>
+        <v>62.439186953401219</v>
       </c>
       <c r="I46">
-        <v>50.478879685998855</v>
+        <v>50.474777835549446</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46">
-        <v>5.5440228882484019</v>
+        <v>5.6337263714853885</v>
       </c>
       <c r="N46">
-        <v>6.1890179838423203</v>
+        <v>6.3295758340906003</v>
       </c>
       <c r="O46">
-        <v>5.9586184293843134</v>
+        <v>5.712095802065237</v>
       </c>
       <c r="P46">
-        <v>6.8545846160008956</v>
+        <v>6.0565246528809871</v>
       </c>
       <c r="Q46">
-        <v>7.9156374588352119</v>
+        <v>7.1392332762901995</v>
       </c>
       <c r="R46">
-        <v>9.791245427984272</v>
+        <v>9.8513477784150112</v>
       </c>
       <c r="S46">
-        <v>10.04604976368349</v>
+        <v>12.535546063955879</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47">
-        <v>89.238869796493674</v>
+        <v>89.487105403835685</v>
       </c>
       <c r="D47">
-        <v>87.306095031975872</v>
+        <v>88.707572078492916</v>
       </c>
       <c r="E47">
-        <v>85.566169092021809</v>
+        <v>86.426030723556863</v>
       </c>
       <c r="F47">
-        <v>78.895888119014472</v>
+        <v>78.49543423448246</v>
       </c>
       <c r="G47">
-        <v>71.73637384351656</v>
+        <v>74.133652201259196</v>
       </c>
       <c r="H47">
-        <v>61.412781836092677</v>
+        <v>65.444157538801676</v>
       </c>
       <c r="I47">
-        <v>49.91230553601401</v>
+        <v>52.493719332914743</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47">
-        <v>4.9520431158543712</v>
+        <v>5.5869146897287463</v>
       </c>
       <c r="N47">
-        <v>6.089338440962786</v>
+        <v>5.7426745960735408</v>
       </c>
       <c r="O47">
-        <v>6.2868088050108852</v>
+        <v>6.3807802799052684</v>
       </c>
       <c r="P47">
-        <v>6.5544539385805303</v>
+        <v>6.6617360492423048</v>
       </c>
       <c r="Q47">
-        <v>9.0032669871014477</v>
+        <v>7.4710432104834563</v>
       </c>
       <c r="R47">
-        <v>9.5917571263641719</v>
+        <v>9.1192677577277852</v>
       </c>
       <c r="S47">
-        <v>8.39411943554272</v>
+        <v>11.62676144298649</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48">
-        <v>87.528624354026661</v>
+        <v>89.019136482146294</v>
       </c>
       <c r="D48">
-        <v>86.802859639484197</v>
+        <v>87.41881497347002</v>
       </c>
       <c r="E48">
-        <v>85.315702308010216</v>
+        <v>84.760203320527722</v>
       </c>
       <c r="F48">
-        <v>77.466410195573999</v>
+        <v>78.539871405940673</v>
       </c>
       <c r="G48">
-        <v>70.744609004505662</v>
+        <v>73.359996619176897</v>
       </c>
       <c r="H48">
-        <v>60.340914073578965</v>
+        <v>62.13074772235575</v>
       </c>
       <c r="I48">
-        <v>50.624658682159797</v>
+        <v>50.478879685998855</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48">
-        <v>5.0598364128504718</v>
+        <v>5.5440228882484019</v>
       </c>
       <c r="N48">
-        <v>5.6364339917960171</v>
+        <v>6.1890179838423203</v>
       </c>
       <c r="O48">
-        <v>5.7486513894428279</v>
+        <v>5.9586184293843134</v>
       </c>
       <c r="P48">
-        <v>7.4568896228696975</v>
+        <v>6.8545846160008956</v>
       </c>
       <c r="Q48">
-        <v>8.0033483489556136</v>
+        <v>7.9156374588352119</v>
       </c>
       <c r="R48">
-        <v>9.802914975481821</v>
+        <v>9.791245427984272</v>
       </c>
       <c r="S48">
-        <v>10.868957426503</v>
+        <v>10.04604976368349</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49">
-        <v>91.954943077771645</v>
+        <v>89.238869796493674</v>
       </c>
       <c r="D49">
-        <v>90.486053623351509</v>
+        <v>87.306095031975872</v>
       </c>
       <c r="E49">
-        <v>87.574188580435759</v>
+        <v>85.566169092021809</v>
       </c>
       <c r="F49">
-        <v>80.195562284133075</v>
+        <v>78.895888119014472</v>
       </c>
       <c r="G49">
-        <v>73.887556692554313</v>
+        <v>71.73637384351656</v>
       </c>
       <c r="H49">
-        <v>60.201740744469255</v>
+        <v>61.412781836092677</v>
       </c>
       <c r="I49">
-        <v>43.97379234137982</v>
+        <v>49.91230553601401</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L49" s="2"/>
       <c r="M49">
-        <v>4.6677178192019442</v>
+        <v>4.9520431158543712</v>
       </c>
       <c r="N49">
-        <v>4.9332992633954884</v>
+        <v>6.089338440962786</v>
       </c>
       <c r="O49">
-        <v>5.8893270280054093</v>
+        <v>6.2868088050108852</v>
       </c>
       <c r="P49">
-        <v>6.2276780045249982</v>
+        <v>6.5544539385805303</v>
       </c>
       <c r="Q49">
-        <v>7.8100433893753065</v>
+        <v>9.0032669871014477</v>
       </c>
       <c r="R49">
-        <v>10.127273986997725</v>
+        <v>9.5917571263641719</v>
       </c>
       <c r="S49">
-        <v>12.975199093257455</v>
+        <v>8.39411943554272</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50">
-        <v>90.642246446502455</v>
+        <v>87.528624354026661</v>
       </c>
       <c r="D50">
-        <v>91.112891818426803</v>
+        <v>86.802859639484197</v>
       </c>
       <c r="E50">
-        <v>90.510903269239805</v>
+        <v>85.315702308010216</v>
       </c>
       <c r="F50">
-        <v>90.384514875799795</v>
+        <v>77.466410195573999</v>
       </c>
       <c r="G50">
-        <v>88.747243892649067</v>
+        <v>70.744609004505662</v>
       </c>
       <c r="H50">
-        <v>77.721185641433252</v>
+        <v>60.340914073578965</v>
       </c>
       <c r="I50">
-        <v>57.390955449525258</v>
+        <v>50.624658682159797</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L50" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="L50" s="2"/>
       <c r="M50">
-        <v>4.8046743223783803</v>
+        <v>5.0598364128504718</v>
       </c>
       <c r="N50">
-        <v>4.6267271925378539</v>
+        <v>5.6364339917960171</v>
       </c>
       <c r="O50">
-        <v>4.7167994848022108</v>
+        <v>5.7486513894428279</v>
       </c>
       <c r="P50">
-        <v>4.6380378521606005</v>
+        <v>7.4568896228696975</v>
       </c>
       <c r="Q50">
-        <v>4.941832660679113</v>
+        <v>8.0033483489556136</v>
       </c>
       <c r="R50">
-        <v>6.5489356622072048</v>
+        <v>9.802914975481821</v>
       </c>
       <c r="S50">
-        <v>9.8361171493471335</v>
+        <v>10.868957426503</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C51">
-        <v>90.617152023346819</v>
+        <v>91.954943077771645</v>
       </c>
       <c r="D51">
-        <v>90.05855315992585</v>
+        <v>90.486053623351509</v>
       </c>
       <c r="E51">
-        <v>89.179945583344406</v>
+        <v>87.574188580435759</v>
       </c>
       <c r="F51">
-        <v>86.633871646318525</v>
+        <v>80.195562284133075</v>
       </c>
       <c r="G51">
-        <v>82.414435110979952</v>
+        <v>73.887556692554313</v>
       </c>
       <c r="H51">
-        <v>69.823014577124326</v>
+        <v>60.201740744469255</v>
       </c>
       <c r="I51">
-        <v>57.449010771275319</v>
+        <v>43.97379234137982</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L51" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="M51">
-        <v>4.2750077328577394</v>
+        <v>4.6677178192019442</v>
       </c>
       <c r="N51">
-        <v>4.2266125705467239</v>
+        <v>4.9332992633954884</v>
       </c>
       <c r="O51">
-        <v>5.2565974786040313</v>
+        <v>5.8893270280054093</v>
       </c>
       <c r="P51">
-        <v>5.7069770284176009</v>
+        <v>6.2276780045249982</v>
       </c>
       <c r="Q51">
-        <v>6.3983299535714817</v>
+        <v>7.8100433893753065</v>
       </c>
       <c r="R51">
-        <v>6.6655406069698175</v>
+        <v>10.127273986997725</v>
       </c>
       <c r="S51">
-        <v>9.1124239201893804</v>
+        <v>12.975199093257455</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52">
-        <v>90.581355357949491</v>
+        <v>90.642246446502455</v>
       </c>
       <c r="D52">
-        <v>88.97341294355499</v>
+        <v>91.112891818426803</v>
       </c>
       <c r="E52">
-        <v>86.175206640299365</v>
+        <v>90.510903269239805</v>
       </c>
       <c r="F52">
-        <v>83.080132284515585</v>
+        <v>90.384514875799795</v>
       </c>
       <c r="G52">
-        <v>78.599726564969771</v>
+        <v>88.747243892649067</v>
       </c>
       <c r="H52">
-        <v>66.3934253274236</v>
+        <v>77.721185641433252</v>
       </c>
       <c r="I52">
-        <v>58.11224589934929</v>
+        <v>57.390955449525258</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52">
-        <v>4.4778305644230976</v>
+        <v>4.8046743223783803</v>
       </c>
       <c r="N52">
-        <v>4.8960641145432993</v>
+        <v>4.6267271925378539</v>
       </c>
       <c r="O52">
-        <v>6.1124849117603945</v>
+        <v>4.7167994848022108</v>
       </c>
       <c r="P52">
-        <v>5.8618346048185197</v>
+        <v>4.6380378521606005</v>
       </c>
       <c r="Q52">
-        <v>5.8104015835542553</v>
+        <v>4.941832660679113</v>
       </c>
       <c r="R52">
-        <v>7.7638343010849269</v>
+        <v>6.5489356622072048</v>
       </c>
       <c r="S52">
-        <v>8.9944066091442814</v>
+        <v>9.8361171493471335</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53">
-        <v>90.510302373601434</v>
+        <v>90.617152023346819</v>
       </c>
       <c r="D53">
-        <v>88.824953889297518</v>
+        <v>90.05855315992585</v>
       </c>
       <c r="E53">
-        <v>86.674942469044325</v>
+        <v>89.179945583344406</v>
       </c>
       <c r="F53">
-        <v>81.543605709946462</v>
+        <v>86.633871646318525</v>
       </c>
       <c r="G53">
-        <v>75.271718740593627</v>
+        <v>82.414435110979952</v>
       </c>
       <c r="H53">
-        <v>67.72658070045415</v>
+        <v>69.823014577124326</v>
       </c>
       <c r="I53">
-        <v>58.433623636929134</v>
+        <v>57.449010771275319</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53">
-        <v>5.1076806654003626</v>
+        <v>4.2750077328577394</v>
       </c>
       <c r="N53">
-        <v>5.3873200605855445</v>
+        <v>4.2266125705467239</v>
       </c>
       <c r="O53">
-        <v>5.9833392560659284</v>
+        <v>5.2565974786040313</v>
       </c>
       <c r="P53">
-        <v>6.1215105686801499</v>
+        <v>5.7069770284176009</v>
       </c>
       <c r="Q53">
-        <v>7.3159920074958444</v>
+        <v>6.3983299535714817</v>
       </c>
       <c r="R53">
-        <v>8.5044787981464225</v>
+        <v>6.6655406069698175</v>
       </c>
       <c r="S53">
-        <v>8.5926586855477538</v>
+        <v>9.1124239201893804</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54">
-        <v>90.77523149389998</v>
+        <v>90.581355357949491</v>
       </c>
       <c r="D54">
-        <v>89.185217369225327</v>
+        <v>88.97341294355499</v>
       </c>
       <c r="E54">
-        <v>86.832129001570053</v>
+        <v>86.175206640299365</v>
       </c>
       <c r="F54">
-        <v>82.015640393948175</v>
+        <v>83.080132284515585</v>
       </c>
       <c r="G54">
-        <v>74.972613257814999</v>
+        <v>78.599726564969771</v>
       </c>
       <c r="H54">
-        <v>65.417864082249295</v>
+        <v>66.3934253274236</v>
       </c>
       <c r="I54">
-        <v>55.042441020336085</v>
+        <v>58.11224589934929</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54">
-        <v>4.8120651940731003</v>
+        <v>4.4778305644230976</v>
       </c>
       <c r="N54">
-        <v>5.3504041978372019</v>
+        <v>4.8960641145432993</v>
       </c>
       <c r="O54">
-        <v>5.6560471528137661</v>
+        <v>6.1124849117603945</v>
       </c>
       <c r="P54">
-        <v>6.5079634189489424</v>
+        <v>5.8618346048185197</v>
       </c>
       <c r="Q54">
-        <v>7.8749746185986238</v>
+        <v>5.8104015835542553</v>
       </c>
       <c r="R54">
-        <v>8.2835712333162252</v>
+        <v>7.7638343010849269</v>
       </c>
       <c r="S54">
-        <v>7.669452785779991</v>
+        <v>8.9944066091442814</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55">
-        <v>91.156513297158639</v>
+        <v>90.510302373601434</v>
       </c>
       <c r="D55">
-        <v>88.573641976087487</v>
+        <v>88.824953889297518</v>
       </c>
       <c r="E55">
-        <v>86.451346459221952</v>
+        <v>86.674942469044325</v>
       </c>
       <c r="F55">
-        <v>81.632507264086627</v>
+        <v>81.543605709946462</v>
       </c>
       <c r="G55">
-        <v>75.528970260459374</v>
+        <v>75.271718740593627</v>
       </c>
       <c r="H55">
-        <v>64.923306527722815</v>
+        <v>67.72658070045415</v>
       </c>
       <c r="I55">
-        <v>52.921194726803435</v>
+        <v>58.433623636929134</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55">
-        <v>5.1638895836383742</v>
+        <v>5.1076806654003626</v>
       </c>
       <c r="N55">
-        <v>5.0488519995067334</v>
+        <v>5.3873200605855445</v>
       </c>
       <c r="O55">
-        <v>5.7263083946480009</v>
+        <v>5.9833392560659284</v>
       </c>
       <c r="P55">
-        <v>8.4617789692496856</v>
+        <v>6.1215105686801499</v>
       </c>
       <c r="Q55">
-        <v>8.7221549652121535</v>
+        <v>7.3159920074958444</v>
       </c>
       <c r="R55">
-        <v>9.1465131387725336</v>
+        <v>8.5044787981464225</v>
       </c>
       <c r="S55">
-        <v>7.9277731795846682</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8.5926586855477538</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" s="4">
-        <v>0.91573665001683324</v>
-      </c>
-      <c r="D56" s="4">
-        <v>0.91675367725818291</v>
-      </c>
-      <c r="E56" s="4">
-        <v>0.91019541465383291</v>
-      </c>
-      <c r="F56" s="4">
-        <v>0.88696775927887961</v>
-      </c>
-      <c r="G56" s="4">
-        <v>0.84341403591632225</v>
-      </c>
-      <c r="H56" s="4">
-        <v>0.71960591517889638</v>
-      </c>
-      <c r="I56" s="4">
-        <v>0.57233144295438854</v>
+        <v>26</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56">
+        <v>90.77523149389998</v>
+      </c>
+      <c r="D56">
+        <v>89.185217369225327</v>
+      </c>
+      <c r="E56">
+        <v>86.832129001570053</v>
+      </c>
+      <c r="F56">
+        <v>82.015640393948175</v>
+      </c>
+      <c r="G56">
+        <v>74.972613257814999</v>
+      </c>
+      <c r="H56">
+        <v>65.417864082249295</v>
+      </c>
+      <c r="I56">
+        <v>55.042441020336085</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M56" s="4">
-        <v>3.8946290870482722E-2</v>
-      </c>
-      <c r="N56" s="4">
-        <v>3.8021996147475048E-2</v>
-      </c>
-      <c r="O56" s="4">
-        <v>3.8648961121767363E-2</v>
-      </c>
-      <c r="P56" s="4">
-        <v>4.5894214178159538E-2</v>
-      </c>
-      <c r="Q56" s="4">
-        <v>5.2402420839639183E-2</v>
-      </c>
-      <c r="R56" s="4">
-        <v>8.6152928296938561E-2</v>
-      </c>
-      <c r="S56" s="4">
-        <v>9.323574915815859E-2</v>
+        <v>26</v>
+      </c>
+      <c r="L56" s="3"/>
+      <c r="M56">
+        <v>4.8120651940731003</v>
+      </c>
+      <c r="N56">
+        <v>5.3504041978372019</v>
+      </c>
+      <c r="O56">
+        <v>5.6560471528137661</v>
+      </c>
+      <c r="P56">
+        <v>6.5079634189489424</v>
+      </c>
+      <c r="Q56">
+        <v>7.8749746185986238</v>
+      </c>
+      <c r="R56">
+        <v>8.2835712333162252</v>
+      </c>
+      <c r="S56">
+        <v>7.669452785779991</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57">
+        <v>91.156513297158639</v>
+      </c>
+      <c r="D57">
+        <v>88.573641976087487</v>
+      </c>
+      <c r="E57">
+        <v>86.451346459221952</v>
+      </c>
+      <c r="F57">
+        <v>81.632507264086627</v>
+      </c>
+      <c r="G57">
+        <v>75.528970260459374</v>
+      </c>
+      <c r="H57">
+        <v>64.923306527722815</v>
+      </c>
+      <c r="I57">
+        <v>52.921194726803435</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L57" s="3"/>
+      <c r="M57">
+        <v>5.1638895836383742</v>
+      </c>
+      <c r="N57">
+        <v>5.0488519995067334</v>
+      </c>
+      <c r="O57">
+        <v>5.7263083946480009</v>
+      </c>
+      <c r="P57">
+        <v>8.4617789692496856</v>
+      </c>
+      <c r="Q57">
+        <v>8.7221549652121535</v>
+      </c>
+      <c r="R57">
+        <v>9.1465131387725336</v>
+      </c>
+      <c r="S57">
+        <v>7.9277731795846682</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58">
+        <v>0.91573665001683324</v>
+      </c>
+      <c r="D58">
+        <v>0.91675367725818291</v>
+      </c>
+      <c r="E58">
+        <v>0.91019541465383291</v>
+      </c>
+      <c r="F58">
+        <v>0.88696775927887961</v>
+      </c>
+      <c r="G58">
+        <v>0.84341403591632225</v>
+      </c>
+      <c r="H58">
+        <v>0.71960591517889638</v>
+      </c>
+      <c r="I58">
+        <v>0.57233144295438854</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M58">
+        <v>3.8946290870482722E-2</v>
+      </c>
+      <c r="N58">
+        <v>3.8021996147475048E-2</v>
+      </c>
+      <c r="O58">
+        <v>3.8648961121767363E-2</v>
+      </c>
+      <c r="P58">
+        <v>4.5894214178159538E-2</v>
+      </c>
+      <c r="Q58">
+        <v>5.2402420839639183E-2</v>
+      </c>
+      <c r="R58">
+        <v>8.6152928296938561E-2</v>
+      </c>
+      <c r="S58">
+        <v>9.323574915815859E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="5">
+      <c r="B59" s="2"/>
+      <c r="C59">
         <v>0.90753018873298219</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D59">
         <v>0.90722994477316099</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E59">
         <v>0.90729945696919212</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F59">
         <v>0.87965417369873589</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G59">
         <v>0.86123105689431723</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H59">
         <v>0.74269392794856659</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I59">
         <v>0.60778502292458447</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L57" s="2"/>
-      <c r="M57" s="5">
+      <c r="L59" s="2"/>
+      <c r="M59">
         <v>5.1087302616689312E-2</v>
       </c>
-      <c r="N57" s="5">
+      <c r="N59">
         <v>4.8395299050874488E-2</v>
       </c>
-      <c r="O57" s="5">
+      <c r="O59">
         <v>4.7036373869729031E-2</v>
       </c>
-      <c r="P57" s="5">
+      <c r="P59">
         <v>6.214367796171763E-2</v>
       </c>
-      <c r="Q57" s="5">
+      <c r="Q59">
         <v>6.4310858246990482E-2</v>
       </c>
-      <c r="R57" s="5">
+      <c r="R59">
         <v>8.0610934962749792E-2</v>
       </c>
-      <c r="S57" s="5">
+      <c r="S59">
         <v>9.0466187066171197E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="6">
-        <v>0.88959040489692842</v>
-      </c>
-      <c r="D58" s="6">
-        <v>0.89681940604984089</v>
-      </c>
-      <c r="E58" s="6">
-        <v>0.88769823643499868</v>
-      </c>
-      <c r="F58" s="6">
-        <v>0.85291083244182031</v>
-      </c>
-      <c r="G58" s="6">
-        <v>0.81839893396513175</v>
-      </c>
-      <c r="H58" s="6">
-        <v>0.68213325562767113</v>
-      </c>
-      <c r="I58" s="6">
-        <v>0.56573336524236384</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L58" s="2"/>
-      <c r="M58" s="6">
-        <v>5.22491352805768E-2</v>
-      </c>
-      <c r="N58" s="6">
-        <v>4.547465049785665E-2</v>
-      </c>
-      <c r="O58" s="6">
-        <v>5.4892393172518338E-2</v>
-      </c>
-      <c r="P58" s="6">
-        <v>6.5133459721418513E-2</v>
-      </c>
-      <c r="Q58" s="6">
-        <v>7.3328441711758757E-2</v>
-      </c>
-      <c r="R58" s="6">
-        <v>7.2918394258639385E-2</v>
-      </c>
-      <c r="S58" s="6">
-        <v>8.2458219907984784E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="7">
-        <v>0.87426198957053913</v>
-      </c>
-      <c r="D59" s="7">
-        <v>0.88493303751958963</v>
-      </c>
-      <c r="E59" s="7">
-        <v>0.88427192317732284</v>
-      </c>
-      <c r="F59" s="7">
-        <v>0.85145318074597631</v>
-      </c>
-      <c r="G59" s="7">
-        <v>0.81848590541838473</v>
-      </c>
-      <c r="H59" s="7">
-        <v>0.69218047918610182</v>
-      </c>
-      <c r="I59" s="7">
-        <v>0.53891453756950114</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L59" s="2"/>
-      <c r="M59" s="7">
-        <v>5.0521972348656567E-2</v>
-      </c>
-      <c r="N59" s="7">
-        <v>4.7630901415646083E-2</v>
-      </c>
-      <c r="O59" s="7">
-        <v>4.4564714432385417E-2</v>
-      </c>
-      <c r="P59" s="7">
-        <v>6.6549338799119825E-2</v>
-      </c>
-      <c r="Q59" s="7">
-        <v>6.4753337629037455E-2</v>
-      </c>
-      <c r="R59" s="7">
-        <v>8.3230396014262742E-2</v>
-      </c>
-      <c r="S59" s="7">
-        <v>7.1124614672978898E-2</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="8">
-        <v>0.76752797168134113</v>
-      </c>
-      <c r="D60" s="8">
-        <v>0.76347674862974246</v>
-      </c>
-      <c r="E60" s="8">
-        <v>0.77326576520875356</v>
-      </c>
-      <c r="F60" s="8">
-        <v>0.75705122331881525</v>
-      </c>
-      <c r="G60" s="8">
-        <v>0.72184300378352961</v>
-      </c>
-      <c r="H60" s="8">
-        <v>0.65641087121909569</v>
-      </c>
-      <c r="I60" s="8">
-        <v>0.47765358179002182</v>
+        <v>40</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60">
+        <v>0.88959040489692842</v>
+      </c>
+      <c r="D60">
+        <v>0.89681940604984089</v>
+      </c>
+      <c r="E60">
+        <v>0.88769823643499868</v>
+      </c>
+      <c r="F60">
+        <v>0.85291083244182031</v>
+      </c>
+      <c r="G60">
+        <v>0.81839893396513175</v>
+      </c>
+      <c r="H60">
+        <v>0.68213325562767113</v>
+      </c>
+      <c r="I60">
+        <v>0.56573336524236384</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M60" s="8">
-        <v>9.3985771167019602E-2</v>
-      </c>
-      <c r="N60" s="8">
-        <v>9.3616976157880005E-2</v>
-      </c>
-      <c r="O60" s="8">
-        <v>9.5755009710247779E-2</v>
-      </c>
-      <c r="P60" s="8">
-        <v>9.6924221636811567E-2</v>
-      </c>
-      <c r="Q60" s="8">
-        <v>9.5846592779061837E-2</v>
-      </c>
-      <c r="R60" s="8">
-        <v>0.1077863353170945</v>
-      </c>
-      <c r="S60" s="8">
-        <v>0.10551748097462831</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="L60" s="2"/>
+      <c r="M60">
+        <v>5.22491352805768E-2</v>
+      </c>
+      <c r="N60">
+        <v>4.547465049785665E-2</v>
+      </c>
+      <c r="O60">
+        <v>5.4892393172518338E-2</v>
+      </c>
+      <c r="P60">
+        <v>6.5133459721418513E-2</v>
+      </c>
+      <c r="Q60">
+        <v>7.3328441711758757E-2</v>
+      </c>
+      <c r="R60">
+        <v>7.2918394258639385E-2</v>
+      </c>
+      <c r="S60">
+        <v>8.2458219907984784E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="9">
-        <v>0.84199090152702039</v>
-      </c>
-      <c r="D61" s="10">
-        <v>0.80150991222942236</v>
-      </c>
-      <c r="E61" s="11">
-        <v>0.79089573346684305</v>
-      </c>
-      <c r="F61" s="12">
-        <v>0.70882245349583861</v>
-      </c>
-      <c r="G61" s="13">
-        <v>0.68438391123016218</v>
-      </c>
-      <c r="H61" s="14">
-        <v>0.63448999228930736</v>
-      </c>
-      <c r="I61" s="15">
-        <v>0.54928023981627705</v>
+      <c r="C61">
+        <v>0.87426198957053913</v>
+      </c>
+      <c r="D61">
+        <v>0.88493303751958963</v>
+      </c>
+      <c r="E61">
+        <v>0.88427192317732284</v>
+      </c>
+      <c r="F61">
+        <v>0.85145318074597631</v>
+      </c>
+      <c r="G61">
+        <v>0.81848590541838473</v>
+      </c>
+      <c r="H61">
+        <v>0.69218047918610182</v>
+      </c>
+      <c r="I61">
+        <v>0.53891453756950114</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L61" s="2"/>
-      <c r="M61" s="9">
-        <v>6.8541808049040309E-2</v>
-      </c>
-      <c r="N61" s="10">
-        <v>8.0345663443423837E-2</v>
-      </c>
-      <c r="O61" s="11">
-        <v>8.5595110099521199E-2</v>
-      </c>
-      <c r="P61" s="12">
-        <v>9.341845691318873E-2</v>
-      </c>
-      <c r="Q61" s="13">
-        <v>8.723007474214807E-2</v>
-      </c>
-      <c r="R61" s="14">
-        <v>8.9303160416674882E-2</v>
-      </c>
-      <c r="S61" s="15">
-        <v>9.0909156720887299E-2</v>
+      <c r="M61">
+        <v>5.0521972348656567E-2</v>
+      </c>
+      <c r="N61">
+        <v>4.7630901415646083E-2</v>
+      </c>
+      <c r="O61">
+        <v>4.4564714432385417E-2</v>
+      </c>
+      <c r="P61">
+        <v>6.6549338799119825E-2</v>
+      </c>
+      <c r="Q61">
+        <v>6.4753337629037455E-2</v>
+      </c>
+      <c r="R61">
+        <v>8.3230396014262742E-2</v>
+      </c>
+      <c r="S61">
+        <v>7.1124614672978898E-2</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="16">
-        <v>0.89131692863681511</v>
-      </c>
-      <c r="D62" s="17">
-        <v>0.87544829448692052</v>
-      </c>
-      <c r="E62" s="18">
-        <v>0.87788787067770879</v>
-      </c>
-      <c r="F62" s="19">
-        <v>0.84320475835085373</v>
-      </c>
-      <c r="G62" s="20">
-        <v>0.76629640475813476</v>
-      </c>
-      <c r="H62" s="21">
-        <v>0.59319665796416166</v>
-      </c>
-      <c r="I62" s="22">
-        <v>0.45620863436697628</v>
+        <v>38</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62">
+        <v>0.76752797168134113</v>
+      </c>
+      <c r="D62">
+        <v>0.76347674862974246</v>
+      </c>
+      <c r="E62">
+        <v>0.77326576520875356</v>
+      </c>
+      <c r="F62">
+        <v>0.75705122331881525</v>
+      </c>
+      <c r="G62">
+        <v>0.72184300378352961</v>
+      </c>
+      <c r="H62">
+        <v>0.65641087121909569</v>
+      </c>
+      <c r="I62">
+        <v>0.47765358179002182</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L62" s="2"/>
-      <c r="M62" s="16">
-        <v>4.9480273201097887E-2</v>
-      </c>
-      <c r="N62" s="17">
-        <v>5.486473713327307E-2</v>
-      </c>
-      <c r="O62" s="18">
-        <v>5.5679062934616178E-2</v>
-      </c>
-      <c r="P62" s="19">
-        <v>6.1629089088025293E-2</v>
-      </c>
-      <c r="Q62" s="20">
-        <v>8.4053576913732261E-2</v>
-      </c>
-      <c r="R62" s="21">
-        <v>9.0610531757902513E-2</v>
-      </c>
-      <c r="S62" s="22">
-        <v>0.1095254048878474</v>
+        <v>38</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M62">
+        <v>9.3985771167019602E-2</v>
+      </c>
+      <c r="N62">
+        <v>9.3616976157880005E-2</v>
+      </c>
+      <c r="O62">
+        <v>9.5755009710247779E-2</v>
+      </c>
+      <c r="P62">
+        <v>9.6924221636811567E-2</v>
+      </c>
+      <c r="Q62">
+        <v>9.5846592779061837E-2</v>
+      </c>
+      <c r="R62">
+        <v>0.1077863353170945</v>
+      </c>
+      <c r="S62">
+        <v>0.10551748097462831</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="23">
-        <v>0.89343160521159626</v>
-      </c>
-      <c r="D63" s="24">
-        <v>0.89355924395143083</v>
-      </c>
-      <c r="E63" s="25">
-        <v>0.88961637589369535</v>
-      </c>
-      <c r="F63" s="26">
-        <v>0.85571925012528027</v>
-      </c>
-      <c r="G63" s="27">
-        <v>0.8022539440339006</v>
-      </c>
-      <c r="H63" s="28">
-        <v>0.65538982643024934</v>
-      </c>
-      <c r="I63" s="29">
-        <v>0.48872031783551328</v>
+      <c r="C63">
+        <v>0.84199090152702039</v>
+      </c>
+      <c r="D63">
+        <v>0.80150991222942236</v>
+      </c>
+      <c r="E63">
+        <v>0.79089573346684305</v>
+      </c>
+      <c r="F63">
+        <v>0.70882245349583861</v>
+      </c>
+      <c r="G63">
+        <v>0.68438391123016218</v>
+      </c>
+      <c r="H63">
+        <v>0.63448999228930736</v>
+      </c>
+      <c r="I63">
+        <v>0.54928023981627705</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L63" s="2"/>
-      <c r="M63" s="23">
-        <v>5.1733129187131341E-2</v>
-      </c>
-      <c r="N63" s="24">
-        <v>4.5399366724179553E-2</v>
-      </c>
-      <c r="O63" s="25">
-        <v>5.5435564580559649E-2</v>
-      </c>
-      <c r="P63" s="26">
-        <v>6.2430550204094513E-2</v>
-      </c>
-      <c r="Q63" s="27">
-        <v>7.5764013481950554E-2</v>
-      </c>
-      <c r="R63" s="28">
-        <v>9.815692838482698E-2</v>
-      </c>
-      <c r="S63" s="29">
-        <v>9.6282604746864148E-2</v>
+      <c r="M63">
+        <v>6.8541808049040309E-2</v>
+      </c>
+      <c r="N63">
+        <v>8.0345663443423837E-2</v>
+      </c>
+      <c r="O63">
+        <v>8.5595110099521199E-2</v>
+      </c>
+      <c r="P63">
+        <v>9.341845691318873E-2</v>
+      </c>
+      <c r="Q63">
+        <v>8.723007474214807E-2</v>
+      </c>
+      <c r="R63">
+        <v>8.9303160416674882E-2</v>
+      </c>
+      <c r="S63">
+        <v>9.0909156720887299E-2</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="31">
-        <v>0.91235856314298724</v>
-      </c>
-      <c r="D64" s="33">
-        <v>0.89450310145198164</v>
-      </c>
-      <c r="E64" s="35">
-        <v>0.86552102703347344</v>
-      </c>
-      <c r="F64" s="37">
-        <v>0.82196309777850829</v>
-      </c>
-      <c r="G64" s="39">
-        <v>0.74128130267679271</v>
-      </c>
-      <c r="H64" s="41">
-        <v>0.63698796419853532</v>
-      </c>
-      <c r="I64" s="43">
-        <v>0.53054547984279943</v>
+        <v>40</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64">
+        <v>0.89131692863681511</v>
+      </c>
+      <c r="D64">
+        <v>0.87544829448692052</v>
+      </c>
+      <c r="E64">
+        <v>0.87788787067770879</v>
+      </c>
+      <c r="F64">
+        <v>0.84320475835085373</v>
+      </c>
+      <c r="G64">
+        <v>0.76629640475813476</v>
+      </c>
+      <c r="H64">
+        <v>0.59319665796416166</v>
+      </c>
+      <c r="I64">
+        <v>0.45620863436697628</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M64" s="43">
-        <v>4.4594606754942263E-2</v>
-      </c>
-      <c r="N64" s="43">
-        <v>5.237259437503744E-2</v>
-      </c>
-      <c r="O64" s="43">
-        <v>6.3647369817254079E-2</v>
-      </c>
-      <c r="P64" s="43">
-        <v>7.9609321411611381E-2</v>
-      </c>
-      <c r="Q64" s="43">
-        <v>8.9008794059272436E-2</v>
-      </c>
-      <c r="R64" s="43">
-        <v>8.9038885589430766E-2</v>
-      </c>
-      <c r="S64" s="43">
-        <v>7.4549345191914126E-2</v>
+        <v>40</v>
+      </c>
+      <c r="L64" s="2"/>
+      <c r="M64">
+        <v>4.9480273201097887E-2</v>
+      </c>
+      <c r="N64">
+        <v>5.486473713327307E-2</v>
+      </c>
+      <c r="O64">
+        <v>5.5679062934616178E-2</v>
+      </c>
+      <c r="P64">
+        <v>6.1629089088025293E-2</v>
+      </c>
+      <c r="Q64">
+        <v>8.4053576913732261E-2</v>
+      </c>
+      <c r="R64">
+        <v>9.0610531757902513E-2</v>
+      </c>
+      <c r="S64">
+        <v>0.1095254048878474</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="44">
-        <v>0.90798486800636635</v>
-      </c>
-      <c r="D65" s="46">
-        <v>0.88599810414054547</v>
-      </c>
-      <c r="E65" s="48">
-        <v>0.8691706573459973</v>
-      </c>
-      <c r="F65" s="50">
-        <v>0.82212043577925764</v>
-      </c>
-      <c r="G65" s="52">
-        <v>0.74918675016884406</v>
-      </c>
-      <c r="H65" s="54">
-        <v>0.63965553606901482</v>
-      </c>
-      <c r="I65" s="56">
-        <v>0.52957962334304021</v>
+      <c r="C65">
+        <v>0.89343160521159626</v>
+      </c>
+      <c r="D65">
+        <v>0.89355924395143083</v>
+      </c>
+      <c r="E65">
+        <v>0.88961637589369535</v>
+      </c>
+      <c r="F65">
+        <v>0.85571925012528027</v>
+      </c>
+      <c r="G65">
+        <v>0.8022539440339006</v>
+      </c>
+      <c r="H65">
+        <v>0.65538982643024934</v>
+      </c>
+      <c r="I65">
+        <v>0.48872031783551328</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="L65" s="2"/>
-      <c r="M65" s="44">
-        <v>5.2932815526512467E-2</v>
-      </c>
-      <c r="N65" s="46">
-        <v>6.1139898314438529E-2</v>
-      </c>
-      <c r="O65" s="48">
-        <v>6.2008508101055022E-2</v>
-      </c>
-      <c r="P65" s="50">
-        <v>7.2571624968432169E-2</v>
-      </c>
-      <c r="Q65" s="52">
-        <v>8.6245053998604632E-2</v>
-      </c>
-      <c r="R65" s="54">
-        <v>9.4515030467925309E-2</v>
-      </c>
-      <c r="S65" s="56">
-        <v>7.131820650148607E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M65">
+        <v>5.1733129187131341E-2</v>
+      </c>
+      <c r="N65">
+        <v>4.5399366724179553E-2</v>
+      </c>
+      <c r="O65">
+        <v>5.5435564580559649E-2</v>
+      </c>
+      <c r="P65">
+        <v>6.2430550204094513E-2</v>
+      </c>
+      <c r="Q65">
+        <v>7.5764013481950554E-2</v>
+      </c>
+      <c r="R65">
+        <v>9.815692838482698E-2</v>
+      </c>
+      <c r="S65">
+        <v>9.6282604746864148E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="58">
-        <v>0.90673356959843165</v>
-      </c>
-      <c r="D66" s="60">
-        <v>0.88951291158614365</v>
-      </c>
-      <c r="E66" s="62">
-        <v>0.86407752093335288</v>
-      </c>
-      <c r="F66" s="64">
-        <v>0.82799451065095753</v>
-      </c>
-      <c r="G66" s="66">
-        <v>0.74790416269434656</v>
-      </c>
-      <c r="H66" s="68">
-        <v>0.64509873569867715</v>
-      </c>
-      <c r="I66" s="70">
-        <v>0.527513655201992</v>
+        <v>47</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="77">
+        <v>0.91979607726023471</v>
+      </c>
+      <c r="D66" s="79">
+        <v>0.89563846816897397</v>
+      </c>
+      <c r="E66" s="81">
+        <v>0.88355600711847904</v>
+      </c>
+      <c r="F66" s="83">
+        <v>0.83932390425958858</v>
+      </c>
+      <c r="G66" s="85">
+        <v>0.78581896800917006</v>
+      </c>
+      <c r="H66" s="87">
+        <v>0.68281255556211573</v>
+      </c>
+      <c r="I66" s="89">
+        <v>0.58070485169992436</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L66" s="2"/>
-      <c r="M66" s="58">
-        <v>4.8285295071773947E-2</v>
-      </c>
-      <c r="N66" s="60">
-        <v>5.1550843054535167E-2</v>
-      </c>
-      <c r="O66" s="62">
-        <v>6.6374070965829146E-2</v>
-      </c>
-      <c r="P66" s="64">
-        <v>6.3898946778250226E-2</v>
-      </c>
-      <c r="Q66" s="66">
-        <v>8.9499058240982185E-2</v>
-      </c>
-      <c r="R66" s="68">
-        <v>9.0643268135433372E-2</v>
-      </c>
-      <c r="S66" s="70">
-        <v>9.1163331227578609E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M66" s="77">
+        <v>4.330961887836917E-2</v>
+      </c>
+      <c r="N66" s="79">
+        <v>5.1106810027699859E-2</v>
+      </c>
+      <c r="O66" s="81">
+        <v>4.6722006720026688E-2</v>
+      </c>
+      <c r="P66" s="83">
+        <v>5.8437173541867428E-2</v>
+      </c>
+      <c r="Q66" s="85">
+        <v>5.9841393763513349E-2</v>
+      </c>
+      <c r="R66" s="87">
+        <v>8.0320657935547768E-2</v>
+      </c>
+      <c r="S66" s="89">
+        <v>9.0829843118855919E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B67" s="2"/>
-      <c r="C67" s="72">
-        <v>0.90958412939664446</v>
-      </c>
-      <c r="D67" s="74">
-        <v>0.89296880478266982</v>
-      </c>
-      <c r="E67" s="76">
-        <v>0.85996899588027598</v>
-      </c>
-      <c r="F67" s="78">
-        <v>0.8216044469763687</v>
-      </c>
-      <c r="G67" s="80">
-        <v>0.74701645924213667</v>
-      </c>
-      <c r="H67" s="82">
-        <v>0.64456709898694153</v>
-      </c>
-      <c r="I67" s="84">
-        <v>0.52734360151297732</v>
+      <c r="C67" s="59">
+        <v>0.91466501961148472</v>
+      </c>
+      <c r="D67" s="59">
+        <v>0.89557077607992919</v>
+      </c>
+      <c r="E67" s="59">
+        <v>0.87558598741035687</v>
+      </c>
+      <c r="F67" s="59">
+        <v>0.84072586407806282</v>
+      </c>
+      <c r="G67" s="59">
+        <v>0.77525543544368014</v>
+      </c>
+      <c r="H67" s="59">
+        <v>0.68392583020310815</v>
+      </c>
+      <c r="I67" s="59">
+        <v>0.57839317930669532</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L67" s="2"/>
-      <c r="M67" s="72">
-        <v>5.1541580479767327E-2</v>
-      </c>
-      <c r="N67" s="74">
-        <v>5.0680977446577638E-2</v>
-      </c>
-      <c r="O67" s="76">
-        <v>6.7235889026121196E-2</v>
-      </c>
-      <c r="P67" s="78">
-        <v>7.7736993865439905E-2</v>
-      </c>
-      <c r="Q67" s="80">
-        <v>9.0824853912100531E-2</v>
-      </c>
-      <c r="R67" s="82">
-        <v>8.5475740688907426E-2</v>
-      </c>
-      <c r="S67" s="84">
-        <v>7.8109613564796801E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M67" s="5">
+        <v>4.3610555153108202E-2</v>
+      </c>
+      <c r="N67" s="7">
+        <v>5.3023407166033737E-2</v>
+      </c>
+      <c r="O67" s="9">
+        <v>5.4814488840020589E-2</v>
+      </c>
+      <c r="P67" s="11">
+        <v>5.8823031099078223E-2</v>
+      </c>
+      <c r="Q67" s="13">
+        <v>7.0498232831845961E-2</v>
+      </c>
+      <c r="R67" s="15">
+        <v>9.7139233242677647E-2</v>
+      </c>
+      <c r="S67" s="17">
+        <v>9.1188554841550806E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="61">
+        <v>0.91512439984891669</v>
+      </c>
+      <c r="D68" s="63">
+        <v>0.89046929453728141</v>
+      </c>
+      <c r="E68" s="65">
+        <v>0.87216968663984029</v>
+      </c>
+      <c r="F68" s="67">
+        <v>0.83305151755901996</v>
+      </c>
+      <c r="G68" s="69">
+        <v>0.77112129251931649</v>
+      </c>
+      <c r="H68" s="71">
+        <v>0.67196156017527997</v>
+      </c>
+      <c r="I68" s="74">
+        <v>0.54431549747903274</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="L68" s="2"/>
+      <c r="M68" s="61">
+        <v>4.8190181476460953E-2</v>
+      </c>
+      <c r="N68" s="63">
+        <v>5.5804996525238203E-2</v>
+      </c>
+      <c r="O68" s="65">
+        <v>5.4549482751445527E-2</v>
+      </c>
+      <c r="P68" s="67">
+        <v>6.969462066735424E-2</v>
+      </c>
+      <c r="Q68" s="69">
+        <v>7.0266042152528962E-2</v>
+      </c>
+      <c r="R68" s="71">
+        <v>8.7355756383700342E-2</v>
+      </c>
+      <c r="S68" s="75">
+        <v>7.1200396927024914E-2</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
@@ -3980,98 +4033,281 @@
         <v>12</v>
       </c>
       <c r="B69" s="2"/>
+      <c r="C69" s="59">
+        <v>0.91290277890697702</v>
+      </c>
+      <c r="D69" s="59">
+        <v>0.90057252355776662</v>
+      </c>
+      <c r="E69" s="59">
+        <v>0.86724685420819547</v>
+      </c>
+      <c r="F69" s="59">
+        <v>0.81984824584384897</v>
+      </c>
+      <c r="G69" s="59">
+        <v>0.75002002423926084</v>
+      </c>
+      <c r="H69" s="59">
+        <v>0.64476177146493086</v>
+      </c>
+      <c r="I69" s="59">
+        <v>0.53088947072594284</v>
+      </c>
       <c r="K69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L69" s="2"/>
+      <c r="M69" s="19">
+        <v>4.5392502289218317E-2</v>
+      </c>
+      <c r="N69" s="21">
+        <v>4.7983304533294559E-2</v>
+      </c>
+      <c r="O69" s="23">
+        <v>6.75244547642634E-2</v>
+      </c>
+      <c r="P69" s="25">
+        <v>7.2702806553763613E-2</v>
+      </c>
+      <c r="Q69" s="27">
+        <v>8.7686662026421391E-2</v>
+      </c>
+      <c r="R69" s="29">
+        <v>8.7341797503011409E-2</v>
+      </c>
+      <c r="S69" s="31">
+        <v>8.2480696792888511E-2</v>
+      </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B70" s="2"/>
+      <c r="C70" s="59">
+        <v>0.91510418216614442</v>
+      </c>
+      <c r="D70" s="59">
+        <v>0.890842861890495</v>
+      </c>
+      <c r="E70" s="59">
+        <v>0.86744665836864743</v>
+      </c>
+      <c r="F70" s="59">
+        <v>0.81811185891606619</v>
+      </c>
+      <c r="G70" s="59">
+        <v>0.74404162909264449</v>
+      </c>
+      <c r="H70" s="59">
+        <v>0.64696937626302897</v>
+      </c>
+      <c r="I70" s="59">
+        <v>0.53086923697951882</v>
+      </c>
       <c r="K70" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L70" s="2"/>
+      <c r="M70" s="33">
+        <v>4.5913740128900843E-2</v>
+      </c>
+      <c r="N70" s="35">
+        <v>5.3984498643534252E-2</v>
+      </c>
+      <c r="O70" s="37">
+        <v>5.5358969108462878E-2</v>
+      </c>
+      <c r="P70" s="39">
+        <v>8.41410361579603E-2</v>
+      </c>
+      <c r="Q70" s="41">
+        <v>9.6405823306948649E-2</v>
+      </c>
+      <c r="R70" s="43">
+        <v>8.7564007770028457E-2</v>
+      </c>
+      <c r="S70" s="45">
+        <v>7.2503585667805778E-2</v>
+      </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B71" s="2"/>
+      <c r="C71" s="59">
+        <v>0.91468946397839335</v>
+      </c>
+      <c r="D71" s="59">
+        <v>0.88646794764226167</v>
+      </c>
+      <c r="E71" s="59">
+        <v>0.87044448694361487</v>
+      </c>
+      <c r="F71" s="59">
+        <v>0.82575044753608384</v>
+      </c>
+      <c r="G71" s="59">
+        <v>0.75695732343748501</v>
+      </c>
+      <c r="H71" s="59">
+        <v>0.64652223853822732</v>
+      </c>
+      <c r="I71" s="59">
+        <v>0.54165886755575454</v>
+      </c>
       <c r="K71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L71" s="2"/>
+      <c r="M71" s="47">
+        <v>4.6536973858508697E-2</v>
+      </c>
+      <c r="N71" s="49">
+        <v>5.9413709191513397E-2</v>
+      </c>
+      <c r="O71" s="51">
+        <v>6.998153922411951E-2</v>
+      </c>
+      <c r="P71" s="53">
+        <v>7.0262852999714395E-2</v>
+      </c>
+      <c r="Q71" s="55">
+        <v>8.6338539513459933E-2</v>
+      </c>
+      <c r="R71" s="57">
+        <v>8.6519956886315572E-2</v>
+      </c>
+      <c r="S71" s="59">
+        <v>7.1724869206467548E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C73" s="30"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="40"/>
-      <c r="I73" s="42"/>
+      <c r="A73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="K73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C74" s="44"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="51"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="55"/>
+      <c r="A74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="K74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L74" s="2"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C75" s="57"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="69"/>
+      <c r="A75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="K75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L75" s="2"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C76" s="71"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="77"/>
-      <c r="G76" s="79"/>
-      <c r="H76" s="81"/>
-      <c r="I76" s="83"/>
-    </row>
-    <row r="78" spans="1:19" s="70" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+    </row>
+    <row r="78" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I79" s="44"/>
+    </row>
+    <row r="80" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C83" s="5"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="17"/>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C84" s="19"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="31"/>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C85" s="33"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="45"/>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C86" s="47"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="59"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="L56:L59"/>
-    <mergeCell ref="L60:L63"/>
-    <mergeCell ref="L64:L67"/>
-    <mergeCell ref="L68:L71"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="L51:L57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="L28:L33"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="L43:L50"/>
     <mergeCell ref="B5:B12"/>
     <mergeCell ref="L5:L12"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="L13:L19"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="L20:L23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="L41:L48"/>
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="L49:L55"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="L58:L61"/>
+    <mergeCell ref="L62:L65"/>
+    <mergeCell ref="L72:L75"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="L66:L71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C2:I4 C13:I19 C32:I35">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="C2:I4 C13:I19 C34:I37">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4082,8 +4318,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4 C14:I19 C32:I35">
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="C2:I4 C14:I19 C34:I37">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4094,8 +4330,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4 C16:I19 C32:I35">
-    <cfRule type="colorScale" priority="29">
+  <conditionalFormatting sqref="C2:I4 C16:I19 C34:I37">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4106,8 +4342,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4 C32:I35">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="C2:I4 C34:I37">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4119,17 +4355,41 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:I4">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I27 C34:I37">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I27">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4141,6 +4401,118 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:I12">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:I37 C2:I4">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:I42 C51:I57">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:I42 C52:I57">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:I42 C54:I57">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:I42">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43:I50">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -4152,18 +4524,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:I35 C2:I4">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="C72:I75">
+    <cfRule type="colorScale" priority="219">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="220">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="221">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4174,8 +4556,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:I40 C49:I55">
-    <cfRule type="colorScale" priority="35">
+  <conditionalFormatting sqref="M2:S4 M13:S19 M34:S37">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4186,8 +4568,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:I40 C50:I55">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="M2:S4 M14:S19 M34:S37">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4198,8 +4580,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:I40 C52:I55">
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="M2:S4 M16:S19 M34:S37">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4210,102 +4592,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:I40">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:I40">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41:I48">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:I40">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4 M13:S19 M32:S35">
+  <conditionalFormatting sqref="M2:S4 M34:S37">
     <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4 M14:S19 M32:S35">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4 M16:S19 M32:S35">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4 M32:S35">
-    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4317,7 +4605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:S4">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4329,6 +4617,118 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:S12">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:S37 M2:S4">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M40:S42 M51:S57">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M40:S42 M52:S57">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M40:S42 M54:S57">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M40:S42">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43:S50">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -4340,18 +4740,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M32:S35 M2:S4">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="41">
+  <conditionalFormatting sqref="M72:S75">
+    <cfRule type="colorScale" priority="213">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="217">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="218">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4362,181 +4772,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M38:S40 M49:S55">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M38:S40 M50:S55">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M38:S40 M52:S55">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M38:S40">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M38:S40">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M41:S48">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M38:S40">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M68:S71">
-    <cfRule type="colorScale" priority="212">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M68:S71">
-    <cfRule type="colorScale" priority="216">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="217">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I27 C32:I35">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68:I71">
-    <cfRule type="colorScale" priority="218">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68:I71">
-    <cfRule type="colorScale" priority="219">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="220">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I35">
+  <conditionalFormatting sqref="C76:I76">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -7312,6 +7548,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="L32:L39"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="L40:L46"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="L47:L49"/>
     <mergeCell ref="B50:B53"/>
@@ -7322,12 +7564,6 @@
     <mergeCell ref="L20:L22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="L23:L26"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="L32:L39"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="L40:L46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I4 C13:I26">
@@ -12478,6 +12714,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="L5:L11"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="L12:L17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="L18:L20"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="L43:L45"/>
     <mergeCell ref="B46:B49"/>
@@ -12488,12 +12730,6 @@
     <mergeCell ref="L30:L36"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="L37:L42"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="L5:L11"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="L12:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="L18:L20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I4 C6:I24">

--- a/results_cnn_subnetwork_evaluation/pcc/summary.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EF479D-9DD1-4249-A185-1129B357A99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D78AE78-8C4B-4290-B5A3-9E28B4AFFB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcc_20250919" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="53">
   <si>
     <t>sr</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,26 @@
     <t>t=0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>t=0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t=0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut off rank=0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut off rank=0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut off rank=0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -271,14 +291,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -324,53 +363,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -648,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407A0F26-EE3F-44D5-AD21-F0180FA13F65}">
-  <dimension ref="A1:S86"/>
+  <dimension ref="A1:S115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:I33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="A31:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -876,7 +871,7 @@
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C5">
@@ -903,7 +898,7 @@
       <c r="K5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M5">
@@ -932,7 +927,7 @@
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6">
         <v>93.053143481633342</v>
       </c>
@@ -957,7 +952,7 @@
       <c r="K6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="3"/>
       <c r="M6">
         <v>3.9872752197675312</v>
       </c>
@@ -984,7 +979,7 @@
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7">
         <v>91.579621507683157</v>
       </c>
@@ -1009,7 +1004,7 @@
       <c r="K7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="3"/>
       <c r="M7">
         <v>4.5335274096690847</v>
       </c>
@@ -1036,7 +1031,7 @@
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8">
         <v>90.212611412440125</v>
       </c>
@@ -1061,7 +1056,7 @@
       <c r="K8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="3"/>
       <c r="M8">
         <v>5.1774780277668837</v>
       </c>
@@ -1088,7 +1083,7 @@
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9">
         <v>90.084819072829347</v>
       </c>
@@ -1113,7 +1108,7 @@
       <c r="K9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="3"/>
       <c r="M9">
         <v>5.1380550132743084</v>
       </c>
@@ -1140,7 +1135,7 @@
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="3"/>
       <c r="C10">
         <v>89.661415756191658</v>
       </c>
@@ -1165,7 +1160,7 @@
       <c r="K10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="3"/>
       <c r="M10">
         <v>5.0704882397024411</v>
       </c>
@@ -1192,7 +1187,7 @@
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="3"/>
       <c r="C11">
         <v>89.817152397512075</v>
       </c>
@@ -1217,7 +1212,7 @@
       <c r="K11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="3"/>
       <c r="M11">
         <v>4.5124657638145411</v>
       </c>
@@ -1244,7 +1239,7 @@
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="3"/>
       <c r="C12">
         <v>88.193943430883195</v>
       </c>
@@ -1269,7 +1264,7 @@
       <c r="K12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="3"/>
       <c r="M12">
         <v>4.738300568518703</v>
       </c>
@@ -1296,7 +1291,7 @@
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13">
@@ -1323,7 +1318,7 @@
       <c r="K13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M13">
@@ -1352,7 +1347,7 @@
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
       <c r="C14">
         <v>91.096670386422005</v>
       </c>
@@ -1377,7 +1372,7 @@
       <c r="K14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="2"/>
       <c r="M14">
         <v>4.4913349382120487</v>
       </c>
@@ -1404,7 +1399,7 @@
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="2"/>
       <c r="C15">
         <v>91.140892222251068</v>
       </c>
@@ -1429,7 +1424,7 @@
       <c r="K15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="2"/>
       <c r="M15">
         <v>3.903249518826176</v>
       </c>
@@ -1456,7 +1451,7 @@
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="2"/>
       <c r="C16">
         <v>91.081684674319575</v>
       </c>
@@ -1481,7 +1476,7 @@
       <c r="K16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="2"/>
       <c r="M16">
         <v>4.1769763320911357</v>
       </c>
@@ -1508,7 +1503,7 @@
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="2"/>
       <c r="C17">
         <v>91.125234647358596</v>
       </c>
@@ -1533,7 +1528,7 @@
       <c r="K17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="2"/>
       <c r="M17">
         <v>4.6221295992371028</v>
       </c>
@@ -1560,7 +1555,7 @@
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="2"/>
       <c r="C18">
         <v>91.43489995588196</v>
       </c>
@@ -1585,7 +1580,7 @@
       <c r="K18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="2"/>
       <c r="M18">
         <v>4.2207267229748435</v>
       </c>
@@ -1612,7 +1607,7 @@
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="2"/>
       <c r="C19">
         <v>91.676793628549277</v>
       </c>
@@ -1637,7 +1632,7 @@
       <c r="K19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="2"/>
       <c r="M19">
         <v>4.7069173345915063</v>
       </c>
@@ -1664,7 +1659,7 @@
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C20">
@@ -1691,7 +1686,7 @@
       <c r="K20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="M20">
@@ -1720,7 +1715,7 @@
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="3"/>
       <c r="C21">
         <v>91.138051943932624</v>
       </c>
@@ -1745,7 +1740,7 @@
       <c r="K21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="2"/>
+      <c r="L21" s="3"/>
       <c r="M21">
         <v>4.8341548736925946</v>
       </c>
@@ -1772,7 +1767,7 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="3"/>
       <c r="C22">
         <v>89.464493637488204</v>
       </c>
@@ -1797,7 +1792,7 @@
       <c r="K22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="2"/>
+      <c r="L22" s="3"/>
       <c r="M22">
         <v>4.9049220966264562</v>
       </c>
@@ -1824,7 +1819,7 @@
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="3"/>
       <c r="C23">
         <v>88.032999132057071</v>
       </c>
@@ -1849,7 +1844,7 @@
       <c r="K23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="2"/>
+      <c r="L23" s="3"/>
       <c r="M23">
         <v>4.7933326181048139</v>
       </c>
@@ -1876,7 +1871,7 @@
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C24">
@@ -1900,10 +1895,10 @@
       <c r="I24">
         <v>52.908231616767146</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M24">
@@ -1932,7 +1927,7 @@
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="3"/>
       <c r="C25">
         <v>84.83746110837177</v>
       </c>
@@ -1954,10 +1949,10 @@
       <c r="I25">
         <v>58.344939546766547</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="L25" s="2"/>
+      <c r="L25" s="3"/>
       <c r="M25">
         <v>6.4398657108190296</v>
       </c>
@@ -1984,7 +1979,7 @@
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="3"/>
       <c r="C26">
         <v>89.603309717212085</v>
       </c>
@@ -2006,10 +2001,10 @@
       <c r="I26">
         <v>50.760837031462202</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="2"/>
+      <c r="L26" s="3"/>
       <c r="M26">
         <v>4.6421688324031569</v>
       </c>
@@ -2036,7 +2031,7 @@
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="3"/>
       <c r="C27">
         <v>89.968586810151194</v>
       </c>
@@ -2058,10 +2053,10 @@
       <c r="I27">
         <v>53.084931530549582</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="L27" s="2"/>
+      <c r="L27" s="3"/>
       <c r="M27">
         <v>4.7831146921405292</v>
       </c>
@@ -2084,1052 +2079,1048 @@
         <v>8.7167217320170494</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="76">
-        <v>92.477048532715116</v>
-      </c>
-      <c r="D28" s="78">
-        <v>90.180191870171896</v>
-      </c>
-      <c r="E28" s="80">
-        <v>89.039726410551424</v>
-      </c>
-      <c r="F28" s="82">
-        <v>84.649896048697073</v>
-      </c>
-      <c r="G28" s="84">
-        <v>79.471512152642617</v>
-      </c>
-      <c r="H28" s="86">
-        <v>69.562897026214188</v>
-      </c>
-      <c r="I28" s="88">
-        <v>60.42192983214963</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28" s="76">
-        <v>3.864240917746085</v>
-      </c>
-      <c r="N28" s="78">
-        <v>4.7514168218519144</v>
-      </c>
-      <c r="O28" s="80">
-        <v>4.2783261573546856</v>
-      </c>
-      <c r="P28" s="82">
-        <v>5.5621120940422859</v>
-      </c>
-      <c r="Q28" s="84">
-        <v>5.5145113908522019</v>
-      </c>
-      <c r="R28" s="86">
-        <v>7.4330359621726254</v>
-      </c>
-      <c r="S28" s="88">
-        <v>8.1535499109597733</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="59">
-        <v>91.959526754845044</v>
-      </c>
-      <c r="D29" s="59">
-        <v>90.104917285905017</v>
-      </c>
-      <c r="E29" s="59">
-        <v>88.143334573251821</v>
-      </c>
-      <c r="F29" s="59">
-        <v>84.594517830315723</v>
-      </c>
-      <c r="G29" s="59">
-        <v>78.610916472749167</v>
-      </c>
-      <c r="H29" s="59">
-        <v>69.49469286066487</v>
-      </c>
-      <c r="I29" s="59">
-        <v>60.022938491394108</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="4">
-        <v>4.0458830778429444</v>
-      </c>
-      <c r="N29" s="6">
-        <v>4.979737721732695</v>
-      </c>
-      <c r="O29" s="8">
-        <v>5.1651103973007757</v>
-      </c>
-      <c r="P29" s="10">
-        <v>5.5381938824967403</v>
-      </c>
-      <c r="Q29" s="12">
-        <v>6.5597567574792892</v>
-      </c>
-      <c r="R29" s="14">
-        <v>9.2326291048623581</v>
-      </c>
-      <c r="S29" s="16">
-        <v>8.2727184911055147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="71">
-        <v>92.008160393544344</v>
-      </c>
-      <c r="D30" s="71">
-        <v>89.686401554800085</v>
-      </c>
-      <c r="E30" s="71">
-        <v>87.865134358140338</v>
-      </c>
-      <c r="F30" s="71">
-        <v>84.076413579125528</v>
-      </c>
-      <c r="G30" s="71">
-        <v>78.16073956810466</v>
-      </c>
-      <c r="H30" s="71">
-        <v>68.189819981141696</v>
-      </c>
-      <c r="I30" s="72">
-        <v>56.640582242637613</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="60">
-        <v>4.3981754244991569</v>
-      </c>
-      <c r="N30" s="62">
-        <v>5.0137923390061934</v>
-      </c>
-      <c r="O30" s="64">
-        <v>5.1653386610175014</v>
-      </c>
-      <c r="P30" s="66">
-        <v>6.5496469954260137</v>
-      </c>
-      <c r="Q30" s="68">
-        <v>6.4923985130678084</v>
-      </c>
-      <c r="R30" s="70">
-        <v>8.2412367306566292</v>
-      </c>
-      <c r="S30" s="73">
-        <v>6.2810841354062008</v>
+    <row r="28" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="21">
+        <v>90.691067108423653</v>
+      </c>
+      <c r="D28" s="23">
+        <v>89.689680129874262</v>
+      </c>
+      <c r="E28" s="25">
+        <v>89.59233211359961</v>
+      </c>
+      <c r="F28" s="27">
+        <v>85.255599096878015</v>
+      </c>
+      <c r="G28" s="29">
+        <v>82.015089519228837</v>
+      </c>
+      <c r="H28" s="31">
+        <v>69.625832980100753</v>
+      </c>
+      <c r="I28" s="33">
+        <v>60.350654705778879</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="21">
+        <v>5.4121743283478736</v>
+      </c>
+      <c r="N28" s="23">
+        <v>5.5907403945814087</v>
+      </c>
+      <c r="O28" s="25">
+        <v>5.2765898829978184</v>
+      </c>
+      <c r="P28" s="27">
+        <v>5.9620913320733422</v>
+      </c>
+      <c r="Q28" s="29">
+        <v>6.4415942017553771</v>
+      </c>
+      <c r="R28" s="31">
+        <v>7.395316379248686</v>
+      </c>
+      <c r="S28" s="33">
+        <v>9.2278235972824163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="35">
+        <v>91.112509623785684</v>
+      </c>
+      <c r="D29" s="37">
+        <v>91.439040706811156</v>
+      </c>
+      <c r="E29" s="39">
+        <v>90.297669818366359</v>
+      </c>
+      <c r="F29" s="41">
+        <v>84.455946850751317</v>
+      </c>
+      <c r="G29" s="43">
+        <v>77.779026346825376</v>
+      </c>
+      <c r="H29" s="45">
+        <v>66.206273410669638</v>
+      </c>
+      <c r="I29" s="47">
+        <v>53.455520088120707</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="35">
+        <v>4.5520179996051642</v>
+      </c>
+      <c r="N29" s="37">
+        <v>4.6165742235050926</v>
+      </c>
+      <c r="O29" s="39">
+        <v>5.3912198646370211</v>
+      </c>
+      <c r="P29" s="41">
+        <v>5.4642560457667821</v>
+      </c>
+      <c r="Q29" s="43">
+        <v>6.5716610210982829</v>
+      </c>
+      <c r="R29" s="45">
+        <v>9.322282535401861</v>
+      </c>
+      <c r="S29" s="47">
+        <v>9.1742288468392683</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="49">
+        <v>91.827074628673245</v>
+      </c>
+      <c r="D30" s="51">
+        <v>91.579575371182557</v>
+      </c>
+      <c r="E30" s="53">
+        <v>90.953655885143192</v>
+      </c>
+      <c r="F30" s="55">
+        <v>84.8889580936398</v>
+      </c>
+      <c r="G30" s="57">
+        <v>76.85879923990116</v>
+      </c>
+      <c r="H30" s="59">
+        <v>60.762936242239697</v>
+      </c>
+      <c r="I30" s="61">
+        <v>51.992586441059181</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="49">
+        <v>4.4549479265356586</v>
+      </c>
+      <c r="N30" s="51">
+        <v>4.4537365583502329</v>
+      </c>
+      <c r="O30" s="53">
+        <v>4.6529389596054456</v>
+      </c>
+      <c r="P30" s="55">
+        <v>5.1056718027119041</v>
+      </c>
+      <c r="Q30" s="57">
+        <v>8.9486290801300008</v>
+      </c>
+      <c r="R30" s="59">
+        <v>11.38626259433059</v>
+      </c>
+      <c r="S30" s="61">
+        <v>10.82041766959281</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="59">
-        <v>91.701733290657103</v>
-      </c>
-      <c r="D31" s="59">
-        <v>90.510918491221076</v>
-      </c>
-      <c r="E31" s="59">
-        <v>87.404793005706523</v>
-      </c>
-      <c r="F31" s="59">
-        <v>82.810664452114636</v>
-      </c>
-      <c r="G31" s="59">
-        <v>76.101200414075095</v>
-      </c>
-      <c r="H31" s="59">
-        <v>65.653961827812807</v>
-      </c>
-      <c r="I31" s="59">
-        <v>55.505419597055351</v>
+        <v>48</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="4">
+        <v>90.39505243701646</v>
+      </c>
+      <c r="D31" s="5">
+        <v>87.732878312096133</v>
+      </c>
+      <c r="E31" s="6">
+        <v>84.591873632124859</v>
+      </c>
+      <c r="F31" s="7">
+        <v>74.496708449035026</v>
+      </c>
+      <c r="G31" s="8">
+        <v>63.371133544984517</v>
+      </c>
+      <c r="H31" s="9">
+        <v>47.765811122933577</v>
+      </c>
+      <c r="I31" s="10">
+        <v>42.041306585697107</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="18">
-        <v>4.2709415285830774</v>
-      </c>
-      <c r="N31" s="20">
-        <v>4.422493359492071</v>
-      </c>
-      <c r="O31" s="22">
-        <v>6.1405065424020853</v>
-      </c>
-      <c r="P31" s="24">
-        <v>6.8678729046640523</v>
-      </c>
-      <c r="Q31" s="26">
-        <v>8.2514888647080404</v>
-      </c>
-      <c r="R31" s="28">
-        <v>8.1106219369242378</v>
-      </c>
-      <c r="S31" s="30">
-        <v>7.1927741540358117</v>
+        <v>48</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" s="4">
+        <v>5.6471709676591244</v>
+      </c>
+      <c r="N31" s="5">
+        <v>6.7278406774077419</v>
+      </c>
+      <c r="O31" s="6">
+        <v>7.4303505204197764</v>
+      </c>
+      <c r="P31" s="7">
+        <v>9.6764569144490231</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>9.9332335506641414</v>
+      </c>
+      <c r="R31" s="9">
+        <v>5.9880268109399788</v>
+      </c>
+      <c r="S31" s="10">
+        <v>4.3628319605206736</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="59">
-        <v>92.031540065225485</v>
-      </c>
-      <c r="D32" s="59">
-        <v>89.694126535119977</v>
-      </c>
-      <c r="E32" s="59">
-        <v>87.516304927666624</v>
-      </c>
-      <c r="F32" s="59">
-        <v>82.812273462573202</v>
-      </c>
-      <c r="G32" s="59">
-        <v>75.616943053140602</v>
-      </c>
-      <c r="H32" s="59">
-        <v>65.776855047765707</v>
-      </c>
-      <c r="I32" s="59">
-        <v>55.531264687987488</v>
+        <v>49</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="11">
+        <v>92.17508801979254</v>
+      </c>
+      <c r="D32" s="12">
+        <v>90.145093527337337</v>
+      </c>
+      <c r="E32" s="13">
+        <v>88.722595639523973</v>
+      </c>
+      <c r="F32" s="14">
+        <v>83.74314656701182</v>
+      </c>
+      <c r="G32" s="15">
+        <v>79.586293999083011</v>
+      </c>
+      <c r="H32" s="16">
+        <v>67.130139534079021</v>
+      </c>
+      <c r="I32" s="17">
+        <v>59.087740090023857</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="32">
-        <v>4.141992411755715</v>
-      </c>
-      <c r="N32" s="34">
-        <v>4.9885076975232296</v>
-      </c>
-      <c r="O32" s="36">
-        <v>5.2113749716143882</v>
-      </c>
-      <c r="P32" s="38">
-        <v>7.697727216746455</v>
-      </c>
-      <c r="Q32" s="40">
-        <v>8.8975345774792025</v>
-      </c>
-      <c r="R32" s="42">
-        <v>8.2801623888764304</v>
-      </c>
-      <c r="S32" s="44">
-        <v>6.3477289141313316</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="11">
+        <v>3.88005959472649</v>
+      </c>
+      <c r="N32" s="12">
+        <v>5.1178543148616367</v>
+      </c>
+      <c r="O32" s="13">
+        <v>4.9824027534857223</v>
+      </c>
+      <c r="P32" s="14">
+        <v>5.5071669152057368</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>6.1053248122826744</v>
+      </c>
+      <c r="R32" s="16">
+        <v>7.468842763574024</v>
+      </c>
+      <c r="S32" s="17">
+        <v>7.9308174904696136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="59">
-        <v>92.003837980143999</v>
-      </c>
-      <c r="D33" s="59">
-        <v>89.237020504790976</v>
-      </c>
-      <c r="E33" s="59">
-        <v>87.7060355193384</v>
-      </c>
-      <c r="F33" s="59">
-        <v>83.379559223407369</v>
-      </c>
-      <c r="G33" s="59">
-        <v>76.77448190151587</v>
-      </c>
-      <c r="H33" s="59">
-        <v>65.776621481731382</v>
-      </c>
-      <c r="I33" s="59">
-        <v>56.371072990827493</v>
+        <v>47</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33">
+        <v>92.477048532715116</v>
+      </c>
+      <c r="D33">
+        <v>90.180191870171896</v>
+      </c>
+      <c r="E33">
+        <v>89.039726410551424</v>
+      </c>
+      <c r="F33">
+        <v>84.649896048697073</v>
+      </c>
+      <c r="G33">
+        <v>79.471512152642617</v>
+      </c>
+      <c r="H33">
+        <v>69.562897026214188</v>
+      </c>
+      <c r="I33">
+        <v>60.42192983214963</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="46">
-        <v>4.2243659250592218</v>
-      </c>
-      <c r="N33" s="48">
-        <v>5.4696092563220553</v>
-      </c>
-      <c r="O33" s="50">
-        <v>6.4205553060370049</v>
-      </c>
-      <c r="P33" s="52">
-        <v>6.646721903412339</v>
-      </c>
-      <c r="Q33" s="54">
-        <v>7.9634496793602256</v>
-      </c>
-      <c r="R33" s="56">
-        <v>8.1144667890421527</v>
-      </c>
-      <c r="S33" s="58">
-        <v>6.7212889844772681</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33">
+        <v>3.864240917746085</v>
+      </c>
+      <c r="N33">
+        <v>4.7514168218519144</v>
+      </c>
+      <c r="O33">
+        <v>4.2783261573546856</v>
+      </c>
+      <c r="P33">
+        <v>5.5621120940422859</v>
+      </c>
+      <c r="Q33">
+        <v>5.5145113908522019</v>
+      </c>
+      <c r="R33">
+        <v>7.4330359621726254</v>
+      </c>
+      <c r="S33">
+        <v>8.1535499109597733</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>45</v>
+      <c r="B34" s="3"/>
+      <c r="C34">
+        <v>91.959526754845044</v>
+      </c>
+      <c r="D34">
+        <v>90.104917285905017</v>
+      </c>
+      <c r="E34">
+        <v>88.143334573251821</v>
+      </c>
+      <c r="F34">
+        <v>84.594517830315723</v>
+      </c>
+      <c r="G34">
+        <v>78.610916472749167</v>
+      </c>
+      <c r="H34">
+        <v>69.49469286066487</v>
+      </c>
+      <c r="I34">
+        <v>60.022938491394108</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>45</v>
+      <c r="L34" s="3"/>
+      <c r="M34">
+        <v>4.0458830778429444</v>
+      </c>
+      <c r="N34">
+        <v>4.979737721732695</v>
+      </c>
+      <c r="O34">
+        <v>5.1651103973007757</v>
+      </c>
+      <c r="P34">
+        <v>5.5381938824967403</v>
+      </c>
+      <c r="Q34">
+        <v>6.5597567574792892</v>
+      </c>
+      <c r="R34">
+        <v>9.2326291048623581</v>
+      </c>
+      <c r="S34">
+        <v>8.2727184911055147</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35">
+        <v>92.008160393544344</v>
+      </c>
+      <c r="D35">
+        <v>89.686401554800085</v>
+      </c>
+      <c r="E35">
+        <v>87.865134358140338</v>
+      </c>
+      <c r="F35">
+        <v>84.076413579125528</v>
+      </c>
+      <c r="G35">
+        <v>78.16073956810466</v>
+      </c>
+      <c r="H35">
+        <v>68.189819981141696</v>
+      </c>
+      <c r="I35">
+        <v>56.640582242637613</v>
+      </c>
       <c r="K35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L35" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35">
+        <v>4.3981754244991569</v>
+      </c>
+      <c r="N35">
+        <v>5.0137923390061934</v>
+      </c>
+      <c r="O35">
+        <v>5.1653386610175014</v>
+      </c>
+      <c r="P35">
+        <v>6.5496469954260137</v>
+      </c>
+      <c r="Q35">
+        <v>6.4923985130678084</v>
+      </c>
+      <c r="R35">
+        <v>8.2412367306566292</v>
+      </c>
+      <c r="S35">
+        <v>6.2810841354062008</v>
+      </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36">
+        <v>91.701733290657103</v>
+      </c>
+      <c r="D36">
+        <v>90.510918491221076</v>
+      </c>
+      <c r="E36">
+        <v>87.404793005706523</v>
+      </c>
+      <c r="F36">
+        <v>82.810664452114636</v>
+      </c>
+      <c r="G36">
+        <v>76.101200414075095</v>
+      </c>
+      <c r="H36">
+        <v>65.653961827812807</v>
+      </c>
+      <c r="I36">
+        <v>55.505419597055351</v>
+      </c>
       <c r="K36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L36" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36">
+        <v>4.2709415285830774</v>
+      </c>
+      <c r="N36">
+        <v>4.422493359492071</v>
+      </c>
+      <c r="O36">
+        <v>6.1405065424020853</v>
+      </c>
+      <c r="P36">
+        <v>6.8678729046640523</v>
+      </c>
+      <c r="Q36">
+        <v>8.2514888647080404</v>
+      </c>
+      <c r="R36">
+        <v>8.1106219369242378</v>
+      </c>
+      <c r="S36">
+        <v>7.1927741540358117</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37">
+        <v>92.031540065225485</v>
+      </c>
+      <c r="D37">
+        <v>89.694126535119977</v>
+      </c>
+      <c r="E37">
+        <v>87.516304927666624</v>
+      </c>
+      <c r="F37">
+        <v>82.812273462573202</v>
+      </c>
+      <c r="G37">
+        <v>75.616943053140602</v>
+      </c>
+      <c r="H37">
+        <v>65.776855047765707</v>
+      </c>
+      <c r="I37">
+        <v>55.531264687987488</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37">
+        <v>4.141992411755715</v>
+      </c>
+      <c r="N37">
+        <v>4.9885076975232296</v>
+      </c>
+      <c r="O37">
+        <v>5.2113749716143882</v>
+      </c>
+      <c r="P37">
+        <v>7.697727216746455</v>
+      </c>
+      <c r="Q37">
+        <v>8.8975345774792025</v>
+      </c>
+      <c r="R37">
+        <v>8.2801623888764304</v>
+      </c>
+      <c r="S37">
+        <v>6.3477289141313316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="K37" s="1" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38">
+        <v>92.003837980143999</v>
+      </c>
+      <c r="D38">
+        <v>89.237020504790976</v>
+      </c>
+      <c r="E38">
+        <v>87.7060355193384</v>
+      </c>
+      <c r="F38">
+        <v>83.379559223407369</v>
+      </c>
+      <c r="G38">
+        <v>76.77448190151587</v>
+      </c>
+      <c r="H38">
+        <v>65.776621481731382</v>
+      </c>
+      <c r="I38">
+        <v>56.371072990827493</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L38" s="3"/>
+      <c r="M38">
+        <v>4.2243659250592218</v>
+      </c>
+      <c r="N38">
+        <v>5.4696092563220553</v>
+      </c>
+      <c r="O38">
+        <v>6.4205553060370049</v>
+      </c>
+      <c r="P38">
+        <v>6.646721903412339</v>
+      </c>
+      <c r="Q38">
+        <v>7.9634496793602256</v>
+      </c>
+      <c r="R38">
+        <v>8.1144667890421527</v>
+      </c>
+      <c r="S38">
+        <v>6.7212889844772681</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0.05</v>
+        <v>11</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <v>1</v>
-      </c>
-      <c r="N39" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="O39" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P39" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R39" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="S39" s="1">
-        <v>0.05</v>
+        <v>11</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>92.567111769713335</v>
-      </c>
-      <c r="D40">
-        <v>90.835858608343599</v>
-      </c>
-      <c r="E40">
-        <v>89.217505339533233</v>
-      </c>
-      <c r="F40">
-        <v>83.237245964288078</v>
-      </c>
-      <c r="G40">
-        <v>75.380430844191011</v>
-      </c>
-      <c r="H40">
-        <v>58.994367187597383</v>
-      </c>
-      <c r="I40">
-        <v>43.622535641382179</v>
-      </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>3.88093621561358</v>
-      </c>
-      <c r="N40">
-        <v>4.8164746829677396</v>
-      </c>
-      <c r="O40">
-        <v>5.2250608386616522</v>
-      </c>
-      <c r="P40">
-        <v>5.6675721086724113</v>
-      </c>
-      <c r="Q40">
-        <v>8.3263283482936075</v>
-      </c>
-      <c r="R40">
-        <v>10.49020927094638</v>
-      </c>
-      <c r="S40">
-        <v>11.060437347759546</v>
-      </c>
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="K40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41">
-        <v>92.338566773632834</v>
-      </c>
-      <c r="D41">
-        <v>92.22816257293259</v>
-      </c>
-      <c r="E41">
-        <v>92.19353000091759</v>
-      </c>
-      <c r="F41">
-        <v>91.289781910285583</v>
-      </c>
-      <c r="G41">
-        <v>89.68940373291737</v>
-      </c>
-      <c r="H41">
-        <v>81.453332231966129</v>
-      </c>
-      <c r="I41">
-        <v>68.108240193153023</v>
-      </c>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M41">
-        <v>4.0483086633488163</v>
-      </c>
-      <c r="N41">
-        <v>3.9020890437152844</v>
-      </c>
-      <c r="O41">
-        <v>3.7923842410048425</v>
-      </c>
-      <c r="P41">
-        <v>4.4242632373638857</v>
-      </c>
-      <c r="Q41">
-        <v>4.2715813123996149</v>
-      </c>
-      <c r="R41">
-        <v>6.1738858238669021</v>
-      </c>
-      <c r="S41">
-        <v>6.3931839578006242</v>
-      </c>
+      <c r="A41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="K41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" s="3"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>88.499186482198567</v>
-      </c>
-      <c r="D42">
-        <v>87.5173416768165</v>
-      </c>
-      <c r="E42">
-        <v>85.730415589590905</v>
-      </c>
-      <c r="F42">
-        <v>72.655656749380555</v>
-      </c>
-      <c r="G42">
-        <v>67.884915781227093</v>
-      </c>
-      <c r="H42">
-        <v>59.263790034123531</v>
-      </c>
-      <c r="I42">
-        <v>44.56238292926399</v>
-      </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42">
-        <v>5.9037054685544437</v>
-      </c>
-      <c r="N42">
-        <v>5.6982495929152117</v>
-      </c>
-      <c r="O42">
-        <v>6.1857913087331307</v>
-      </c>
-      <c r="P42">
-        <v>8.0751376961596364</v>
-      </c>
-      <c r="Q42">
-        <v>7.9066987943669274</v>
-      </c>
-      <c r="R42">
-        <v>10.433474589731558</v>
-      </c>
-      <c r="S42">
-        <v>11.016794446797121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43">
-        <v>92.585967481796871</v>
-      </c>
-      <c r="D43">
-        <v>91.313417902038879</v>
-      </c>
-      <c r="E43">
-        <v>89.071433240773374</v>
-      </c>
-      <c r="F43">
-        <v>84.430667065862025</v>
-      </c>
-      <c r="G43">
-        <v>74.620110321660178</v>
-      </c>
-      <c r="H43">
-        <v>57.729776408047563</v>
-      </c>
-      <c r="I43">
-        <v>40.926778409266866</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M43">
-        <v>4.1190461448812883</v>
-      </c>
-      <c r="N43">
-        <v>5.0479140386031087</v>
-      </c>
-      <c r="O43">
-        <v>5.7227029784618981</v>
-      </c>
-      <c r="P43">
-        <v>5.4985207967748737</v>
-      </c>
-      <c r="Q43">
-        <v>8.9665209094802485</v>
-      </c>
-      <c r="R43">
-        <v>11.349059301553211</v>
-      </c>
-      <c r="S43">
-        <v>11.05617423164966</v>
-      </c>
+      <c r="A42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="K42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="3"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44">
-        <v>92.603782215910087</v>
-      </c>
-      <c r="D44">
-        <v>90.262334808427767</v>
-      </c>
-      <c r="E44">
-        <v>89.82540629282677</v>
-      </c>
-      <c r="F44">
-        <v>84.400771771755316</v>
-      </c>
-      <c r="G44">
-        <v>78.772449333136279</v>
-      </c>
-      <c r="H44">
-        <v>61.840203650833359</v>
-      </c>
-      <c r="I44">
-        <v>38.412876121977916</v>
+        <v>16</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.05</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L44" s="2"/>
-      <c r="M44">
-        <v>4.4405799374618198</v>
-      </c>
-      <c r="N44">
-        <v>5.7451202216286257</v>
-      </c>
-      <c r="O44">
-        <v>4.8670511789444468</v>
-      </c>
-      <c r="P44">
-        <v>4.9325366781832338</v>
-      </c>
-      <c r="Q44">
-        <v>7.029848092265345</v>
-      </c>
-      <c r="R44">
-        <v>9.0186943841326457</v>
-      </c>
-      <c r="S44">
-        <v>7.771449833097023</v>
+        <v>18</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="2"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C45">
-        <v>91.081927840808433</v>
+        <v>92.567111769713335</v>
       </c>
       <c r="D45">
-        <v>87.684987506619976</v>
+        <v>90.835858608343599</v>
       </c>
       <c r="E45">
-        <v>87.27081687164015</v>
+        <v>89.217505339533233</v>
       </c>
       <c r="F45">
-        <v>83.161961006389646</v>
+        <v>83.237245964288078</v>
       </c>
       <c r="G45">
-        <v>78.602198625513438</v>
+        <v>75.380430844191011</v>
       </c>
       <c r="H45">
-        <v>62.429217703804063</v>
+        <v>58.994367187597383</v>
       </c>
       <c r="I45">
-        <v>50.327216453861126</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L45" s="2"/>
+        <v>43.622535641382179</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="M45">
-        <v>5.0278535681088243</v>
+        <v>3.88093621561358</v>
       </c>
       <c r="N45">
-        <v>6.4718041382743881</v>
+        <v>4.8164746829677396</v>
       </c>
       <c r="O45">
-        <v>6.3307190280562127</v>
+        <v>5.2250608386616522</v>
       </c>
       <c r="P45">
-        <v>6.3795918367927573</v>
+        <v>5.6675721086724113</v>
       </c>
       <c r="Q45">
-        <v>7.6119651620777704</v>
+        <v>8.3263283482936075</v>
       </c>
       <c r="R45">
-        <v>10.57249776824408</v>
+        <v>10.49020927094638</v>
       </c>
       <c r="S45">
-        <v>12.72817257493416</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>11.060437347759546</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C46">
-        <v>89.644638837679821</v>
+        <v>92.338566773632834</v>
       </c>
       <c r="D46">
-        <v>88.832235357085267</v>
+        <v>92.22816257293259</v>
       </c>
       <c r="E46">
-        <v>87.784876095604616</v>
+        <v>92.19353000091759</v>
       </c>
       <c r="F46">
-        <v>79.565194861748779</v>
+        <v>91.289781910285583</v>
       </c>
       <c r="G46">
-        <v>75.734515312347014</v>
+        <v>89.68940373291737</v>
       </c>
       <c r="H46">
-        <v>62.439186953401219</v>
+        <v>81.453332231966129</v>
       </c>
       <c r="I46">
-        <v>50.474777835549446</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L46" s="2"/>
+        <v>68.108240193153023</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="M46">
-        <v>5.6337263714853885</v>
+        <v>4.0483086633488163</v>
       </c>
       <c r="N46">
-        <v>6.3295758340906003</v>
+        <v>3.9020890437152844</v>
       </c>
       <c r="O46">
-        <v>5.712095802065237</v>
+        <v>3.7923842410048425</v>
       </c>
       <c r="P46">
-        <v>6.0565246528809871</v>
+        <v>4.4242632373638857</v>
       </c>
       <c r="Q46">
-        <v>7.1392332762901995</v>
+        <v>4.2715813123996149</v>
       </c>
       <c r="R46">
-        <v>9.8513477784150112</v>
+        <v>6.1738858238669021</v>
       </c>
       <c r="S46">
-        <v>12.535546063955879</v>
+        <v>6.3931839578006242</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="2"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C47">
-        <v>89.487105403835685</v>
+        <v>88.499186482198567</v>
       </c>
       <c r="D47">
-        <v>88.707572078492916</v>
+        <v>87.5173416768165</v>
       </c>
       <c r="E47">
-        <v>86.426030723556863</v>
+        <v>85.730415589590905</v>
       </c>
       <c r="F47">
-        <v>78.49543423448246</v>
+        <v>72.655656749380555</v>
       </c>
       <c r="G47">
-        <v>74.133652201259196</v>
+        <v>67.884915781227093</v>
       </c>
       <c r="H47">
-        <v>65.444157538801676</v>
+        <v>59.263790034123531</v>
       </c>
       <c r="I47">
-        <v>52.493719332914743</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47" s="2"/>
+        <v>44.56238292926399</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="M47">
-        <v>5.5869146897287463</v>
+        <v>5.9037054685544437</v>
       </c>
       <c r="N47">
-        <v>5.7426745960735408</v>
+        <v>5.6982495929152117</v>
       </c>
       <c r="O47">
-        <v>6.3807802799052684</v>
+        <v>6.1857913087331307</v>
       </c>
       <c r="P47">
-        <v>6.6617360492423048</v>
+        <v>8.0751376961596364</v>
       </c>
       <c r="Q47">
-        <v>7.4710432104834563</v>
+        <v>7.9066987943669274</v>
       </c>
       <c r="R47">
-        <v>9.1192677577277852</v>
+        <v>10.433474589731558</v>
       </c>
       <c r="S47">
-        <v>11.62676144298649</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+        <v>11.016794446797121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C48">
-        <v>89.019136482146294</v>
+        <v>92.585967481796871</v>
       </c>
       <c r="D48">
-        <v>87.41881497347002</v>
+        <v>91.313417902038879</v>
       </c>
       <c r="E48">
-        <v>84.760203320527722</v>
+        <v>89.071433240773374</v>
       </c>
       <c r="F48">
-        <v>78.539871405940673</v>
+        <v>84.430667065862025</v>
       </c>
       <c r="G48">
-        <v>73.359996619176897</v>
+        <v>74.620110321660178</v>
       </c>
       <c r="H48">
-        <v>62.13074772235575</v>
+        <v>57.729776408047563</v>
       </c>
       <c r="I48">
-        <v>50.478879685998855</v>
+        <v>40.926778409266866</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L48" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="M48">
-        <v>5.5440228882484019</v>
+        <v>4.1190461448812883</v>
       </c>
       <c r="N48">
-        <v>6.1890179838423203</v>
+        <v>5.0479140386031087</v>
       </c>
       <c r="O48">
-        <v>5.9586184293843134</v>
+        <v>5.7227029784618981</v>
       </c>
       <c r="P48">
-        <v>6.8545846160008956</v>
+        <v>5.4985207967748737</v>
       </c>
       <c r="Q48">
-        <v>7.9156374588352119</v>
+        <v>8.9665209094802485</v>
       </c>
       <c r="R48">
-        <v>9.791245427984272</v>
+        <v>11.349059301553211</v>
       </c>
       <c r="S48">
-        <v>10.04604976368349</v>
+        <v>11.05617423164966</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="B49" s="3"/>
       <c r="C49">
-        <v>89.238869796493674</v>
+        <v>92.603782215910087</v>
       </c>
       <c r="D49">
-        <v>87.306095031975872</v>
+        <v>90.262334808427767</v>
       </c>
       <c r="E49">
-        <v>85.566169092021809</v>
+        <v>89.82540629282677</v>
       </c>
       <c r="F49">
-        <v>78.895888119014472</v>
+        <v>84.400771771755316</v>
       </c>
       <c r="G49">
-        <v>71.73637384351656</v>
+        <v>78.772449333136279</v>
       </c>
       <c r="H49">
-        <v>61.412781836092677</v>
+        <v>61.840203650833359</v>
       </c>
       <c r="I49">
-        <v>49.91230553601401</v>
+        <v>38.412876121977916</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L49" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="L49" s="3"/>
       <c r="M49">
-        <v>4.9520431158543712</v>
+        <v>4.4405799374618198</v>
       </c>
       <c r="N49">
-        <v>6.089338440962786</v>
+        <v>5.7451202216286257</v>
       </c>
       <c r="O49">
-        <v>6.2868088050108852</v>
+        <v>4.8670511789444468</v>
       </c>
       <c r="P49">
-        <v>6.5544539385805303</v>
+        <v>4.9325366781832338</v>
       </c>
       <c r="Q49">
-        <v>9.0032669871014477</v>
+        <v>7.029848092265345</v>
       </c>
       <c r="R49">
-        <v>9.5917571263641719</v>
+        <v>9.0186943841326457</v>
       </c>
       <c r="S49">
-        <v>8.39411943554272</v>
+        <v>7.771449833097023</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B50" s="3"/>
       <c r="C50">
-        <v>87.528624354026661</v>
+        <v>91.081927840808433</v>
       </c>
       <c r="D50">
-        <v>86.802859639484197</v>
+        <v>87.684987506619976</v>
       </c>
       <c r="E50">
-        <v>85.315702308010216</v>
+        <v>87.27081687164015</v>
       </c>
       <c r="F50">
-        <v>77.466410195573999</v>
+        <v>83.161961006389646</v>
       </c>
       <c r="G50">
-        <v>70.744609004505662</v>
+        <v>78.602198625513438</v>
       </c>
       <c r="H50">
-        <v>60.340914073578965</v>
+        <v>62.429217703804063</v>
       </c>
       <c r="I50">
-        <v>50.624658682159797</v>
+        <v>50.327216453861126</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L50" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="L50" s="3"/>
       <c r="M50">
-        <v>5.0598364128504718</v>
+        <v>5.0278535681088243</v>
       </c>
       <c r="N50">
-        <v>5.6364339917960171</v>
+        <v>6.4718041382743881</v>
       </c>
       <c r="O50">
-        <v>5.7486513894428279</v>
+        <v>6.3307190280562127</v>
       </c>
       <c r="P50">
-        <v>7.4568896228696975</v>
+        <v>6.3795918367927573</v>
       </c>
       <c r="Q50">
-        <v>8.0033483489556136</v>
+        <v>7.6119651620777704</v>
       </c>
       <c r="R50">
-        <v>9.802914975481821</v>
+        <v>10.57249776824408</v>
       </c>
       <c r="S50">
-        <v>10.868957426503</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+        <v>12.72817257493416</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B51" s="3"/>
       <c r="C51">
-        <v>91.954943077771645</v>
+        <v>89.644638837679821</v>
       </c>
       <c r="D51">
-        <v>90.486053623351509</v>
+        <v>88.832235357085267</v>
       </c>
       <c r="E51">
-        <v>87.574188580435759</v>
+        <v>87.784876095604616</v>
       </c>
       <c r="F51">
-        <v>80.195562284133075</v>
+        <v>79.565194861748779</v>
       </c>
       <c r="G51">
-        <v>73.887556692554313</v>
+        <v>75.734515312347014</v>
       </c>
       <c r="H51">
-        <v>60.201740744469255</v>
+        <v>62.439186953401219</v>
       </c>
       <c r="I51">
-        <v>43.97379234137982</v>
+        <v>50.474777835549446</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="L51" s="3"/>
       <c r="M51">
-        <v>4.6677178192019442</v>
+        <v>5.6337263714853885</v>
       </c>
       <c r="N51">
-        <v>4.9332992633954884</v>
+        <v>6.3295758340906003</v>
       </c>
       <c r="O51">
-        <v>5.8893270280054093</v>
+        <v>5.712095802065237</v>
       </c>
       <c r="P51">
-        <v>6.2276780045249982</v>
+        <v>6.0565246528809871</v>
       </c>
       <c r="Q51">
-        <v>7.8100433893753065</v>
+        <v>7.1392332762901995</v>
       </c>
       <c r="R51">
-        <v>10.127273986997725</v>
+        <v>9.8513477784150112</v>
       </c>
       <c r="S51">
-        <v>12.975199093257455</v>
+        <v>12.535546063955879</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
@@ -3138,50 +3129,50 @@
       </c>
       <c r="B52" s="3"/>
       <c r="C52">
-        <v>90.642246446502455</v>
+        <v>89.487105403835685</v>
       </c>
       <c r="D52">
-        <v>91.112891818426803</v>
+        <v>88.707572078492916</v>
       </c>
       <c r="E52">
-        <v>90.510903269239805</v>
+        <v>86.426030723556863</v>
       </c>
       <c r="F52">
-        <v>90.384514875799795</v>
+        <v>78.49543423448246</v>
       </c>
       <c r="G52">
-        <v>88.747243892649067</v>
+        <v>74.133652201259196</v>
       </c>
       <c r="H52">
-        <v>77.721185641433252</v>
+        <v>65.444157538801676</v>
       </c>
       <c r="I52">
-        <v>57.390955449525258</v>
+        <v>52.493719332914743</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52">
-        <v>4.8046743223783803</v>
+        <v>5.5869146897287463</v>
       </c>
       <c r="N52">
-        <v>4.6267271925378539</v>
+        <v>5.7426745960735408</v>
       </c>
       <c r="O52">
-        <v>4.7167994848022108</v>
+        <v>6.3807802799052684</v>
       </c>
       <c r="P52">
-        <v>4.6380378521606005</v>
+        <v>6.6617360492423048</v>
       </c>
       <c r="Q52">
-        <v>4.941832660679113</v>
+        <v>7.4710432104834563</v>
       </c>
       <c r="R52">
-        <v>6.5489356622072048</v>
+        <v>9.1192677577277852</v>
       </c>
       <c r="S52">
-        <v>9.8361171493471335</v>
+        <v>11.62676144298649</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
@@ -3190,50 +3181,50 @@
       </c>
       <c r="B53" s="3"/>
       <c r="C53">
-        <v>90.617152023346819</v>
+        <v>89.019136482146294</v>
       </c>
       <c r="D53">
-        <v>90.05855315992585</v>
+        <v>87.41881497347002</v>
       </c>
       <c r="E53">
-        <v>89.179945583344406</v>
+        <v>84.760203320527722</v>
       </c>
       <c r="F53">
-        <v>86.633871646318525</v>
+        <v>78.539871405940673</v>
       </c>
       <c r="G53">
-        <v>82.414435110979952</v>
+        <v>73.359996619176897</v>
       </c>
       <c r="H53">
-        <v>69.823014577124326</v>
+        <v>62.13074772235575</v>
       </c>
       <c r="I53">
-        <v>57.449010771275319</v>
+        <v>50.478879685998855</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53">
-        <v>4.2750077328577394</v>
+        <v>5.5440228882484019</v>
       </c>
       <c r="N53">
-        <v>4.2266125705467239</v>
+        <v>6.1890179838423203</v>
       </c>
       <c r="O53">
-        <v>5.2565974786040313</v>
+        <v>5.9586184293843134</v>
       </c>
       <c r="P53">
-        <v>5.7069770284176009</v>
+        <v>6.8545846160008956</v>
       </c>
       <c r="Q53">
-        <v>6.3983299535714817</v>
+        <v>7.9156374588352119</v>
       </c>
       <c r="R53">
-        <v>6.6655406069698175</v>
+        <v>9.791245427984272</v>
       </c>
       <c r="S53">
-        <v>9.1124239201893804</v>
+        <v>10.04604976368349</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
@@ -3242,1071 +3233,1810 @@
       </c>
       <c r="B54" s="3"/>
       <c r="C54">
-        <v>90.581355357949491</v>
+        <v>89.238869796493674</v>
       </c>
       <c r="D54">
-        <v>88.97341294355499</v>
+        <v>87.306095031975872</v>
       </c>
       <c r="E54">
-        <v>86.175206640299365</v>
+        <v>85.566169092021809</v>
       </c>
       <c r="F54">
-        <v>83.080132284515585</v>
+        <v>78.895888119014472</v>
       </c>
       <c r="G54">
-        <v>78.599726564969771</v>
+        <v>71.73637384351656</v>
       </c>
       <c r="H54">
-        <v>66.3934253274236</v>
+        <v>61.412781836092677</v>
       </c>
       <c r="I54">
-        <v>58.11224589934929</v>
+        <v>49.91230553601401</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54">
-        <v>4.4778305644230976</v>
+        <v>4.9520431158543712</v>
       </c>
       <c r="N54">
-        <v>4.8960641145432993</v>
+        <v>6.089338440962786</v>
       </c>
       <c r="O54">
-        <v>6.1124849117603945</v>
+        <v>6.2868088050108852</v>
       </c>
       <c r="P54">
-        <v>5.8618346048185197</v>
+        <v>6.5544539385805303</v>
       </c>
       <c r="Q54">
-        <v>5.8104015835542553</v>
+        <v>9.0032669871014477</v>
       </c>
       <c r="R54">
-        <v>7.7638343010849269</v>
+        <v>9.5917571263641719</v>
       </c>
       <c r="S54">
-        <v>8.9944066091442814</v>
+        <v>8.39411943554272</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55">
-        <v>90.510302373601434</v>
+        <v>87.528624354026661</v>
       </c>
       <c r="D55">
-        <v>88.824953889297518</v>
+        <v>86.802859639484197</v>
       </c>
       <c r="E55">
-        <v>86.674942469044325</v>
+        <v>85.315702308010216</v>
       </c>
       <c r="F55">
-        <v>81.543605709946462</v>
+        <v>77.466410195573999</v>
       </c>
       <c r="G55">
-        <v>75.271718740593627</v>
+        <v>70.744609004505662</v>
       </c>
       <c r="H55">
-        <v>67.72658070045415</v>
+        <v>60.340914073578965</v>
       </c>
       <c r="I55">
-        <v>58.433623636929134</v>
+        <v>50.624658682159797</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55">
-        <v>5.1076806654003626</v>
+        <v>5.0598364128504718</v>
       </c>
       <c r="N55">
-        <v>5.3873200605855445</v>
+        <v>5.6364339917960171</v>
       </c>
       <c r="O55">
-        <v>5.9833392560659284</v>
+        <v>5.7486513894428279</v>
       </c>
       <c r="P55">
-        <v>6.1215105686801499</v>
+        <v>7.4568896228696975</v>
       </c>
       <c r="Q55">
-        <v>7.3159920074958444</v>
+        <v>8.0033483489556136</v>
       </c>
       <c r="R55">
-        <v>8.5044787981464225</v>
+        <v>9.802914975481821</v>
       </c>
       <c r="S55">
-        <v>8.5926586855477538</v>
+        <v>10.868957426503</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B56" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C56">
-        <v>90.77523149389998</v>
+        <v>91.954943077771645</v>
       </c>
       <c r="D56">
-        <v>89.185217369225327</v>
+        <v>90.486053623351509</v>
       </c>
       <c r="E56">
-        <v>86.832129001570053</v>
+        <v>87.574188580435759</v>
       </c>
       <c r="F56">
-        <v>82.015640393948175</v>
+        <v>80.195562284133075</v>
       </c>
       <c r="G56">
-        <v>74.972613257814999</v>
+        <v>73.887556692554313</v>
       </c>
       <c r="H56">
-        <v>65.417864082249295</v>
+        <v>60.201740744469255</v>
       </c>
       <c r="I56">
-        <v>55.042441020336085</v>
+        <v>43.97379234137982</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L56" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="M56">
-        <v>4.8120651940731003</v>
+        <v>4.6677178192019442</v>
       </c>
       <c r="N56">
-        <v>5.3504041978372019</v>
+        <v>4.9332992633954884</v>
       </c>
       <c r="O56">
-        <v>5.6560471528137661</v>
+        <v>5.8893270280054093</v>
       </c>
       <c r="P56">
-        <v>6.5079634189489424</v>
+        <v>6.2276780045249982</v>
       </c>
       <c r="Q56">
-        <v>7.8749746185986238</v>
+        <v>7.8100433893753065</v>
       </c>
       <c r="R56">
-        <v>8.2835712333162252</v>
+        <v>10.127273986997725</v>
       </c>
       <c r="S56">
-        <v>7.669452785779991</v>
+        <v>12.975199093257455</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57">
-        <v>91.156513297158639</v>
+        <v>90.642246446502455</v>
       </c>
       <c r="D57">
-        <v>88.573641976087487</v>
+        <v>91.112891818426803</v>
       </c>
       <c r="E57">
-        <v>86.451346459221952</v>
+        <v>90.510903269239805</v>
       </c>
       <c r="F57">
-        <v>81.632507264086627</v>
+        <v>90.384514875799795</v>
       </c>
       <c r="G57">
-        <v>75.528970260459374</v>
+        <v>88.747243892649067</v>
       </c>
       <c r="H57">
-        <v>64.923306527722815</v>
+        <v>77.721185641433252</v>
       </c>
       <c r="I57">
-        <v>52.921194726803435</v>
+        <v>57.390955449525258</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L57" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="L57" s="2"/>
       <c r="M57">
-        <v>5.1638895836383742</v>
+        <v>4.8046743223783803</v>
       </c>
       <c r="N57">
-        <v>5.0488519995067334</v>
+        <v>4.6267271925378539</v>
       </c>
       <c r="O57">
-        <v>5.7263083946480009</v>
+        <v>4.7167994848022108</v>
       </c>
       <c r="P57">
-        <v>8.4617789692496856</v>
+        <v>4.6380378521606005</v>
       </c>
       <c r="Q57">
-        <v>8.7221549652121535</v>
+        <v>4.941832660679113</v>
       </c>
       <c r="R57">
-        <v>9.1465131387725336</v>
+        <v>6.5489356622072048</v>
       </c>
       <c r="S57">
-        <v>7.9277731795846682</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9.8361171493471335</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B58" s="2"/>
       <c r="C58">
-        <v>0.91573665001683324</v>
+        <v>90.617152023346819</v>
       </c>
       <c r="D58">
-        <v>0.91675367725818291</v>
+        <v>90.05855315992585</v>
       </c>
       <c r="E58">
-        <v>0.91019541465383291</v>
+        <v>89.179945583344406</v>
       </c>
       <c r="F58">
-        <v>0.88696775927887961</v>
+        <v>86.633871646318525</v>
       </c>
       <c r="G58">
-        <v>0.84341403591632225</v>
+        <v>82.414435110979952</v>
       </c>
       <c r="H58">
-        <v>0.71960591517889638</v>
+        <v>69.823014577124326</v>
       </c>
       <c r="I58">
-        <v>0.57233144295438854</v>
+        <v>57.449010771275319</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L58" s="2"/>
       <c r="M58">
-        <v>3.8946290870482722E-2</v>
+        <v>4.2750077328577394</v>
       </c>
       <c r="N58">
-        <v>3.8021996147475048E-2</v>
+        <v>4.2266125705467239</v>
       </c>
       <c r="O58">
-        <v>3.8648961121767363E-2</v>
+        <v>5.2565974786040313</v>
       </c>
       <c r="P58">
-        <v>4.5894214178159538E-2</v>
+        <v>5.7069770284176009</v>
       </c>
       <c r="Q58">
-        <v>5.2402420839639183E-2</v>
+        <v>6.3983299535714817</v>
       </c>
       <c r="R58">
-        <v>8.6152928296938561E-2</v>
+        <v>6.6655406069698175</v>
       </c>
       <c r="S58">
-        <v>9.323574915815859E-2</v>
+        <v>9.1124239201893804</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59">
-        <v>0.90753018873298219</v>
+        <v>90.581355357949491</v>
       </c>
       <c r="D59">
-        <v>0.90722994477316099</v>
+        <v>88.97341294355499</v>
       </c>
       <c r="E59">
-        <v>0.90729945696919212</v>
+        <v>86.175206640299365</v>
       </c>
       <c r="F59">
-        <v>0.87965417369873589</v>
+        <v>83.080132284515585</v>
       </c>
       <c r="G59">
-        <v>0.86123105689431723</v>
+        <v>78.599726564969771</v>
       </c>
       <c r="H59">
-        <v>0.74269392794856659</v>
+        <v>66.3934253274236</v>
       </c>
       <c r="I59">
-        <v>0.60778502292458447</v>
+        <v>58.11224589934929</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59">
-        <v>5.1087302616689312E-2</v>
+        <v>4.4778305644230976</v>
       </c>
       <c r="N59">
-        <v>4.8395299050874488E-2</v>
+        <v>4.8960641145432993</v>
       </c>
       <c r="O59">
-        <v>4.7036373869729031E-2</v>
+        <v>6.1124849117603945</v>
       </c>
       <c r="P59">
-        <v>6.214367796171763E-2</v>
+        <v>5.8618346048185197</v>
       </c>
       <c r="Q59">
-        <v>6.4310858246990482E-2</v>
+        <v>5.8104015835542553</v>
       </c>
       <c r="R59">
-        <v>8.0610934962749792E-2</v>
+        <v>7.7638343010849269</v>
       </c>
       <c r="S59">
-        <v>9.0466187066171197E-2</v>
+        <v>8.9944066091442814</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60">
-        <v>0.88959040489692842</v>
+        <v>90.510302373601434</v>
       </c>
       <c r="D60">
-        <v>0.89681940604984089</v>
+        <v>88.824953889297518</v>
       </c>
       <c r="E60">
-        <v>0.88769823643499868</v>
+        <v>86.674942469044325</v>
       </c>
       <c r="F60">
-        <v>0.85291083244182031</v>
+        <v>81.543605709946462</v>
       </c>
       <c r="G60">
-        <v>0.81839893396513175</v>
+        <v>75.271718740593627</v>
       </c>
       <c r="H60">
-        <v>0.68213325562767113</v>
+        <v>67.72658070045415</v>
       </c>
       <c r="I60">
-        <v>0.56573336524236384</v>
+        <v>58.433623636929134</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60">
-        <v>5.22491352805768E-2</v>
+        <v>5.1076806654003626</v>
       </c>
       <c r="N60">
-        <v>4.547465049785665E-2</v>
+        <v>5.3873200605855445</v>
       </c>
       <c r="O60">
-        <v>5.4892393172518338E-2</v>
+        <v>5.9833392560659284</v>
       </c>
       <c r="P60">
-        <v>6.5133459721418513E-2</v>
+        <v>6.1215105686801499</v>
       </c>
       <c r="Q60">
-        <v>7.3328441711758757E-2</v>
+        <v>7.3159920074958444</v>
       </c>
       <c r="R60">
-        <v>7.2918394258639385E-2</v>
+        <v>8.5044787981464225</v>
       </c>
       <c r="S60">
-        <v>8.2458219907984784E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8.5926586855477538</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61">
-        <v>0.87426198957053913</v>
+        <v>90.77523149389998</v>
       </c>
       <c r="D61">
-        <v>0.88493303751958963</v>
+        <v>89.185217369225327</v>
       </c>
       <c r="E61">
-        <v>0.88427192317732284</v>
+        <v>86.832129001570053</v>
       </c>
       <c r="F61">
-        <v>0.85145318074597631</v>
+        <v>82.015640393948175</v>
       </c>
       <c r="G61">
-        <v>0.81848590541838473</v>
+        <v>74.972613257814999</v>
       </c>
       <c r="H61">
-        <v>0.69218047918610182</v>
+        <v>65.417864082249295</v>
       </c>
       <c r="I61">
-        <v>0.53891453756950114</v>
+        <v>55.042441020336085</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61">
-        <v>5.0521972348656567E-2</v>
+        <v>4.8120651940731003</v>
       </c>
       <c r="N61">
-        <v>4.7630901415646083E-2</v>
+        <v>5.3504041978372019</v>
       </c>
       <c r="O61">
-        <v>4.4564714432385417E-2</v>
+        <v>5.6560471528137661</v>
       </c>
       <c r="P61">
-        <v>6.6549338799119825E-2</v>
+        <v>6.5079634189489424</v>
       </c>
       <c r="Q61">
-        <v>6.4753337629037455E-2</v>
+        <v>7.8749746185986238</v>
       </c>
       <c r="R61">
-        <v>8.3230396014262742E-2</v>
+        <v>8.2835712333162252</v>
       </c>
       <c r="S61">
-        <v>7.1124614672978898E-2</v>
+        <v>7.669452785779991</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62">
+        <v>91.156513297158639</v>
+      </c>
+      <c r="D62">
+        <v>88.573641976087487</v>
+      </c>
+      <c r="E62">
+        <v>86.451346459221952</v>
+      </c>
+      <c r="F62">
+        <v>81.632507264086627</v>
+      </c>
+      <c r="G62">
+        <v>75.528970260459374</v>
+      </c>
+      <c r="H62">
+        <v>64.923306527722815</v>
+      </c>
+      <c r="I62">
+        <v>52.921194726803435</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L62" s="2"/>
+      <c r="M62">
+        <v>5.1638895836383742</v>
+      </c>
+      <c r="N62">
+        <v>5.0488519995067334</v>
+      </c>
+      <c r="O62">
+        <v>5.7263083946480009</v>
+      </c>
+      <c r="P62">
+        <v>8.4617789692496856</v>
+      </c>
+      <c r="Q62">
+        <v>8.7221549652121535</v>
+      </c>
+      <c r="R62">
+        <v>9.1465131387725336</v>
+      </c>
+      <c r="S62">
+        <v>7.9277731795846682</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62">
-        <v>0.76752797168134113</v>
-      </c>
-      <c r="D62">
-        <v>0.76347674862974246</v>
-      </c>
-      <c r="E62">
-        <v>0.77326576520875356</v>
-      </c>
-      <c r="F62">
-        <v>0.75705122331881525</v>
-      </c>
-      <c r="G62">
-        <v>0.72184300378352961</v>
-      </c>
-      <c r="H62">
-        <v>0.65641087121909569</v>
-      </c>
-      <c r="I62">
-        <v>0.47765358179002182</v>
-      </c>
-      <c r="K62" s="1" t="s">
+      <c r="B63" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="19">
+        <v>91.573665001683324</v>
+      </c>
+      <c r="D63" s="19">
+        <v>91.67536772581829</v>
+      </c>
+      <c r="E63" s="19">
+        <v>91.019541465383298</v>
+      </c>
+      <c r="F63" s="19">
+        <v>88.696775927887956</v>
+      </c>
+      <c r="G63" s="19">
+        <v>84.341403591632229</v>
+      </c>
+      <c r="H63" s="19">
+        <v>71.96059151788964</v>
+      </c>
+      <c r="I63" s="19">
+        <v>57.233144295438855</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M62">
-        <v>9.3985771167019602E-2</v>
-      </c>
-      <c r="N62">
-        <v>9.3616976157880005E-2</v>
-      </c>
-      <c r="O62">
-        <v>9.5755009710247779E-2</v>
-      </c>
-      <c r="P62">
-        <v>9.6924221636811567E-2</v>
-      </c>
-      <c r="Q62">
-        <v>9.5846592779061837E-2</v>
-      </c>
-      <c r="R62">
-        <v>0.1077863353170945</v>
-      </c>
-      <c r="S62">
-        <v>0.10551748097462831</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63">
-        <v>0.84199090152702039</v>
-      </c>
-      <c r="D63">
-        <v>0.80150991222942236</v>
-      </c>
-      <c r="E63">
-        <v>0.79089573346684305</v>
-      </c>
-      <c r="F63">
-        <v>0.70882245349583861</v>
-      </c>
-      <c r="G63">
-        <v>0.68438391123016218</v>
-      </c>
-      <c r="H63">
-        <v>0.63448999228930736</v>
-      </c>
-      <c r="I63">
-        <v>0.54928023981627705</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L63" s="2"/>
-      <c r="M63">
-        <v>6.8541808049040309E-2</v>
-      </c>
-      <c r="N63">
-        <v>8.0345663443423837E-2</v>
-      </c>
-      <c r="O63">
-        <v>8.5595110099521199E-2</v>
-      </c>
-      <c r="P63">
-        <v>9.341845691318873E-2</v>
-      </c>
-      <c r="Q63">
-        <v>8.723007474214807E-2</v>
-      </c>
-      <c r="R63">
-        <v>8.9303160416674882E-2</v>
-      </c>
-      <c r="S63">
-        <v>9.0909156720887299E-2</v>
+      <c r="L63" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M63" s="19">
+        <v>3.8946290870482723</v>
+      </c>
+      <c r="N63" s="19">
+        <v>3.8021996147475048</v>
+      </c>
+      <c r="O63" s="19">
+        <v>3.8648961121767362</v>
+      </c>
+      <c r="P63" s="19">
+        <v>4.589421417815954</v>
+      </c>
+      <c r="Q63" s="19">
+        <v>5.2402420839639179</v>
+      </c>
+      <c r="R63" s="19">
+        <v>8.6152928296938569</v>
+      </c>
+      <c r="S63" s="19">
+        <v>9.3235749158158594</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64">
-        <v>0.89131692863681511</v>
-      </c>
-      <c r="D64">
-        <v>0.87544829448692052</v>
-      </c>
-      <c r="E64">
-        <v>0.87788787067770879</v>
-      </c>
-      <c r="F64">
-        <v>0.84320475835085373</v>
-      </c>
-      <c r="G64">
-        <v>0.76629640475813476</v>
-      </c>
-      <c r="H64">
-        <v>0.59319665796416166</v>
-      </c>
-      <c r="I64">
-        <v>0.45620863436697628</v>
+        <v>39</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="19">
+        <v>90.753018873298217</v>
+      </c>
+      <c r="D64" s="19">
+        <v>90.722994477316092</v>
+      </c>
+      <c r="E64" s="19">
+        <v>90.729945696919216</v>
+      </c>
+      <c r="F64" s="19">
+        <v>87.965417369873592</v>
+      </c>
+      <c r="G64" s="19">
+        <v>86.123105689431725</v>
+      </c>
+      <c r="H64" s="19">
+        <v>74.269392794856657</v>
+      </c>
+      <c r="I64" s="19">
+        <v>60.778502292458448</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L64" s="2"/>
-      <c r="M64">
-        <v>4.9480273201097887E-2</v>
-      </c>
-      <c r="N64">
-        <v>5.486473713327307E-2</v>
-      </c>
-      <c r="O64">
-        <v>5.5679062934616178E-2</v>
-      </c>
-      <c r="P64">
-        <v>6.1629089088025293E-2</v>
-      </c>
-      <c r="Q64">
-        <v>8.4053576913732261E-2</v>
-      </c>
-      <c r="R64">
-        <v>9.0610531757902513E-2</v>
-      </c>
-      <c r="S64">
-        <v>0.1095254048878474</v>
+        <v>39</v>
+      </c>
+      <c r="L64" s="3"/>
+      <c r="M64" s="19">
+        <v>5.1087302616689314</v>
+      </c>
+      <c r="N64" s="19">
+        <v>4.8395299050874492</v>
+      </c>
+      <c r="O64" s="19">
+        <v>4.7036373869729031</v>
+      </c>
+      <c r="P64" s="19">
+        <v>6.2143677961717634</v>
+      </c>
+      <c r="Q64" s="19">
+        <v>6.4310858246990481</v>
+      </c>
+      <c r="R64" s="19">
+        <v>8.0610934962749798</v>
+      </c>
+      <c r="S64" s="19">
+        <v>9.0466187066171191</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="19">
+        <v>88.959040489692839</v>
+      </c>
+      <c r="D65" s="19">
+        <v>89.681940604984092</v>
+      </c>
+      <c r="E65" s="19">
+        <v>88.769823643499862</v>
+      </c>
+      <c r="F65" s="19">
+        <v>85.291083244182033</v>
+      </c>
+      <c r="G65" s="19">
+        <v>81.839893396513176</v>
+      </c>
+      <c r="H65" s="19">
+        <v>68.21332556276711</v>
+      </c>
+      <c r="I65" s="19">
+        <v>56.573336524236382</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L65" s="3"/>
+      <c r="M65" s="19">
+        <v>5.2249135280576802</v>
+      </c>
+      <c r="N65" s="19">
+        <v>4.5474650497856652</v>
+      </c>
+      <c r="O65" s="19">
+        <v>5.4892393172518341</v>
+      </c>
+      <c r="P65" s="19">
+        <v>6.5133459721418516</v>
+      </c>
+      <c r="Q65" s="19">
+        <v>7.3328441711758758</v>
+      </c>
+      <c r="R65" s="19">
+        <v>7.2918394258639383</v>
+      </c>
+      <c r="S65" s="19">
+        <v>8.2458219907984791</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65">
-        <v>0.89343160521159626</v>
-      </c>
-      <c r="D65">
-        <v>0.89355924395143083</v>
-      </c>
-      <c r="E65">
-        <v>0.88961637589369535</v>
-      </c>
-      <c r="F65">
-        <v>0.85571925012528027</v>
-      </c>
-      <c r="G65">
-        <v>0.8022539440339006</v>
-      </c>
-      <c r="H65">
-        <v>0.65538982643024934</v>
-      </c>
-      <c r="I65">
-        <v>0.48872031783551328</v>
-      </c>
-      <c r="K65" s="1" t="s">
+      <c r="B66" s="3"/>
+      <c r="C66" s="19">
+        <v>87.426198957053913</v>
+      </c>
+      <c r="D66" s="19">
+        <v>88.493303751958962</v>
+      </c>
+      <c r="E66" s="19">
+        <v>88.427192317732278</v>
+      </c>
+      <c r="F66" s="19">
+        <v>85.145318074597625</v>
+      </c>
+      <c r="G66" s="19">
+        <v>81.848590541838476</v>
+      </c>
+      <c r="H66" s="19">
+        <v>69.218047918610182</v>
+      </c>
+      <c r="I66" s="19">
+        <v>53.891453756950114</v>
+      </c>
+      <c r="K66" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L65" s="2"/>
-      <c r="M65">
-        <v>5.1733129187131341E-2</v>
-      </c>
-      <c r="N65">
-        <v>4.5399366724179553E-2</v>
-      </c>
-      <c r="O65">
-        <v>5.5435564580559649E-2</v>
-      </c>
-      <c r="P65">
-        <v>6.2430550204094513E-2</v>
-      </c>
-      <c r="Q65">
-        <v>7.5764013481950554E-2</v>
-      </c>
-      <c r="R65">
-        <v>9.815692838482698E-2</v>
-      </c>
-      <c r="S65">
-        <v>9.6282604746864148E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="77">
-        <v>0.91979607726023471</v>
-      </c>
-      <c r="D66" s="79">
-        <v>0.89563846816897397</v>
-      </c>
-      <c r="E66" s="81">
-        <v>0.88355600711847904</v>
-      </c>
-      <c r="F66" s="83">
-        <v>0.83932390425958858</v>
-      </c>
-      <c r="G66" s="85">
-        <v>0.78581896800917006</v>
-      </c>
-      <c r="H66" s="87">
-        <v>0.68281255556211573</v>
-      </c>
-      <c r="I66" s="89">
-        <v>0.58070485169992436</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M66" s="77">
-        <v>4.330961887836917E-2</v>
-      </c>
-      <c r="N66" s="79">
-        <v>5.1106810027699859E-2</v>
-      </c>
-      <c r="O66" s="81">
-        <v>4.6722006720026688E-2</v>
-      </c>
-      <c r="P66" s="83">
-        <v>5.8437173541867428E-2</v>
-      </c>
-      <c r="Q66" s="85">
-        <v>5.9841393763513349E-2</v>
-      </c>
-      <c r="R66" s="87">
-        <v>8.0320657935547768E-2</v>
-      </c>
-      <c r="S66" s="89">
-        <v>9.0829843118855919E-2</v>
+      <c r="L66" s="3"/>
+      <c r="M66" s="19">
+        <v>5.0521972348656563</v>
+      </c>
+      <c r="N66" s="19">
+        <v>4.7630901415646081</v>
+      </c>
+      <c r="O66" s="19">
+        <v>4.4564714432385415</v>
+      </c>
+      <c r="P66" s="19">
+        <v>6.6549338799119822</v>
+      </c>
+      <c r="Q66" s="19">
+        <v>6.4753337629037455</v>
+      </c>
+      <c r="R66" s="19">
+        <v>8.3230396014262737</v>
+      </c>
+      <c r="S66" s="19">
+        <v>7.1124614672978899</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="59">
-        <v>0.91466501961148472</v>
-      </c>
-      <c r="D67" s="59">
-        <v>0.89557077607992919</v>
-      </c>
-      <c r="E67" s="59">
-        <v>0.87558598741035687</v>
-      </c>
-      <c r="F67" s="59">
-        <v>0.84072586407806282</v>
-      </c>
-      <c r="G67" s="59">
-        <v>0.77525543544368014</v>
-      </c>
-      <c r="H67" s="59">
-        <v>0.68392583020310815</v>
-      </c>
-      <c r="I67" s="59">
-        <v>0.57839317930669532</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L67" s="2"/>
-      <c r="M67" s="5">
-        <v>4.3610555153108202E-2</v>
-      </c>
-      <c r="N67" s="7">
-        <v>5.3023407166033737E-2</v>
-      </c>
-      <c r="O67" s="9">
-        <v>5.4814488840020589E-2</v>
-      </c>
-      <c r="P67" s="11">
-        <v>5.8823031099078223E-2</v>
-      </c>
-      <c r="Q67" s="13">
-        <v>7.0498232831845961E-2</v>
-      </c>
-      <c r="R67" s="15">
-        <v>9.7139233242677647E-2</v>
-      </c>
-      <c r="S67" s="17">
-        <v>9.1188554841550806E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="61">
-        <v>0.91512439984891669</v>
-      </c>
-      <c r="D68" s="63">
-        <v>0.89046929453728141</v>
-      </c>
-      <c r="E68" s="65">
-        <v>0.87216968663984029</v>
-      </c>
-      <c r="F68" s="67">
-        <v>0.83305151755901996</v>
-      </c>
-      <c r="G68" s="69">
-        <v>0.77112129251931649</v>
-      </c>
-      <c r="H68" s="71">
-        <v>0.67196156017527997</v>
-      </c>
-      <c r="I68" s="74">
-        <v>0.54431549747903274</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L68" s="2"/>
-      <c r="M68" s="61">
-        <v>4.8190181476460953E-2</v>
-      </c>
-      <c r="N68" s="63">
-        <v>5.5804996525238203E-2</v>
-      </c>
-      <c r="O68" s="65">
-        <v>5.4549482751445527E-2</v>
-      </c>
-      <c r="P68" s="67">
-        <v>6.969462066735424E-2</v>
-      </c>
-      <c r="Q68" s="69">
-        <v>7.0266042152528962E-2</v>
-      </c>
-      <c r="R68" s="71">
-        <v>8.7355756383700342E-2</v>
-      </c>
-      <c r="S68" s="75">
-        <v>7.1200396927024914E-2</v>
+      <c r="A67" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="19">
+        <v>76.752797168134109</v>
+      </c>
+      <c r="D67" s="19">
+        <v>76.347674862974245</v>
+      </c>
+      <c r="E67" s="19">
+        <v>77.326576520875363</v>
+      </c>
+      <c r="F67" s="19">
+        <v>75.705122331881526</v>
+      </c>
+      <c r="G67" s="19">
+        <v>72.184300378352958</v>
+      </c>
+      <c r="H67" s="19">
+        <v>65.641087121909564</v>
+      </c>
+      <c r="I67" s="19">
+        <v>47.765358179002185</v>
+      </c>
+      <c r="K67" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M67" s="19">
+        <v>9.3985771167019596</v>
+      </c>
+      <c r="N67" s="19">
+        <v>9.3616976157879996</v>
+      </c>
+      <c r="O67" s="19">
+        <v>9.5755009710247787</v>
+      </c>
+      <c r="P67" s="19">
+        <v>9.6924221636811563</v>
+      </c>
+      <c r="Q67" s="19">
+        <v>9.5846592779061837</v>
+      </c>
+      <c r="R67" s="19">
+        <v>10.778633531709451</v>
+      </c>
+      <c r="S67" s="19">
+        <v>10.551748097462831</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="19">
+        <v>84.199090152702041</v>
+      </c>
+      <c r="D68" s="19">
+        <v>80.150991222942238</v>
+      </c>
+      <c r="E68" s="19">
+        <v>79.089573346684304</v>
+      </c>
+      <c r="F68" s="19">
+        <v>70.882245349583854</v>
+      </c>
+      <c r="G68" s="19">
+        <v>68.438391123016217</v>
+      </c>
+      <c r="H68" s="19">
+        <v>63.448999228930738</v>
+      </c>
+      <c r="I68" s="19">
+        <v>54.928023981627703</v>
+      </c>
+      <c r="K68" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L68" s="3"/>
+      <c r="M68" s="19">
+        <v>6.8541808049040309</v>
+      </c>
+      <c r="N68" s="19">
+        <v>8.0345663443423838</v>
+      </c>
+      <c r="O68" s="19">
+        <v>8.5595110099521197</v>
+      </c>
+      <c r="P68" s="19">
+        <v>9.3418456913188734</v>
+      </c>
+      <c r="Q68" s="19">
+        <v>8.7230074742148069</v>
+      </c>
+      <c r="R68" s="19">
+        <v>8.9303160416674885</v>
+      </c>
+      <c r="S68" s="19">
+        <v>9.0909156720887303</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="59">
-        <v>0.91290277890697702</v>
-      </c>
-      <c r="D69" s="59">
-        <v>0.90057252355776662</v>
-      </c>
-      <c r="E69" s="59">
-        <v>0.86724685420819547</v>
-      </c>
-      <c r="F69" s="59">
-        <v>0.81984824584384897</v>
-      </c>
-      <c r="G69" s="59">
-        <v>0.75002002423926084</v>
-      </c>
-      <c r="H69" s="59">
-        <v>0.64476177146493086</v>
-      </c>
-      <c r="I69" s="59">
-        <v>0.53088947072594284</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L69" s="2"/>
+      <c r="A69" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="19">
+        <v>89.131692863681508</v>
+      </c>
+      <c r="D69" s="19">
+        <v>87.544829448692056</v>
+      </c>
+      <c r="E69" s="19">
+        <v>87.788787067770883</v>
+      </c>
+      <c r="F69" s="19">
+        <v>84.320475835085375</v>
+      </c>
+      <c r="G69" s="19">
+        <v>76.629640475813474</v>
+      </c>
+      <c r="H69" s="19">
+        <v>59.319665796416167</v>
+      </c>
+      <c r="I69" s="19">
+        <v>45.620863436697626</v>
+      </c>
+      <c r="K69" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L69" s="3"/>
       <c r="M69" s="19">
-        <v>4.5392502289218317E-2</v>
-      </c>
-      <c r="N69" s="21">
-        <v>4.7983304533294559E-2</v>
-      </c>
-      <c r="O69" s="23">
-        <v>6.75244547642634E-2</v>
-      </c>
-      <c r="P69" s="25">
-        <v>7.2702806553763613E-2</v>
-      </c>
-      <c r="Q69" s="27">
-        <v>8.7686662026421391E-2</v>
-      </c>
-      <c r="R69" s="29">
-        <v>8.7341797503011409E-2</v>
-      </c>
-      <c r="S69" s="31">
-        <v>8.2480696792888511E-2</v>
+        <v>4.9480273201097891</v>
+      </c>
+      <c r="N69" s="19">
+        <v>5.4864737133273067</v>
+      </c>
+      <c r="O69" s="19">
+        <v>5.5679062934616175</v>
+      </c>
+      <c r="P69" s="19">
+        <v>6.1629089088025291</v>
+      </c>
+      <c r="Q69" s="19">
+        <v>8.4053576913732257</v>
+      </c>
+      <c r="R69" s="19">
+        <v>9.061053175790251</v>
+      </c>
+      <c r="S69" s="19">
+        <v>10.95254048878474</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="59">
-        <v>0.91510418216614442</v>
-      </c>
-      <c r="D70" s="59">
-        <v>0.890842861890495</v>
-      </c>
-      <c r="E70" s="59">
-        <v>0.86744665836864743</v>
-      </c>
-      <c r="F70" s="59">
-        <v>0.81811185891606619</v>
-      </c>
-      <c r="G70" s="59">
-        <v>0.74404162909264449</v>
-      </c>
-      <c r="H70" s="59">
-        <v>0.64696937626302897</v>
-      </c>
-      <c r="I70" s="59">
-        <v>0.53086923697951882</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L70" s="2"/>
-      <c r="M70" s="33">
-        <v>4.5913740128900843E-2</v>
-      </c>
-      <c r="N70" s="35">
-        <v>5.3984498643534252E-2</v>
-      </c>
-      <c r="O70" s="37">
-        <v>5.5358969108462878E-2</v>
-      </c>
-      <c r="P70" s="39">
-        <v>8.41410361579603E-2</v>
-      </c>
-      <c r="Q70" s="41">
-        <v>9.6405823306948649E-2</v>
-      </c>
-      <c r="R70" s="43">
-        <v>8.7564007770028457E-2</v>
-      </c>
-      <c r="S70" s="45">
-        <v>7.2503585667805778E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="59">
-        <v>0.91468946397839335</v>
-      </c>
-      <c r="D71" s="59">
-        <v>0.88646794764226167</v>
-      </c>
-      <c r="E71" s="59">
-        <v>0.87044448694361487</v>
-      </c>
-      <c r="F71" s="59">
-        <v>0.82575044753608384</v>
-      </c>
-      <c r="G71" s="59">
-        <v>0.75695732343748501</v>
-      </c>
-      <c r="H71" s="59">
-        <v>0.64652223853822732</v>
-      </c>
-      <c r="I71" s="59">
-        <v>0.54165886755575454</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L71" s="2"/>
-      <c r="M71" s="47">
-        <v>4.6536973858508697E-2</v>
-      </c>
-      <c r="N71" s="49">
-        <v>5.9413709191513397E-2</v>
-      </c>
-      <c r="O71" s="51">
-        <v>6.998153922411951E-2</v>
-      </c>
-      <c r="P71" s="53">
-        <v>7.0262852999714395E-2</v>
-      </c>
-      <c r="Q71" s="55">
-        <v>8.6338539513459933E-2</v>
-      </c>
-      <c r="R71" s="57">
-        <v>8.6519956886315572E-2</v>
-      </c>
-      <c r="S71" s="59">
-        <v>7.1724869206467548E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="K73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L73" s="2"/>
+      <c r="A70" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="19">
+        <v>89.343160521159632</v>
+      </c>
+      <c r="D70" s="19">
+        <v>89.355924395143077</v>
+      </c>
+      <c r="E70" s="19">
+        <v>88.961637589369531</v>
+      </c>
+      <c r="F70" s="19">
+        <v>85.571925012528027</v>
+      </c>
+      <c r="G70" s="19">
+        <v>80.225394403390055</v>
+      </c>
+      <c r="H70" s="19">
+        <v>65.538982643024937</v>
+      </c>
+      <c r="I70" s="19">
+        <v>48.872031783551328</v>
+      </c>
+      <c r="K70" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L70" s="3"/>
+      <c r="M70" s="19">
+        <v>5.1733129187131341</v>
+      </c>
+      <c r="N70" s="19">
+        <v>4.5399366724179551</v>
+      </c>
+      <c r="O70" s="19">
+        <v>5.5435564580559653</v>
+      </c>
+      <c r="P70" s="19">
+        <v>6.243055020409451</v>
+      </c>
+      <c r="Q70" s="19">
+        <v>7.5764013481950556</v>
+      </c>
+      <c r="R70" s="19">
+        <v>9.8156928384826987</v>
+      </c>
+      <c r="S70" s="19">
+        <v>9.6282604746864155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="22">
+        <v>0.90136569338183703</v>
+      </c>
+      <c r="D71" s="24">
+        <v>0.89140558115629709</v>
+      </c>
+      <c r="E71" s="26">
+        <v>0.89007740254793299</v>
+      </c>
+      <c r="F71" s="28">
+        <v>0.84429533319360506</v>
+      </c>
+      <c r="G71" s="30">
+        <v>0.81332078652601347</v>
+      </c>
+      <c r="H71" s="32">
+        <v>0.68396207774265294</v>
+      </c>
+      <c r="I71" s="34">
+        <v>0.57988820953710674</v>
+      </c>
+      <c r="K71" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L71" s="3"/>
+      <c r="M71" s="22">
+        <v>5.9292139017037657E-2</v>
+      </c>
+      <c r="N71" s="24">
+        <v>6.0178495499665557E-2</v>
+      </c>
+      <c r="O71" s="26">
+        <v>5.6735020332359581E-2</v>
+      </c>
+      <c r="P71" s="28">
+        <v>6.4333615854801129E-2</v>
+      </c>
+      <c r="Q71" s="30">
+        <v>6.647666335827733E-2</v>
+      </c>
+      <c r="R71" s="32">
+        <v>7.7387178459233083E-2</v>
+      </c>
+      <c r="S71" s="34">
+        <v>0.103434241502524</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="36">
+        <v>0.90588436953510909</v>
+      </c>
+      <c r="D72" s="38">
+        <v>0.90920690315112074</v>
+      </c>
+      <c r="E72" s="40">
+        <v>0.89893082130596702</v>
+      </c>
+      <c r="F72" s="42">
+        <v>0.83899493960963789</v>
+      </c>
+      <c r="G72" s="44">
+        <v>0.76668631465274506</v>
+      </c>
+      <c r="H72" s="46">
+        <v>0.65156026814637535</v>
+      </c>
+      <c r="I72" s="48">
+        <v>0.4948071237588178</v>
+      </c>
+      <c r="K72" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L72" s="3"/>
+      <c r="M72" s="36">
+        <v>4.9553180055876021E-2</v>
+      </c>
+      <c r="N72" s="38">
+        <v>5.0471377607188499E-2</v>
+      </c>
+      <c r="O72" s="40">
+        <v>5.6862201732420223E-2</v>
+      </c>
+      <c r="P72" s="42">
+        <v>5.8054180723442268E-2</v>
+      </c>
+      <c r="Q72" s="44">
+        <v>7.0298164928470214E-2</v>
+      </c>
+      <c r="R72" s="46">
+        <v>9.8303466504212372E-2</v>
+      </c>
+      <c r="S72" s="48">
+        <v>0.1056460201192371</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="50">
+        <v>0.91279707682254008</v>
+      </c>
+      <c r="D73" s="52">
+        <v>0.9103625856915557</v>
+      </c>
+      <c r="E73" s="54">
+        <v>0.90478027137352768</v>
+      </c>
+      <c r="F73" s="56">
+        <v>0.84267474394658126</v>
+      </c>
+      <c r="G73" s="58">
+        <v>0.7602345225957351</v>
+      </c>
+      <c r="H73" s="60">
+        <v>0.59014431655923572</v>
+      </c>
+      <c r="I73" s="62">
+        <v>0.48094366048915999</v>
+      </c>
+      <c r="K73" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L73" s="3"/>
+      <c r="M73" s="50">
+        <v>4.8729900980426157E-2</v>
+      </c>
+      <c r="N73" s="52">
+        <v>4.8723305277871477E-2</v>
+      </c>
+      <c r="O73" s="54">
+        <v>5.0780093115925823E-2</v>
+      </c>
+      <c r="P73" s="56">
+        <v>5.3865621108679422E-2</v>
+      </c>
+      <c r="Q73" s="58">
+        <v>9.4968091581819139E-2</v>
+      </c>
+      <c r="R73" s="60">
+        <v>0.1218732715011014</v>
+      </c>
+      <c r="S73" s="62">
+        <v>0.11966226573483831</v>
+      </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="19">
+        <v>89.401678133486115</v>
+      </c>
+      <c r="D74" s="19">
+        <v>86.455311058522426</v>
+      </c>
+      <c r="E74" s="19">
+        <v>82.56541607134109</v>
+      </c>
+      <c r="F74" s="19">
+        <v>70.856492746361084</v>
+      </c>
+      <c r="G74" s="19">
+        <v>57.604260502030883</v>
+      </c>
+      <c r="H74" s="19">
+        <v>38.57176269817252</v>
+      </c>
+      <c r="I74" s="19">
+        <v>31.490435734069422</v>
+      </c>
       <c r="K74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L74" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M74" s="19">
+        <v>6.2918808962230681</v>
+      </c>
+      <c r="N74" s="19">
+        <v>8.0576918270504247</v>
+      </c>
+      <c r="O74" s="19">
+        <v>8.7720657540691978</v>
+      </c>
+      <c r="P74" s="19">
+        <v>11.06293000291693</v>
+      </c>
+      <c r="Q74" s="19">
+        <v>12.15720838410606</v>
+      </c>
+      <c r="R74" s="19">
+        <v>7.5278005101264798</v>
+      </c>
+      <c r="S74" s="19">
+        <v>6.0449054355420477</v>
+      </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="19">
+        <v>91.620295487522512</v>
+      </c>
+      <c r="D75" s="19">
+        <v>89.595895107101967</v>
+      </c>
+      <c r="E75" s="19">
+        <v>88.116648430018657</v>
+      </c>
+      <c r="F75" s="19">
+        <v>82.922212605935584</v>
+      </c>
+      <c r="G75" s="19">
+        <v>78.55023909398065</v>
+      </c>
+      <c r="H75" s="19">
+        <v>65.515877226694329</v>
+      </c>
+      <c r="I75" s="19">
+        <v>56.157425761236532</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L75" s="3"/>
+      <c r="M75" s="19">
+        <v>4.3650146788897359</v>
+      </c>
+      <c r="N75" s="19">
+        <v>5.5913972418752849</v>
+      </c>
+      <c r="O75" s="19">
+        <v>5.2346187293384157</v>
+      </c>
+      <c r="P75" s="19">
+        <v>5.9126856254975229</v>
+      </c>
+      <c r="Q75" s="19">
+        <v>6.6790441413168384</v>
+      </c>
+      <c r="R75" s="19">
+        <v>8.0748358517159762</v>
+      </c>
+      <c r="S75" s="19">
+        <v>8.9660331175348968</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="19">
+        <v>91.979607726023474</v>
+      </c>
+      <c r="D76" s="19">
+        <v>89.563846816897396</v>
+      </c>
+      <c r="E76" s="19">
+        <v>88.355600711847899</v>
+      </c>
+      <c r="F76" s="19">
+        <v>83.932390425958857</v>
+      </c>
+      <c r="G76" s="19">
+        <v>78.581896800917008</v>
+      </c>
+      <c r="H76" s="19">
+        <v>68.281255556211576</v>
+      </c>
+      <c r="I76" s="19">
+        <v>58.070485169992438</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L76" s="3"/>
+      <c r="M76" s="19">
+        <v>4.3309618878369172</v>
+      </c>
+      <c r="N76" s="19">
+        <v>5.1106810027699856</v>
+      </c>
+      <c r="O76" s="19">
+        <v>4.6722006720026688</v>
+      </c>
+      <c r="P76" s="19">
+        <v>5.8437173541867429</v>
+      </c>
+      <c r="Q76" s="19">
+        <v>5.9841393763513349</v>
+      </c>
+      <c r="R76" s="19">
+        <v>8.0320657935547768</v>
+      </c>
+      <c r="S76" s="19">
+        <v>9.0829843118855926</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="19">
+        <v>91.466501961148467</v>
+      </c>
+      <c r="D77" s="19">
+        <v>89.557077607992923</v>
+      </c>
+      <c r="E77" s="19">
+        <v>87.558598741035681</v>
+      </c>
+      <c r="F77" s="19">
+        <v>84.072586407806284</v>
+      </c>
+      <c r="G77" s="19">
+        <v>77.52554354436802</v>
+      </c>
+      <c r="H77" s="19">
+        <v>68.392583020310809</v>
+      </c>
+      <c r="I77" s="19">
+        <v>57.83931793066953</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L77" s="3"/>
+      <c r="M77" s="19">
+        <v>4.3610555153108201</v>
+      </c>
+      <c r="N77" s="19">
+        <v>5.302340716603374</v>
+      </c>
+      <c r="O77" s="19">
+        <v>5.4814488840020585</v>
+      </c>
+      <c r="P77" s="19">
+        <v>5.8823031099078227</v>
+      </c>
+      <c r="Q77" s="19">
+        <v>7.0498232831845957</v>
+      </c>
+      <c r="R77" s="19">
+        <v>9.7139233242677641</v>
+      </c>
+      <c r="S77" s="19">
+        <v>9.1188554841550804</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="19">
+        <v>91.512439984891671</v>
+      </c>
+      <c r="D78" s="19">
+        <v>89.04692945372814</v>
+      </c>
+      <c r="E78" s="19">
+        <v>87.216968663984034</v>
+      </c>
+      <c r="F78" s="19">
+        <v>83.305151755902003</v>
+      </c>
+      <c r="G78" s="19">
+        <v>77.112129251931648</v>
+      </c>
+      <c r="H78" s="19">
+        <v>67.196156017527997</v>
+      </c>
+      <c r="I78" s="19">
+        <v>54.431549747903276</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L78" s="3"/>
+      <c r="M78" s="19">
+        <v>4.8190181476460952</v>
+      </c>
+      <c r="N78" s="19">
+        <v>5.5804996525238204</v>
+      </c>
+      <c r="O78" s="19">
+        <v>5.4549482751445524</v>
+      </c>
+      <c r="P78" s="19">
+        <v>6.9694620667354243</v>
+      </c>
+      <c r="Q78" s="19">
+        <v>7.0266042152528962</v>
+      </c>
+      <c r="R78" s="19">
+        <v>8.7355756383700349</v>
+      </c>
+      <c r="S78" s="19">
+        <v>7.1200396927024912</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="19">
+        <v>91.290277890697695</v>
+      </c>
+      <c r="D79" s="19">
+        <v>90.057252355776669</v>
+      </c>
+      <c r="E79" s="19">
+        <v>86.724685420819554</v>
+      </c>
+      <c r="F79" s="19">
+        <v>81.984824584384896</v>
+      </c>
+      <c r="G79" s="19">
+        <v>75.002002423926086</v>
+      </c>
+      <c r="H79" s="19">
+        <v>64.476177146493086</v>
+      </c>
+      <c r="I79" s="19">
+        <v>53.08894707259428</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79" s="3"/>
+      <c r="M79" s="19">
+        <v>4.5392502289218317</v>
+      </c>
+      <c r="N79" s="19">
+        <v>4.7983304533294557</v>
+      </c>
+      <c r="O79" s="19">
+        <v>6.75244547642634</v>
+      </c>
+      <c r="P79" s="19">
+        <v>7.2702806553763617</v>
+      </c>
+      <c r="Q79" s="19">
+        <v>8.7686662026421391</v>
+      </c>
+      <c r="R79" s="19">
+        <v>8.7341797503011414</v>
+      </c>
+      <c r="S79" s="19">
+        <v>8.2480696792888519</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="19">
+        <v>91.51041821661444</v>
+      </c>
+      <c r="D80" s="19">
+        <v>89.084286189049493</v>
+      </c>
+      <c r="E80" s="19">
+        <v>86.744665836864741</v>
+      </c>
+      <c r="F80" s="19">
+        <v>81.811185891606613</v>
+      </c>
+      <c r="G80" s="19">
+        <v>74.404162909264443</v>
+      </c>
+      <c r="H80" s="19">
+        <v>64.696937626302898</v>
+      </c>
+      <c r="I80" s="19">
+        <v>53.086923697951882</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L80" s="3"/>
+      <c r="M80" s="19">
+        <v>4.5913740128900846</v>
+      </c>
+      <c r="N80" s="19">
+        <v>5.3984498643534256</v>
+      </c>
+      <c r="O80" s="19">
+        <v>5.5358969108462874</v>
+      </c>
+      <c r="P80" s="19">
+        <v>8.4141036157960301</v>
+      </c>
+      <c r="Q80" s="19">
+        <v>9.6405823306948655</v>
+      </c>
+      <c r="R80" s="19">
+        <v>8.7564007770028454</v>
+      </c>
+      <c r="S80" s="19">
+        <v>7.2503585667805774</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="K75" s="1" t="s">
+      <c r="B81" s="3"/>
+      <c r="C81" s="19">
+        <v>91.468946397839332</v>
+      </c>
+      <c r="D81" s="19">
+        <v>88.646794764226172</v>
+      </c>
+      <c r="E81" s="19">
+        <v>87.044448694361492</v>
+      </c>
+      <c r="F81" s="19">
+        <v>82.575044753608381</v>
+      </c>
+      <c r="G81" s="19">
+        <v>75.695732343748503</v>
+      </c>
+      <c r="H81" s="19">
+        <v>64.652223853822733</v>
+      </c>
+      <c r="I81" s="19">
+        <v>54.165886755575457</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-    </row>
-    <row r="78" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I79" s="44"/>
-    </row>
-    <row r="80" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C83" s="5"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="17"/>
-    </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C84" s="19"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="31"/>
-    </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C85" s="33"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="45"/>
-    </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C86" s="47"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="53"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="57"/>
-      <c r="I86" s="59"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="19">
+        <v>4.6536973858508697</v>
+      </c>
+      <c r="N81" s="19">
+        <v>5.94137091915134</v>
+      </c>
+      <c r="O81" s="19">
+        <v>6.9981539224119507</v>
+      </c>
+      <c r="P81" s="19">
+        <v>7.0262852999714394</v>
+      </c>
+      <c r="Q81" s="19">
+        <v>8.6338539513459942</v>
+      </c>
+      <c r="R81" s="19">
+        <v>8.6519956886315565</v>
+      </c>
+      <c r="S81" s="19">
+        <v>7.1724869206467545</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="K83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="K84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="K85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J89" s="19"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J90" s="19"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J91" s="19"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="19"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="19"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="19"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="19"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+    </row>
+    <row r="97" spans="3:19" s="52" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="J98" s="19"/>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="J99" s="19"/>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="J100" s="19"/>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="J101" s="19"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="19"/>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="19"/>
+    </row>
+    <row r="103" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="J103" s="19"/>
+      <c r="K103" s="19"/>
+      <c r="L103" s="19"/>
+    </row>
+    <row r="104" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="J104" s="19"/>
+      <c r="K104" s="19"/>
+      <c r="L104" s="19"/>
+      <c r="M104" s="19"/>
+      <c r="N104" s="19"/>
+      <c r="O104" s="19"/>
+      <c r="P104" s="19"/>
+      <c r="Q104" s="19"/>
+      <c r="R104" s="19"/>
+      <c r="S104" s="19"/>
+    </row>
+    <row r="106" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+    </row>
+    <row r="107" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+    </row>
+    <row r="108" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+    </row>
+    <row r="109" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
+    </row>
+    <row r="110" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
+    </row>
+    <row r="111" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
+    </row>
+    <row r="112" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+    </row>
+    <row r="113" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+    </row>
+    <row r="114" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+    </row>
+    <row r="115" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="L51:L57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="L28:L33"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="L43:L50"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="L63:L66"/>
+    <mergeCell ref="L82:L85"/>
+    <mergeCell ref="B74:B81"/>
+    <mergeCell ref="L74:L81"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="L67:L73"/>
     <mergeCell ref="B5:B12"/>
     <mergeCell ref="L5:L12"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="L13:L19"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="L20:L23"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="L58:L61"/>
-    <mergeCell ref="L62:L65"/>
-    <mergeCell ref="L72:L75"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B71"/>
-    <mergeCell ref="L66:L71"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="B48:B55"/>
+    <mergeCell ref="L48:L55"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="L31:L38"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="L24:L30"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="L56:L62"/>
+    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C2:I4 C13:I19 C34:I37">
+  <conditionalFormatting sqref="C2:I4 C13:I19 C39:I42">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4 C14:I19 C39:I42">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4 C16:I19 C39:I42">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4 C39:I42">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I4">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I27 C39:I42">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I27">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:I12">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -4318,44 +5048,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4 C14:I19 C34:I37">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4 C16:I19 C34:I37">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4 C34:I37">
+  <conditionalFormatting sqref="C39:I42 C2:I4">
     <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I4">
-    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4376,8 +5070,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I27 C34:I37">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="C45:I47 C56:I62">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4388,8 +5082,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I27">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="C45:I47 C57:I62">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4400,8 +5094,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I12">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="C45:I47 C59:I62">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4412,8 +5106,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:I37 C2:I4">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="C45:I47">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4423,6 +5117,142 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:I55">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:I85">
+    <cfRule type="colorScale" priority="224">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="225">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="226">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86:I86">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:S4 M13:S19 M39:S42">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:S4 M14:S19 M39:S42">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:S4 M16:S19 M39:S42">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:S4 M39:S42">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:S4">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -4434,177 +5264,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:I42 C51:I57">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:I42 C52:I57">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:I42 C54:I57">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40:I42">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43:I50">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72:I75">
-    <cfRule type="colorScale" priority="219">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="220">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="221">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4 M13:S19 M34:S37">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4 M14:S19 M34:S37">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4 M16:S19 M34:S37">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4 M34:S37">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:S4">
+  <conditionalFormatting sqref="M5:S12">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -4616,88 +5276,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:S12">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M34:S37 M2:S4">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M40:S42 M51:S57">
+  <conditionalFormatting sqref="M39:S42 M2:S4">
     <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M40:S42 M52:S57">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M40:S42 M54:S57">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M40:S42">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4717,6 +5297,20 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M45:S47 M56:S62">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M45:S47 M57:S62">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -4728,8 +5322,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M43:S50">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="M45:S47 M59:S62">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4740,8 +5334,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M72:S75">
-    <cfRule type="colorScale" priority="213">
+  <conditionalFormatting sqref="M45:S47">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4751,7 +5345,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="217">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4761,6 +5355,40 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M48:S55">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M82:S85">
     <cfRule type="colorScale" priority="218">
       <colorScale>
         <cfvo type="min"/>
@@ -4771,8 +5399,76 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="222">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="223">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C76:I76">
+  <conditionalFormatting sqref="C2:I27 C31:I38">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:S27 M31:S38">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:I66 B74:I81 C67:I70">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M45:S70 M74:S81">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:I38">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5018,7 +5714,7 @@
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C5">
@@ -5045,7 +5741,7 @@
       <c r="K5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M5">
@@ -5074,7 +5770,7 @@
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6">
         <v>93.053143481633342</v>
       </c>
@@ -5099,7 +5795,7 @@
       <c r="K6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="3"/>
       <c r="M6">
         <v>3.9872752197675312</v>
       </c>
@@ -5126,7 +5822,7 @@
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7">
         <v>91.579621507683157</v>
       </c>
@@ -5151,7 +5847,7 @@
       <c r="K7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="3"/>
       <c r="M7">
         <v>4.5335274096690847</v>
       </c>
@@ -5178,7 +5874,7 @@
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8">
         <v>90.212611412440125</v>
       </c>
@@ -5203,7 +5899,7 @@
       <c r="K8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="3"/>
       <c r="M8">
         <v>5.1774780277668837</v>
       </c>
@@ -5230,7 +5926,7 @@
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9">
         <v>90.084819072829347</v>
       </c>
@@ -5255,7 +5951,7 @@
       <c r="K9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="3"/>
       <c r="M9">
         <v>5.1380550132743084</v>
       </c>
@@ -5282,7 +5978,7 @@
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="3"/>
       <c r="C10">
         <v>89.661415756191658</v>
       </c>
@@ -5307,7 +6003,7 @@
       <c r="K10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="3"/>
       <c r="M10">
         <v>5.0704882397024411</v>
       </c>
@@ -5334,7 +6030,7 @@
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="3"/>
       <c r="C11">
         <v>89.817152397512075</v>
       </c>
@@ -5359,7 +6055,7 @@
       <c r="K11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="3"/>
       <c r="M11">
         <v>4.5124657638145411</v>
       </c>
@@ -5386,7 +6082,7 @@
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="3"/>
       <c r="C12">
         <v>88.193943430883195</v>
       </c>
@@ -5411,7 +6107,7 @@
       <c r="K12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="3"/>
       <c r="M12">
         <v>4.738300568518703</v>
       </c>
@@ -5438,7 +6134,7 @@
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13">
@@ -5465,7 +6161,7 @@
       <c r="K13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M13">
@@ -5494,7 +6190,7 @@
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
       <c r="C14">
         <v>91.096670386422005</v>
       </c>
@@ -5519,7 +6215,7 @@
       <c r="K14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="2"/>
       <c r="M14">
         <v>4.4913349382120487</v>
       </c>
@@ -5546,7 +6242,7 @@
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="2"/>
       <c r="C15">
         <v>91.140892222251068</v>
       </c>
@@ -5571,7 +6267,7 @@
       <c r="K15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="2"/>
       <c r="M15">
         <v>3.903249518826176</v>
       </c>
@@ -5598,7 +6294,7 @@
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="2"/>
       <c r="C16">
         <v>91.081684674319575</v>
       </c>
@@ -5623,7 +6319,7 @@
       <c r="K16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="2"/>
       <c r="M16">
         <v>4.1769763320911357</v>
       </c>
@@ -5650,7 +6346,7 @@
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="2"/>
       <c r="C17">
         <v>91.125234647358553</v>
       </c>
@@ -5675,7 +6371,7 @@
       <c r="K17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="2"/>
       <c r="M17">
         <v>4.6221295992371028</v>
       </c>
@@ -5702,7 +6398,7 @@
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="2"/>
       <c r="C18">
         <v>91.43489995588196</v>
       </c>
@@ -5727,7 +6423,7 @@
       <c r="K18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="2"/>
       <c r="M18">
         <v>4.2207267229748435</v>
       </c>
@@ -5754,7 +6450,7 @@
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="2"/>
       <c r="C19">
         <v>91.676793628549277</v>
       </c>
@@ -5779,7 +6475,7 @@
       <c r="K19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="2"/>
       <c r="M19">
         <v>4.7069173345915063</v>
       </c>
@@ -5806,7 +6502,7 @@
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C20">
@@ -5833,7 +6529,7 @@
       <c r="K20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M20">
@@ -5862,7 +6558,7 @@
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="3"/>
       <c r="C21">
         <v>91.960766673298778</v>
       </c>
@@ -5887,7 +6583,7 @@
       <c r="K21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="2"/>
+      <c r="L21" s="3"/>
       <c r="M21">
         <v>3.853047307727675</v>
       </c>
@@ -5914,7 +6610,7 @@
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="3"/>
       <c r="C22">
         <v>91.820203173614544</v>
       </c>
@@ -5939,7 +6635,7 @@
       <c r="K22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="2"/>
+      <c r="L22" s="3"/>
       <c r="M22">
         <v>3.7261369541242311</v>
       </c>
@@ -5966,7 +6662,7 @@
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C23">
@@ -5993,7 +6689,7 @@
       <c r="K23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M23">
@@ -6022,7 +6718,7 @@
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="3"/>
       <c r="C24">
         <v>91.311943298240763</v>
       </c>
@@ -6047,7 +6743,7 @@
       <c r="K24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="2"/>
+      <c r="L24" s="3"/>
       <c r="M24">
         <v>4.0467549685577549</v>
       </c>
@@ -6074,7 +6770,7 @@
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="3"/>
       <c r="C25">
         <v>91.56461849439296</v>
       </c>
@@ -6099,7 +6795,7 @@
       <c r="K25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L25" s="2"/>
+      <c r="L25" s="3"/>
       <c r="M25">
         <v>4.2430822168081885</v>
       </c>
@@ -6126,7 +6822,7 @@
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="3"/>
       <c r="C26">
         <v>91.662871939491964</v>
       </c>
@@ -6151,7 +6847,7 @@
       <c r="K26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="2"/>
+      <c r="L26" s="3"/>
       <c r="M26">
         <v>4.4995201333318091</v>
       </c>
@@ -6390,7 +7086,7 @@
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C32">
@@ -6417,7 +7113,7 @@
       <c r="K32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M32">
@@ -6446,7 +7142,7 @@
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="3"/>
       <c r="C33">
         <v>92.603782215910087</v>
       </c>
@@ -6471,7 +7167,7 @@
       <c r="K33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L33" s="2"/>
+      <c r="L33" s="3"/>
       <c r="M33">
         <v>4.4405799374618198</v>
       </c>
@@ -6498,7 +7194,7 @@
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="3"/>
       <c r="C34">
         <v>91.081927840808433</v>
       </c>
@@ -6523,7 +7219,7 @@
       <c r="K34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L34" s="2"/>
+      <c r="L34" s="3"/>
       <c r="M34">
         <v>5.0278535681088243</v>
       </c>
@@ -6550,7 +7246,7 @@
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="3"/>
       <c r="C35">
         <v>89.644638837679821</v>
       </c>
@@ -6575,7 +7271,7 @@
       <c r="K35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L35" s="2"/>
+      <c r="L35" s="3"/>
       <c r="M35">
         <v>5.6337263714853885</v>
       </c>
@@ -6602,7 +7298,7 @@
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="3"/>
       <c r="C36">
         <v>89.487105403835685</v>
       </c>
@@ -6627,7 +7323,7 @@
       <c r="K36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L36" s="2"/>
+      <c r="L36" s="3"/>
       <c r="M36">
         <v>5.5869146897287463</v>
       </c>
@@ -6654,7 +7350,7 @@
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="3"/>
       <c r="C37">
         <v>89.019136482146294</v>
       </c>
@@ -6679,7 +7375,7 @@
       <c r="K37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L37" s="2"/>
+      <c r="L37" s="3"/>
       <c r="M37">
         <v>5.5440228882484019</v>
       </c>
@@ -6706,7 +7402,7 @@
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="3"/>
       <c r="C38">
         <v>89.238869796493674</v>
       </c>
@@ -6731,7 +7427,7 @@
       <c r="K38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L38" s="2"/>
+      <c r="L38" s="3"/>
       <c r="M38">
         <v>4.9520431158543712</v>
       </c>
@@ -6758,7 +7454,7 @@
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="3"/>
       <c r="C39">
         <v>87.528624354026661</v>
       </c>
@@ -6783,7 +7479,7 @@
       <c r="K39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L39" s="2"/>
+      <c r="L39" s="3"/>
       <c r="M39">
         <v>5.0598364128504718</v>
       </c>
@@ -6810,7 +7506,7 @@
       <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C40">
@@ -6837,7 +7533,7 @@
       <c r="K40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M40">
@@ -6866,7 +7562,7 @@
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
       <c r="C41">
         <v>90.642246446502455</v>
       </c>
@@ -6891,7 +7587,7 @@
       <c r="K41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L41" s="3"/>
+      <c r="L41" s="2"/>
       <c r="M41">
         <v>4.8046743223783803</v>
       </c>
@@ -6918,7 +7614,7 @@
       <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="2"/>
       <c r="C42">
         <v>90.617152023346819</v>
       </c>
@@ -6943,7 +7639,7 @@
       <c r="K42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L42" s="3"/>
+      <c r="L42" s="2"/>
       <c r="M42">
         <v>4.2750077328577394</v>
       </c>
@@ -6970,7 +7666,7 @@
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="2"/>
       <c r="C43">
         <v>90.581355357949491</v>
       </c>
@@ -6995,7 +7691,7 @@
       <c r="K43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L43" s="3"/>
+      <c r="L43" s="2"/>
       <c r="M43">
         <v>4.4778305644230976</v>
       </c>
@@ -7022,7 +7718,7 @@
       <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="2"/>
       <c r="C44">
         <v>90.510302373601434</v>
       </c>
@@ -7047,7 +7743,7 @@
       <c r="K44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L44" s="3"/>
+      <c r="L44" s="2"/>
       <c r="M44">
         <v>5.1076806654003626</v>
       </c>
@@ -7074,7 +7770,7 @@
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="2"/>
       <c r="C45">
         <v>90.77523149389998</v>
       </c>
@@ -7099,7 +7795,7 @@
       <c r="K45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L45" s="3"/>
+      <c r="L45" s="2"/>
       <c r="M45">
         <v>4.8120651940731003</v>
       </c>
@@ -7126,7 +7822,7 @@
       <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46" s="2"/>
       <c r="C46">
         <v>91.156513297158639</v>
       </c>
@@ -7151,7 +7847,7 @@
       <c r="K46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L46" s="3"/>
+      <c r="L46" s="2"/>
       <c r="M46">
         <v>5.1638895836383742</v>
       </c>
@@ -7178,7 +7874,7 @@
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C47">
@@ -7205,7 +7901,7 @@
       <c r="K47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L47" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M47">
@@ -7234,7 +7930,7 @@
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="3"/>
       <c r="C48">
         <v>91.471732407771285</v>
       </c>
@@ -7259,7 +7955,7 @@
       <c r="K48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="2"/>
+      <c r="L48" s="3"/>
       <c r="M48">
         <v>4.1522553462569753</v>
       </c>
@@ -7286,7 +7982,7 @@
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="3"/>
       <c r="C49">
         <v>91.332608054482193</v>
       </c>
@@ -7311,7 +8007,7 @@
       <c r="K49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L49" s="2"/>
+      <c r="L49" s="3"/>
       <c r="M49">
         <v>4.0408623904693703</v>
       </c>
@@ -7338,7 +8034,7 @@
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C50">
@@ -7365,7 +8061,7 @@
       <c r="K50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="L50" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M50">
@@ -7394,7 +8090,7 @@
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="3"/>
       <c r="C51">
         <v>90.662747049686885</v>
       </c>
@@ -7419,7 +8115,7 @@
       <c r="K51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L51" s="2"/>
+      <c r="L51" s="3"/>
       <c r="M51">
         <v>4.4243047449169461</v>
       </c>
@@ -7446,7 +8142,7 @@
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="3"/>
       <c r="C52">
         <v>90.899292841610901</v>
       </c>
@@ -7471,7 +8167,7 @@
       <c r="K52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L52" s="2"/>
+      <c r="L52" s="3"/>
       <c r="M52">
         <v>4.7603465716753162</v>
       </c>
@@ -7498,7 +8194,7 @@
       <c r="A53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="3"/>
       <c r="C53">
         <v>91.095220817792637</v>
       </c>
@@ -7523,7 +8219,7 @@
       <c r="K53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L53" s="2"/>
+      <c r="L53" s="3"/>
       <c r="M53">
         <v>5.026832630398987</v>
       </c>
@@ -7548,12 +8244,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="L32:L39"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="L40:L46"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="L47:L49"/>
     <mergeCell ref="B50:B53"/>
@@ -7564,6 +8254,12 @@
     <mergeCell ref="L20:L22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="L23:L26"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="L32:L39"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="L40:L46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I4 C13:I26">
@@ -8175,7 +8871,7 @@
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5">
@@ -8202,7 +8898,7 @@
       <c r="K5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M5">
@@ -8231,7 +8927,7 @@
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
       <c r="C6">
         <v>91.096670386422005</v>
       </c>
@@ -8256,7 +8952,7 @@
       <c r="K6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="2"/>
       <c r="M6">
         <v>4.4913349382120487</v>
       </c>
@@ -8283,7 +8979,7 @@
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7">
         <v>91.140892222251068</v>
       </c>
@@ -8308,7 +9004,7 @@
       <c r="K7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="2"/>
       <c r="M7">
         <v>3.903249518826176</v>
       </c>
@@ -8335,7 +9031,7 @@
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="2"/>
       <c r="C8">
         <v>91.081684674319575</v>
       </c>
@@ -8360,7 +9056,7 @@
       <c r="K8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="2"/>
       <c r="M8">
         <v>4.1769763320911357</v>
       </c>
@@ -8387,7 +9083,7 @@
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="2"/>
       <c r="C9">
         <v>91.125234647358553</v>
       </c>
@@ -8412,7 +9108,7 @@
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="2"/>
       <c r="M9">
         <v>4.6221295992371028</v>
       </c>
@@ -8439,7 +9135,7 @@
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="2"/>
       <c r="C10">
         <v>91.43489995588196</v>
       </c>
@@ -8464,7 +9160,7 @@
       <c r="K10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="2"/>
       <c r="M10">
         <v>4.2207267229748435</v>
       </c>
@@ -8491,7 +9187,7 @@
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
       <c r="C11">
         <v>91.676793628549277</v>
       </c>
@@ -8516,7 +9212,7 @@
       <c r="K11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="2"/>
       <c r="M11">
         <v>4.7069173345915063</v>
       </c>
@@ -8543,7 +9239,7 @@
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C12">
@@ -8570,7 +9266,7 @@
       <c r="K12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M12">
@@ -8599,7 +9295,7 @@
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="3"/>
       <c r="C13">
         <v>91.960766673298778</v>
       </c>
@@ -8624,7 +9320,7 @@
       <c r="K13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="3"/>
       <c r="M13">
         <v>3.853047307727675</v>
       </c>
@@ -8651,7 +9347,7 @@
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="3"/>
       <c r="C14">
         <v>91.820203173614544</v>
       </c>
@@ -8676,7 +9372,7 @@
       <c r="K14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" s="3"/>
       <c r="M14">
         <v>3.7261369541242311</v>
       </c>
@@ -8703,7 +9399,7 @@
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15">
@@ -8730,7 +9426,7 @@
       <c r="K15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M15">
@@ -8759,7 +9455,7 @@
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="3"/>
       <c r="C16">
         <v>91.311943298240763</v>
       </c>
@@ -8784,7 +9480,7 @@
       <c r="K16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="3"/>
       <c r="M16">
         <v>4.0467549685577549</v>
       </c>
@@ -8811,7 +9507,7 @@
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="3"/>
       <c r="C17">
         <v>91.56461849439296</v>
       </c>
@@ -8836,7 +9532,7 @@
       <c r="K17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="3"/>
       <c r="M17">
         <v>4.2430822168081885</v>
       </c>
@@ -8863,7 +9559,7 @@
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="3"/>
       <c r="C18">
         <v>91.662871939491964</v>
       </c>
@@ -8888,7 +9584,7 @@
       <c r="K18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="3"/>
       <c r="M18">
         <v>4.4995201333318091</v>
       </c>
@@ -9127,7 +9823,7 @@
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24">
@@ -9154,7 +9850,7 @@
       <c r="K24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M24">
@@ -9183,7 +9879,7 @@
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="2"/>
       <c r="C25">
         <v>90.642246446502455</v>
       </c>
@@ -9208,7 +9904,7 @@
       <c r="K25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="2"/>
       <c r="M25">
         <v>4.8046743223783803</v>
       </c>
@@ -9235,7 +9931,7 @@
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="2"/>
       <c r="C26">
         <v>90.617152023346819</v>
       </c>
@@ -9260,7 +9956,7 @@
       <c r="K26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="2"/>
       <c r="M26">
         <v>4.2750077328577394</v>
       </c>
@@ -9287,7 +9983,7 @@
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="2"/>
       <c r="C27">
         <v>90.581355357949491</v>
       </c>
@@ -9312,7 +10008,7 @@
       <c r="K27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L27" s="3"/>
+      <c r="L27" s="2"/>
       <c r="M27">
         <v>4.4778305644230976</v>
       </c>
@@ -9339,7 +10035,7 @@
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="2"/>
       <c r="C28">
         <v>90.510302373601434</v>
       </c>
@@ -9364,7 +10060,7 @@
       <c r="K28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L28" s="3"/>
+      <c r="L28" s="2"/>
       <c r="M28">
         <v>5.1076806654003626</v>
       </c>
@@ -9391,7 +10087,7 @@
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="2"/>
       <c r="C29">
         <v>90.77523149389998</v>
       </c>
@@ -9416,7 +10112,7 @@
       <c r="K29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L29" s="3"/>
+      <c r="L29" s="2"/>
       <c r="M29">
         <v>4.8120651940731003</v>
       </c>
@@ -9443,7 +10139,7 @@
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="2"/>
       <c r="C30">
         <v>91.156513297158639</v>
       </c>
@@ -9468,7 +10164,7 @@
       <c r="K30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L30" s="3"/>
+      <c r="L30" s="2"/>
       <c r="M30">
         <v>5.1638895836383742</v>
       </c>
@@ -9495,7 +10191,7 @@
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C31">
@@ -9522,7 +10218,7 @@
       <c r="K31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M31">
@@ -9551,7 +10247,7 @@
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="3"/>
       <c r="C32">
         <v>91.471732407771285</v>
       </c>
@@ -9576,7 +10272,7 @@
       <c r="K32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="2"/>
+      <c r="L32" s="3"/>
       <c r="M32">
         <v>4.1522553462569753</v>
       </c>
@@ -9603,7 +10299,7 @@
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="3"/>
       <c r="C33">
         <v>91.332608054482193</v>
       </c>
@@ -9628,7 +10324,7 @@
       <c r="K33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="2"/>
+      <c r="L33" s="3"/>
       <c r="M33">
         <v>4.0408623904693703</v>
       </c>
@@ -9655,7 +10351,7 @@
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C34">
@@ -9682,7 +10378,7 @@
       <c r="K34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="3" t="s">
         <v>31</v>
       </c>
       <c r="M34">
@@ -9711,7 +10407,7 @@
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="3"/>
       <c r="C35">
         <v>90.662747049686885</v>
       </c>
@@ -9736,7 +10432,7 @@
       <c r="K35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L35" s="2"/>
+      <c r="L35" s="3"/>
       <c r="M35">
         <v>4.4243047449169461</v>
       </c>
@@ -9763,7 +10459,7 @@
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="3"/>
       <c r="C36">
         <v>90.899292841610901</v>
       </c>
@@ -9788,7 +10484,7 @@
       <c r="K36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L36" s="2"/>
+      <c r="L36" s="3"/>
       <c r="M36">
         <v>4.7603465716753162</v>
       </c>
@@ -9815,7 +10511,7 @@
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="3"/>
       <c r="C37">
         <v>91.095220817792637</v>
       </c>
@@ -9840,7 +10536,7 @@
       <c r="K37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="2"/>
+      <c r="L37" s="3"/>
       <c r="M37">
         <v>5.026832630398987</v>
       </c>
@@ -10392,7 +11088,7 @@
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5">
@@ -10419,7 +11115,7 @@
       <c r="K5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M5">
@@ -10448,7 +11144,7 @@
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
       <c r="C6">
         <v>91.096670386422005</v>
       </c>
@@ -10473,7 +11169,7 @@
       <c r="K6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="2"/>
       <c r="M6">
         <v>4.4913349382120487</v>
       </c>
@@ -10500,7 +11196,7 @@
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7">
         <v>91.140892222251068</v>
       </c>
@@ -10525,7 +11221,7 @@
       <c r="K7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="2"/>
       <c r="M7">
         <v>3.903249518826176</v>
       </c>
@@ -10552,7 +11248,7 @@
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="2"/>
       <c r="C8">
         <v>91.081684674319575</v>
       </c>
@@ -10577,7 +11273,7 @@
       <c r="K8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="2"/>
       <c r="M8">
         <v>4.1769763320911357</v>
       </c>
@@ -10604,7 +11300,7 @@
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="2"/>
       <c r="C9">
         <v>91.125234647358553</v>
       </c>
@@ -10629,7 +11325,7 @@
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="2"/>
       <c r="M9">
         <v>4.6221295992371028</v>
       </c>
@@ -10656,7 +11352,7 @@
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="2"/>
       <c r="C10">
         <v>91.43489995588196</v>
       </c>
@@ -10681,7 +11377,7 @@
       <c r="K10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="2"/>
       <c r="M10">
         <v>4.2207267229748435</v>
       </c>
@@ -10708,7 +11404,7 @@
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
       <c r="C11">
         <v>91.676793628549277</v>
       </c>
@@ -10733,7 +11429,7 @@
       <c r="K11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="2"/>
       <c r="M11">
         <v>4.7069173345915063</v>
       </c>
@@ -10760,7 +11456,7 @@
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12">
@@ -10787,7 +11483,7 @@
       <c r="K12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M12">
@@ -10816,7 +11512,7 @@
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="2"/>
       <c r="C13">
         <v>93.050159026750507</v>
       </c>
@@ -10841,7 +11537,7 @@
       <c r="K13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="2"/>
       <c r="M13">
         <v>3.9979879038619965</v>
       </c>
@@ -10868,7 +11564,7 @@
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
       <c r="C14">
         <v>93.066978664752</v>
       </c>
@@ -10893,7 +11589,7 @@
       <c r="K14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="2"/>
       <c r="M14">
         <v>3.5358037606815413</v>
       </c>
@@ -10920,7 +11616,7 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="2"/>
       <c r="C15">
         <v>92.542876668483288</v>
       </c>
@@ -10945,7 +11641,7 @@
       <c r="K15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="2"/>
       <c r="M15">
         <v>4.3036967593998581</v>
       </c>
@@ -10972,7 +11668,7 @@
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="2"/>
       <c r="C16">
         <v>92.337514453700578</v>
       </c>
@@ -10997,7 +11693,7 @@
       <c r="K16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="2"/>
       <c r="M16">
         <v>4.4728767672716652</v>
       </c>
@@ -11024,7 +11720,7 @@
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="2"/>
       <c r="C17">
         <v>90.462160860676391</v>
       </c>
@@ -11049,7 +11745,7 @@
       <c r="K17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="2"/>
       <c r="M17">
         <v>4.9511548269576844</v>
       </c>
@@ -11076,7 +11772,7 @@
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C18">
@@ -11103,7 +11799,7 @@
       <c r="K18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M18">
@@ -11132,7 +11828,7 @@
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="3"/>
       <c r="C19">
         <v>91.960766673298778</v>
       </c>
@@ -11157,7 +11853,7 @@
       <c r="K19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="2"/>
+      <c r="L19" s="3"/>
       <c r="M19">
         <v>3.853047307727675</v>
       </c>
@@ -11184,7 +11880,7 @@
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="3"/>
       <c r="C20">
         <v>91.820203173614544</v>
       </c>
@@ -11209,7 +11905,7 @@
       <c r="K20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="2"/>
+      <c r="L20" s="3"/>
       <c r="M20">
         <v>3.7261369541242311</v>
       </c>
@@ -11236,7 +11932,7 @@
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C21">
@@ -11263,7 +11959,7 @@
       <c r="K21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M21">
@@ -11292,7 +11988,7 @@
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="3"/>
       <c r="C22">
         <v>91.311943298240763</v>
       </c>
@@ -11317,7 +12013,7 @@
       <c r="K22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L22" s="2"/>
+      <c r="L22" s="3"/>
       <c r="M22">
         <v>4.0467549685577549</v>
       </c>
@@ -11344,7 +12040,7 @@
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="3"/>
       <c r="C23">
         <v>91.56461849439296</v>
       </c>
@@ -11369,7 +12065,7 @@
       <c r="K23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="2"/>
+      <c r="L23" s="3"/>
       <c r="M23">
         <v>4.2430822168081885</v>
       </c>
@@ -11396,7 +12092,7 @@
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="3"/>
       <c r="C24">
         <v>91.662871939491964</v>
       </c>
@@ -11421,7 +12117,7 @@
       <c r="K24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="2"/>
+      <c r="L24" s="3"/>
       <c r="M24">
         <v>4.4995201333318091</v>
       </c>
@@ -11660,7 +12356,7 @@
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C30">
@@ -11687,7 +12383,7 @@
       <c r="K30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M30">
@@ -11716,7 +12412,7 @@
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="2"/>
       <c r="C31">
         <v>90.642246446502455</v>
       </c>
@@ -11741,7 +12437,7 @@
       <c r="K31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="3"/>
+      <c r="L31" s="2"/>
       <c r="M31">
         <v>4.8046743223783803</v>
       </c>
@@ -11768,7 +12464,7 @@
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="2"/>
       <c r="C32">
         <v>90.617152023346819</v>
       </c>
@@ -11793,7 +12489,7 @@
       <c r="K32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="2"/>
       <c r="M32">
         <v>4.2750077328577394</v>
       </c>
@@ -11820,7 +12516,7 @@
       <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="2"/>
       <c r="C33">
         <v>90.581355357949491</v>
       </c>
@@ -11845,7 +12541,7 @@
       <c r="K33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L33" s="3"/>
+      <c r="L33" s="2"/>
       <c r="M33">
         <v>4.4778305644230976</v>
       </c>
@@ -11872,7 +12568,7 @@
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
       <c r="C34">
         <v>90.510302373601434</v>
       </c>
@@ -11897,7 +12593,7 @@
       <c r="K34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="3"/>
+      <c r="L34" s="2"/>
       <c r="M34">
         <v>5.1076806654003626</v>
       </c>
@@ -11924,7 +12620,7 @@
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="2"/>
       <c r="C35">
         <v>90.77523149389998</v>
       </c>
@@ -11949,7 +12645,7 @@
       <c r="K35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L35" s="3"/>
+      <c r="L35" s="2"/>
       <c r="M35">
         <v>4.8120651940731003</v>
       </c>
@@ -11976,7 +12672,7 @@
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="2"/>
       <c r="C36">
         <v>91.156513297158639</v>
       </c>
@@ -12001,7 +12697,7 @@
       <c r="K36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L36" s="3"/>
+      <c r="L36" s="2"/>
       <c r="M36">
         <v>5.1638895836383742</v>
       </c>
@@ -12028,7 +12724,7 @@
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C37">
@@ -12055,7 +12751,7 @@
       <c r="K37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M37">
@@ -12084,7 +12780,7 @@
       <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="2"/>
       <c r="C38">
         <v>92.5896301742671</v>
       </c>
@@ -12109,7 +12805,7 @@
       <c r="K38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L38" s="3"/>
+      <c r="L38" s="2"/>
       <c r="M38">
         <v>4.3765306143488312</v>
       </c>
@@ -12136,7 +12832,7 @@
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="2"/>
       <c r="C39">
         <v>92.614173779421549</v>
       </c>
@@ -12161,7 +12857,7 @@
       <c r="K39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L39" s="3"/>
+      <c r="L39" s="2"/>
       <c r="M39">
         <v>3.8746323119795019</v>
       </c>
@@ -12188,7 +12884,7 @@
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="2"/>
       <c r="C40">
         <v>92.119712342991107</v>
       </c>
@@ -12213,7 +12909,7 @@
       <c r="K40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L40" s="3"/>
+      <c r="L40" s="2"/>
       <c r="M40">
         <v>4.6827700724731969</v>
       </c>
@@ -12240,7 +12936,7 @@
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
       <c r="C41">
         <v>91.876620417310647</v>
       </c>
@@ -12265,7 +12961,7 @@
       <c r="K41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L41" s="3"/>
+      <c r="L41" s="2"/>
       <c r="M41">
         <v>4.9377169648445456</v>
       </c>
@@ -12292,7 +12988,7 @@
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="2"/>
       <c r="C42">
         <v>89.904916878030789</v>
       </c>
@@ -12317,7 +13013,7 @@
       <c r="K42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L42" s="3"/>
+      <c r="L42" s="2"/>
       <c r="M42">
         <v>5.4133221917381285</v>
       </c>
@@ -12344,7 +13040,7 @@
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C43">
@@ -12371,7 +13067,7 @@
       <c r="K43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M43">
@@ -12400,7 +13096,7 @@
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="3"/>
       <c r="C44">
         <v>91.471732407771285</v>
       </c>
@@ -12425,7 +13121,7 @@
       <c r="K44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="2"/>
+      <c r="L44" s="3"/>
       <c r="M44">
         <v>4.1522553462569753</v>
       </c>
@@ -12452,7 +13148,7 @@
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="3"/>
       <c r="C45">
         <v>91.332608054482193</v>
       </c>
@@ -12477,7 +13173,7 @@
       <c r="K45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L45" s="2"/>
+      <c r="L45" s="3"/>
       <c r="M45">
         <v>4.0408623904693703</v>
       </c>
@@ -12504,7 +13200,7 @@
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C46">
@@ -12531,7 +13227,7 @@
       <c r="K46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L46" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M46">
@@ -12560,7 +13256,7 @@
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="3"/>
       <c r="C47">
         <v>90.662747049686885</v>
       </c>
@@ -12585,7 +13281,7 @@
       <c r="K47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L47" s="2"/>
+      <c r="L47" s="3"/>
       <c r="M47">
         <v>4.4243047449169461</v>
       </c>
@@ -12612,7 +13308,7 @@
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="3"/>
       <c r="C48">
         <v>90.899292841610901</v>
       </c>
@@ -12637,7 +13333,7 @@
       <c r="K48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L48" s="2"/>
+      <c r="L48" s="3"/>
       <c r="M48">
         <v>4.7603465716753162</v>
       </c>
@@ -12664,7 +13360,7 @@
       <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="3"/>
       <c r="C49">
         <v>91.095220817792637</v>
       </c>
@@ -12689,7 +13385,7 @@
       <c r="K49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L49" s="2"/>
+      <c r="L49" s="3"/>
       <c r="M49">
         <v>5.026832630398987</v>
       </c>
@@ -12714,12 +13410,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="L5:L11"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="L12:L17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="L18:L20"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="L43:L45"/>
     <mergeCell ref="B46:B49"/>
@@ -12730,6 +13420,12 @@
     <mergeCell ref="L30:L36"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="L37:L42"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="L5:L11"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="L12:L17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="L18:L20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I4 C6:I24">

--- a/results_cnn_subnetwork_evaluation/pcc/summary.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B0C973-8118-4C93-A49F-934B58843AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CB9173-E113-4616-9348-5A4CE4B77A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcc_part_20250924" sheetId="5" r:id="rId1"/>
@@ -425,13 +425,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -749,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C29D5C-8639-4163-9432-7C70C26E1499}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1000,7 +1000,7 @@
       <c r="K5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="24" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="10">
@@ -1054,7 +1054,7 @@
       <c r="K6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="24"/>
+      <c r="L6" s="25"/>
       <c r="M6">
         <v>3.9872752197675312</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="K7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="24"/>
+      <c r="L7" s="25"/>
       <c r="M7">
         <v>4.5335274096690847</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="K8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8">
         <v>5.1774780277668837</v>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="K9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="24"/>
+      <c r="L9" s="25"/>
       <c r="M9">
         <v>5.1380550132743084</v>
       </c>
@@ -1262,7 +1262,7 @@
       <c r="K10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="24"/>
+      <c r="L10" s="25"/>
       <c r="M10">
         <v>5.0704882397024411</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="K11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="24"/>
+      <c r="L11" s="25"/>
       <c r="M11">
         <v>4.5124657638145411</v>
       </c>
@@ -1366,7 +1366,7 @@
       <c r="K12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="8">
         <v>4.738300568518703</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="K17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="24" t="s">
+      <c r="L17" s="25" t="s">
         <v>45</v>
       </c>
       <c r="M17">
@@ -1686,7 +1686,7 @@
       <c r="K18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="24"/>
+      <c r="L18" s="25"/>
       <c r="M18">
         <v>4.4913349382120487</v>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="K19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="24"/>
+      <c r="L19" s="25"/>
       <c r="M19">
         <v>3.903249518826176</v>
       </c>
@@ -1790,7 +1790,7 @@
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="25"/>
+      <c r="L20" s="26"/>
       <c r="M20" s="8">
         <v>4.1769763320911357</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="10">
@@ -1844,7 +1844,7 @@
       <c r="K21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="L21" s="24" t="s">
         <v>37</v>
       </c>
       <c r="M21" s="10">
@@ -1873,7 +1873,7 @@
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="25"/>
       <c r="C22">
         <v>92.17508801979254</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="K22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="24"/>
+      <c r="L22" s="25"/>
       <c r="M22">
         <v>3.88005959472649</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="25"/>
       <c r="C23">
         <v>92.477048532715116</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="K23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="24"/>
+      <c r="L23" s="25"/>
       <c r="M23">
         <v>3.864240917746085</v>
       </c>
@@ -1977,7 +1977,7 @@
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="25"/>
       <c r="C24">
         <v>91.959526754845044</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="K24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="24"/>
+      <c r="L24" s="25"/>
       <c r="M24">
         <v>4.0458830778429444</v>
       </c>
@@ -2029,7 +2029,7 @@
       <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="25"/>
       <c r="C25">
         <v>92.008160393544344</v>
       </c>
@@ -2054,7 +2054,7 @@
       <c r="K25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="24"/>
+      <c r="L25" s="25"/>
       <c r="M25">
         <v>4.3981754244991569</v>
       </c>
@@ -2081,7 +2081,7 @@
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="25"/>
       <c r="C26">
         <v>91.701733290657103</v>
       </c>
@@ -2106,7 +2106,7 @@
       <c r="K26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L26" s="24"/>
+      <c r="L26" s="25"/>
       <c r="M26">
         <v>4.2709415285830774</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="A27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C27">
@@ -2160,7 +2160,7 @@
       <c r="K27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L27" s="24" t="s">
+      <c r="L27" s="25" t="s">
         <v>38</v>
       </c>
       <c r="M27">
@@ -2189,7 +2189,7 @@
       <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="24"/>
+      <c r="B28" s="25"/>
       <c r="C28">
         <v>92.602926207550809</v>
       </c>
@@ -2214,7 +2214,7 @@
       <c r="K28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="24"/>
+      <c r="L28" s="25"/>
       <c r="M28">
         <v>3.8659270470591331</v>
       </c>
@@ -2241,7 +2241,7 @@
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="25"/>
       <c r="C29">
         <v>92.780894875099861</v>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="K29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L29" s="24"/>
+      <c r="L29" s="25"/>
       <c r="M29">
         <v>4.0894051703854037</v>
       </c>
@@ -2293,7 +2293,7 @@
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="25"/>
       <c r="C30">
         <v>91.218632225768971</v>
       </c>
@@ -2318,7 +2318,7 @@
       <c r="K30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L30" s="24"/>
+      <c r="L30" s="25"/>
       <c r="M30">
         <v>4.6901081800839108</v>
       </c>
@@ -2345,7 +2345,7 @@
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="24"/>
+      <c r="B31" s="25"/>
       <c r="C31">
         <v>85.171841163562533</v>
       </c>
@@ -2370,7 +2370,7 @@
       <c r="K31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L31" s="24"/>
+      <c r="L31" s="25"/>
       <c r="M31">
         <v>6.6214001876234141</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="25"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="8">
         <v>54.901760972557433</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="K32" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="25"/>
+      <c r="L32" s="26"/>
       <c r="M32" s="8">
         <v>7.2744112975011479</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="A38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="10">
@@ -2689,7 +2689,7 @@
       <c r="K38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="26" t="s">
+      <c r="L38" s="24" t="s">
         <v>19</v>
       </c>
       <c r="M38" s="10">
@@ -2718,7 +2718,7 @@
       <c r="A39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="24"/>
+      <c r="B39" s="25"/>
       <c r="C39">
         <v>92.603782215910087</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="K39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L39" s="24"/>
+      <c r="L39" s="25"/>
       <c r="M39">
         <v>4.4405799374618198</v>
       </c>
@@ -2770,7 +2770,7 @@
       <c r="A40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="24"/>
+      <c r="B40" s="25"/>
       <c r="C40">
         <v>91.081927840808433</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="K40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="24"/>
+      <c r="L40" s="25"/>
       <c r="M40">
         <v>5.0278535681088243</v>
       </c>
@@ -2822,7 +2822,7 @@
       <c r="A41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="24"/>
+      <c r="B41" s="25"/>
       <c r="C41">
         <v>89.644638837679821</v>
       </c>
@@ -2847,7 +2847,7 @@
       <c r="K41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L41" s="24"/>
+      <c r="L41" s="25"/>
       <c r="M41">
         <v>5.6337263714853885</v>
       </c>
@@ -2874,7 +2874,7 @@
       <c r="A42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="25"/>
       <c r="C42">
         <v>89.487105403835685</v>
       </c>
@@ -2899,7 +2899,7 @@
       <c r="K42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L42" s="24"/>
+      <c r="L42" s="25"/>
       <c r="M42">
         <v>5.5869146897287463</v>
       </c>
@@ -2926,7 +2926,7 @@
       <c r="A43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="24"/>
+      <c r="B43" s="25"/>
       <c r="C43">
         <v>89.019136482146294</v>
       </c>
@@ -2951,7 +2951,7 @@
       <c r="K43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L43" s="24"/>
+      <c r="L43" s="25"/>
       <c r="M43">
         <v>5.5440228882484019</v>
       </c>
@@ -2978,7 +2978,7 @@
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="24"/>
+      <c r="B44" s="25"/>
       <c r="C44">
         <v>89.238869796493674</v>
       </c>
@@ -3003,7 +3003,7 @@
       <c r="K44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L44" s="24"/>
+      <c r="L44" s="25"/>
       <c r="M44">
         <v>4.9520431158543712</v>
       </c>
@@ -3030,7 +3030,7 @@
       <c r="A45" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="25"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="8">
         <v>87.528624354026661</v>
       </c>
@@ -3055,7 +3055,7 @@
       <c r="K45" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L45" s="25"/>
+      <c r="L45" s="26"/>
       <c r="M45" s="8">
         <v>5.0598364128504718</v>
       </c>
@@ -3082,7 +3082,7 @@
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="10">
@@ -3109,7 +3109,7 @@
       <c r="K46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L46" s="26" t="s">
+      <c r="L46" s="24" t="s">
         <v>46</v>
       </c>
       <c r="M46" s="10">
@@ -3138,7 +3138,7 @@
       <c r="A47" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="25"/>
       <c r="C47">
         <v>92.066966520323973</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="K47" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L47" s="24"/>
+      <c r="L47" s="25"/>
       <c r="M47">
         <v>4.5862361191526402</v>
       </c>
@@ -3190,7 +3190,7 @@
       <c r="A48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="24"/>
+      <c r="B48" s="25"/>
       <c r="C48">
         <v>90.767440481934031</v>
       </c>
@@ -3215,7 +3215,7 @@
       <c r="K48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L48" s="24"/>
+      <c r="L48" s="25"/>
       <c r="M48">
         <v>4.4126117660826036</v>
       </c>
@@ -3242,7 +3242,7 @@
       <c r="A49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="24"/>
+      <c r="B49" s="25"/>
       <c r="C49">
         <v>90.941629733573507</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="K49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L49" s="24"/>
+      <c r="L49" s="25"/>
       <c r="M49">
         <v>4.3072256890080602</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="A50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="25" t="s">
         <v>45</v>
       </c>
       <c r="C50">
@@ -3321,7 +3321,7 @@
       <c r="K50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L50" s="24" t="s">
+      <c r="L50" s="25" t="s">
         <v>45</v>
       </c>
       <c r="M50">
@@ -3350,7 +3350,7 @@
       <c r="A51" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="24"/>
+      <c r="B51" s="25"/>
       <c r="C51">
         <v>90.642246446502455</v>
       </c>
@@ -3375,7 +3375,7 @@
       <c r="K51" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L51" s="24"/>
+      <c r="L51" s="25"/>
       <c r="M51">
         <v>4.8046743223783803</v>
       </c>
@@ -3402,7 +3402,7 @@
       <c r="A52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="24"/>
+      <c r="B52" s="25"/>
       <c r="C52">
         <v>90.617152023346819</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="K52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L52" s="24"/>
+      <c r="L52" s="25"/>
       <c r="M52">
         <v>4.2750077328577394</v>
       </c>
@@ -3454,7 +3454,7 @@
       <c r="A53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="25"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="8">
         <v>90.581355357949491</v>
       </c>
@@ -3479,7 +3479,7 @@
       <c r="K53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L53" s="25"/>
+      <c r="L53" s="26"/>
       <c r="M53" s="8">
         <v>4.4778305644230976</v>
       </c>
@@ -3506,7 +3506,7 @@
       <c r="A54" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C54">
@@ -3533,7 +3533,7 @@
       <c r="K54" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L54" s="24" t="s">
+      <c r="L54" s="25" t="s">
         <v>37</v>
       </c>
       <c r="M54">
@@ -3562,7 +3562,7 @@
       <c r="A55" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="24"/>
+      <c r="B55" s="25"/>
       <c r="C55">
         <v>91.620295487522512</v>
       </c>
@@ -3587,7 +3587,7 @@
       <c r="K55" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L55" s="24"/>
+      <c r="L55" s="25"/>
       <c r="M55">
         <v>4.3650146788897359</v>
       </c>
@@ -3614,7 +3614,7 @@
       <c r="A56" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="25"/>
       <c r="C56">
         <v>91.979607726023474</v>
       </c>
@@ -3639,7 +3639,7 @@
       <c r="K56" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L56" s="24"/>
+      <c r="L56" s="25"/>
       <c r="M56">
         <v>4.3309618878369172</v>
       </c>
@@ -3666,7 +3666,7 @@
       <c r="A57" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="24"/>
+      <c r="B57" s="25"/>
       <c r="C57">
         <v>91.466501961148467</v>
       </c>
@@ -3691,7 +3691,7 @@
       <c r="K57" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="24"/>
+      <c r="L57" s="25"/>
       <c r="M57">
         <v>4.3610555153108201</v>
       </c>
@@ -3718,7 +3718,7 @@
       <c r="A58" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="24"/>
+      <c r="B58" s="25"/>
       <c r="C58">
         <v>91.512439984891671</v>
       </c>
@@ -3743,7 +3743,7 @@
       <c r="K58" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L58" s="24"/>
+      <c r="L58" s="25"/>
       <c r="M58">
         <v>4.8190181476460952</v>
       </c>
@@ -3770,7 +3770,7 @@
       <c r="A59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="24"/>
+      <c r="B59" s="25"/>
       <c r="C59">
         <v>91.290277890697695</v>
       </c>
@@ -3795,7 +3795,7 @@
       <c r="K59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="24"/>
+      <c r="L59" s="25"/>
       <c r="M59">
         <v>4.5392502289218317</v>
       </c>
@@ -3822,7 +3822,7 @@
       <c r="A60" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C60">
@@ -3849,7 +3849,7 @@
       <c r="K60" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L60" s="24" t="s">
+      <c r="L60" s="25" t="s">
         <v>38</v>
       </c>
       <c r="M60">
@@ -3878,7 +3878,7 @@
       <c r="A61" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="24"/>
+      <c r="B61" s="25"/>
       <c r="C61">
         <v>92.078300699133891</v>
       </c>
@@ -3903,7 +3903,7 @@
       <c r="K61" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="24"/>
+      <c r="L61" s="25"/>
       <c r="M61">
         <v>4.2537875162646479</v>
       </c>
@@ -3930,7 +3930,7 @@
       <c r="A62" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="24"/>
+      <c r="B62" s="25"/>
       <c r="C62">
         <v>92.315864207675318</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="K62" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L62" s="24"/>
+      <c r="L62" s="25"/>
       <c r="M62">
         <v>4.458273108867469</v>
       </c>
@@ -3982,7 +3982,7 @@
       <c r="A63" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="24"/>
+      <c r="B63" s="25"/>
       <c r="C63">
         <v>90.674805586080666</v>
       </c>
@@ -4007,7 +4007,7 @@
       <c r="K63" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L63" s="24"/>
+      <c r="L63" s="25"/>
       <c r="M63">
         <v>5.136362329741158</v>
       </c>
@@ -4034,7 +4034,7 @@
       <c r="A64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="24"/>
+      <c r="B64" s="25"/>
       <c r="C64">
         <v>84.438617414308737</v>
       </c>
@@ -4059,7 +4059,7 @@
       <c r="K64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L64" s="24"/>
+      <c r="L64" s="25"/>
       <c r="M64">
         <v>7.1755928678207308</v>
       </c>
@@ -4086,7 +4086,7 @@
       <c r="A65" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="25"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="8">
         <v>52.395780651614196</v>
       </c>
@@ -4111,7 +4111,7 @@
       <c r="K65" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L65" s="25"/>
+      <c r="L65" s="26"/>
       <c r="M65" s="8">
         <v>8.0449122111595432</v>
       </c>
@@ -4136,6 +4136,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="L54:L59"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="L38:L45"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="L50:L53"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="B46:B49"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="L21:L26"/>
     <mergeCell ref="B27:B32"/>
@@ -4146,16 +4156,6 @@
     <mergeCell ref="L17:L20"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="L13:L16"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="L54:L59"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="L60:L65"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="L38:L45"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="L50:L53"/>
-    <mergeCell ref="L46:L49"/>
-    <mergeCell ref="B46:B49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I32">
@@ -4178,7 +4178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407A0F26-EE3F-44D5-AD21-F0180FA13F65}">
   <dimension ref="A1:S117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:I23"/>
     </sheetView>
   </sheetViews>
@@ -4404,7 +4404,7 @@
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="10">
@@ -4431,7 +4431,7 @@
       <c r="K5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="24" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="10">
@@ -4460,7 +4460,7 @@
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="25"/>
       <c r="C6">
         <v>93.053143481633342</v>
       </c>
@@ -4485,7 +4485,7 @@
       <c r="K6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="24"/>
+      <c r="L6" s="25"/>
       <c r="M6">
         <v>3.9872752197675312</v>
       </c>
@@ -4512,7 +4512,7 @@
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="25"/>
       <c r="C7">
         <v>91.579621507683157</v>
       </c>
@@ -4537,7 +4537,7 @@
       <c r="K7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="24"/>
+      <c r="L7" s="25"/>
       <c r="M7">
         <v>4.5335274096690847</v>
       </c>
@@ -4564,7 +4564,7 @@
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="25"/>
       <c r="C8">
         <v>90.212611412440125</v>
       </c>
@@ -4589,7 +4589,7 @@
       <c r="K8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8">
         <v>5.1774780277668837</v>
       </c>
@@ -4616,7 +4616,7 @@
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9">
         <v>90.084819072829347</v>
       </c>
@@ -4641,7 +4641,7 @@
       <c r="K9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="24"/>
+      <c r="L9" s="25"/>
       <c r="M9">
         <v>5.1380550132743084</v>
       </c>
@@ -4668,7 +4668,7 @@
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="25"/>
       <c r="C10">
         <v>89.661415756191658</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="K10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="24"/>
+      <c r="L10" s="25"/>
       <c r="M10">
         <v>5.0704882397024411</v>
       </c>
@@ -4720,7 +4720,7 @@
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="25"/>
       <c r="C11">
         <v>89.817152397512075</v>
       </c>
@@ -4745,7 +4745,7 @@
       <c r="K11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="24"/>
+      <c r="L11" s="25"/>
       <c r="M11">
         <v>4.5124657638145411</v>
       </c>
@@ -4772,7 +4772,7 @@
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="26"/>
       <c r="C12">
         <v>88.193943430883195</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="K12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="M12">
         <v>4.738300568518703</v>
       </c>
@@ -5404,7 +5404,7 @@
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="10">
@@ -5431,7 +5431,7 @@
       <c r="K24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L24" s="26" t="s">
+      <c r="L24" s="24" t="s">
         <v>28</v>
       </c>
       <c r="M24" s="10">
@@ -5460,7 +5460,7 @@
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="25"/>
       <c r="C25">
         <v>91.138051943932624</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="K25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="24"/>
+      <c r="L25" s="25"/>
       <c r="M25">
         <v>4.8341548736925946</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="25"/>
       <c r="C26">
         <v>89.464493637488204</v>
       </c>
@@ -5537,7 +5537,7 @@
       <c r="K26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L26" s="24"/>
+      <c r="L26" s="25"/>
       <c r="M26">
         <v>4.9049220966264562</v>
       </c>
@@ -5564,7 +5564,7 @@
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="25"/>
       <c r="C27">
         <v>88.032999132057071</v>
       </c>
@@ -5589,7 +5589,7 @@
       <c r="K27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L27" s="24"/>
+      <c r="L27" s="25"/>
       <c r="M27">
         <v>4.7933326181048139</v>
       </c>
@@ -5616,7 +5616,7 @@
       <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C28">
@@ -5643,7 +5643,7 @@
       <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="24" t="s">
+      <c r="L28" s="25" t="s">
         <v>29</v>
       </c>
       <c r="M28">
@@ -5672,7 +5672,7 @@
       <c r="A29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="25"/>
       <c r="C29">
         <v>84.83746110837177</v>
       </c>
@@ -5697,7 +5697,7 @@
       <c r="K29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="24"/>
+      <c r="L29" s="25"/>
       <c r="M29">
         <v>6.4398657108190296</v>
       </c>
@@ -5724,7 +5724,7 @@
       <c r="A30" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="25"/>
       <c r="C30">
         <v>89.603309717212085</v>
       </c>
@@ -5749,7 +5749,7 @@
       <c r="K30" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L30" s="24"/>
+      <c r="L30" s="25"/>
       <c r="M30">
         <v>4.6421688324031569</v>
       </c>
@@ -5776,7 +5776,7 @@
       <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="24"/>
+      <c r="B31" s="25"/>
       <c r="C31">
         <v>89.968586810151194</v>
       </c>
@@ -5801,7 +5801,7 @@
       <c r="K31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L31" s="24"/>
+      <c r="L31" s="25"/>
       <c r="M31">
         <v>4.7831146921405292</v>
       </c>
@@ -5828,7 +5828,7 @@
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="24"/>
+      <c r="B32" s="25"/>
       <c r="C32">
         <v>90.691067108423653</v>
       </c>
@@ -5853,7 +5853,7 @@
       <c r="K32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L32" s="24"/>
+      <c r="L32" s="25"/>
       <c r="M32">
         <v>5.4121743283478736</v>
       </c>
@@ -5880,7 +5880,7 @@
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="24"/>
+      <c r="B33" s="25"/>
       <c r="C33">
         <v>91.112509623785684</v>
       </c>
@@ -5905,7 +5905,7 @@
       <c r="K33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L33" s="24"/>
+      <c r="L33" s="25"/>
       <c r="M33">
         <v>4.5520179996051642</v>
       </c>
@@ -5932,7 +5932,7 @@
       <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="25"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="8">
         <v>91.827074628673245</v>
       </c>
@@ -5957,7 +5957,7 @@
       <c r="K34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L34" s="25"/>
+      <c r="L34" s="26"/>
       <c r="M34" s="8">
         <v>4.4549479265356586</v>
       </c>
@@ -5984,7 +5984,7 @@
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="19">
@@ -6011,7 +6011,7 @@
       <c r="K35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L35" s="26" t="s">
+      <c r="L35" s="24" t="s">
         <v>40</v>
       </c>
       <c r="M35" s="19">
@@ -6040,7 +6040,7 @@
       <c r="A36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="24"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="20">
         <v>91.41464891564803</v>
       </c>
@@ -6065,7 +6065,7 @@
       <c r="K36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L36" s="24"/>
+      <c r="L36" s="25"/>
       <c r="M36" s="20">
         <v>4.7612716077570836</v>
       </c>
@@ -6092,7 +6092,7 @@
       <c r="A37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="24"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="20">
         <v>91.233234428210153</v>
       </c>
@@ -6117,7 +6117,7 @@
       <c r="K37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L37" s="24"/>
+      <c r="L37" s="25"/>
       <c r="M37" s="20">
         <v>4.4196618747458274</v>
       </c>
@@ -6144,7 +6144,7 @@
       <c r="A38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="24"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="20">
         <v>91.546953981724201</v>
       </c>
@@ -6169,7 +6169,7 @@
       <c r="K38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L38" s="24"/>
+      <c r="L38" s="25"/>
       <c r="M38" s="20">
         <v>4.7471219152691706</v>
       </c>
@@ -6196,7 +6196,7 @@
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="25" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="20">
@@ -6223,7 +6223,7 @@
       <c r="K39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L39" s="24" t="s">
+      <c r="L39" s="25" t="s">
         <v>44</v>
       </c>
       <c r="M39" s="20">
@@ -6252,7 +6252,7 @@
       <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="24"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="20">
         <v>52.716009654062759</v>
       </c>
@@ -6277,7 +6277,7 @@
       <c r="K40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L40" s="24"/>
+      <c r="L40" s="25"/>
       <c r="M40" s="20">
         <v>6.8366536155304312</v>
       </c>
@@ -6304,7 +6304,7 @@
       <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="24"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="20">
         <v>52.535716860295793</v>
       </c>
@@ -6329,7 +6329,7 @@
       <c r="K41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L41" s="24"/>
+      <c r="L41" s="25"/>
       <c r="M41" s="20">
         <v>6.8340789655521821</v>
       </c>
@@ -6356,7 +6356,7 @@
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="20">
         <v>52.366029694605203</v>
       </c>
@@ -6381,7 +6381,7 @@
       <c r="K42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L42" s="24"/>
+      <c r="L42" s="25"/>
       <c r="M42" s="20">
         <v>6.8991486592973157</v>
       </c>
@@ -6408,7 +6408,7 @@
       <c r="A43" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="20">
@@ -6435,7 +6435,7 @@
       <c r="K43" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L43" s="24" t="s">
+      <c r="L43" s="25" t="s">
         <v>37</v>
       </c>
       <c r="M43" s="20">
@@ -6464,7 +6464,7 @@
       <c r="A44" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="24"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="20">
         <v>92.17508801979254</v>
       </c>
@@ -6489,7 +6489,7 @@
       <c r="K44" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L44" s="24"/>
+      <c r="L44" s="25"/>
       <c r="M44" s="20">
         <v>3.88005959472649</v>
       </c>
@@ -6516,7 +6516,7 @@
       <c r="A45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="24"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="20">
         <v>92.477048532715116</v>
       </c>
@@ -6541,7 +6541,7 @@
       <c r="K45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L45" s="24"/>
+      <c r="L45" s="25"/>
       <c r="M45" s="20">
         <v>3.864240917746085</v>
       </c>
@@ -6568,7 +6568,7 @@
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="20">
         <v>91.959526754845044</v>
       </c>
@@ -6593,7 +6593,7 @@
       <c r="K46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="24"/>
+      <c r="L46" s="25"/>
       <c r="M46" s="20">
         <v>4.0458830778429444</v>
       </c>
@@ -6620,7 +6620,7 @@
       <c r="A47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="20">
         <v>92.008160393544344</v>
       </c>
@@ -6645,7 +6645,7 @@
       <c r="K47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L47" s="24"/>
+      <c r="L47" s="25"/>
       <c r="M47" s="20">
         <v>4.3981754244991569</v>
       </c>
@@ -6672,7 +6672,7 @@
       <c r="A48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="24"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="20">
         <v>91.701733290657103</v>
       </c>
@@ -6697,7 +6697,7 @@
       <c r="K48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="24"/>
+      <c r="L48" s="25"/>
       <c r="M48" s="20">
         <v>4.2709415285830774</v>
       </c>
@@ -6724,7 +6724,7 @@
       <c r="A49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="24"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="20">
         <v>92.031540065225485</v>
       </c>
@@ -6749,7 +6749,7 @@
       <c r="K49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L49" s="24"/>
+      <c r="L49" s="25"/>
       <c r="M49" s="20">
         <v>4.141992411755715</v>
       </c>
@@ -6776,7 +6776,7 @@
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="24"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="20">
         <v>92.003837980143999</v>
       </c>
@@ -6801,7 +6801,7 @@
       <c r="K50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L50" s="24"/>
+      <c r="L50" s="25"/>
       <c r="M50" s="20">
         <v>4.2243659250592218</v>
       </c>
@@ -6828,7 +6828,7 @@
       <c r="A51" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C51" s="20">
@@ -6855,7 +6855,7 @@
       <c r="K51" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L51" s="24" t="s">
+      <c r="L51" s="25" t="s">
         <v>38</v>
       </c>
       <c r="M51" s="20">
@@ -6884,7 +6884,7 @@
       <c r="A52" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="24"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="20">
         <v>92.602926207550809</v>
       </c>
@@ -6909,7 +6909,7 @@
       <c r="K52" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L52" s="24"/>
+      <c r="L52" s="25"/>
       <c r="M52" s="20">
         <v>3.8659270470591331</v>
       </c>
@@ -6936,7 +6936,7 @@
       <c r="A53" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B53" s="24"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="20">
         <v>92.780894875099861</v>
       </c>
@@ -6961,7 +6961,7 @@
       <c r="K53" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L53" s="24"/>
+      <c r="L53" s="25"/>
       <c r="M53" s="20">
         <v>4.0894051703854037</v>
       </c>
@@ -6988,7 +6988,7 @@
       <c r="A54" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="24"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="20">
         <v>91.218632225768971</v>
       </c>
@@ -7013,7 +7013,7 @@
       <c r="K54" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="24"/>
+      <c r="L54" s="25"/>
       <c r="M54" s="20">
         <v>4.6901081800839108</v>
       </c>
@@ -7040,7 +7040,7 @@
       <c r="A55" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="24"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="20">
         <v>85.171841163562533</v>
       </c>
@@ -7065,7 +7065,7 @@
       <c r="K55" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L55" s="24"/>
+      <c r="L55" s="25"/>
       <c r="M55" s="20">
         <v>6.6214001876234141</v>
       </c>
@@ -7092,7 +7092,7 @@
       <c r="A56" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="25"/>
       <c r="C56" s="20">
         <v>54.901760972557433</v>
       </c>
@@ -7117,7 +7117,7 @@
       <c r="K56" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L56" s="24"/>
+      <c r="L56" s="25"/>
       <c r="M56" s="20">
         <v>7.2744112975011479</v>
       </c>
@@ -7144,13 +7144,13 @@
       <c r="A57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="24"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="20"/>
       <c r="I57" s="6"/>
       <c r="K57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L57" s="24"/>
+      <c r="L57" s="25"/>
       <c r="M57" s="20"/>
       <c r="S57" s="6"/>
     </row>
@@ -7158,7 +7158,7 @@
       <c r="A58" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="25"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="21"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -7169,7 +7169,7 @@
       <c r="K58" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L58" s="25"/>
+      <c r="L58" s="26"/>
       <c r="M58" s="21"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
@@ -7395,7 +7395,7 @@
       <c r="A64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C64" s="10">
@@ -7422,7 +7422,7 @@
       <c r="K64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L64" s="26" t="s">
+      <c r="L64" s="24" t="s">
         <v>19</v>
       </c>
       <c r="M64" s="10">
@@ -7451,7 +7451,7 @@
       <c r="A65" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="24"/>
+      <c r="B65" s="25"/>
       <c r="C65">
         <v>92.603782215910087</v>
       </c>
@@ -7476,7 +7476,7 @@
       <c r="K65" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L65" s="24"/>
+      <c r="L65" s="25"/>
       <c r="M65">
         <v>4.4405799374618198</v>
       </c>
@@ -7503,7 +7503,7 @@
       <c r="A66" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="25"/>
       <c r="C66">
         <v>91.081927840808433</v>
       </c>
@@ -7528,7 +7528,7 @@
       <c r="K66" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L66" s="24"/>
+      <c r="L66" s="25"/>
       <c r="M66">
         <v>5.0278535681088243</v>
       </c>
@@ -7555,7 +7555,7 @@
       <c r="A67" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="24"/>
+      <c r="B67" s="25"/>
       <c r="C67">
         <v>89.644638837679821</v>
       </c>
@@ -7580,7 +7580,7 @@
       <c r="K67" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L67" s="24"/>
+      <c r="L67" s="25"/>
       <c r="M67">
         <v>5.6337263714853885</v>
       </c>
@@ -7607,7 +7607,7 @@
       <c r="A68" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="24"/>
+      <c r="B68" s="25"/>
       <c r="C68">
         <v>89.487105403835685</v>
       </c>
@@ -7632,7 +7632,7 @@
       <c r="K68" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L68" s="24"/>
+      <c r="L68" s="25"/>
       <c r="M68">
         <v>5.5869146897287463</v>
       </c>
@@ -7659,7 +7659,7 @@
       <c r="A69" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="24"/>
+      <c r="B69" s="25"/>
       <c r="C69">
         <v>89.019136482146294</v>
       </c>
@@ -7684,7 +7684,7 @@
       <c r="K69" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L69" s="24"/>
+      <c r="L69" s="25"/>
       <c r="M69">
         <v>5.5440228882484019</v>
       </c>
@@ -7711,7 +7711,7 @@
       <c r="A70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="24"/>
+      <c r="B70" s="25"/>
       <c r="C70">
         <v>89.238869796493674</v>
       </c>
@@ -7736,7 +7736,7 @@
       <c r="K70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L70" s="24"/>
+      <c r="L70" s="25"/>
       <c r="M70">
         <v>4.9520431158543712</v>
       </c>
@@ -7763,7 +7763,7 @@
       <c r="A71" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="24"/>
+      <c r="B71" s="25"/>
       <c r="C71">
         <v>87.528624354026661</v>
       </c>
@@ -7788,7 +7788,7 @@
       <c r="K71" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L71" s="24"/>
+      <c r="L71" s="25"/>
       <c r="M71">
         <v>5.0598364128504718</v>
       </c>
@@ -8395,7 +8395,7 @@
       <c r="A83" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C83" s="19">
@@ -8422,7 +8422,7 @@
       <c r="K83" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L83" s="26" t="s">
+      <c r="L83" s="24" t="s">
         <v>28</v>
       </c>
       <c r="M83" s="19">
@@ -8451,7 +8451,7 @@
       <c r="A84" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="24"/>
+      <c r="B84" s="25"/>
       <c r="C84" s="20">
         <v>90.753018873298217</v>
       </c>
@@ -8476,7 +8476,7 @@
       <c r="K84" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L84" s="24"/>
+      <c r="L84" s="25"/>
       <c r="M84" s="20">
         <v>5.1087302616689314</v>
       </c>
@@ -8503,7 +8503,7 @@
       <c r="A85" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="24"/>
+      <c r="B85" s="25"/>
       <c r="C85" s="20">
         <v>88.959040489692839</v>
       </c>
@@ -8528,7 +8528,7 @@
       <c r="K85" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L85" s="24"/>
+      <c r="L85" s="25"/>
       <c r="M85" s="20">
         <v>5.2249135280576802</v>
       </c>
@@ -8555,7 +8555,7 @@
       <c r="A86" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="24"/>
+      <c r="B86" s="25"/>
       <c r="C86" s="20">
         <v>87.426198957053913</v>
       </c>
@@ -8580,7 +8580,7 @@
       <c r="K86" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L86" s="24"/>
+      <c r="L86" s="25"/>
       <c r="M86" s="20">
         <v>5.0521972348656563</v>
       </c>
@@ -8607,7 +8607,7 @@
       <c r="A87" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B87" s="24" t="s">
+      <c r="B87" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C87" s="20">
@@ -8634,7 +8634,7 @@
       <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L87" s="24" t="s">
+      <c r="L87" s="25" t="s">
         <v>29</v>
       </c>
       <c r="M87" s="20">
@@ -8663,7 +8663,7 @@
       <c r="A88" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="24"/>
+      <c r="B88" s="25"/>
       <c r="C88" s="20">
         <v>84.199090152702041</v>
       </c>
@@ -8688,7 +8688,7 @@
       <c r="K88" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L88" s="24"/>
+      <c r="L88" s="25"/>
       <c r="M88" s="20">
         <v>6.8541808049040309</v>
       </c>
@@ -8715,7 +8715,7 @@
       <c r="A89" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B89" s="24"/>
+      <c r="B89" s="25"/>
       <c r="C89" s="20">
         <v>89.131692863681508</v>
       </c>
@@ -8740,7 +8740,7 @@
       <c r="K89" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L89" s="24"/>
+      <c r="L89" s="25"/>
       <c r="M89" s="20">
         <v>4.9480273201097891</v>
       </c>
@@ -8767,7 +8767,7 @@
       <c r="A90" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B90" s="24"/>
+      <c r="B90" s="25"/>
       <c r="C90" s="20">
         <v>89.343160521159632</v>
       </c>
@@ -8792,7 +8792,7 @@
       <c r="K90" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L90" s="24"/>
+      <c r="L90" s="25"/>
       <c r="M90" s="20">
         <v>5.1733129187131341</v>
       </c>
@@ -8819,7 +8819,7 @@
       <c r="A91" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B91" s="24"/>
+      <c r="B91" s="25"/>
       <c r="C91" s="20">
         <v>90.136569338183705</v>
       </c>
@@ -8844,7 +8844,7 @@
       <c r="K91" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L91" s="24"/>
+      <c r="L91" s="25"/>
       <c r="M91" s="20">
         <v>5.9292139017037657</v>
       </c>
@@ -8871,7 +8871,7 @@
       <c r="A92" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B92" s="24"/>
+      <c r="B92" s="25"/>
       <c r="C92" s="20">
         <v>90.588436953510907</v>
       </c>
@@ -8896,7 +8896,7 @@
       <c r="K92" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L92" s="24"/>
+      <c r="L92" s="25"/>
       <c r="M92" s="20">
         <v>4.9553180055876025</v>
       </c>
@@ -8923,7 +8923,7 @@
       <c r="A93" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B93" s="25"/>
+      <c r="B93" s="26"/>
       <c r="C93" s="21">
         <v>91.279707682254013</v>
       </c>
@@ -8948,7 +8948,7 @@
       <c r="K93" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L93" s="25"/>
+      <c r="L93" s="26"/>
       <c r="M93" s="21">
         <v>4.8729900980426155</v>
       </c>
@@ -8975,7 +8975,7 @@
       <c r="A94" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C94" s="19">
@@ -9002,7 +9002,7 @@
       <c r="K94" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L94" s="24" t="s">
+      <c r="L94" s="25" t="s">
         <v>40</v>
       </c>
       <c r="M94" s="19">
@@ -9031,7 +9031,7 @@
       <c r="A95" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B95" s="24"/>
+      <c r="B95" s="25"/>
       <c r="C95" s="20">
         <v>90.798486800636638</v>
       </c>
@@ -9056,7 +9056,7 @@
       <c r="K95" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L95" s="24"/>
+      <c r="L95" s="25"/>
       <c r="M95" s="20">
         <v>5.2932815526512469</v>
       </c>
@@ -9083,7 +9083,7 @@
       <c r="A96" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B96" s="24"/>
+      <c r="B96" s="25"/>
       <c r="C96" s="20">
         <v>90.673356959843161</v>
       </c>
@@ -9108,7 +9108,7 @@
       <c r="K96" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L96" s="24"/>
+      <c r="L96" s="25"/>
       <c r="M96" s="20">
         <v>4.8285295071773948</v>
       </c>
@@ -9135,7 +9135,7 @@
       <c r="A97" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B97" s="24"/>
+      <c r="B97" s="25"/>
       <c r="C97" s="20">
         <v>90.958412939664441</v>
       </c>
@@ -9160,7 +9160,7 @@
       <c r="K97" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L97" s="24"/>
+      <c r="L97" s="25"/>
       <c r="M97" s="20">
         <v>5.1541580479767326</v>
       </c>
@@ -9187,7 +9187,7 @@
       <c r="A98" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B98" s="24" t="s">
+      <c r="B98" s="25" t="s">
         <v>44</v>
       </c>
       <c r="C98" s="20">
@@ -9214,7 +9214,7 @@
       <c r="K98" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L98" s="24" t="s">
+      <c r="L98" s="25" t="s">
         <v>44</v>
       </c>
       <c r="M98" s="20">
@@ -9243,7 +9243,7 @@
       <c r="A99" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B99" s="24"/>
+      <c r="B99" s="25"/>
       <c r="C99" s="20">
         <v>50.941111349179067</v>
       </c>
@@ -9268,7 +9268,7 @@
       <c r="K99" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L99" s="24"/>
+      <c r="L99" s="25"/>
       <c r="M99" s="20">
         <v>7.011785584075886</v>
       </c>
@@ -9295,7 +9295,7 @@
       <c r="A100" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B100" s="24"/>
+      <c r="B100" s="25"/>
       <c r="C100" s="20">
         <v>50.774538030339485</v>
       </c>
@@ -9320,7 +9320,7 @@
       <c r="K100" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L100" s="24"/>
+      <c r="L100" s="25"/>
       <c r="M100" s="20">
         <v>6.9429966926602082</v>
       </c>
@@ -9347,7 +9347,7 @@
       <c r="A101" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B101" s="24"/>
+      <c r="B101" s="25"/>
       <c r="C101" s="20">
         <v>50.563986632895208</v>
       </c>
@@ -9372,7 +9372,7 @@
       <c r="K101" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L101" s="24"/>
+      <c r="L101" s="25"/>
       <c r="M101" s="20">
         <v>7.0940911411783212</v>
       </c>
@@ -9399,7 +9399,7 @@
       <c r="A102" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B102" s="24" t="s">
+      <c r="B102" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C102" s="20">
@@ -9426,7 +9426,7 @@
       <c r="K102" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L102" s="24" t="s">
+      <c r="L102" s="25" t="s">
         <v>37</v>
       </c>
       <c r="M102" s="20">
@@ -9455,7 +9455,7 @@
       <c r="A103" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B103" s="24"/>
+      <c r="B103" s="25"/>
       <c r="C103" s="20">
         <v>91.620295487522512</v>
       </c>
@@ -9480,7 +9480,7 @@
       <c r="K103" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L103" s="24"/>
+      <c r="L103" s="25"/>
       <c r="M103" s="20">
         <v>4.3650146788897359</v>
       </c>
@@ -9507,7 +9507,7 @@
       <c r="A104" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B104" s="24"/>
+      <c r="B104" s="25"/>
       <c r="C104" s="20">
         <v>91.979607726023474</v>
       </c>
@@ -9532,7 +9532,7 @@
       <c r="K104" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L104" s="24"/>
+      <c r="L104" s="25"/>
       <c r="M104" s="20">
         <v>4.3309618878369172</v>
       </c>
@@ -9559,7 +9559,7 @@
       <c r="A105" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B105" s="24"/>
+      <c r="B105" s="25"/>
       <c r="C105" s="20">
         <v>91.466501961148467</v>
       </c>
@@ -9584,7 +9584,7 @@
       <c r="K105" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L105" s="24"/>
+      <c r="L105" s="25"/>
       <c r="M105" s="20">
         <v>4.3610555153108201</v>
       </c>
@@ -9611,7 +9611,7 @@
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B106" s="24"/>
+      <c r="B106" s="25"/>
       <c r="C106" s="20">
         <v>91.512439984891671</v>
       </c>
@@ -9636,7 +9636,7 @@
       <c r="K106" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L106" s="24"/>
+      <c r="L106" s="25"/>
       <c r="M106" s="20">
         <v>4.8190181476460952</v>
       </c>
@@ -9663,7 +9663,7 @@
       <c r="A107" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B107" s="24"/>
+      <c r="B107" s="25"/>
       <c r="C107" s="20">
         <v>91.290277890697695</v>
       </c>
@@ -9688,7 +9688,7 @@
       <c r="K107" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L107" s="24"/>
+      <c r="L107" s="25"/>
       <c r="M107" s="20">
         <v>4.5392502289218317</v>
       </c>
@@ -9715,7 +9715,7 @@
       <c r="A108" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B108" s="24"/>
+      <c r="B108" s="25"/>
       <c r="C108" s="20">
         <v>91.51041821661444</v>
       </c>
@@ -9740,7 +9740,7 @@
       <c r="K108" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L108" s="24"/>
+      <c r="L108" s="25"/>
       <c r="M108" s="20">
         <v>4.5913740128900846</v>
       </c>
@@ -9767,7 +9767,7 @@
       <c r="A109" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B109" s="24"/>
+      <c r="B109" s="25"/>
       <c r="C109" s="20">
         <v>91.468946397839332</v>
       </c>
@@ -9792,7 +9792,7 @@
       <c r="K109" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L109" s="24"/>
+      <c r="L109" s="25"/>
       <c r="M109" s="20">
         <v>4.6536973858508697</v>
       </c>
@@ -9819,7 +9819,7 @@
       <c r="A110" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B110" s="24" t="s">
+      <c r="B110" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C110" s="20">
@@ -9846,7 +9846,7 @@
       <c r="K110" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L110" s="24" t="s">
+      <c r="L110" s="25" t="s">
         <v>38</v>
       </c>
       <c r="M110" s="20">
@@ -9875,7 +9875,7 @@
       <c r="A111" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B111" s="24"/>
+      <c r="B111" s="25"/>
       <c r="C111" s="20">
         <v>92.078300699133891</v>
       </c>
@@ -9900,7 +9900,7 @@
       <c r="K111" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L111" s="24"/>
+      <c r="L111" s="25"/>
       <c r="M111" s="20">
         <v>4.2537875162646479</v>
       </c>
@@ -9927,7 +9927,7 @@
       <c r="A112" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B112" s="24"/>
+      <c r="B112" s="25"/>
       <c r="C112" s="20">
         <v>92.315864207675318</v>
       </c>
@@ -9952,7 +9952,7 @@
       <c r="K112" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L112" s="24"/>
+      <c r="L112" s="25"/>
       <c r="M112" s="20">
         <v>4.458273108867469</v>
       </c>
@@ -9979,7 +9979,7 @@
       <c r="A113" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B113" s="24"/>
+      <c r="B113" s="25"/>
       <c r="C113" s="20">
         <v>90.674805586080666</v>
       </c>
@@ -10004,7 +10004,7 @@
       <c r="K113" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L113" s="24"/>
+      <c r="L113" s="25"/>
       <c r="M113" s="20">
         <v>5.136362329741158</v>
       </c>
@@ -10031,7 +10031,7 @@
       <c r="A114" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B114" s="24"/>
+      <c r="B114" s="25"/>
       <c r="C114" s="20">
         <v>84.438617414308737</v>
       </c>
@@ -10056,7 +10056,7 @@
       <c r="K114" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L114" s="24"/>
+      <c r="L114" s="25"/>
       <c r="M114" s="20">
         <v>7.1755928678207308</v>
       </c>
@@ -10083,7 +10083,7 @@
       <c r="A115" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B115" s="24"/>
+      <c r="B115" s="25"/>
       <c r="C115" s="20">
         <v>52.395780651614196</v>
       </c>
@@ -10108,7 +10108,7 @@
       <c r="K115" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L115" s="24"/>
+      <c r="L115" s="25"/>
       <c r="M115" s="20">
         <v>8.0449122111595432</v>
       </c>
@@ -10135,13 +10135,13 @@
       <c r="A116" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B116" s="24"/>
+      <c r="B116" s="25"/>
       <c r="C116" s="20"/>
       <c r="I116" s="6"/>
       <c r="K116" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L116" s="24"/>
+      <c r="L116" s="25"/>
       <c r="M116" s="20"/>
       <c r="S116" s="6"/>
     </row>
@@ -10149,7 +10149,7 @@
       <c r="A117" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B117" s="25"/>
+      <c r="B117" s="26"/>
       <c r="C117" s="21"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -10160,7 +10160,7 @@
       <c r="K117" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L117" s="25"/>
+      <c r="L117" s="26"/>
       <c r="M117" s="21"/>
       <c r="N117" s="8"/>
       <c r="O117" s="8"/>
@@ -10171,6 +10171,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="L28:L34"/>
+    <mergeCell ref="B76:B82"/>
+    <mergeCell ref="L76:L82"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="L51:L58"/>
+    <mergeCell ref="B64:B71"/>
+    <mergeCell ref="L64:L71"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="L43:L50"/>
+    <mergeCell ref="L83:L86"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="L17:L23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B102:B109"/>
+    <mergeCell ref="L102:L109"/>
+    <mergeCell ref="B87:B93"/>
+    <mergeCell ref="L87:L93"/>
+    <mergeCell ref="B110:B117"/>
+    <mergeCell ref="L110:L117"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="L94:L97"/>
+    <mergeCell ref="L98:L101"/>
     <mergeCell ref="B72:B75"/>
     <mergeCell ref="L13:L16"/>
     <mergeCell ref="L72:L75"/>
@@ -10187,38 +10219,6 @@
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="K63:L63"/>
     <mergeCell ref="B5:B12"/>
-    <mergeCell ref="B102:B109"/>
-    <mergeCell ref="L102:L109"/>
-    <mergeCell ref="B87:B93"/>
-    <mergeCell ref="L87:L93"/>
-    <mergeCell ref="B110:B117"/>
-    <mergeCell ref="L110:L117"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="L94:L97"/>
-    <mergeCell ref="L98:L101"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="L17:L23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="L28:L34"/>
-    <mergeCell ref="B76:B82"/>
-    <mergeCell ref="L76:L82"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="L51:L58"/>
-    <mergeCell ref="B64:B71"/>
-    <mergeCell ref="L64:L71"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="L43:L50"/>
-    <mergeCell ref="L83:L86"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="L35:L38"/>
-    <mergeCell ref="L39:L42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I12 C17:I58">

--- a/results_cnn_subnetwork_evaluation/pcc/summary.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CB9173-E113-4616-9348-5A4CE4B77A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8699E9C5-A2DB-4CD4-B6BD-56EBFA1B38CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,13 +425,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1000,7 +1000,7 @@
       <c r="K5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="26" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="10">
@@ -1054,7 +1054,7 @@
       <c r="K6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="25"/>
+      <c r="L6" s="24"/>
       <c r="M6">
         <v>3.9872752197675312</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="K7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="25"/>
+      <c r="L7" s="24"/>
       <c r="M7">
         <v>4.5335274096690847</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="K8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="25"/>
+      <c r="L8" s="24"/>
       <c r="M8">
         <v>5.1774780277668837</v>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="K9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="25"/>
+      <c r="L9" s="24"/>
       <c r="M9">
         <v>5.1380550132743084</v>
       </c>
@@ -1262,7 +1262,7 @@
       <c r="K10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="25"/>
+      <c r="L10" s="24"/>
       <c r="M10">
         <v>5.0704882397024411</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="K11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="25"/>
+      <c r="L11" s="24"/>
       <c r="M11">
         <v>4.5124657638145411</v>
       </c>
@@ -1366,7 +1366,7 @@
       <c r="K12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="26"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="8">
         <v>4.738300568518703</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="K17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="24" t="s">
         <v>45</v>
       </c>
       <c r="M17">
@@ -1686,7 +1686,7 @@
       <c r="K18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="25"/>
+      <c r="L18" s="24"/>
       <c r="M18">
         <v>4.4913349382120487</v>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="K19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="25"/>
+      <c r="L19" s="24"/>
       <c r="M19">
         <v>3.903249518826176</v>
       </c>
@@ -1790,7 +1790,7 @@
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="26"/>
+      <c r="L20" s="25"/>
       <c r="M20" s="8">
         <v>4.1769763320911357</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="26" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="10">
@@ -1844,7 +1844,7 @@
       <c r="K21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="24" t="s">
+      <c r="L21" s="26" t="s">
         <v>37</v>
       </c>
       <c r="M21" s="10">
@@ -1873,7 +1873,7 @@
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="25"/>
+      <c r="B22" s="24"/>
       <c r="C22">
         <v>92.17508801979254</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="K22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="25"/>
+      <c r="L22" s="24"/>
       <c r="M22">
         <v>3.88005959472649</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="25"/>
+      <c r="B23" s="24"/>
       <c r="C23">
         <v>92.477048532715116</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="K23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="25"/>
+      <c r="L23" s="24"/>
       <c r="M23">
         <v>3.864240917746085</v>
       </c>
@@ -1977,7 +1977,7 @@
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="25"/>
+      <c r="B24" s="24"/>
       <c r="C24">
         <v>91.959526754845044</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="K24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="25"/>
+      <c r="L24" s="24"/>
       <c r="M24">
         <v>4.0458830778429444</v>
       </c>
@@ -2029,7 +2029,7 @@
       <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="25"/>
+      <c r="B25" s="24"/>
       <c r="C25">
         <v>92.008160393544344</v>
       </c>
@@ -2054,7 +2054,7 @@
       <c r="K25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="25"/>
+      <c r="L25" s="24"/>
       <c r="M25">
         <v>4.3981754244991569</v>
       </c>
@@ -2081,7 +2081,7 @@
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="25"/>
+      <c r="B26" s="24"/>
       <c r="C26">
         <v>91.701733290657103</v>
       </c>
@@ -2106,7 +2106,7 @@
       <c r="K26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L26" s="25"/>
+      <c r="L26" s="24"/>
       <c r="M26">
         <v>4.2709415285830774</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="A27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C27">
@@ -2160,7 +2160,7 @@
       <c r="K27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="L27" s="24" t="s">
         <v>38</v>
       </c>
       <c r="M27">
@@ -2189,7 +2189,7 @@
       <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" s="24"/>
       <c r="C28">
         <v>92.602926207550809</v>
       </c>
@@ -2214,7 +2214,7 @@
       <c r="K28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="25"/>
+      <c r="L28" s="24"/>
       <c r="M28">
         <v>3.8659270470591331</v>
       </c>
@@ -2241,7 +2241,7 @@
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="25"/>
+      <c r="B29" s="24"/>
       <c r="C29">
         <v>92.780894875099861</v>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="K29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L29" s="25"/>
+      <c r="L29" s="24"/>
       <c r="M29">
         <v>4.0894051703854037</v>
       </c>
@@ -2293,7 +2293,7 @@
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="25"/>
+      <c r="B30" s="24"/>
       <c r="C30">
         <v>91.218632225768971</v>
       </c>
@@ -2318,7 +2318,7 @@
       <c r="K30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L30" s="25"/>
+      <c r="L30" s="24"/>
       <c r="M30">
         <v>4.6901081800839108</v>
       </c>
@@ -2345,7 +2345,7 @@
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="24"/>
       <c r="C31">
         <v>85.171841163562533</v>
       </c>
@@ -2370,7 +2370,7 @@
       <c r="K31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L31" s="25"/>
+      <c r="L31" s="24"/>
       <c r="M31">
         <v>6.6214001876234141</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="26"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="8">
         <v>54.901760972557433</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="K32" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="26"/>
+      <c r="L32" s="25"/>
       <c r="M32" s="8">
         <v>7.2744112975011479</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="A38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="26" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="10">
@@ -2689,7 +2689,7 @@
       <c r="K38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="24" t="s">
+      <c r="L38" s="26" t="s">
         <v>19</v>
       </c>
       <c r="M38" s="10">
@@ -2718,7 +2718,7 @@
       <c r="A39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="25"/>
+      <c r="B39" s="24"/>
       <c r="C39">
         <v>92.603782215910087</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="K39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L39" s="25"/>
+      <c r="L39" s="24"/>
       <c r="M39">
         <v>4.4405799374618198</v>
       </c>
@@ -2770,7 +2770,7 @@
       <c r="A40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="25"/>
+      <c r="B40" s="24"/>
       <c r="C40">
         <v>91.081927840808433</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="K40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="25"/>
+      <c r="L40" s="24"/>
       <c r="M40">
         <v>5.0278535681088243</v>
       </c>
@@ -2822,7 +2822,7 @@
       <c r="A41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="25"/>
+      <c r="B41" s="24"/>
       <c r="C41">
         <v>89.644638837679821</v>
       </c>
@@ -2847,7 +2847,7 @@
       <c r="K41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L41" s="25"/>
+      <c r="L41" s="24"/>
       <c r="M41">
         <v>5.6337263714853885</v>
       </c>
@@ -2874,7 +2874,7 @@
       <c r="A42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="25"/>
+      <c r="B42" s="24"/>
       <c r="C42">
         <v>89.487105403835685</v>
       </c>
@@ -2899,7 +2899,7 @@
       <c r="K42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L42" s="25"/>
+      <c r="L42" s="24"/>
       <c r="M42">
         <v>5.5869146897287463</v>
       </c>
@@ -2926,7 +2926,7 @@
       <c r="A43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="25"/>
+      <c r="B43" s="24"/>
       <c r="C43">
         <v>89.019136482146294</v>
       </c>
@@ -2951,7 +2951,7 @@
       <c r="K43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L43" s="25"/>
+      <c r="L43" s="24"/>
       <c r="M43">
         <v>5.5440228882484019</v>
       </c>
@@ -2978,7 +2978,7 @@
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="25"/>
+      <c r="B44" s="24"/>
       <c r="C44">
         <v>89.238869796493674</v>
       </c>
@@ -3003,7 +3003,7 @@
       <c r="K44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L44" s="25"/>
+      <c r="L44" s="24"/>
       <c r="M44">
         <v>4.9520431158543712</v>
       </c>
@@ -3030,7 +3030,7 @@
       <c r="A45" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="26"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="8">
         <v>87.528624354026661</v>
       </c>
@@ -3055,7 +3055,7 @@
       <c r="K45" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L45" s="26"/>
+      <c r="L45" s="25"/>
       <c r="M45" s="8">
         <v>5.0598364128504718</v>
       </c>
@@ -3082,7 +3082,7 @@
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="26" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="10">
@@ -3109,7 +3109,7 @@
       <c r="K46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L46" s="24" t="s">
+      <c r="L46" s="26" t="s">
         <v>46</v>
       </c>
       <c r="M46" s="10">
@@ -3138,7 +3138,7 @@
       <c r="A47" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="25"/>
+      <c r="B47" s="24"/>
       <c r="C47">
         <v>92.066966520323973</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="K47" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L47" s="25"/>
+      <c r="L47" s="24"/>
       <c r="M47">
         <v>4.5862361191526402</v>
       </c>
@@ -3190,7 +3190,7 @@
       <c r="A48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="25"/>
+      <c r="B48" s="24"/>
       <c r="C48">
         <v>90.767440481934031</v>
       </c>
@@ -3215,7 +3215,7 @@
       <c r="K48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L48" s="25"/>
+      <c r="L48" s="24"/>
       <c r="M48">
         <v>4.4126117660826036</v>
       </c>
@@ -3242,7 +3242,7 @@
       <c r="A49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="25"/>
+      <c r="B49" s="24"/>
       <c r="C49">
         <v>90.941629733573507</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="K49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L49" s="25"/>
+      <c r="L49" s="24"/>
       <c r="M49">
         <v>4.3072256890080602</v>
       </c>
@@ -3294,7 +3294,7 @@
       <c r="A50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C50">
@@ -3321,7 +3321,7 @@
       <c r="K50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L50" s="25" t="s">
+      <c r="L50" s="24" t="s">
         <v>45</v>
       </c>
       <c r="M50">
@@ -3350,7 +3350,7 @@
       <c r="A51" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="25"/>
+      <c r="B51" s="24"/>
       <c r="C51">
         <v>90.642246446502455</v>
       </c>
@@ -3375,7 +3375,7 @@
       <c r="K51" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L51" s="25"/>
+      <c r="L51" s="24"/>
       <c r="M51">
         <v>4.8046743223783803</v>
       </c>
@@ -3402,7 +3402,7 @@
       <c r="A52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="25"/>
+      <c r="B52" s="24"/>
       <c r="C52">
         <v>90.617152023346819</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="K52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L52" s="25"/>
+      <c r="L52" s="24"/>
       <c r="M52">
         <v>4.2750077328577394</v>
       </c>
@@ -3454,7 +3454,7 @@
       <c r="A53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="26"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="8">
         <v>90.581355357949491</v>
       </c>
@@ -3479,7 +3479,7 @@
       <c r="K53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L53" s="26"/>
+      <c r="L53" s="25"/>
       <c r="M53" s="8">
         <v>4.4778305644230976</v>
       </c>
@@ -3506,7 +3506,7 @@
       <c r="A54" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C54">
@@ -3533,7 +3533,7 @@
       <c r="K54" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L54" s="25" t="s">
+      <c r="L54" s="24" t="s">
         <v>37</v>
       </c>
       <c r="M54">
@@ -3562,7 +3562,7 @@
       <c r="A55" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="25"/>
+      <c r="B55" s="24"/>
       <c r="C55">
         <v>91.620295487522512</v>
       </c>
@@ -3587,7 +3587,7 @@
       <c r="K55" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L55" s="25"/>
+      <c r="L55" s="24"/>
       <c r="M55">
         <v>4.3650146788897359</v>
       </c>
@@ -3614,7 +3614,7 @@
       <c r="A56" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="25"/>
+      <c r="B56" s="24"/>
       <c r="C56">
         <v>91.979607726023474</v>
       </c>
@@ -3639,7 +3639,7 @@
       <c r="K56" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L56" s="25"/>
+      <c r="L56" s="24"/>
       <c r="M56">
         <v>4.3309618878369172</v>
       </c>
@@ -3666,7 +3666,7 @@
       <c r="A57" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="25"/>
+      <c r="B57" s="24"/>
       <c r="C57">
         <v>91.466501961148467</v>
       </c>
@@ -3691,7 +3691,7 @@
       <c r="K57" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="25"/>
+      <c r="L57" s="24"/>
       <c r="M57">
         <v>4.3610555153108201</v>
       </c>
@@ -3718,7 +3718,7 @@
       <c r="A58" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="25"/>
+      <c r="B58" s="24"/>
       <c r="C58">
         <v>91.512439984891671</v>
       </c>
@@ -3743,7 +3743,7 @@
       <c r="K58" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L58" s="25"/>
+      <c r="L58" s="24"/>
       <c r="M58">
         <v>4.8190181476460952</v>
       </c>
@@ -3770,7 +3770,7 @@
       <c r="A59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="25"/>
+      <c r="B59" s="24"/>
       <c r="C59">
         <v>91.290277890697695</v>
       </c>
@@ -3795,7 +3795,7 @@
       <c r="K59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L59" s="25"/>
+      <c r="L59" s="24"/>
       <c r="M59">
         <v>4.5392502289218317</v>
       </c>
@@ -3822,7 +3822,7 @@
       <c r="A60" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C60">
@@ -3849,7 +3849,7 @@
       <c r="K60" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L60" s="25" t="s">
+      <c r="L60" s="24" t="s">
         <v>38</v>
       </c>
       <c r="M60">
@@ -3878,7 +3878,7 @@
       <c r="A61" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="25"/>
+      <c r="B61" s="24"/>
       <c r="C61">
         <v>92.078300699133891</v>
       </c>
@@ -3903,7 +3903,7 @@
       <c r="K61" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="25"/>
+      <c r="L61" s="24"/>
       <c r="M61">
         <v>4.2537875162646479</v>
       </c>
@@ -3930,7 +3930,7 @@
       <c r="A62" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="25"/>
+      <c r="B62" s="24"/>
       <c r="C62">
         <v>92.315864207675318</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="K62" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L62" s="25"/>
+      <c r="L62" s="24"/>
       <c r="M62">
         <v>4.458273108867469</v>
       </c>
@@ -3982,7 +3982,7 @@
       <c r="A63" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="25"/>
+      <c r="B63" s="24"/>
       <c r="C63">
         <v>90.674805586080666</v>
       </c>
@@ -4007,7 +4007,7 @@
       <c r="K63" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L63" s="25"/>
+      <c r="L63" s="24"/>
       <c r="M63">
         <v>5.136362329741158</v>
       </c>
@@ -4034,7 +4034,7 @@
       <c r="A64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="25"/>
+      <c r="B64" s="24"/>
       <c r="C64">
         <v>84.438617414308737</v>
       </c>
@@ -4059,7 +4059,7 @@
       <c r="K64" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L64" s="25"/>
+      <c r="L64" s="24"/>
       <c r="M64">
         <v>7.1755928678207308</v>
       </c>
@@ -4086,7 +4086,7 @@
       <c r="A65" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="26"/>
+      <c r="B65" s="25"/>
       <c r="C65" s="8">
         <v>52.395780651614196</v>
       </c>
@@ -4111,7 +4111,7 @@
       <c r="K65" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L65" s="26"/>
+      <c r="L65" s="25"/>
       <c r="M65" s="8">
         <v>8.0449122111595432</v>
       </c>
@@ -4136,6 +4136,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="L21:L26"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="L27:L32"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="L13:L16"/>
     <mergeCell ref="B54:B59"/>
     <mergeCell ref="L54:L59"/>
     <mergeCell ref="B60:B65"/>
@@ -4146,16 +4156,6 @@
     <mergeCell ref="L50:L53"/>
     <mergeCell ref="L46:L49"/>
     <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="L21:L26"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="L27:L32"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="L13:L16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I32">
@@ -4179,7 +4179,7 @@
   <dimension ref="A1:S117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:I23"/>
+      <selection activeCell="A24" sqref="A24:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4404,7 +4404,7 @@
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="10">
@@ -4431,7 +4431,7 @@
       <c r="K5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="26" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="10">
@@ -4460,7 +4460,7 @@
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="24"/>
       <c r="C6">
         <v>93.053143481633342</v>
       </c>
@@ -4485,7 +4485,7 @@
       <c r="K6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="25"/>
+      <c r="L6" s="24"/>
       <c r="M6">
         <v>3.9872752197675312</v>
       </c>
@@ -4512,7 +4512,7 @@
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="24"/>
       <c r="C7">
         <v>91.579621507683157</v>
       </c>
@@ -4537,7 +4537,7 @@
       <c r="K7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="25"/>
+      <c r="L7" s="24"/>
       <c r="M7">
         <v>4.5335274096690847</v>
       </c>
@@ -4564,7 +4564,7 @@
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="24"/>
       <c r="C8">
         <v>90.212611412440125</v>
       </c>
@@ -4589,7 +4589,7 @@
       <c r="K8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="25"/>
+      <c r="L8" s="24"/>
       <c r="M8">
         <v>5.1774780277668837</v>
       </c>
@@ -4616,7 +4616,7 @@
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="24"/>
       <c r="C9">
         <v>90.084819072829347</v>
       </c>
@@ -4641,7 +4641,7 @@
       <c r="K9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="25"/>
+      <c r="L9" s="24"/>
       <c r="M9">
         <v>5.1380550132743084</v>
       </c>
@@ -4668,7 +4668,7 @@
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="24"/>
       <c r="C10">
         <v>89.661415756191658</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="K10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="25"/>
+      <c r="L10" s="24"/>
       <c r="M10">
         <v>5.0704882397024411</v>
       </c>
@@ -4720,7 +4720,7 @@
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="24"/>
       <c r="C11">
         <v>89.817152397512075</v>
       </c>
@@ -4745,7 +4745,7 @@
       <c r="K11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="25"/>
+      <c r="L11" s="24"/>
       <c r="M11">
         <v>4.5124657638145411</v>
       </c>
@@ -4772,7 +4772,7 @@
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="25"/>
       <c r="C12">
         <v>88.193943430883195</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="K12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="26"/>
+      <c r="L12" s="25"/>
       <c r="M12">
         <v>4.738300568518703</v>
       </c>
@@ -5404,7 +5404,7 @@
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="10">
@@ -5431,7 +5431,7 @@
       <c r="K24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L24" s="24" t="s">
+      <c r="L24" s="26" t="s">
         <v>28</v>
       </c>
       <c r="M24" s="10">
@@ -5460,7 +5460,7 @@
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="25"/>
+      <c r="B25" s="24"/>
       <c r="C25">
         <v>91.138051943932624</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="K25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="25"/>
+      <c r="L25" s="24"/>
       <c r="M25">
         <v>4.8341548736925946</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="25"/>
+      <c r="B26" s="24"/>
       <c r="C26">
         <v>89.464493637488204</v>
       </c>
@@ -5537,7 +5537,7 @@
       <c r="K26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L26" s="25"/>
+      <c r="L26" s="24"/>
       <c r="M26">
         <v>4.9049220966264562</v>
       </c>
@@ -5564,7 +5564,7 @@
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="25"/>
+      <c r="B27" s="24"/>
       <c r="C27">
         <v>88.032999132057071</v>
       </c>
@@ -5589,7 +5589,7 @@
       <c r="K27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L27" s="25"/>
+      <c r="L27" s="24"/>
       <c r="M27">
         <v>4.7933326181048139</v>
       </c>
@@ -5616,7 +5616,7 @@
       <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C28">
@@ -5643,7 +5643,7 @@
       <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="L28" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M28">
@@ -5672,7 +5672,7 @@
       <c r="A29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="25"/>
+      <c r="B29" s="24"/>
       <c r="C29">
         <v>84.83746110837177</v>
       </c>
@@ -5697,7 +5697,7 @@
       <c r="K29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="25"/>
+      <c r="L29" s="24"/>
       <c r="M29">
         <v>6.4398657108190296</v>
       </c>
@@ -5724,7 +5724,7 @@
       <c r="A30" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="25"/>
+      <c r="B30" s="24"/>
       <c r="C30">
         <v>89.603309717212085</v>
       </c>
@@ -5749,7 +5749,7 @@
       <c r="K30" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L30" s="25"/>
+      <c r="L30" s="24"/>
       <c r="M30">
         <v>4.6421688324031569</v>
       </c>
@@ -5776,7 +5776,7 @@
       <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="24"/>
       <c r="C31">
         <v>89.968586810151194</v>
       </c>
@@ -5801,7 +5801,7 @@
       <c r="K31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L31" s="25"/>
+      <c r="L31" s="24"/>
       <c r="M31">
         <v>4.7831146921405292</v>
       </c>
@@ -5828,7 +5828,7 @@
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="25"/>
+      <c r="B32" s="24"/>
       <c r="C32">
         <v>90.691067108423653</v>
       </c>
@@ -5853,7 +5853,7 @@
       <c r="K32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L32" s="25"/>
+      <c r="L32" s="24"/>
       <c r="M32">
         <v>5.4121743283478736</v>
       </c>
@@ -5880,7 +5880,7 @@
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="25"/>
+      <c r="B33" s="24"/>
       <c r="C33">
         <v>91.112509623785684</v>
       </c>
@@ -5905,7 +5905,7 @@
       <c r="K33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L33" s="25"/>
+      <c r="L33" s="24"/>
       <c r="M33">
         <v>4.5520179996051642</v>
       </c>
@@ -5932,7 +5932,7 @@
       <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="26"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="8">
         <v>91.827074628673245</v>
       </c>
@@ -5957,7 +5957,7 @@
       <c r="K34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L34" s="26"/>
+      <c r="L34" s="25"/>
       <c r="M34" s="8">
         <v>4.4549479265356586</v>
       </c>
@@ -5984,7 +5984,7 @@
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="19">
@@ -6011,7 +6011,7 @@
       <c r="K35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L35" s="24" t="s">
+      <c r="L35" s="26" t="s">
         <v>40</v>
       </c>
       <c r="M35" s="19">
@@ -6040,7 +6040,7 @@
       <c r="A36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="25"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="20">
         <v>91.41464891564803</v>
       </c>
@@ -6065,7 +6065,7 @@
       <c r="K36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L36" s="25"/>
+      <c r="L36" s="24"/>
       <c r="M36" s="20">
         <v>4.7612716077570836</v>
       </c>
@@ -6092,7 +6092,7 @@
       <c r="A37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="25"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="20">
         <v>91.233234428210153</v>
       </c>
@@ -6117,7 +6117,7 @@
       <c r="K37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L37" s="25"/>
+      <c r="L37" s="24"/>
       <c r="M37" s="20">
         <v>4.4196618747458274</v>
       </c>
@@ -6144,7 +6144,7 @@
       <c r="A38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="25"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="20">
         <v>91.546953981724201</v>
       </c>
@@ -6169,7 +6169,7 @@
       <c r="K38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L38" s="25"/>
+      <c r="L38" s="24"/>
       <c r="M38" s="20">
         <v>4.7471219152691706</v>
       </c>
@@ -6196,7 +6196,7 @@
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="20">
@@ -6223,7 +6223,7 @@
       <c r="K39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L39" s="25" t="s">
+      <c r="L39" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M39" s="20">
@@ -6252,7 +6252,7 @@
       <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="25"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="20">
         <v>52.716009654062759</v>
       </c>
@@ -6277,7 +6277,7 @@
       <c r="K40" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L40" s="25"/>
+      <c r="L40" s="24"/>
       <c r="M40" s="20">
         <v>6.8366536155304312</v>
       </c>
@@ -6304,7 +6304,7 @@
       <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="25"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="20">
         <v>52.535716860295793</v>
       </c>
@@ -6329,7 +6329,7 @@
       <c r="K41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L41" s="25"/>
+      <c r="L41" s="24"/>
       <c r="M41" s="20">
         <v>6.8340789655521821</v>
       </c>
@@ -6356,7 +6356,7 @@
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="25"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="20">
         <v>52.366029694605203</v>
       </c>
@@ -6381,7 +6381,7 @@
       <c r="K42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L42" s="25"/>
+      <c r="L42" s="24"/>
       <c r="M42" s="20">
         <v>6.8991486592973157</v>
       </c>
@@ -6408,7 +6408,7 @@
       <c r="A43" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="20">
@@ -6435,7 +6435,7 @@
       <c r="K43" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L43" s="25" t="s">
+      <c r="L43" s="24" t="s">
         <v>37</v>
       </c>
       <c r="M43" s="20">
@@ -6464,7 +6464,7 @@
       <c r="A44" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="25"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="20">
         <v>92.17508801979254</v>
       </c>
@@ -6489,7 +6489,7 @@
       <c r="K44" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L44" s="25"/>
+      <c r="L44" s="24"/>
       <c r="M44" s="20">
         <v>3.88005959472649</v>
       </c>
@@ -6516,7 +6516,7 @@
       <c r="A45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="25"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="20">
         <v>92.477048532715116</v>
       </c>
@@ -6541,7 +6541,7 @@
       <c r="K45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L45" s="25"/>
+      <c r="L45" s="24"/>
       <c r="M45" s="20">
         <v>3.864240917746085</v>
       </c>
@@ -6568,7 +6568,7 @@
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="25"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="20">
         <v>91.959526754845044</v>
       </c>
@@ -6593,7 +6593,7 @@
       <c r="K46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="25"/>
+      <c r="L46" s="24"/>
       <c r="M46" s="20">
         <v>4.0458830778429444</v>
       </c>
@@ -6620,7 +6620,7 @@
       <c r="A47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="25"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="20">
         <v>92.008160393544344</v>
       </c>
@@ -6645,7 +6645,7 @@
       <c r="K47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L47" s="25"/>
+      <c r="L47" s="24"/>
       <c r="M47" s="20">
         <v>4.3981754244991569</v>
       </c>
@@ -6672,7 +6672,7 @@
       <c r="A48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="25"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="20">
         <v>91.701733290657103</v>
       </c>
@@ -6697,7 +6697,7 @@
       <c r="K48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="25"/>
+      <c r="L48" s="24"/>
       <c r="M48" s="20">
         <v>4.2709415285830774</v>
       </c>
@@ -6724,7 +6724,7 @@
       <c r="A49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="25"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="20">
         <v>92.031540065225485</v>
       </c>
@@ -6749,7 +6749,7 @@
       <c r="K49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L49" s="25"/>
+      <c r="L49" s="24"/>
       <c r="M49" s="20">
         <v>4.141992411755715</v>
       </c>
@@ -6776,7 +6776,7 @@
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="25"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="20">
         <v>92.003837980143999</v>
       </c>
@@ -6801,7 +6801,7 @@
       <c r="K50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L50" s="25"/>
+      <c r="L50" s="24"/>
       <c r="M50" s="20">
         <v>4.2243659250592218</v>
       </c>
@@ -6828,7 +6828,7 @@
       <c r="A51" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C51" s="20">
@@ -6855,7 +6855,7 @@
       <c r="K51" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L51" s="25" t="s">
+      <c r="L51" s="24" t="s">
         <v>38</v>
       </c>
       <c r="M51" s="20">
@@ -6884,7 +6884,7 @@
       <c r="A52" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="25"/>
+      <c r="B52" s="24"/>
       <c r="C52" s="20">
         <v>92.602926207550809</v>
       </c>
@@ -6909,7 +6909,7 @@
       <c r="K52" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L52" s="25"/>
+      <c r="L52" s="24"/>
       <c r="M52" s="20">
         <v>3.8659270470591331</v>
       </c>
@@ -6936,7 +6936,7 @@
       <c r="A53" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B53" s="25"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="20">
         <v>92.780894875099861</v>
       </c>
@@ -6961,7 +6961,7 @@
       <c r="K53" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L53" s="25"/>
+      <c r="L53" s="24"/>
       <c r="M53" s="20">
         <v>4.0894051703854037</v>
       </c>
@@ -6988,7 +6988,7 @@
       <c r="A54" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="25"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="20">
         <v>91.218632225768971</v>
       </c>
@@ -7013,7 +7013,7 @@
       <c r="K54" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="25"/>
+      <c r="L54" s="24"/>
       <c r="M54" s="20">
         <v>4.6901081800839108</v>
       </c>
@@ -7040,7 +7040,7 @@
       <c r="A55" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="25"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="20">
         <v>85.171841163562533</v>
       </c>
@@ -7065,7 +7065,7 @@
       <c r="K55" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L55" s="25"/>
+      <c r="L55" s="24"/>
       <c r="M55" s="20">
         <v>6.6214001876234141</v>
       </c>
@@ -7092,7 +7092,7 @@
       <c r="A56" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="25"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="20">
         <v>54.901760972557433</v>
       </c>
@@ -7117,7 +7117,7 @@
       <c r="K56" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L56" s="25"/>
+      <c r="L56" s="24"/>
       <c r="M56" s="20">
         <v>7.2744112975011479</v>
       </c>
@@ -7144,13 +7144,13 @@
       <c r="A57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="25"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="20"/>
       <c r="I57" s="6"/>
       <c r="K57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L57" s="25"/>
+      <c r="L57" s="24"/>
       <c r="M57" s="20"/>
       <c r="S57" s="6"/>
     </row>
@@ -7158,7 +7158,7 @@
       <c r="A58" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="26"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="21"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -7169,7 +7169,7 @@
       <c r="K58" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L58" s="26"/>
+      <c r="L58" s="25"/>
       <c r="M58" s="21"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
@@ -7395,7 +7395,7 @@
       <c r="A64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="26" t="s">
         <v>19</v>
       </c>
       <c r="C64" s="10">
@@ -7422,7 +7422,7 @@
       <c r="K64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L64" s="24" t="s">
+      <c r="L64" s="26" t="s">
         <v>19</v>
       </c>
       <c r="M64" s="10">
@@ -7451,7 +7451,7 @@
       <c r="A65" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="25"/>
+      <c r="B65" s="24"/>
       <c r="C65">
         <v>92.603782215910087</v>
       </c>
@@ -7476,7 +7476,7 @@
       <c r="K65" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L65" s="25"/>
+      <c r="L65" s="24"/>
       <c r="M65">
         <v>4.4405799374618198</v>
       </c>
@@ -7503,7 +7503,7 @@
       <c r="A66" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="25"/>
+      <c r="B66" s="24"/>
       <c r="C66">
         <v>91.081927840808433</v>
       </c>
@@ -7528,7 +7528,7 @@
       <c r="K66" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L66" s="25"/>
+      <c r="L66" s="24"/>
       <c r="M66">
         <v>5.0278535681088243</v>
       </c>
@@ -7555,7 +7555,7 @@
       <c r="A67" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="25"/>
+      <c r="B67" s="24"/>
       <c r="C67">
         <v>89.644638837679821</v>
       </c>
@@ -7580,7 +7580,7 @@
       <c r="K67" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L67" s="25"/>
+      <c r="L67" s="24"/>
       <c r="M67">
         <v>5.6337263714853885</v>
       </c>
@@ -7607,7 +7607,7 @@
       <c r="A68" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="25"/>
+      <c r="B68" s="24"/>
       <c r="C68">
         <v>89.487105403835685</v>
       </c>
@@ -7632,7 +7632,7 @@
       <c r="K68" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L68" s="25"/>
+      <c r="L68" s="24"/>
       <c r="M68">
         <v>5.5869146897287463</v>
       </c>
@@ -7659,7 +7659,7 @@
       <c r="A69" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="25"/>
+      <c r="B69" s="24"/>
       <c r="C69">
         <v>89.019136482146294</v>
       </c>
@@ -7684,7 +7684,7 @@
       <c r="K69" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L69" s="25"/>
+      <c r="L69" s="24"/>
       <c r="M69">
         <v>5.5440228882484019</v>
       </c>
@@ -7711,7 +7711,7 @@
       <c r="A70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="25"/>
+      <c r="B70" s="24"/>
       <c r="C70">
         <v>89.238869796493674</v>
       </c>
@@ -7736,7 +7736,7 @@
       <c r="K70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L70" s="25"/>
+      <c r="L70" s="24"/>
       <c r="M70">
         <v>4.9520431158543712</v>
       </c>
@@ -7763,7 +7763,7 @@
       <c r="A71" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="25"/>
+      <c r="B71" s="24"/>
       <c r="C71">
         <v>87.528624354026661</v>
       </c>
@@ -7788,7 +7788,7 @@
       <c r="K71" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L71" s="25"/>
+      <c r="L71" s="24"/>
       <c r="M71">
         <v>5.0598364128504718</v>
       </c>
@@ -8395,7 +8395,7 @@
       <c r="A83" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C83" s="19">
@@ -8422,7 +8422,7 @@
       <c r="K83" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L83" s="24" t="s">
+      <c r="L83" s="26" t="s">
         <v>28</v>
       </c>
       <c r="M83" s="19">
@@ -8451,7 +8451,7 @@
       <c r="A84" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="25"/>
+      <c r="B84" s="24"/>
       <c r="C84" s="20">
         <v>90.753018873298217</v>
       </c>
@@ -8476,7 +8476,7 @@
       <c r="K84" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L84" s="25"/>
+      <c r="L84" s="24"/>
       <c r="M84" s="20">
         <v>5.1087302616689314</v>
       </c>
@@ -8503,7 +8503,7 @@
       <c r="A85" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="25"/>
+      <c r="B85" s="24"/>
       <c r="C85" s="20">
         <v>88.959040489692839</v>
       </c>
@@ -8528,7 +8528,7 @@
       <c r="K85" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L85" s="25"/>
+      <c r="L85" s="24"/>
       <c r="M85" s="20">
         <v>5.2249135280576802</v>
       </c>
@@ -8555,7 +8555,7 @@
       <c r="A86" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="25"/>
+      <c r="B86" s="24"/>
       <c r="C86" s="20">
         <v>87.426198957053913</v>
       </c>
@@ -8580,7 +8580,7 @@
       <c r="K86" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L86" s="25"/>
+      <c r="L86" s="24"/>
       <c r="M86" s="20">
         <v>5.0521972348656563</v>
       </c>
@@ -8607,7 +8607,7 @@
       <c r="A87" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B87" s="25" t="s">
+      <c r="B87" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C87" s="20">
@@ -8634,7 +8634,7 @@
       <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L87" s="25" t="s">
+      <c r="L87" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M87" s="20">
@@ -8663,7 +8663,7 @@
       <c r="A88" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="25"/>
+      <c r="B88" s="24"/>
       <c r="C88" s="20">
         <v>84.199090152702041</v>
       </c>
@@ -8688,7 +8688,7 @@
       <c r="K88" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L88" s="25"/>
+      <c r="L88" s="24"/>
       <c r="M88" s="20">
         <v>6.8541808049040309</v>
       </c>
@@ -8715,7 +8715,7 @@
       <c r="A89" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B89" s="25"/>
+      <c r="B89" s="24"/>
       <c r="C89" s="20">
         <v>89.131692863681508</v>
       </c>
@@ -8740,7 +8740,7 @@
       <c r="K89" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L89" s="25"/>
+      <c r="L89" s="24"/>
       <c r="M89" s="20">
         <v>4.9480273201097891</v>
       </c>
@@ -8767,7 +8767,7 @@
       <c r="A90" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B90" s="25"/>
+      <c r="B90" s="24"/>
       <c r="C90" s="20">
         <v>89.343160521159632</v>
       </c>
@@ -8792,7 +8792,7 @@
       <c r="K90" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L90" s="25"/>
+      <c r="L90" s="24"/>
       <c r="M90" s="20">
         <v>5.1733129187131341</v>
       </c>
@@ -8819,7 +8819,7 @@
       <c r="A91" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B91" s="25"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="20">
         <v>90.136569338183705</v>
       </c>
@@ -8844,7 +8844,7 @@
       <c r="K91" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L91" s="25"/>
+      <c r="L91" s="24"/>
       <c r="M91" s="20">
         <v>5.9292139017037657</v>
       </c>
@@ -8871,7 +8871,7 @@
       <c r="A92" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B92" s="25"/>
+      <c r="B92" s="24"/>
       <c r="C92" s="20">
         <v>90.588436953510907</v>
       </c>
@@ -8896,7 +8896,7 @@
       <c r="K92" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L92" s="25"/>
+      <c r="L92" s="24"/>
       <c r="M92" s="20">
         <v>4.9553180055876025</v>
       </c>
@@ -8923,7 +8923,7 @@
       <c r="A93" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B93" s="26"/>
+      <c r="B93" s="25"/>
       <c r="C93" s="21">
         <v>91.279707682254013</v>
       </c>
@@ -8948,7 +8948,7 @@
       <c r="K93" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L93" s="26"/>
+      <c r="L93" s="25"/>
       <c r="M93" s="21">
         <v>4.8729900980426155</v>
       </c>
@@ -8975,7 +8975,7 @@
       <c r="A94" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B94" s="25" t="s">
+      <c r="B94" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C94" s="19">
@@ -9002,7 +9002,7 @@
       <c r="K94" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L94" s="25" t="s">
+      <c r="L94" s="24" t="s">
         <v>40</v>
       </c>
       <c r="M94" s="19">
@@ -9031,7 +9031,7 @@
       <c r="A95" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B95" s="25"/>
+      <c r="B95" s="24"/>
       <c r="C95" s="20">
         <v>90.798486800636638</v>
       </c>
@@ -9056,7 +9056,7 @@
       <c r="K95" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L95" s="25"/>
+      <c r="L95" s="24"/>
       <c r="M95" s="20">
         <v>5.2932815526512469</v>
       </c>
@@ -9083,7 +9083,7 @@
       <c r="A96" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B96" s="25"/>
+      <c r="B96" s="24"/>
       <c r="C96" s="20">
         <v>90.673356959843161</v>
       </c>
@@ -9108,7 +9108,7 @@
       <c r="K96" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L96" s="25"/>
+      <c r="L96" s="24"/>
       <c r="M96" s="20">
         <v>4.8285295071773948</v>
       </c>
@@ -9135,7 +9135,7 @@
       <c r="A97" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B97" s="25"/>
+      <c r="B97" s="24"/>
       <c r="C97" s="20">
         <v>90.958412939664441</v>
       </c>
@@ -9160,7 +9160,7 @@
       <c r="K97" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L97" s="25"/>
+      <c r="L97" s="24"/>
       <c r="M97" s="20">
         <v>5.1541580479767326</v>
       </c>
@@ -9187,7 +9187,7 @@
       <c r="A98" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B98" s="25" t="s">
+      <c r="B98" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C98" s="20">
@@ -9214,7 +9214,7 @@
       <c r="K98" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L98" s="25" t="s">
+      <c r="L98" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M98" s="20">
@@ -9243,7 +9243,7 @@
       <c r="A99" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B99" s="25"/>
+      <c r="B99" s="24"/>
       <c r="C99" s="20">
         <v>50.941111349179067</v>
       </c>
@@ -9268,7 +9268,7 @@
       <c r="K99" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L99" s="25"/>
+      <c r="L99" s="24"/>
       <c r="M99" s="20">
         <v>7.011785584075886</v>
       </c>
@@ -9295,7 +9295,7 @@
       <c r="A100" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B100" s="25"/>
+      <c r="B100" s="24"/>
       <c r="C100" s="20">
         <v>50.774538030339485</v>
       </c>
@@ -9320,7 +9320,7 @@
       <c r="K100" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L100" s="25"/>
+      <c r="L100" s="24"/>
       <c r="M100" s="20">
         <v>6.9429966926602082</v>
       </c>
@@ -9347,7 +9347,7 @@
       <c r="A101" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B101" s="25"/>
+      <c r="B101" s="24"/>
       <c r="C101" s="20">
         <v>50.563986632895208</v>
       </c>
@@ -9372,7 +9372,7 @@
       <c r="K101" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L101" s="25"/>
+      <c r="L101" s="24"/>
       <c r="M101" s="20">
         <v>7.0940911411783212</v>
       </c>
@@ -9399,7 +9399,7 @@
       <c r="A102" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B102" s="25" t="s">
+      <c r="B102" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C102" s="20">
@@ -9426,7 +9426,7 @@
       <c r="K102" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L102" s="25" t="s">
+      <c r="L102" s="24" t="s">
         <v>37</v>
       </c>
       <c r="M102" s="20">
@@ -9455,7 +9455,7 @@
       <c r="A103" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B103" s="25"/>
+      <c r="B103" s="24"/>
       <c r="C103" s="20">
         <v>91.620295487522512</v>
       </c>
@@ -9480,7 +9480,7 @@
       <c r="K103" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L103" s="25"/>
+      <c r="L103" s="24"/>
       <c r="M103" s="20">
         <v>4.3650146788897359</v>
       </c>
@@ -9507,7 +9507,7 @@
       <c r="A104" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B104" s="25"/>
+      <c r="B104" s="24"/>
       <c r="C104" s="20">
         <v>91.979607726023474</v>
       </c>
@@ -9532,7 +9532,7 @@
       <c r="K104" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L104" s="25"/>
+      <c r="L104" s="24"/>
       <c r="M104" s="20">
         <v>4.3309618878369172</v>
       </c>
@@ -9559,7 +9559,7 @@
       <c r="A105" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B105" s="25"/>
+      <c r="B105" s="24"/>
       <c r="C105" s="20">
         <v>91.466501961148467</v>
       </c>
@@ -9584,7 +9584,7 @@
       <c r="K105" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L105" s="25"/>
+      <c r="L105" s="24"/>
       <c r="M105" s="20">
         <v>4.3610555153108201</v>
       </c>
@@ -9611,7 +9611,7 @@
       <c r="A106" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B106" s="25"/>
+      <c r="B106" s="24"/>
       <c r="C106" s="20">
         <v>91.512439984891671</v>
       </c>
@@ -9636,7 +9636,7 @@
       <c r="K106" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L106" s="25"/>
+      <c r="L106" s="24"/>
       <c r="M106" s="20">
         <v>4.8190181476460952</v>
       </c>
@@ -9663,7 +9663,7 @@
       <c r="A107" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B107" s="25"/>
+      <c r="B107" s="24"/>
       <c r="C107" s="20">
         <v>91.290277890697695</v>
       </c>
@@ -9688,7 +9688,7 @@
       <c r="K107" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L107" s="25"/>
+      <c r="L107" s="24"/>
       <c r="M107" s="20">
         <v>4.5392502289218317</v>
       </c>
@@ -9715,7 +9715,7 @@
       <c r="A108" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B108" s="25"/>
+      <c r="B108" s="24"/>
       <c r="C108" s="20">
         <v>91.51041821661444</v>
       </c>
@@ -9740,7 +9740,7 @@
       <c r="K108" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L108" s="25"/>
+      <c r="L108" s="24"/>
       <c r="M108" s="20">
         <v>4.5913740128900846</v>
       </c>
@@ -9767,7 +9767,7 @@
       <c r="A109" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B109" s="25"/>
+      <c r="B109" s="24"/>
       <c r="C109" s="20">
         <v>91.468946397839332</v>
       </c>
@@ -9792,7 +9792,7 @@
       <c r="K109" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L109" s="25"/>
+      <c r="L109" s="24"/>
       <c r="M109" s="20">
         <v>4.6536973858508697</v>
       </c>
@@ -9819,7 +9819,7 @@
       <c r="A110" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B110" s="25" t="s">
+      <c r="B110" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C110" s="20">
@@ -9846,7 +9846,7 @@
       <c r="K110" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L110" s="25" t="s">
+      <c r="L110" s="24" t="s">
         <v>38</v>
       </c>
       <c r="M110" s="20">
@@ -9875,7 +9875,7 @@
       <c r="A111" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B111" s="25"/>
+      <c r="B111" s="24"/>
       <c r="C111" s="20">
         <v>92.078300699133891</v>
       </c>
@@ -9900,7 +9900,7 @@
       <c r="K111" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L111" s="25"/>
+      <c r="L111" s="24"/>
       <c r="M111" s="20">
         <v>4.2537875162646479</v>
       </c>
@@ -9927,7 +9927,7 @@
       <c r="A112" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B112" s="25"/>
+      <c r="B112" s="24"/>
       <c r="C112" s="20">
         <v>92.315864207675318</v>
       </c>
@@ -9952,7 +9952,7 @@
       <c r="K112" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L112" s="25"/>
+      <c r="L112" s="24"/>
       <c r="M112" s="20">
         <v>4.458273108867469</v>
       </c>
@@ -9979,7 +9979,7 @@
       <c r="A113" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B113" s="25"/>
+      <c r="B113" s="24"/>
       <c r="C113" s="20">
         <v>90.674805586080666</v>
       </c>
@@ -10004,7 +10004,7 @@
       <c r="K113" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L113" s="25"/>
+      <c r="L113" s="24"/>
       <c r="M113" s="20">
         <v>5.136362329741158</v>
       </c>
@@ -10031,7 +10031,7 @@
       <c r="A114" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B114" s="25"/>
+      <c r="B114" s="24"/>
       <c r="C114" s="20">
         <v>84.438617414308737</v>
       </c>
@@ -10056,7 +10056,7 @@
       <c r="K114" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L114" s="25"/>
+      <c r="L114" s="24"/>
       <c r="M114" s="20">
         <v>7.1755928678207308</v>
       </c>
@@ -10083,7 +10083,7 @@
       <c r="A115" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B115" s="25"/>
+      <c r="B115" s="24"/>
       <c r="C115" s="20">
         <v>52.395780651614196</v>
       </c>
@@ -10108,7 +10108,7 @@
       <c r="K115" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L115" s="25"/>
+      <c r="L115" s="24"/>
       <c r="M115" s="20">
         <v>8.0449122111595432</v>
       </c>
@@ -10135,13 +10135,13 @@
       <c r="A116" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B116" s="25"/>
+      <c r="B116" s="24"/>
       <c r="C116" s="20"/>
       <c r="I116" s="6"/>
       <c r="K116" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L116" s="25"/>
+      <c r="L116" s="24"/>
       <c r="M116" s="20"/>
       <c r="S116" s="6"/>
     </row>
@@ -10149,7 +10149,7 @@
       <c r="A117" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B117" s="26"/>
+      <c r="B117" s="25"/>
       <c r="C117" s="21"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -10160,7 +10160,7 @@
       <c r="K117" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L117" s="26"/>
+      <c r="L117" s="25"/>
       <c r="M117" s="21"/>
       <c r="N117" s="8"/>
       <c r="O117" s="8"/>
@@ -10171,6 +10171,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="L72:L75"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B102:B109"/>
+    <mergeCell ref="L102:L109"/>
+    <mergeCell ref="B87:B93"/>
+    <mergeCell ref="L87:L93"/>
+    <mergeCell ref="B110:B117"/>
+    <mergeCell ref="L110:L117"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="L94:L97"/>
+    <mergeCell ref="L98:L101"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="L17:L23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="B13:B16"/>
     <mergeCell ref="B28:B34"/>
     <mergeCell ref="L28:L34"/>
     <mergeCell ref="B76:B82"/>
@@ -10187,38 +10219,6 @@
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="L35:L38"/>
     <mergeCell ref="L39:L42"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="L17:L23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B102:B109"/>
-    <mergeCell ref="L102:L109"/>
-    <mergeCell ref="B87:B93"/>
-    <mergeCell ref="L87:L93"/>
-    <mergeCell ref="B110:B117"/>
-    <mergeCell ref="L110:L117"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="L94:L97"/>
-    <mergeCell ref="L98:L101"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="L72:L75"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="B5:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I12 C17:I58">
